--- a/results/11-2020/fim.xlsx
+++ b/results/11-2020/fim.xlsx
@@ -1071,7 +1071,7 @@
         <v>0.01442262519966175</v>
       </c>
       <c r="M2">
-        <v>631.7000000000001</v>
+        <v>631.7</v>
       </c>
       <c r="N2">
         <v>0.01106259097525486</v>
@@ -1268,7 +1268,7 @@
         <v>-1.85395593797823</v>
       </c>
       <c r="D3">
-        <v>-0.1722827996092201</v>
+        <v>-0.17228279960922</v>
       </c>
       <c r="E3">
         <v>-1.68167313836901</v>
@@ -1508,7 +1508,7 @@
         <v>-1.367467536507519</v>
       </c>
       <c r="CK3">
-        <v>-0.6878729633281751</v>
+        <v>-0.687872963328175</v>
       </c>
       <c r="CL3">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>-7.195589045560126</v>
       </c>
       <c r="CR4">
-        <v>0.4301426453833273</v>
+        <v>0.4301426453833272</v>
       </c>
       <c r="CS4">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0.01309141019751947</v>
       </c>
       <c r="M5">
-        <v>660.2000000000001</v>
+        <v>660.2</v>
       </c>
       <c r="N5">
         <v>0.01297466850434859</v>
@@ -2151,7 +2151,7 @@
         <v>0.1515111179785436</v>
       </c>
       <c r="CP5">
-        <v>0.3165871298083332</v>
+        <v>0.3165871298083331</v>
       </c>
       <c r="CQ5">
         <v>-2.458918774879464</v>
@@ -2237,7 +2237,7 @@
         <v>0.01514395828610282</v>
       </c>
       <c r="M6">
-        <v>679.2000000000001</v>
+        <v>679.2</v>
       </c>
       <c r="N6">
         <v>0.009477338838322247</v>
@@ -2504,7 +2504,7 @@
         <v>0.004219790945474533</v>
       </c>
       <c r="DB6">
-        <v>0.2399349583115217</v>
+        <v>0.2399349583115216</v>
       </c>
       <c r="DC6">
         <v>0.2011078933241372</v>
@@ -2513,7 +2513,7 @@
         <v>0.03882706498738464</v>
       </c>
       <c r="DW6">
-        <v>0.2399349583115217</v>
+        <v>0.2399349583115216</v>
       </c>
       <c r="DX6">
         <v>0.03882706498738464</v>
@@ -2566,7 +2566,7 @@
         <v>0.01339943722363657</v>
       </c>
       <c r="M7">
-        <v>693.2000000000001</v>
+        <v>693.2</v>
       </c>
       <c r="N7">
         <v>0.01138687488380752</v>
@@ -2593,7 +2593,7 @@
         <v>131.9</v>
       </c>
       <c r="W7">
-        <v>0.01804835342447309</v>
+        <v>0.01804835342447308</v>
       </c>
       <c r="X7">
         <v>0.01869752346010034</v>
@@ -2605,7 +2605,7 @@
         <v>0.01867487831528769</v>
       </c>
       <c r="AA7">
-        <v>0.01804835342447309</v>
+        <v>0.01804835342447308</v>
       </c>
       <c r="AB7">
         <v>0.01869752346010034</v>
@@ -2865,7 +2865,7 @@
         <v>26206</v>
       </c>
       <c r="B8">
-        <v>-0.667880407533951</v>
+        <v>-0.6678804075339509</v>
       </c>
       <c r="C8">
         <v>-1.029915201009288</v>
@@ -3147,7 +3147,7 @@
         <v>0.08021058594994956</v>
       </c>
       <c r="CW8">
-        <v>-0.1356303890061597</v>
+        <v>-0.1356303890061596</v>
       </c>
       <c r="CX8">
         <v>1.326582515136494</v>
@@ -3165,7 +3165,7 @@
         <v>0.2471424480700279</v>
       </c>
       <c r="DC8">
-        <v>0.2056960960931721</v>
+        <v>0.205696096093172</v>
       </c>
       <c r="DD8">
         <v>0.0414463519768555</v>
@@ -3186,7 +3186,7 @@
         <v>0.0414463519768555</v>
       </c>
       <c r="DY8">
-        <v>0.2056960960931721</v>
+        <v>0.205696096093172</v>
       </c>
       <c r="DZ8">
         <v>0.01433757743729326</v>
@@ -3233,7 +3233,7 @@
         <v>0.008290788497621771</v>
       </c>
       <c r="M9">
-        <v>721.7000000000001</v>
+        <v>721.7</v>
       </c>
       <c r="N9">
         <v>0.006188850967007831</v>
@@ -3245,7 +3245,7 @@
         <v>23.7</v>
       </c>
       <c r="R9">
-        <v>4.1542942492</v>
+        <v>4.154294249199999</v>
       </c>
       <c r="S9">
         <v>19.5457057508</v>
@@ -3254,7 +3254,7 @@
         <v>5.644</v>
       </c>
       <c r="U9">
-        <v>0.02032969673667529</v>
+        <v>0.02032969673667528</v>
       </c>
       <c r="V9">
         <v>137.4</v>
@@ -3269,7 +3269,7 @@
         <v>0.01726152538772041</v>
       </c>
       <c r="Z9">
-        <v>0.02032969673667529</v>
+        <v>0.02032969673667528</v>
       </c>
       <c r="AA9">
         <v>0.010958904109589</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>4.1542942492</v>
+        <v>4.154294249199999</v>
       </c>
       <c r="AR9">
         <v>12.4542942492</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="BY10">
-        <v>0.04508291708594781</v>
+        <v>0.0450829170859478</v>
       </c>
       <c r="BZ10">
         <v>-0.2380802515479038</v>
@@ -3763,7 +3763,7 @@
         <v>-0.03056565051597627</v>
       </c>
       <c r="CC10">
-        <v>0.04508291708594781</v>
+        <v>0.0450829170859478</v>
       </c>
       <c r="CD10">
         <v>-0.04781278947700436</v>
@@ -3799,7 +3799,7 @@
         <v>1.416676571328459</v>
       </c>
       <c r="CO10">
-        <v>0.08600015299834674</v>
+        <v>0.08600015299834673</v>
       </c>
       <c r="CP10">
         <v>0.4982057927341614</v>
@@ -3963,7 +3963,7 @@
         <v>5.216</v>
       </c>
       <c r="U11">
-        <v>0.01008867173362305</v>
+        <v>0.01008867173362304</v>
       </c>
       <c r="V11">
         <v>142.2</v>
@@ -3978,7 +3978,7 @@
         <v>0.007011032065161293</v>
       </c>
       <c r="Z11">
-        <v>0.01008867173362305</v>
+        <v>0.01008867173362304</v>
       </c>
       <c r="AA11">
         <v>0.0118025751072961</v>
@@ -4152,7 +4152,7 @@
         <v>0.1817856667657729</v>
       </c>
       <c r="CI11">
-        <v>-1.31837443312071</v>
+        <v>-1.318374433120709</v>
       </c>
       <c r="CJ11">
         <v>2.611370778816877</v>
@@ -4325,7 +4325,7 @@
         <v>25.6</v>
       </c>
       <c r="R12">
-        <v>4.7034159208</v>
+        <v>4.703415920799999</v>
       </c>
       <c r="S12">
         <v>20.8965840792</v>
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="AQ12">
-        <v>4.7034159208</v>
+        <v>4.703415920799999</v>
       </c>
       <c r="AR12">
         <v>13.6034159208</v>
@@ -4568,7 +4568,7 @@
         <v>-0.9305066578207288</v>
       </c>
       <c r="CX12">
-        <v>0.2740024268215962</v>
+        <v>0.2740024268215961</v>
       </c>
       <c r="CY12">
         <v>0.117599387491949</v>
@@ -4622,7 +4622,7 @@
         <v>-0.437944159680631</v>
       </c>
       <c r="DS12">
-        <v>-0.7405351532929299</v>
+        <v>-0.7405351532929298</v>
       </c>
       <c r="DW12">
         <v>-1.135903928146542</v>
@@ -4678,7 +4678,7 @@
         <v>0.01905125875562974</v>
       </c>
       <c r="K13">
-        <v>0.007723379586340951</v>
+        <v>0.00772337958634095</v>
       </c>
       <c r="L13">
         <v>0.01132787916928879</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="CM13">
-        <v>-0.89186895522435</v>
+        <v>-0.8918689552243499</v>
       </c>
       <c r="CN13">
         <v>-0.212460272774635</v>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="DQ13">
-        <v>-1.381878357068797</v>
+        <v>-1.381878357068796</v>
       </c>
       <c r="DR13">
         <v>-0.6483666612665375</v>
@@ -4996,7 +4996,7 @@
         <v>-0.7335116958022527</v>
       </c>
       <c r="DW13">
-        <v>0.3438739114439569</v>
+        <v>0.3438739114439568</v>
       </c>
       <c r="DX13">
         <v>-0.9871295163439546</v>
@@ -5238,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="BY14">
-        <v>0.2337940665738272</v>
+        <v>0.2337940665738271</v>
       </c>
       <c r="BZ14">
         <v>-0.1610505563215463</v>
@@ -5250,7 +5250,7 @@
         <v>-0.03466802932699505</v>
       </c>
       <c r="CC14">
-        <v>0.2337940665738272</v>
+        <v>0.2337940665738271</v>
       </c>
       <c r="CD14">
         <v>-1.847477859288548</v>
@@ -5271,10 +5271,10 @@
         <v>0.2904982423963531</v>
       </c>
       <c r="CJ14">
-        <v>9.706407633998254</v>
+        <v>9.706407633998253</v>
       </c>
       <c r="CK14">
-        <v>2.15320989618612</v>
+        <v>2.153209896186119</v>
       </c>
       <c r="CL14">
         <v>0</v>
@@ -5292,7 +5292,7 @@
         <v>0.6911547556424509</v>
       </c>
       <c r="CQ14">
-        <v>9.322568745375691</v>
+        <v>9.32256874537569</v>
       </c>
       <c r="CR14">
         <v>1.967316364075934</v>
@@ -5391,7 +5391,7 @@
         <v>-1.124454538194348</v>
       </c>
       <c r="DX14">
-        <v>-1.146553125347033</v>
+        <v>-1.146553125347032</v>
       </c>
       <c r="DY14">
         <v>0.02209858715268519</v>
@@ -5959,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="AU16">
-        <v>66.37600000000001</v>
+        <v>66.376</v>
       </c>
       <c r="AV16">
         <v>111</v>
@@ -6492,7 +6492,7 @@
         <v>0.2559503698288772</v>
       </c>
       <c r="CP17">
-        <v>-0.7121041573634273</v>
+        <v>-0.7121041573634272</v>
       </c>
       <c r="CQ17">
         <v>0.909475780622671</v>
@@ -6603,7 +6603,7 @@
         <v>-0.07026966701586021</v>
       </c>
       <c r="EA17">
-        <v>-0.5364419855925821</v>
+        <v>-0.536441985592582</v>
       </c>
       <c r="EB17">
         <v>0.08943459244414496</v>
@@ -6695,7 +6695,7 @@
         <v>0.02428020184030877</v>
       </c>
       <c r="Y18">
-        <v>0.04636363636363639</v>
+        <v>0.04636363636363638</v>
       </c>
       <c r="Z18">
         <v>0.01024689365822185</v>
@@ -6707,7 +6707,7 @@
         <v>0.02428020184030877</v>
       </c>
       <c r="AC18">
-        <v>0.04636363636363639</v>
+        <v>0.04636363636363638</v>
       </c>
       <c r="AD18">
         <v>11.7</v>
@@ -6890,7 +6890,7 @@
         <v>-1.173257465001704</v>
       </c>
       <c r="CO18">
-        <v>0.5676124451851941</v>
+        <v>0.567612445185194</v>
       </c>
       <c r="CP18">
         <v>1.329441865721066</v>
@@ -6971,7 +6971,7 @@
         <v>0.04999186796487212</v>
       </c>
       <c r="DP18">
-        <v>-0.02761101384255287</v>
+        <v>-0.02761101384255286</v>
       </c>
       <c r="DQ18">
         <v>-0.05318137145290278</v>
@@ -7010,7 +7010,7 @@
         <v>0.05893546256798168</v>
       </c>
       <c r="EC18">
-        <v>-0.1111572229393145</v>
+        <v>-0.1111572229393144</v>
       </c>
       <c r="ED18">
         <v>-0.01440936705355356</v>
@@ -7249,10 +7249,10 @@
         <v>0.1900615564640025</v>
       </c>
       <c r="CA19">
-        <v>-0.1856498224475738</v>
+        <v>-0.1856498224475737</v>
       </c>
       <c r="CB19">
-        <v>0.06867076785457874</v>
+        <v>0.06867076785457873</v>
       </c>
       <c r="CC19">
         <v>-0.5092531373136677</v>
@@ -7264,7 +7264,7 @@
         <v>0.1900615564640025</v>
       </c>
       <c r="CF19">
-        <v>-0.3191915808496652</v>
+        <v>-0.3191915808496651</v>
       </c>
       <c r="CG19">
         <v>-0.833544727204083</v>
@@ -7300,7 +7300,7 @@
         <v>-1.11300072305113</v>
       </c>
       <c r="CR19">
-        <v>0.5126186673798046</v>
+        <v>0.5126186673798045</v>
       </c>
       <c r="CS19">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>0.5421863179241662</v>
       </c>
       <c r="CX19">
-        <v>-0.8703558763872366</v>
+        <v>-0.8703558763872365</v>
       </c>
       <c r="CY19">
         <v>0.06629672739285475</v>
@@ -7381,7 +7381,7 @@
         <v>-0.3994239605186226</v>
       </c>
       <c r="DS19">
-        <v>0.694151674200496</v>
+        <v>0.6941516742004959</v>
       </c>
       <c r="DT19">
         <v>-0.1455707550174123</v>
@@ -7647,7 +7647,7 @@
         <v>-0.09553084694038</v>
       </c>
       <c r="BZ20">
-        <v>-0.5040698759635675</v>
+        <v>-0.5040698759635674</v>
       </c>
       <c r="CA20">
         <v>0.02412924288290787</v>
@@ -7662,7 +7662,7 @@
         <v>-0.6811938897289931</v>
       </c>
       <c r="CE20">
-        <v>-0.5040698759635675</v>
+        <v>-0.5040698759635674</v>
       </c>
       <c r="CF20">
         <v>-0.5996007229039474</v>
@@ -7716,7 +7716,7 @@
         <v>-0.04135920731498022</v>
       </c>
       <c r="CW20">
-        <v>0.2695051387760366</v>
+        <v>0.2695051387760365</v>
       </c>
       <c r="CX20">
         <v>-0.6211770726835368</v>
@@ -7868,7 +7868,7 @@
         <v>959.1</v>
       </c>
       <c r="N21">
-        <v>0.02541386688689507</v>
+        <v>0.02541386688689506</v>
       </c>
       <c r="O21">
         <v>167.4</v>
@@ -8266,7 +8266,7 @@
         <v>0.02259807705803918</v>
       </c>
       <c r="M22">
-        <v>985.2000000000001</v>
+        <v>985.2</v>
       </c>
       <c r="N22">
         <v>0.01881681066041874</v>
@@ -8542,13 +8542,13 @@
         <v>0.2048621945562753</v>
       </c>
       <c r="DE22">
-        <v>3.363559599373605</v>
+        <v>3.363559599373604</v>
       </c>
       <c r="DF22">
         <v>1.585059413502637</v>
       </c>
       <c r="DG22">
-        <v>1.778500185870966</v>
+        <v>1.778500185870965</v>
       </c>
       <c r="DH22">
         <v>2.255199361834992</v>
@@ -8697,7 +8697,7 @@
         <v>0.01981164300004901</v>
       </c>
       <c r="X23">
-        <v>0.02406038685327872</v>
+        <v>0.02406038685327871</v>
       </c>
       <c r="Y23">
         <v>0.004947813211022334</v>
@@ -8709,7 +8709,7 @@
         <v>0.01981164300004901</v>
       </c>
       <c r="AB23">
-        <v>0.02406038685327872</v>
+        <v>0.02406038685327871</v>
       </c>
       <c r="AC23">
         <v>0.004947813211022334</v>
@@ -8883,7 +8883,7 @@
         <v>-40.00959101718502</v>
       </c>
       <c r="CK23">
-        <v>2.43721508332137</v>
+        <v>2.437215083321369</v>
       </c>
       <c r="CL23">
         <v>0</v>
@@ -8970,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="DN23">
-        <v>0.3563659780198945</v>
+        <v>0.3563659780198944</v>
       </c>
       <c r="DO23">
         <v>0.3420524663702466</v>
@@ -9296,7 +9296,7 @@
         <v>0.1910517654764297</v>
       </c>
       <c r="CO24">
-        <v>0.1940336216409087</v>
+        <v>0.1940336216409086</v>
       </c>
       <c r="CP24">
         <v>-0.2749864475468513</v>
@@ -9320,25 +9320,25 @@
         <v>-0.1646430853442142</v>
       </c>
       <c r="CW24">
-        <v>-1.315423229304678</v>
+        <v>-1.315423229304677</v>
       </c>
       <c r="CX24">
         <v>0.2798163821219646</v>
       </c>
       <c r="CY24">
-        <v>1.424619915157178</v>
+        <v>1.424619915157177</v>
       </c>
       <c r="CZ24">
         <v>0</v>
       </c>
       <c r="DA24">
-        <v>0.8280736553473465</v>
+        <v>0.8280736553473464</v>
       </c>
       <c r="DB24">
         <v>0.5484214314780175</v>
       </c>
       <c r="DC24">
-        <v>0.3988785267189997</v>
+        <v>0.3988785267189996</v>
       </c>
       <c r="DD24">
         <v>0.149542904759019</v>
@@ -9374,7 +9374,7 @@
         <v>0.06217942017491419</v>
       </c>
       <c r="DO24">
-        <v>0.09143325944744069</v>
+        <v>0.09143325944744068</v>
       </c>
       <c r="DP24">
         <v>-0.02925383927252672</v>
@@ -9691,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="CM25">
-        <v>-1.89621288599874</v>
+        <v>-1.896212885998739</v>
       </c>
       <c r="CN25">
         <v>0.2919140248319572</v>
@@ -9790,7 +9790,7 @@
         <v>0.5863537722151448</v>
       </c>
       <c r="DT25">
-        <v>-0.1173394266943958</v>
+        <v>-0.1173394266943957</v>
       </c>
       <c r="DU25">
         <v>-0.1198621295476697</v>
@@ -9829,7 +9829,7 @@
         <v>0.0005901749569011429</v>
       </c>
       <c r="EG25">
-        <v>-0.02804120471345649</v>
+        <v>-0.02804120471345648</v>
       </c>
     </row>
     <row r="26">
@@ -9849,7 +9849,7 @@
         <v>-1.040324859042611</v>
       </c>
       <c r="F26">
-        <v>0.6311656950338384</v>
+        <v>0.6311656950338383</v>
       </c>
       <c r="G26">
         <v>-0.01612717597847024</v>
@@ -9945,7 +9945,7 @@
         <v>141.7</v>
       </c>
       <c r="AM26">
-        <v>403.7000000000001</v>
+        <v>403.7</v>
       </c>
       <c r="AN26">
         <v>59.59999999999999</v>
@@ -10092,13 +10092,13 @@
         <v>0</v>
       </c>
       <c r="CM26">
-        <v>-1.452735775506366</v>
+        <v>-1.452735775506365</v>
       </c>
       <c r="CN26">
         <v>0.1099398019983751</v>
       </c>
       <c r="CO26">
-        <v>1.449202954255537</v>
+        <v>1.449202954255536</v>
       </c>
       <c r="CP26">
         <v>3.631906402970472</v>
@@ -10182,7 +10182,7 @@
         <v>-0.0471682872013884</v>
       </c>
       <c r="DQ26">
-        <v>1.187719748378219</v>
+        <v>1.187719748378218</v>
       </c>
       <c r="DR26">
         <v>1.087704474680943</v>
@@ -10197,7 +10197,7 @@
         <v>-0.07327609444409949</v>
       </c>
       <c r="DV26">
-        <v>0.002243947846927252</v>
+        <v>0.002243947846927251</v>
       </c>
       <c r="DW26">
         <v>2.779969303776541</v>
@@ -10209,7 +10209,7 @@
         <v>2.635848589133401</v>
       </c>
       <c r="DZ26">
-        <v>0.03272124296586113</v>
+        <v>0.03272124296586112</v>
       </c>
       <c r="EA26">
         <v>0.5984444520679763</v>
@@ -10230,7 +10230,7 @@
         <v>0.0005094671011300378</v>
       </c>
       <c r="EG26">
-        <v>-0.0166366430796003</v>
+        <v>-0.01663664307960029</v>
       </c>
     </row>
     <row r="27">
@@ -10241,7 +10241,7 @@
         <v>-1.769383250126217</v>
       </c>
       <c r="C27">
-        <v>0.3981472024749641</v>
+        <v>0.398147202474964</v>
       </c>
       <c r="D27">
         <v>-1.177286551169797</v>
@@ -10508,7 +10508,7 @@
         <v>3.531283526735876</v>
       </c>
       <c r="CR27">
-        <v>-1.707914651873765</v>
+        <v>-1.707914651873764</v>
       </c>
       <c r="CS27">
         <v>0</v>
@@ -10580,7 +10580,7 @@
         <v>0.1198089103359057</v>
       </c>
       <c r="DP27">
-        <v>-0.04078601588062678</v>
+        <v>-0.04078601588062677</v>
       </c>
       <c r="DQ27">
         <v>0.5707666615619323</v>
@@ -10616,7 +10616,7 @@
         <v>0.2258835441597305</v>
       </c>
       <c r="EB27">
-        <v>0.08291349686418476</v>
+        <v>0.08291349686418475</v>
       </c>
       <c r="EC27">
         <v>-0.3032536444651897</v>
@@ -10882,7 +10882,7 @@
         <v>1.029673965241891</v>
       </c>
       <c r="CI28">
-        <v>2.645398417743238</v>
+        <v>2.645398417743237</v>
       </c>
       <c r="CJ28">
         <v>1.897527416573894</v>
@@ -10918,7 +10918,7 @@
         <v>-1.149021429320655</v>
       </c>
       <c r="CU28">
-        <v>-0.004626582791340012</v>
+        <v>-0.004626582791340011</v>
       </c>
       <c r="CV28">
         <v>0.2603933159100009</v>
@@ -11076,7 +11076,7 @@
         <v>1192.4</v>
       </c>
       <c r="N29">
-        <v>0.01582781456953653</v>
+        <v>0.01582781456953652</v>
       </c>
       <c r="O29">
         <v>190.2</v>
@@ -11325,13 +11325,13 @@
         <v>-0.1508008978983426</v>
       </c>
       <c r="CW29">
-        <v>0.08327840138897003</v>
+        <v>0.08327840138897002</v>
       </c>
       <c r="CX29">
         <v>0.8857698774935443</v>
       </c>
       <c r="CY29">
-        <v>-0.331527110064533</v>
+        <v>-0.3315271100645329</v>
       </c>
       <c r="CZ29">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>0.1378879124500261</v>
       </c>
       <c r="DO29">
-        <v>0.1746973578599805</v>
+        <v>0.1746973578599804</v>
       </c>
       <c r="DP29">
         <v>-0.03680944540995433</v>
@@ -11403,10 +11403,10 @@
         <v>0.001862889266144192</v>
       </c>
       <c r="DW29">
-        <v>-0.09769923506111986</v>
+        <v>-0.09769923506111985</v>
       </c>
       <c r="DX29">
-        <v>-1.557733389498371</v>
+        <v>-1.55773338949837</v>
       </c>
       <c r="DY29">
         <v>1.460034154437248</v>
@@ -11495,7 +11495,7 @@
         <v>10.716</v>
       </c>
       <c r="U30">
-        <v>0.01416715295338134</v>
+        <v>0.01416715295338133</v>
       </c>
       <c r="V30">
         <v>227</v>
@@ -11510,7 +11510,7 @@
         <v>0.01295264623955439</v>
       </c>
       <c r="Z30">
-        <v>0.01416715295338134</v>
+        <v>0.01416715295338133</v>
       </c>
       <c r="AA30">
         <v>0.01886539407215349</v>
@@ -11549,7 +11549,7 @@
         <v>154.8</v>
       </c>
       <c r="AM30">
-        <v>453.7000000000001</v>
+        <v>453.7</v>
       </c>
       <c r="AN30">
         <v>61.5</v>
@@ -11678,7 +11678,7 @@
         <v>0.03305061606335358</v>
       </c>
       <c r="CG30">
-        <v>0.1555522192650694</v>
+        <v>0.1555522192650693</v>
       </c>
       <c r="CH30">
         <v>0.2571499402938144</v>
@@ -11780,10 +11780,10 @@
         <v>-0.07718525032012358</v>
       </c>
       <c r="DO30">
-        <v>-0.01761803545150519</v>
+        <v>-0.01761803545150518</v>
       </c>
       <c r="DP30">
-        <v>-0.05956721486861853</v>
+        <v>-0.05956721486861852</v>
       </c>
       <c r="DQ30">
         <v>-0.7632451248008362</v>
@@ -11828,7 +11828,7 @@
         <v>-0.1578338675077984</v>
       </c>
       <c r="EE30">
-        <v>-0.01596138144447575</v>
+        <v>-0.01596138144447574</v>
       </c>
       <c r="EF30">
         <v>0.0003716633797962057</v>
@@ -11890,7 +11890,7 @@
         <v>9.9163994475</v>
       </c>
       <c r="S31">
-        <v>43.78360055250001</v>
+        <v>43.7836005525</v>
       </c>
       <c r="T31">
         <v>10.652</v>
@@ -12058,7 +12058,7 @@
         <v>0.1741463635758014</v>
       </c>
       <c r="BZ31">
-        <v>-0.113100433239552</v>
+        <v>-0.1131004332395519</v>
       </c>
       <c r="CA31">
         <v>0.2194517217960747</v>
@@ -12073,7 +12073,7 @@
         <v>0.1672859905412256</v>
       </c>
       <c r="CE31">
-        <v>-0.113100433239552</v>
+        <v>-0.1131004332395519</v>
       </c>
       <c r="CF31">
         <v>0.0610459303362495</v>
@@ -12486,7 +12486,7 @@
         <v>-0.9181624335440333</v>
       </c>
       <c r="CI32">
-        <v>3.563725769093225</v>
+        <v>3.563725769093224</v>
       </c>
       <c r="CJ32">
         <v>-2.326601409395153</v>
@@ -13075,7 +13075,7 @@
         <v>0.008706330588661437</v>
       </c>
       <c r="L34">
-        <v>0.01639152666179689</v>
+        <v>0.01639152666179688</v>
       </c>
       <c r="M34">
         <v>1354.1</v>
@@ -13357,7 +13357,7 @@
         <v>-1.203397401723358</v>
       </c>
       <c r="DF34">
-        <v>-0.1920695073358008</v>
+        <v>-0.1920695073358007</v>
       </c>
       <c r="DG34">
         <v>-1.011327894387559</v>
@@ -13482,7 +13482,7 @@
         <v>1411.4</v>
       </c>
       <c r="N35">
-        <v>0.02054876948071494</v>
+        <v>0.02054876948071493</v>
       </c>
       <c r="O35">
         <v>217</v>
@@ -13731,7 +13731,7 @@
         <v>0.2574320720505607</v>
       </c>
       <c r="CW35">
-        <v>-0.7743103386689541</v>
+        <v>-0.774310338668954</v>
       </c>
       <c r="CX35">
         <v>0.875816680438362</v>
@@ -13752,7 +13752,7 @@
         <v>0.1192284870455728</v>
       </c>
       <c r="DD35">
-        <v>-0.03713436969795912</v>
+        <v>-0.03713436969795911</v>
       </c>
       <c r="DE35">
         <v>-1.74118133729619</v>
@@ -13991,7 +13991,7 @@
         <v>25.5</v>
       </c>
       <c r="AY36">
-        <v>351.7000000000001</v>
+        <v>351.7</v>
       </c>
       <c r="AZ36">
         <v>66.7</v>
@@ -14006,7 +14006,7 @@
         <v>8.297939897099999</v>
       </c>
       <c r="BD36">
-        <v>49.676</v>
+        <v>49.67599999999999</v>
       </c>
       <c r="BE36">
         <v>0.6240000000000006</v>
@@ -14189,7 +14189,7 @@
         <v>-0.2844332673273892</v>
       </c>
       <c r="DP36">
-        <v>-0.04454009858142907</v>
+        <v>-0.04454009858142906</v>
       </c>
       <c r="DQ36">
         <v>-1.524596089743517</v>
@@ -14356,7 +14356,7 @@
         <v>173.9</v>
       </c>
       <c r="AM37">
-        <v>560.7000000000001</v>
+        <v>560.7</v>
       </c>
       <c r="AN37">
         <v>83.39999999999999</v>
@@ -14467,7 +14467,7 @@
         <v>0.01223290469051548</v>
       </c>
       <c r="CA37">
-        <v>-0.003497150063545276</v>
+        <v>-0.003497150063545275</v>
       </c>
       <c r="CB37">
         <v>0.05002678687459641</v>
@@ -14512,7 +14512,7 @@
         <v>0.3145953952094729</v>
       </c>
       <c r="CP37">
-        <v>-1.102455080739802</v>
+        <v>-1.102455080739801</v>
       </c>
       <c r="CQ37">
         <v>5.880070712506893</v>
@@ -14709,7 +14709,7 @@
         <v>270.1</v>
       </c>
       <c r="W38">
-        <v>0.02378896129386821</v>
+        <v>0.0237889612938682</v>
       </c>
       <c r="X38">
         <v>0.0245803108808289</v>
@@ -14721,7 +14721,7 @@
         <v>0.01842618065107748</v>
       </c>
       <c r="AA38">
-        <v>0.02378896129386821</v>
+        <v>0.0237889612938682</v>
       </c>
       <c r="AB38">
         <v>0.0245803108808289</v>
@@ -14928,7 +14928,7 @@
         <v>0.6584353582198901</v>
       </c>
       <c r="CU38">
-        <v>-0.008405335424131633</v>
+        <v>-0.008405335424131632</v>
       </c>
       <c r="CV38">
         <v>-0.1795283259331555</v>
@@ -14952,7 +14952,7 @@
         <v>0.306805452817382</v>
       </c>
       <c r="DC38">
-        <v>0.3012155650870405</v>
+        <v>0.3012155650870404</v>
       </c>
       <c r="DD38">
         <v>0.005589887730339482</v>
@@ -15074,7 +15074,7 @@
         <v>2591.2</v>
       </c>
       <c r="J39">
-        <v>0.03278422934203285</v>
+        <v>0.03278422934203284</v>
       </c>
       <c r="K39">
         <v>0.008628738367014943</v>
@@ -15311,7 +15311,7 @@
         <v>0.1087932732027888</v>
       </c>
       <c r="CO39">
-        <v>0.2394250694928815</v>
+        <v>0.2394250694928814</v>
       </c>
       <c r="CP39">
         <v>-2.243101554569023</v>
@@ -15329,7 +15329,7 @@
         <v>-0.4759413228510994</v>
       </c>
       <c r="CU39">
-        <v>-0.01078543432582269</v>
+        <v>-0.01078543432582268</v>
       </c>
       <c r="CV39">
         <v>0.03490543837549787</v>
@@ -15374,7 +15374,7 @@
         <v>-0.06588310674008475</v>
       </c>
       <c r="DJ39">
-        <v>-0.1567242125678929</v>
+        <v>-0.1567242125678928</v>
       </c>
       <c r="DK39">
         <v>0</v>
@@ -15389,13 +15389,13 @@
         <v>0.01522888311482736</v>
       </c>
       <c r="DO39">
-        <v>0.03335243137240909</v>
+        <v>0.03335243137240908</v>
       </c>
       <c r="DP39">
         <v>-0.01812354825758197</v>
       </c>
       <c r="DQ39">
-        <v>-0.3366203572123016</v>
+        <v>-0.3366203572123015</v>
       </c>
       <c r="DR39">
         <v>-1.677749781063317</v>
@@ -15688,7 +15688,7 @@
         <v>-0.3802920248175238</v>
       </c>
       <c r="CG40">
-        <v>-0.9876140687561748</v>
+        <v>-0.9876140687561747</v>
       </c>
       <c r="CH40">
         <v>-0.03417084520552294</v>
@@ -15766,7 +15766,7 @@
         <v>0.4002948453525672</v>
       </c>
       <c r="DG40">
-        <v>-0.5213222688011761</v>
+        <v>-0.521322268801176</v>
       </c>
       <c r="DH40">
         <v>-0.2526985096683542</v>
@@ -16122,7 +16122,7 @@
         <v>0.6827597224130955</v>
       </c>
       <c r="CR41">
-        <v>-5.239881577318649</v>
+        <v>-5.239881577318648</v>
       </c>
       <c r="CS41">
         <v>0</v>
@@ -16155,10 +16155,10 @@
         <v>0.3657195278644848</v>
       </c>
       <c r="DC41">
-        <v>0.372939321332798</v>
+        <v>0.3729393213327979</v>
       </c>
       <c r="DD41">
-        <v>-0.007219793468313585</v>
+        <v>-0.007219793468313584</v>
       </c>
       <c r="DE41">
         <v>0.2109190070239695</v>
@@ -16242,7 +16242,7 @@
         <v>0.03149557753598646</v>
       </c>
       <c r="EF41">
-        <v>7.695897694319643e-005</v>
+        <v>7.695897694319643e-05</v>
       </c>
       <c r="EG41">
         <v>0.001078891832253177</v>
@@ -16277,7 +16277,7 @@
         <v>2789.8</v>
       </c>
       <c r="J42">
-        <v>0.02802246163796363</v>
+        <v>0.02802246163796362</v>
       </c>
       <c r="K42">
         <v>0.006134157105030846</v>
@@ -16397,7 +16397,7 @@
         <v>27.6</v>
       </c>
       <c r="AY42">
-        <v>425.2000000000001</v>
+        <v>425.2</v>
       </c>
       <c r="AZ42">
         <v>67</v>
@@ -16490,7 +16490,7 @@
         <v>0.7405943774029146</v>
       </c>
       <c r="CG42">
-        <v>0.0818167102262013</v>
+        <v>0.08181671022620129</v>
       </c>
       <c r="CH42">
         <v>0.6330487541256105</v>
@@ -16508,7 +16508,7 @@
         <v>0</v>
       </c>
       <c r="CM42">
-        <v>1.016733764590653</v>
+        <v>1.016733764590652</v>
       </c>
       <c r="CN42">
         <v>0.0926638678321261</v>
@@ -16592,7 +16592,7 @@
         <v>0.1374775386784928</v>
       </c>
       <c r="DO42">
-        <v>0.1806870490649064</v>
+        <v>0.1806870490649063</v>
       </c>
       <c r="DP42">
         <v>-0.04320951038641378</v>
@@ -16631,7 +16631,7 @@
         <v>0.1397100303750462</v>
       </c>
       <c r="EB42">
-        <v>0.06810698931081737</v>
+        <v>0.06810698931081736</v>
       </c>
       <c r="EC42">
         <v>0.1403887990191048</v>
@@ -16643,7 +16643,7 @@
         <v>0.0201883385848956</v>
       </c>
       <c r="EF42">
-        <v>4.308149583585105e-005</v>
+        <v>4.308149583585105e-05</v>
       </c>
       <c r="EG42">
         <v>0.002134711787558984</v>
@@ -16669,7 +16669,7 @@
         <v>0.7228941229044227</v>
       </c>
       <c r="G43">
-        <v>0.003538800665016057</v>
+        <v>0.003538800665016056</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -16681,7 +16681,7 @@
         <v>0.0288304610209047</v>
       </c>
       <c r="K43">
-        <v>0.005131804026492493</v>
+        <v>0.005131804026492492</v>
       </c>
       <c r="L43">
         <v>0.0236986569944122</v>
@@ -16714,7 +16714,7 @@
         <v>312</v>
       </c>
       <c r="W43">
-        <v>0.02748604901043295</v>
+        <v>0.02748604901043294</v>
       </c>
       <c r="X43">
         <v>0.0271280885695433</v>
@@ -16726,7 +16726,7 @@
         <v>0.03864646412142325</v>
       </c>
       <c r="AA43">
-        <v>0.02748604901043295</v>
+        <v>0.02748604901043294</v>
       </c>
       <c r="AB43">
         <v>0.0271280885695433</v>
@@ -16912,7 +16912,7 @@
         <v>3.344727872500242</v>
       </c>
       <c r="CN43">
-        <v>0.13650650543768</v>
+        <v>0.1365065054376799</v>
       </c>
       <c r="CO43">
         <v>-0.3505804796296133</v>
@@ -16951,7 +16951,7 @@
         <v>0</v>
       </c>
       <c r="DA43">
-        <v>-0.05660578339498557</v>
+        <v>-0.05660578339498556</v>
       </c>
       <c r="DB43">
         <v>0.1348701199235897</v>
@@ -17032,7 +17032,7 @@
         <v>0.2174179294049934</v>
       </c>
       <c r="EB43">
-        <v>0.01933760411837261</v>
+        <v>0.0193376041183726</v>
       </c>
       <c r="EC43">
         <v>0.2309017041099902</v>
@@ -17044,7 +17044,7 @@
         <v>0.1487164908684055</v>
       </c>
       <c r="EF43">
-        <v>2.575835858210531e-005</v>
+        <v>2.575835858210531e-05</v>
       </c>
       <c r="EG43">
         <v>0.003513042306433953</v>
@@ -17277,7 +17277,7 @@
         <v>-0.0569249946483404</v>
       </c>
       <c r="CB44">
-        <v>-0.176142433011684</v>
+        <v>-0.1761424330116839</v>
       </c>
       <c r="CC44">
         <v>-0.6211931033204978</v>
@@ -17334,7 +17334,7 @@
         <v>2.610317481518312</v>
       </c>
       <c r="CU44">
-        <v>0.09174835401964721</v>
+        <v>0.0917483540196472</v>
       </c>
       <c r="CV44">
         <v>0.6143643378835719</v>
@@ -17364,7 +17364,7 @@
         <v>0.08895957909845605</v>
       </c>
       <c r="DE44">
-        <v>4.791823915856218</v>
+        <v>4.791823915856217</v>
       </c>
       <c r="DF44">
         <v>2.698777277833209</v>
@@ -17373,7 +17373,7 @@
         <v>2.09304663802301</v>
       </c>
       <c r="DH44">
-        <v>2.091838374071144</v>
+        <v>2.091838374071143</v>
       </c>
       <c r="DI44">
         <v>0.06828495465448714</v>
@@ -17720,7 +17720,7 @@
         <v>1.100253421428675</v>
       </c>
       <c r="CP45">
-        <v>-3.261982870554022</v>
+        <v>-3.261982870554021</v>
       </c>
       <c r="CQ45">
         <v>8.214639379264213</v>
@@ -17756,7 +17756,7 @@
         <v>-0.07944448806225657</v>
       </c>
       <c r="DB45">
-        <v>0.6681360088250558</v>
+        <v>0.6681360088250557</v>
       </c>
       <c r="DC45">
         <v>0.5726443154282989</v>
@@ -17866,10 +17866,10 @@
         <v>0.8373864710396571</v>
       </c>
       <c r="E46">
-        <v>-0.1777441935973279</v>
+        <v>-0.1777441935973278</v>
       </c>
       <c r="F46">
-        <v>-0.1025156578326315</v>
+        <v>-0.1025156578326314</v>
       </c>
       <c r="G46">
         <v>-0.006364291514208509</v>
@@ -17980,7 +17980,7 @@
         <v>14.778862963</v>
       </c>
       <c r="AR46">
-        <v>55.47886296300001</v>
+        <v>55.478862963</v>
       </c>
       <c r="AS46">
         <v>15.56</v>
@@ -18139,7 +18139,7 @@
         <v>-0.01252064026114919</v>
       </c>
       <c r="CV46">
-        <v>0.04682826287761444</v>
+        <v>0.04682826287761443</v>
       </c>
       <c r="CW46">
         <v>-2.312183200404306</v>
@@ -18267,7 +18267,7 @@
         <v>-0.6638653470738113</v>
       </c>
       <c r="E47">
-        <v>0.335583914624138</v>
+        <v>0.3355839146241379</v>
       </c>
       <c r="F47">
         <v>0.04700455124698903</v>
@@ -18381,7 +18381,7 @@
         <v>15.6711716702</v>
       </c>
       <c r="AR47">
-        <v>58.27117167020001</v>
+        <v>58.2711716702</v>
       </c>
       <c r="AS47">
         <v>14.648</v>
@@ -18501,7 +18501,7 @@
         <v>1.970164226812983</v>
       </c>
       <c r="CI47">
-        <v>-4.537650324438062</v>
+        <v>-4.537650324438061</v>
       </c>
       <c r="CJ47">
         <v>2.962196874178744</v>
@@ -18683,7 +18683,7 @@
         <v>3260.6</v>
       </c>
       <c r="J48">
-        <v>0.02599482372687501</v>
+        <v>0.025994823726875</v>
       </c>
       <c r="K48">
         <v>0.006558498959194692</v>
@@ -18905,7 +18905,7 @@
         <v>11.59752422029956</v>
       </c>
       <c r="CJ48">
-        <v>3.093968373447297</v>
+        <v>3.093968373447296</v>
       </c>
       <c r="CK48">
         <v>0.9817990888991659</v>
@@ -19034,7 +19034,7 @@
         <v>-0.1273225388163689</v>
       </c>
       <c r="EA48">
-        <v>0.05848419057086336</v>
+        <v>0.05848419057086335</v>
       </c>
       <c r="EB48">
         <v>0.1289486070880626</v>
@@ -19450,7 +19450,7 @@
         <v>0.2082988234523627</v>
       </c>
       <c r="EF49">
-        <v>-9.931554680345472e-005</v>
+        <v>-9.931554680345472e-05</v>
       </c>
       <c r="EG49">
         <v>0.003383926830539708</v>
@@ -19485,7 +19485,7 @@
         <v>3274.3</v>
       </c>
       <c r="J50">
-        <v>0.02183213326910805</v>
+        <v>0.02183213326910804</v>
       </c>
       <c r="K50">
         <v>0.007496800146278959</v>
@@ -19677,13 +19677,13 @@
         <v>-0.2594982583030446</v>
       </c>
       <c r="BZ50">
-        <v>-0.4473802308194324</v>
+        <v>-0.4473802308194323</v>
       </c>
       <c r="CA50">
         <v>-0.2315290940962234</v>
       </c>
       <c r="CB50">
-        <v>-0.1808068509159538</v>
+        <v>-0.1808068509159537</v>
       </c>
       <c r="CC50">
         <v>-0.2594982583030446</v>
@@ -19692,7 +19692,7 @@
         <v>-0.4123359450121771</v>
       </c>
       <c r="CE50">
-        <v>-0.4473802308194324</v>
+        <v>-0.4473802308194323</v>
       </c>
       <c r="CF50">
         <v>-0.7068784891224771</v>
@@ -19710,7 +19710,7 @@
         <v>-12.63720599637713</v>
       </c>
       <c r="CK50">
-        <v>-12.49011141890716</v>
+        <v>-12.49011141890715</v>
       </c>
       <c r="CL50">
         <v>0</v>
@@ -19803,10 +19803,10 @@
         <v>1.782170527654933</v>
       </c>
       <c r="DP50">
-        <v>0.1508916040836199</v>
+        <v>0.1508916040836198</v>
       </c>
       <c r="DQ50">
-        <v>1.086257256790205</v>
+        <v>1.086257256790204</v>
       </c>
       <c r="DR50">
         <v>0.6407150065678403</v>
@@ -19851,7 +19851,7 @@
         <v>0.2356818009922645</v>
       </c>
       <c r="EF50">
-        <v>-9.408514875697883e-005</v>
+        <v>-9.408514875697883e-05</v>
       </c>
       <c r="EG50">
         <v>0.01236834079539817</v>
@@ -19994,7 +19994,7 @@
         <v>0</v>
       </c>
       <c r="AU51">
-        <v>175.7240000000001</v>
+        <v>175.724</v>
       </c>
       <c r="AV51">
         <v>301.7</v>
@@ -20153,7 +20153,7 @@
         <v>0.7594010014806827</v>
       </c>
       <c r="CY51">
-        <v>-0.04534657476145299</v>
+        <v>-0.04534657476145298</v>
       </c>
       <c r="CZ51">
         <v>0</v>
@@ -20311,7 +20311,7 @@
         <v>17.1679860044</v>
       </c>
       <c r="S52">
-        <v>48.4320139956</v>
+        <v>48.43201399559999</v>
       </c>
       <c r="T52">
         <v>14.544</v>
@@ -20533,13 +20533,13 @@
         <v>-22.6472238665898</v>
       </c>
       <c r="CR52">
-        <v>-0.1278271496995203</v>
+        <v>-0.1278271496995202</v>
       </c>
       <c r="CS52">
         <v>0</v>
       </c>
       <c r="CT52">
-        <v>1.378811067803103</v>
+        <v>1.378811067803102</v>
       </c>
       <c r="CU52">
         <v>-0.01192834509653484</v>
@@ -20700,7 +20700,7 @@
         <v>2145.6</v>
       </c>
       <c r="N53">
-        <v>0.01102325970548868</v>
+        <v>0.01102325970548867</v>
       </c>
       <c r="O53">
         <v>364.1</v>
@@ -20796,7 +20796,7 @@
         <v>0</v>
       </c>
       <c r="AU53">
-        <v>195.5520000000001</v>
+        <v>195.552</v>
       </c>
       <c r="AV53">
         <v>295.8</v>
@@ -20988,7 +20988,7 @@
         <v>1.354973959674713</v>
       </c>
       <c r="DJ53">
-        <v>1.410605413771374</v>
+        <v>1.410605413771373</v>
       </c>
       <c r="DK53">
         <v>0</v>
@@ -21045,7 +21045,7 @@
         <v>0.1002712291695632</v>
       </c>
       <c r="EC53">
-        <v>0.3823507287711787</v>
+        <v>0.3823507287711786</v>
       </c>
       <c r="ED53">
         <v>0.3875370613865647</v>
@@ -21089,7 +21089,7 @@
         <v>3473.4</v>
       </c>
       <c r="J54">
-        <v>0.0161705609458136</v>
+        <v>0.01617056094581359</v>
       </c>
       <c r="K54">
         <v>0.008191358866021625</v>
@@ -21209,7 +21209,7 @@
         <v>41.1</v>
       </c>
       <c r="AY54">
-        <v>546.7000000000001</v>
+        <v>546.7</v>
       </c>
       <c r="AZ54">
         <v>34.3</v>
@@ -21374,7 +21374,7 @@
         <v>0.2217689771092747</v>
       </c>
       <c r="DE54">
-        <v>2.382623246638028</v>
+        <v>2.382623246638027</v>
       </c>
       <c r="DF54">
         <v>1.086307749064841</v>
@@ -21826,7 +21826,7 @@
         <v>0.3518908441663156</v>
       </c>
       <c r="DV55">
-        <v>-0.002205511324191248</v>
+        <v>-0.002205511324191247</v>
       </c>
       <c r="DW55">
         <v>6.457372638987955</v>
@@ -21903,7 +21903,7 @@
         <v>2319.9</v>
       </c>
       <c r="N56">
-        <v>0.01315575437169581</v>
+        <v>0.0131557543716958</v>
       </c>
       <c r="O56">
         <v>394.4</v>
@@ -22149,7 +22149,7 @@
         <v>-0.008651677770988075</v>
       </c>
       <c r="CV56">
-        <v>-0.05442483568510959</v>
+        <v>-0.05442483568510958</v>
       </c>
       <c r="CW56">
         <v>-3.503086728521019</v>
@@ -22191,7 +22191,7 @@
         <v>0.2203946320803891</v>
       </c>
       <c r="DJ56">
-        <v>-2.250638828385474</v>
+        <v>-2.250638828385473</v>
       </c>
       <c r="DK56">
         <v>0</v>
@@ -22436,7 +22436,7 @@
         <v>0</v>
       </c>
       <c r="BG57">
-        <v>43.38400000000002</v>
+        <v>43.38400000000001</v>
       </c>
       <c r="BH57">
         <v>70.7</v>
@@ -22490,7 +22490,7 @@
         <v>-0.3032231114185222</v>
       </c>
       <c r="CB57">
-        <v>-0.0292969309399663</v>
+        <v>-0.02929693093996629</v>
       </c>
       <c r="CC57">
         <v>-1.75765007265336</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="DN57">
-        <v>0.6601048893237294</v>
+        <v>0.6601048893237293</v>
       </c>
       <c r="DO57">
         <v>0.6216206027501695</v>
@@ -22640,7 +22640,7 @@
         <v>4.23852321555775</v>
       </c>
       <c r="DZ57">
-        <v>-0.5053783556586055</v>
+        <v>-0.5053783556586054</v>
       </c>
       <c r="EA57">
         <v>0.4595601448073025</v>
@@ -22652,7 +22652,7 @@
         <v>-0.6733549208146505</v>
       </c>
       <c r="ED57">
-        <v>0.4155701106212471</v>
+        <v>0.415570110621247</v>
       </c>
       <c r="EE57">
         <v>0.07157160244212614</v>
@@ -22723,7 +22723,7 @@
         <v>16.556</v>
       </c>
       <c r="U58">
-        <v>0.0129740518962076</v>
+        <v>0.01297405189620759</v>
       </c>
       <c r="V58">
         <v>401.6</v>
@@ -22738,7 +22738,7 @@
         <v>0.001088139281828049</v>
       </c>
       <c r="Z58">
-        <v>0.0129740518962076</v>
+        <v>0.01297405189620759</v>
       </c>
       <c r="AA58">
         <v>0.01449778394830981</v>
@@ -22777,7 +22777,7 @@
         <v>281.6</v>
       </c>
       <c r="AM58">
-        <v>893.7000000000001</v>
+        <v>893.7</v>
       </c>
       <c r="AN58">
         <v>84.90000000000001</v>
@@ -22813,7 +22813,7 @@
         <v>47</v>
       </c>
       <c r="AY58">
-        <v>581.2000000000001</v>
+        <v>581.2</v>
       </c>
       <c r="AZ58">
         <v>64.8</v>
@@ -22888,7 +22888,7 @@
         <v>0.1606798763078708</v>
       </c>
       <c r="CA58">
-        <v>0.2871568668144695</v>
+        <v>0.2871568668144694</v>
       </c>
       <c r="CB58">
         <v>0.06633652289897961</v>
@@ -23026,7 +23026,7 @@
         <v>0.2289662845367054</v>
       </c>
       <c r="DU58">
-        <v>0.2330460048872065</v>
+        <v>0.2330460048872064</v>
       </c>
       <c r="DV58">
         <v>-0.004079720350500781</v>
@@ -23073,7 +23073,7 @@
         <v>0.6681005803852411</v>
       </c>
       <c r="C59">
-        <v>-0.120893709902747</v>
+        <v>-0.1208937099027469</v>
       </c>
       <c r="D59">
         <v>0.0741853430611272</v>
@@ -23130,7 +23130,7 @@
         <v>410.8</v>
       </c>
       <c r="W59">
-        <v>0.009527067926415223</v>
+        <v>0.009527067926415222</v>
       </c>
       <c r="X59">
         <v>0.01090398435994167</v>
@@ -23142,7 +23142,7 @@
         <v>0.009952749572735398</v>
       </c>
       <c r="AA59">
-        <v>0.009527067926415223</v>
+        <v>0.009527067926415222</v>
       </c>
       <c r="AB59">
         <v>0.01090398435994167</v>
@@ -23214,7 +23214,7 @@
         <v>47.5</v>
       </c>
       <c r="AY59">
-        <v>594.2000000000001</v>
+        <v>594.2</v>
       </c>
       <c r="AZ59">
         <v>63.8</v>
@@ -23310,7 +23310,7 @@
         <v>-0.6002730249378736</v>
       </c>
       <c r="CH59">
-        <v>0.2459051392028187</v>
+        <v>0.2459051392028186</v>
       </c>
       <c r="CI59">
         <v>-2.724113438858296</v>
@@ -23346,7 +23346,7 @@
         <v>0</v>
       </c>
       <c r="CT59">
-        <v>-0.7210782842578905</v>
+        <v>-0.7210782842578904</v>
       </c>
       <c r="CU59">
         <v>-0.007552321225242964</v>
@@ -23358,7 +23358,7 @@
         <v>0.03875785971771251</v>
       </c>
       <c r="CX59">
-        <v>2.399749042778979</v>
+        <v>2.399749042778978</v>
       </c>
       <c r="CY59">
         <v>-0.5795041415684601</v>
@@ -23415,7 +23415,7 @@
         <v>-0.03569814812983759</v>
       </c>
       <c r="DQ59">
-        <v>0.2314785473720779</v>
+        <v>0.2314785473720778</v>
       </c>
       <c r="DR59">
         <v>1.620497314269555</v>
@@ -23424,7 +23424,7 @@
         <v>-1.389018766897491</v>
       </c>
       <c r="DT59">
-        <v>0.2091338868227387</v>
+        <v>0.2091338868227386</v>
       </c>
       <c r="DU59">
         <v>0.2131581592686788</v>
@@ -23448,13 +23448,13 @@
         <v>0.03129201043581594</v>
       </c>
       <c r="EB59">
-        <v>0.06648600282388383</v>
+        <v>0.06648600282388382</v>
       </c>
       <c r="EC59">
         <v>-0.4616193785558062</v>
       </c>
       <c r="ED59">
-        <v>0.02369218263320569</v>
+        <v>0.02369218263320568</v>
       </c>
       <c r="EE59">
         <v>-0.01222027901980707</v>
@@ -23471,10 +23471,10 @@
         <v>30955</v>
       </c>
       <c r="B60">
-        <v>-0.4734524123999666</v>
+        <v>-0.4734524123999665</v>
       </c>
       <c r="C60">
-        <v>-0.5327610476424896</v>
+        <v>-0.5327610476424895</v>
       </c>
       <c r="D60">
         <v>0.6375980819102383</v>
@@ -23783,7 +23783,7 @@
         <v>-3.647017067021585</v>
       </c>
       <c r="DF60">
-        <v>-2.110442969865944</v>
+        <v>-2.110442969865943</v>
       </c>
       <c r="DG60">
         <v>-1.536574097155633</v>
@@ -23858,7 +23858,7 @@
         <v>-0.1347456494186227</v>
       </c>
       <c r="EE60">
-        <v>0.03733347910472584</v>
+        <v>0.03733347910472583</v>
       </c>
       <c r="EF60">
         <v>-0.0003912556699637504</v>
@@ -24148,7 +24148,7 @@
         <v>0</v>
       </c>
       <c r="CT61">
-        <v>0.5528588744521255</v>
+        <v>0.5528588744521254</v>
       </c>
       <c r="CU61">
         <v>-0.006230948859445362</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="DN61">
-        <v>0.02018518924864216</v>
+        <v>0.02018518924864215</v>
       </c>
       <c r="DO61">
         <v>0.02221513774832585</v>
@@ -24262,7 +24262,7 @@
         <v>0.001976856670532738</v>
       </c>
       <c r="EF61">
-        <v>-0.0003733017997207526</v>
+        <v>-0.0003733017997207525</v>
       </c>
       <c r="EG61">
         <v>0.01130007569758454</v>
@@ -24279,7 +24279,7 @@
         <v>0.04545460869566038</v>
       </c>
       <c r="D62">
-        <v>0.4543501707295246</v>
+        <v>0.4543501707295245</v>
       </c>
       <c r="E62">
         <v>-0.3130011192003911</v>
@@ -24698,7 +24698,7 @@
         <v>4294.9</v>
       </c>
       <c r="J63">
-        <v>0.01526915562892151</v>
+        <v>0.0152691556289215</v>
       </c>
       <c r="K63">
         <v>0.009351558173488428</v>
@@ -24770,7 +24770,7 @@
         <v>400.5</v>
       </c>
       <c r="AI63">
-        <v>276.2000000000001</v>
+        <v>276.2</v>
       </c>
       <c r="AJ63">
         <v>388.5</v>
@@ -24827,16 +24827,16 @@
         <v>20.7</v>
       </c>
       <c r="BB63">
-        <v>17.56468719600001</v>
+        <v>17.564687196</v>
       </c>
       <c r="BC63">
-        <v>17.56468719600001</v>
+        <v>17.564687196</v>
       </c>
       <c r="BD63">
-        <v>90.74</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="BE63">
-        <v>1.560000000000001</v>
+        <v>1.56</v>
       </c>
       <c r="BF63">
         <v>0</v>
@@ -24977,7 +24977,7 @@
         <v>0.1409691191225349</v>
       </c>
       <c r="DC63">
-        <v>0.107638417235404</v>
+        <v>0.1076384172354039</v>
       </c>
       <c r="DD63">
         <v>0.03333070188713094</v>
@@ -25013,7 +25013,7 @@
         <v>-0.4110617957743981</v>
       </c>
       <c r="DO63">
-        <v>-0.3588213995843143</v>
+        <v>-0.3588213995843142</v>
       </c>
       <c r="DP63">
         <v>-0.05224039619008304</v>
@@ -25037,7 +25037,7 @@
         <v>-0.01117359704600551</v>
       </c>
       <c r="DW63">
-        <v>-0.2620958540248226</v>
+        <v>-0.2620958540248225</v>
       </c>
       <c r="DX63">
         <v>-0.873421914515128</v>
@@ -25061,7 +25061,7 @@
         <v>0.1573434749149721</v>
       </c>
       <c r="EE63">
-        <v>-0.03886925400920979</v>
+        <v>-0.03886925400920978</v>
       </c>
       <c r="EF63">
         <v>-0.001056554966290531</v>
@@ -25105,7 +25105,7 @@
         <v>0.009277386370721397</v>
       </c>
       <c r="L64">
-        <v>0.006636517390984587</v>
+        <v>0.006636517390984586</v>
       </c>
       <c r="M64">
         <v>2754.1</v>
@@ -25123,7 +25123,7 @@
         <v>22.1320419245</v>
       </c>
       <c r="S64">
-        <v>54.26795807550001</v>
+        <v>54.2679580755</v>
       </c>
       <c r="T64">
         <v>20.036</v>
@@ -25339,7 +25339,7 @@
         <v>0.1436627245611959</v>
       </c>
       <c r="CP64">
-        <v>-1.924083197070218</v>
+        <v>-1.924083197070217</v>
       </c>
       <c r="CQ64">
         <v>27.44573480364591</v>
@@ -25399,7 +25399,7 @@
         <v>-0.7240028472301514</v>
       </c>
       <c r="DJ64">
-        <v>-0.0689354732163902</v>
+        <v>-0.06893547321639019</v>
       </c>
       <c r="DK64">
         <v>0</v>
@@ -25426,7 +25426,7 @@
         <v>-0.4009460638395392</v>
       </c>
       <c r="DS64">
-        <v>-0.7456969525248997</v>
+        <v>-0.7456969525248996</v>
       </c>
       <c r="DT64">
         <v>0.112522206992487</v>
@@ -25716,7 +25716,7 @@
         <v>0.3567535829616766</v>
       </c>
       <c r="CH65">
-        <v>0.5209199792943196</v>
+        <v>0.5209199792943195</v>
       </c>
       <c r="CI65">
         <v>-4.715382443856356</v>
@@ -25818,7 +25818,7 @@
         <v>-0.5343874076541231</v>
       </c>
       <c r="DP65">
-        <v>-0.1137914791633382</v>
+        <v>-0.1137914791633381</v>
       </c>
       <c r="DQ65">
         <v>-3.637401108959036</v>
@@ -25848,7 +25848,7 @@
         <v>-6.02994347050601</v>
       </c>
       <c r="DZ65">
-        <v>-0.01703532499277474</v>
+        <v>-0.01703532499277473</v>
       </c>
       <c r="EA65">
         <v>-0.5498261576097392</v>
@@ -25901,7 +25901,7 @@
         <v>4507.9</v>
       </c>
       <c r="J66">
-        <v>0.01390991092629546</v>
+        <v>0.01390991092629545</v>
       </c>
       <c r="K66">
         <v>0.008986397972551075</v>
@@ -25940,7 +25940,7 @@
         <v>0.004156828020464465</v>
       </c>
       <c r="X66">
-        <v>0.003671221700999539</v>
+        <v>0.003671221700999538</v>
       </c>
       <c r="Y66">
         <v>0.006218274111674971</v>
@@ -25952,7 +25952,7 @@
         <v>0.004156828020464465</v>
       </c>
       <c r="AB66">
-        <v>0.003671221700999539</v>
+        <v>0.003671221700999538</v>
       </c>
       <c r="AC66">
         <v>0.006218274111674971</v>
@@ -26287,13 +26287,13 @@
         <v>-0.2525315131993187</v>
       </c>
       <c r="E67">
-        <v>1.258158031575899</v>
+        <v>1.258158031575898</v>
       </c>
       <c r="F67">
         <v>0.01226326771223576</v>
       </c>
       <c r="G67">
-        <v>-0.003225742557359673</v>
+        <v>-0.003225742557359672</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -26410,7 +26410,7 @@
         <v>0</v>
       </c>
       <c r="AU67">
-        <v>235.804</v>
+        <v>235.8039999999999</v>
       </c>
       <c r="AV67">
         <v>344.4</v>
@@ -26494,7 +26494,7 @@
         <v>0.9622459874157437</v>
       </c>
       <c r="BZ67">
-        <v>0.043380530960836</v>
+        <v>0.04338053096083599</v>
       </c>
       <c r="CA67">
         <v>0.2552378534104068</v>
@@ -26509,7 +26509,7 @@
         <v>0.2959120441601547</v>
       </c>
       <c r="CE67">
-        <v>0.043380530960836</v>
+        <v>0.04338053096083599</v>
       </c>
       <c r="CF67">
         <v>1.00562651837658</v>
@@ -26533,7 +26533,7 @@
         <v>0</v>
       </c>
       <c r="CM67">
-        <v>0.678062425620162</v>
+        <v>0.6780624256201619</v>
       </c>
       <c r="CN67">
         <v>0.9217835451371599</v>
@@ -26617,13 +26617,13 @@
         <v>-0.2656714381321351</v>
       </c>
       <c r="DO67">
-        <v>-0.1836986595559166</v>
+        <v>-0.1836986595559165</v>
       </c>
       <c r="DP67">
         <v>-0.08197277857621793</v>
       </c>
       <c r="DQ67">
-        <v>-0.1168416588244599</v>
+        <v>-0.1168416588244598</v>
       </c>
       <c r="DR67">
         <v>0.1430355187179591</v>
@@ -26662,7 +26662,7 @@
         <v>-0.009577010679362919</v>
       </c>
       <c r="ED67">
-        <v>-0.01036772411317553</v>
+        <v>-0.01036772411317552</v>
       </c>
       <c r="EE67">
         <v>-0.02357385373518801</v>
@@ -26943,7 +26943,7 @@
         <v>0.6707330783727059</v>
       </c>
       <c r="CP68">
-        <v>-0.2165297987807549</v>
+        <v>-0.2165297987807548</v>
       </c>
       <c r="CQ68">
         <v>3.588133939683644</v>
@@ -26964,7 +26964,7 @@
         <v>0.1752495837677728</v>
       </c>
       <c r="CW68">
-        <v>0.5152419100067363</v>
+        <v>0.5152419100067362</v>
       </c>
       <c r="CX68">
         <v>3.332602296517052</v>
@@ -27054,7 +27054,7 @@
         <v>-0.01366760250118825</v>
       </c>
       <c r="EA68">
-        <v>0.01996485203493994</v>
+        <v>0.01996485203493993</v>
       </c>
       <c r="EB68">
         <v>0.07039641544179182</v>
@@ -27365,7 +27365,7 @@
         <v>0.2001144249759186</v>
       </c>
       <c r="CW69">
-        <v>-0.3219617542563285</v>
+        <v>-0.3219617542563284</v>
       </c>
       <c r="CX69">
         <v>3.556819682202672</v>
@@ -27389,7 +27389,7 @@
         <v>0.1567871566314522</v>
       </c>
       <c r="DE69">
-        <v>0.1992016983294029</v>
+        <v>0.1992016983294028</v>
       </c>
       <c r="DF69">
         <v>-0.05324246955674616</v>
@@ -27440,10 +27440,10 @@
         <v>0.0724083458180991</v>
       </c>
       <c r="DV69">
-        <v>-0.006093537857921732</v>
+        <v>-0.006093537857921731</v>
       </c>
       <c r="DW69">
-        <v>-1.036048751025831</v>
+        <v>-1.03604875102583</v>
       </c>
       <c r="DX69">
         <v>-0.5951360777675574</v>
@@ -27544,7 +27544,7 @@
         <v>0.01430072100463153</v>
       </c>
       <c r="X70">
-        <v>0.01620858013829341</v>
+        <v>0.0162085801382934</v>
       </c>
       <c r="Y70">
         <v>0.006404764818667585</v>
@@ -27556,7 +27556,7 @@
         <v>0.01430072100463153</v>
       </c>
       <c r="AB70">
-        <v>0.01620858013829341</v>
+        <v>0.0162085801382934</v>
       </c>
       <c r="AC70">
         <v>0.006404764818667585</v>
@@ -27721,7 +27721,7 @@
         <v>1.018348779241002</v>
       </c>
       <c r="CH70">
-        <v>0.7930309735371282</v>
+        <v>0.7930309735371281</v>
       </c>
       <c r="CI70">
         <v>-0.8215271069677783</v>
@@ -27730,7 +27730,7 @@
         <v>-14.6512944632143</v>
       </c>
       <c r="CK70">
-        <v>-0.9594647206084233</v>
+        <v>-0.9594647206084232</v>
       </c>
       <c r="CL70">
         <v>0</v>
@@ -27739,7 +27739,7 @@
         <v>-1.703727822045785</v>
       </c>
       <c r="CN70">
-        <v>1.023740397383826</v>
+        <v>1.023740397383825</v>
       </c>
       <c r="CO70">
         <v>0.6457163691503496</v>
@@ -27787,7 +27787,7 @@
         <v>0.7530838396593648</v>
       </c>
       <c r="DD70">
-        <v>0.1847809209323987</v>
+        <v>0.1847809209323986</v>
       </c>
       <c r="DE70">
         <v>-1.593905003626332</v>
@@ -27829,7 +27829,7 @@
         <v>2.08677125109082</v>
       </c>
       <c r="DR70">
-        <v>2.760431892566226</v>
+        <v>2.760431892566225</v>
       </c>
       <c r="DS70">
         <v>-0.6736606414754498</v>
@@ -27888,7 +27888,7 @@
         <v>-0.2374751385408864</v>
       </c>
       <c r="D71">
-        <v>-0.4434383638791059</v>
+        <v>-0.4434383638791058</v>
       </c>
       <c r="E71">
         <v>0.3958918815257116</v>
@@ -28110,7 +28110,7 @@
         <v>0.220785519998962</v>
       </c>
       <c r="CD71">
-        <v>0.1751063615267496</v>
+        <v>0.1751063615267495</v>
       </c>
       <c r="CE71">
         <v>-0.2683320023523563</v>
@@ -28137,10 +28137,10 @@
         <v>0</v>
       </c>
       <c r="CM71">
-        <v>-0.6802288020639296</v>
+        <v>-0.6802288020639295</v>
       </c>
       <c r="CN71">
-        <v>1.693780228529676</v>
+        <v>1.693780228529675</v>
       </c>
       <c r="CO71">
         <v>0.2074498522685673</v>
@@ -28167,7 +28167,7 @@
         <v>0.1181770316254713</v>
       </c>
       <c r="CW71">
-        <v>-0.9551424752517193</v>
+        <v>-0.9551424752517192</v>
       </c>
       <c r="CX71">
         <v>8.93100247696799</v>
@@ -28236,7 +28236,7 @@
         <v>-1.466868676052641</v>
       </c>
       <c r="DT71">
-        <v>0.2215359922838494</v>
+        <v>0.2215359922838493</v>
       </c>
       <c r="DU71">
         <v>0.2272705093903946</v>
@@ -28313,7 +28313,7 @@
         <v>0.008320840451370826</v>
       </c>
       <c r="L72">
-        <v>0.00770991022707257</v>
+        <v>0.007709910227072569</v>
       </c>
       <c r="M72">
         <v>3117.4</v>
@@ -28331,7 +28331,7 @@
         <v>26.7945569232</v>
       </c>
       <c r="S72">
-        <v>51.40544307680001</v>
+        <v>51.4054430768</v>
       </c>
       <c r="T72">
         <v>18.828</v>
@@ -28520,7 +28520,7 @@
         <v>-0.6171900318708851</v>
       </c>
       <c r="CG72">
-        <v>0.2571511650700487</v>
+        <v>0.2571511650700486</v>
       </c>
       <c r="CH72">
         <v>0.01469539655715835</v>
@@ -28550,7 +28550,7 @@
         <v>-4.126237076445165</v>
       </c>
       <c r="CQ72">
-        <v>-23.91360745290263</v>
+        <v>-23.91360745290262</v>
       </c>
       <c r="CR72">
         <v>2.446206449528361</v>
@@ -28592,7 +28592,7 @@
         <v>0.1306884994983819</v>
       </c>
       <c r="DE72">
-        <v>-3.386846866357832</v>
+        <v>-3.386846866357831</v>
       </c>
       <c r="DF72">
         <v>-2.397961655637982</v>
@@ -28684,7 +28684,7 @@
         <v>32142</v>
       </c>
       <c r="B73">
-        <v>0.2412998016248028</v>
+        <v>0.2412998016248027</v>
       </c>
       <c r="C73">
         <v>-0.4383314236057469</v>
@@ -28723,7 +28723,7 @@
         <v>0.008641689930475316</v>
       </c>
       <c r="O73">
-        <v>513.7000000000001</v>
+        <v>513.7</v>
       </c>
       <c r="P73">
         <v>78.2</v>
@@ -28744,7 +28744,7 @@
         <v>542.3</v>
       </c>
       <c r="W73">
-        <v>0.005974539271106139</v>
+        <v>0.005974539271106138</v>
       </c>
       <c r="X73">
         <v>0.00610901138605624</v>
@@ -28756,7 +28756,7 @@
         <v>0.002093603090919549</v>
       </c>
       <c r="AA73">
-        <v>0.005974539271106139</v>
+        <v>0.005974539271106138</v>
       </c>
       <c r="AB73">
         <v>0.00610901138605624</v>
@@ -28954,7 +28954,7 @@
         <v>8.355594176805312</v>
       </c>
       <c r="CR73">
-        <v>-5.742409906165563</v>
+        <v>-5.742409906165562</v>
       </c>
       <c r="CS73">
         <v>0</v>
@@ -28996,13 +28996,13 @@
         <v>-3.311106836221962</v>
       </c>
       <c r="DF73">
-        <v>-2.087254367275576</v>
+        <v>-2.087254367275575</v>
       </c>
       <c r="DG73">
         <v>-1.223852468946367</v>
       </c>
       <c r="DH73">
-        <v>-0.8790052062460551</v>
+        <v>-0.879005206246055</v>
       </c>
       <c r="DI73">
         <v>-0.04791811377026219</v>
@@ -29334,7 +29334,7 @@
         <v>3.221872676955172</v>
       </c>
       <c r="CK74">
-        <v>-4.572727700952783</v>
+        <v>-4.572727700952782</v>
       </c>
       <c r="CL74">
         <v>0</v>
@@ -29400,7 +29400,7 @@
         <v>0.2847937655618168</v>
       </c>
       <c r="DG74">
-        <v>-0.6923503520895497</v>
+        <v>-0.6923503520895496</v>
       </c>
       <c r="DH74">
         <v>-0.5430865370990108</v>
@@ -29430,7 +29430,7 @@
         <v>0.02824096204750042</v>
       </c>
       <c r="DQ74">
-        <v>-3.184803353580942</v>
+        <v>-3.184803353580941</v>
       </c>
       <c r="DR74">
         <v>-2.34911950023921</v>
@@ -29475,7 +29475,7 @@
         <v>-0.03338001349459425</v>
       </c>
       <c r="EF74">
-        <v>-0.0001712404213487427</v>
+        <v>-0.0001712404213487426</v>
       </c>
       <c r="EG74">
         <v>0.01108334862272142</v>
@@ -29714,7 +29714,7 @@
         <v>-0.6263213880393583</v>
       </c>
       <c r="CD75">
-        <v>-0.09223258062842459</v>
+        <v>-0.09223258062842458</v>
       </c>
       <c r="CE75">
         <v>0.2037408560880569</v>
@@ -29732,7 +29732,7 @@
         <v>-5.257333197293576</v>
       </c>
       <c r="CJ75">
-        <v>-13.02178360974313</v>
+        <v>-13.02178360974312</v>
       </c>
       <c r="CK75">
         <v>5.237360285662888</v>
@@ -29861,7 +29861,7 @@
         <v>-0.08377040031677296</v>
       </c>
       <c r="EA75">
-        <v>-0.1359853385017824</v>
+        <v>-0.1359853385017823</v>
       </c>
       <c r="EB75">
         <v>-0.006841659219452572</v>
@@ -29873,7 +29873,7 @@
         <v>-0.07667407207806079</v>
       </c>
       <c r="EE75">
-        <v>-0.05501063413393968</v>
+        <v>-0.05501063413393967</v>
       </c>
       <c r="EF75">
         <v>-0.0001716924577156031</v>
@@ -29911,7 +29911,7 @@
         <v>5282.8</v>
       </c>
       <c r="J76">
-        <v>0.02020046470271542</v>
+        <v>0.02020046470271541</v>
       </c>
       <c r="K76">
         <v>0.007952576994893157</v>
@@ -30184,7 +30184,7 @@
         <v>0</v>
       </c>
       <c r="DA76">
-        <v>-0.04940521067243348</v>
+        <v>-0.04940521067243347</v>
       </c>
       <c r="DB76">
         <v>0.07168706343960878</v>
@@ -30291,7 +30291,7 @@
         <v>0.8292714536735537</v>
       </c>
       <c r="C77">
-        <v>-0.5708574512218611</v>
+        <v>-0.570857451221861</v>
       </c>
       <c r="D77">
         <v>0.3993686806342979</v>
@@ -30303,7 +30303,7 @@
         <v>-0.1222644123649417</v>
       </c>
       <c r="G77">
-        <v>-7.530418247004469e-005</v>
+        <v>-7.530418247004469e-05</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -30387,7 +30387,7 @@
         <v>326.8</v>
       </c>
       <c r="AJ77">
-        <v>517.2000000000001</v>
+        <v>517.2</v>
       </c>
       <c r="AK77">
         <v>373.7</v>
@@ -30636,7 +30636,7 @@
         <v>0.003448151218385687</v>
       </c>
       <c r="DR77">
-        <v>0.4610903268048061</v>
+        <v>0.461090326804806</v>
       </c>
       <c r="DS77">
         <v>-0.4576421755864442</v>
@@ -30725,7 +30725,7 @@
         <v>3490.2</v>
       </c>
       <c r="N78">
-        <v>0.01148744670772151</v>
+        <v>0.0114874467077215</v>
       </c>
       <c r="O78">
         <v>519.9</v>
@@ -30746,7 +30746,7 @@
         <v>0.007412423587979111</v>
       </c>
       <c r="V78">
-        <v>596.7000000000001</v>
+        <v>596.7</v>
       </c>
       <c r="W78">
         <v>0.01315121692888188</v>
@@ -30995,7 +30995,7 @@
         <v>1.205078137867057</v>
       </c>
       <c r="DD78">
-        <v>0.194665551822331</v>
+        <v>0.1946655518223309</v>
       </c>
       <c r="DE78">
         <v>-1.004204786424799</v>
@@ -31010,7 +31010,7 @@
         <v>-0.1819771195321321</v>
       </c>
       <c r="DI78">
-        <v>8.198616255149943e-006</v>
+        <v>8.198616255149943e-06</v>
       </c>
       <c r="DJ78">
         <v>-0.1819853181483879</v>
@@ -31043,7 +31043,7 @@
         <v>-0.9673455168331964</v>
       </c>
       <c r="DT78">
-        <v>-0.06937091179997292</v>
+        <v>-0.06937091179997291</v>
       </c>
       <c r="DU78">
         <v>-0.070969942446807</v>
@@ -31052,7 +31052,7 @@
         <v>0.001599030646834144</v>
       </c>
       <c r="DW78">
-        <v>-4.799816762545087</v>
+        <v>-4.799816762545086</v>
       </c>
       <c r="DX78">
         <v>-1.364712107279669</v>
@@ -31067,7 +31067,7 @@
         <v>-0.2544757592566287</v>
       </c>
       <c r="EB78">
-        <v>0.1036943190806098</v>
+        <v>0.1036943190806097</v>
       </c>
       <c r="EC78">
         <v>-0.07439242792294093</v>
@@ -31183,13 +31183,13 @@
         <v>13.7</v>
       </c>
       <c r="AH79">
-        <v>515.7000000000001</v>
+        <v>515.7</v>
       </c>
       <c r="AI79">
         <v>345.4</v>
       </c>
       <c r="AJ79">
-        <v>566.7000000000001</v>
+        <v>566.7</v>
       </c>
       <c r="AK79">
         <v>384.3</v>
@@ -31309,7 +31309,7 @@
         <v>0.152053995514163</v>
       </c>
       <c r="CA79">
-        <v>-0.1535373877052176</v>
+        <v>-0.1535373877052175</v>
       </c>
       <c r="CB79">
         <v>-0.04179116731479819</v>
@@ -31399,7 +31399,7 @@
         <v>0.2584266811959237</v>
       </c>
       <c r="DE79">
-        <v>-0.8527153635804478</v>
+        <v>-0.8527153635804477</v>
       </c>
       <c r="DF79">
         <v>-0.5468615467751611</v>
@@ -31480,7 +31480,7 @@
         <v>-0.02288754634599503</v>
       </c>
       <c r="EF79">
-        <v>8.276753645713112e-005</v>
+        <v>8.276753645713112e-05</v>
       </c>
       <c r="EG79">
         <v>-0.01081290930876123</v>
@@ -31548,7 +31548,7 @@
         <v>0.004977726477537026</v>
       </c>
       <c r="V80">
-        <v>623.2000000000001</v>
+        <v>623.2</v>
       </c>
       <c r="W80">
         <v>0.009368687953930088</v>
@@ -31584,7 +31584,7 @@
         <v>14.6</v>
       </c>
       <c r="AH80">
-        <v>524.7000000000001</v>
+        <v>524.7</v>
       </c>
       <c r="AI80">
         <v>348.4999999999999</v>
@@ -31623,7 +31623,7 @@
         <v>0</v>
       </c>
       <c r="AU80">
-        <v>285.56</v>
+        <v>285.5599999999999</v>
       </c>
       <c r="AV80">
         <v>457.1</v>
@@ -31788,7 +31788,7 @@
         <v>0</v>
       </c>
       <c r="DA80">
-        <v>-0.009192970278326385</v>
+        <v>-0.009192970278326384</v>
       </c>
       <c r="DB80">
         <v>2.305543571218928</v>
@@ -31881,7 +31881,7 @@
         <v>-0.007739322805930255</v>
       </c>
       <c r="EF80">
-        <v>6.460852190266701e-005</v>
+        <v>6.460852190266701e-05</v>
       </c>
       <c r="EG80">
         <v>-0.0139430037603536</v>
@@ -31949,7 +31949,7 @@
         <v>0.003589182204834618</v>
       </c>
       <c r="V81">
-        <v>639.7000000000001</v>
+        <v>639.7</v>
       </c>
       <c r="W81">
         <v>0.01292204198067037</v>
@@ -32111,7 +32111,7 @@
         <v>0.2655434200041352</v>
       </c>
       <c r="CA81">
-        <v>-0.227891006629721</v>
+        <v>-0.2278910066297209</v>
       </c>
       <c r="CB81">
         <v>0.0993951571843045</v>
@@ -32120,7 +32120,7 @@
         <v>-0.4633051977656931</v>
       </c>
       <c r="CD81">
-        <v>-0.1284958494454165</v>
+        <v>-0.1284958494454164</v>
       </c>
       <c r="CE81">
         <v>0.2655434200041352</v>
@@ -32153,7 +32153,7 @@
         <v>-0.2101798282154661</v>
       </c>
       <c r="CO81">
-        <v>1.945426227163154</v>
+        <v>1.945426227163153</v>
       </c>
       <c r="CP81">
         <v>-2.106927031655687</v>
@@ -32261,7 +32261,7 @@
         <v>2.268978706346588</v>
       </c>
       <c r="DY81">
-        <v>2.104092838633263</v>
+        <v>2.104092838633262</v>
       </c>
       <c r="DZ81">
         <v>0.159355178308571</v>
@@ -32273,7 +32273,7 @@
         <v>0.173751658213671</v>
       </c>
       <c r="EC81">
-        <v>0.08028276808242237</v>
+        <v>0.08028276808242236</v>
       </c>
       <c r="ED81">
         <v>0.04784824327879953</v>
@@ -32282,7 +32282,7 @@
         <v>0.02110888236235776</v>
       </c>
       <c r="EF81">
-        <v>5.985340812684947e-005</v>
+        <v>5.985340812684947e-05</v>
       </c>
       <c r="EG81">
         <v>-0.01592133230538741</v>
@@ -32332,7 +32332,7 @@
         <v>0.01448803516197295</v>
       </c>
       <c r="O82">
-        <v>553.7000000000001</v>
+        <v>553.7</v>
       </c>
       <c r="P82">
         <v>99.90000000000001</v>
@@ -32386,7 +32386,7 @@
         <v>16.4</v>
       </c>
       <c r="AH82">
-        <v>556.2000000000001</v>
+        <v>556.2</v>
       </c>
       <c r="AI82">
         <v>369</v>
@@ -32473,7 +32473,7 @@
         <v>369.3</v>
       </c>
       <c r="BK82">
-        <v>498.2000000000001</v>
+        <v>498.2</v>
       </c>
       <c r="BL82">
         <v>21.4</v>
@@ -32542,7 +32542,7 @@
         <v>-2.034521757975199</v>
       </c>
       <c r="CK82">
-        <v>-3.465937160349967</v>
+        <v>-3.465937160349966</v>
       </c>
       <c r="CL82">
         <v>0</v>
@@ -32593,7 +32593,7 @@
         <v>-0.07712505380922419</v>
       </c>
       <c r="DB82">
-        <v>1.861443471748604</v>
+        <v>1.861443471748603</v>
       </c>
       <c r="DC82">
         <v>1.573496730753419</v>
@@ -32644,7 +32644,7 @@
         <v>1.636873982046161</v>
       </c>
       <c r="DS82">
-        <v>-0.6582257240616432</v>
+        <v>-0.6582257240616431</v>
       </c>
       <c r="DT82">
         <v>-0.2833559020654392</v>
@@ -32683,7 +32683,7 @@
         <v>0.02673356784807552</v>
       </c>
       <c r="EF82">
-        <v>4.906153988160857e-005</v>
+        <v>4.906153988160857e-05</v>
       </c>
       <c r="EG82">
         <v>-0.01977037989076128</v>
@@ -32790,7 +32790,7 @@
         <v>567.5</v>
       </c>
       <c r="AI83">
-        <v>373.7000000000001</v>
+        <v>373.7</v>
       </c>
       <c r="AJ83">
         <v>594.6</v>
@@ -32934,7 +32934,7 @@
         <v>-0.6381509835221664</v>
       </c>
       <c r="CH83">
-        <v>3.14705871014931</v>
+        <v>3.147058710149309</v>
       </c>
       <c r="CI83">
         <v>-1.244033563223468</v>
@@ -32949,10 +32949,10 @@
         <v>0</v>
       </c>
       <c r="CM83">
-        <v>0.4358207305233997</v>
+        <v>0.4358207305233996</v>
       </c>
       <c r="CN83">
-        <v>-0.6317075867056659</v>
+        <v>-0.6317075867056658</v>
       </c>
       <c r="CO83">
         <v>2.039494668931155</v>
@@ -33084,7 +33084,7 @@
         <v>0.04620479562595939</v>
       </c>
       <c r="EF83">
-        <v>4.670197897778378e-005</v>
+        <v>4.670197897778378e-05</v>
       </c>
       <c r="EG83">
         <v>-0.02457635268474247</v>
@@ -33122,7 +33122,7 @@
         <v>0.01541735650289211</v>
       </c>
       <c r="K84">
-        <v>0.006765556014356911</v>
+        <v>0.00676555601435691</v>
       </c>
       <c r="L84">
         <v>0.0086518004885352</v>
@@ -33134,7 +33134,7 @@
         <v>0.01270553064275037</v>
       </c>
       <c r="O84">
-        <v>562.2000000000001</v>
+        <v>562.2</v>
       </c>
       <c r="P84">
         <v>105.5</v>
@@ -33194,7 +33194,7 @@
         <v>376.4</v>
       </c>
       <c r="AJ84">
-        <v>600.7000000000001</v>
+        <v>600.7</v>
       </c>
       <c r="AK84">
         <v>416.6</v>
@@ -33485,7 +33485,7 @@
         <v>0.04862502956673769</v>
       </c>
       <c r="EF84">
-        <v>2.403176870782396e-005</v>
+        <v>2.403176870782396e-05</v>
       </c>
       <c r="EG84">
         <v>-0.02582896872155847</v>
@@ -33535,7 +33535,7 @@
         <v>0.01322132370259865</v>
       </c>
       <c r="O85">
-        <v>569.7000000000001</v>
+        <v>569.7</v>
       </c>
       <c r="P85">
         <v>108.8</v>
@@ -33784,10 +33784,10 @@
         <v>2.507182519703036</v>
       </c>
       <c r="CX85">
-        <v>-1.747628636469131</v>
+        <v>-1.74762863646913</v>
       </c>
       <c r="CY85">
-        <v>-0.05357302971302858</v>
+        <v>-0.05357302971302857</v>
       </c>
       <c r="CZ85">
         <v>0</v>
@@ -33856,7 +33856,7 @@
         <v>-0.376717466784547</v>
       </c>
       <c r="DV85">
-        <v>0.0002552965888854388</v>
+        <v>0.0002552965888854387</v>
       </c>
       <c r="DW85">
         <v>7.221769632868469</v>
@@ -33865,7 +33865,7 @@
         <v>2.674022390325879</v>
       </c>
       <c r="DY85">
-        <v>4.547747242542577</v>
+        <v>4.547747242542576</v>
       </c>
       <c r="DZ85">
         <v>0.1778206440674887</v>
@@ -33886,7 +33886,7 @@
         <v>0.03976764793198503</v>
       </c>
       <c r="EF85">
-        <v>1.69770470240188e-005</v>
+        <v>1.69770470240188e-05</v>
       </c>
       <c r="EG85">
         <v>-0.02505145163236169</v>
@@ -34065,7 +34065,7 @@
         <v>0</v>
       </c>
       <c r="BG86">
-        <v>81.14800000000003</v>
+        <v>81.14800000000002</v>
       </c>
       <c r="BH86">
         <v>121.2</v>
@@ -34113,7 +34113,7 @@
         <v>0.2006868360468172</v>
       </c>
       <c r="BZ86">
-        <v>-0.2220338393727608</v>
+        <v>-0.2220338393727607</v>
       </c>
       <c r="CA86">
         <v>0.1162980836808747</v>
@@ -34128,7 +34128,7 @@
         <v>0.1288773353838999</v>
       </c>
       <c r="CE86">
-        <v>-0.2220338393727608</v>
+        <v>-0.2220338393727607</v>
       </c>
       <c r="CF86">
         <v>-0.02134700332594358</v>
@@ -34287,7 +34287,7 @@
         <v>0.04049970558255048</v>
       </c>
       <c r="EF86">
-        <v>2.072081549272565e-005</v>
+        <v>2.072081549272565e-05</v>
       </c>
       <c r="EG86">
         <v>-0.02218789028684507</v>
@@ -34307,7 +34307,7 @@
         <v>0.02584481956825641</v>
       </c>
       <c r="E87">
-        <v>-0.1996525161774319</v>
+        <v>-0.1996525161774318</v>
       </c>
       <c r="F87">
         <v>0.9731407394148821</v>
@@ -34526,7 +34526,7 @@
         <v>-0.07957988698339372</v>
       </c>
       <c r="CD87">
-        <v>-0.1200726291940382</v>
+        <v>-0.1200726291940381</v>
       </c>
       <c r="CE87">
         <v>-0.09422780962578174</v>
@@ -34580,7 +34580,7 @@
         <v>-0.004618833054349569</v>
       </c>
       <c r="CV87">
-        <v>3.290128074842365</v>
+        <v>3.290128074842364</v>
       </c>
       <c r="CW87">
         <v>3.450977338264067</v>
@@ -34664,7 +34664,7 @@
         <v>14.68274747629174</v>
       </c>
       <c r="DX87">
-        <v>4.738413971486899</v>
+        <v>4.738413971486898</v>
       </c>
       <c r="DY87">
         <v>9.944333504804794</v>
@@ -34688,7 +34688,7 @@
         <v>0.06452784237350812</v>
       </c>
       <c r="EF87">
-        <v>2.492030228457162e-005</v>
+        <v>2.492030228457162e-05</v>
       </c>
       <c r="EG87">
         <v>-0.01983885526353526</v>
@@ -34711,7 +34711,7 @@
         <v>-0.6391170627098526</v>
       </c>
       <c r="F88">
-        <v>0.8570865119933268</v>
+        <v>0.8570865119933267</v>
       </c>
       <c r="G88">
         <v>-0.01685688309274662</v>
@@ -34759,7 +34759,7 @@
         <v>719.9</v>
       </c>
       <c r="W88">
-        <v>0.008223392297225241</v>
+        <v>0.00822339229722524</v>
       </c>
       <c r="X88">
         <v>0.009527829705119562</v>
@@ -34771,7 +34771,7 @@
         <v>0.01284578264120162</v>
       </c>
       <c r="AA88">
-        <v>0.008223392297225241</v>
+        <v>0.00822339229722524</v>
       </c>
       <c r="AB88">
         <v>0.009527829705119562</v>
@@ -34798,7 +34798,7 @@
         <v>410.5</v>
       </c>
       <c r="AJ88">
-        <v>590.2000000000001</v>
+        <v>590.2</v>
       </c>
       <c r="AK88">
         <v>435.6</v>
@@ -34921,7 +34921,7 @@
         <v>0.1489227969100095</v>
       </c>
       <c r="CB88">
-        <v>-0.04844545948017699</v>
+        <v>-0.04844545948017698</v>
       </c>
       <c r="CC88">
         <v>-0.739594400139685</v>
@@ -34978,7 +34978,7 @@
         <v>-1.947769547156952</v>
       </c>
       <c r="CU88">
-        <v>-0.005098925350889239</v>
+        <v>-0.005098925350889238</v>
       </c>
       <c r="CV88">
         <v>1.604674538945588</v>
@@ -34990,7 +34990,7 @@
         <v>4.493638432242847</v>
       </c>
       <c r="CY88">
-        <v>0.00171286697298001</v>
+        <v>0.001712866972980009</v>
       </c>
       <c r="CZ88">
         <v>0</v>
@@ -35038,13 +35038,13 @@
         <v>1.239549094594663</v>
       </c>
       <c r="DO88">
-        <v>0.9577426004827701</v>
+        <v>0.95774260048277</v>
       </c>
       <c r="DP88">
         <v>0.2818064941118927</v>
       </c>
       <c r="DQ88">
-        <v>3.338956238650376</v>
+        <v>3.338956238650375</v>
       </c>
       <c r="DR88">
         <v>3.571539451154542</v>
@@ -35199,7 +35199,7 @@
         <v>417.9000000000001</v>
       </c>
       <c r="AJ89">
-        <v>598.7000000000001</v>
+        <v>598.7</v>
       </c>
       <c r="AK89">
         <v>440.6</v>
@@ -35262,7 +35262,7 @@
         <v>199.308</v>
       </c>
       <c r="BE89">
-        <v>3.892</v>
+        <v>3.891999999999999</v>
       </c>
       <c r="BF89">
         <v>0</v>
@@ -35355,7 +35355,7 @@
         <v>0</v>
       </c>
       <c r="CM89">
-        <v>3.159193918641631</v>
+        <v>3.15919391864163</v>
       </c>
       <c r="CN89">
         <v>0.2434036754898905</v>
@@ -35436,7 +35436,7 @@
         <v>0</v>
       </c>
       <c r="DN89">
-        <v>1.366947711927044</v>
+        <v>1.366947711927043</v>
       </c>
       <c r="DO89">
         <v>1.057783051186097</v>
@@ -35567,7 +35567,7 @@
         <v>0.00943006201397778</v>
       </c>
       <c r="Y90">
-        <v>-0.002616944717042991</v>
+        <v>-0.00261694471704299</v>
       </c>
       <c r="Z90">
         <v>0.00146152696351165</v>
@@ -35579,7 +35579,7 @@
         <v>0.00943006201397778</v>
       </c>
       <c r="AC90">
-        <v>-0.002616944717042991</v>
+        <v>-0.00261694471704299</v>
       </c>
       <c r="AD90">
         <v>127.2</v>
@@ -35729,7 +35729,7 @@
         <v>-0.08605759821000386</v>
       </c>
       <c r="CD90">
-        <v>0.1889861557373928</v>
+        <v>0.1889861557373927</v>
       </c>
       <c r="CE90">
         <v>0.3300655095108077</v>
@@ -35771,7 +35771,7 @@
         <v>-8.70487627269199</v>
       </c>
       <c r="CR90">
-        <v>9.210806377203213</v>
+        <v>9.210806377203212</v>
       </c>
       <c r="CS90">
         <v>0</v>
@@ -36001,7 +36001,7 @@
         <v>441.4999999999999</v>
       </c>
       <c r="AJ91">
-        <v>607.2000000000001</v>
+        <v>607.2</v>
       </c>
       <c r="AK91">
         <v>458.1</v>
@@ -36034,7 +36034,7 @@
         <v>0</v>
       </c>
       <c r="AU91">
-        <v>368.668</v>
+        <v>368.6679999999999</v>
       </c>
       <c r="AV91">
         <v>470.2</v>
@@ -36205,7 +36205,7 @@
         <v>5.906232478092031</v>
       </c>
       <c r="DC91">
-        <v>5.028513416814803</v>
+        <v>5.028513416814802</v>
       </c>
       <c r="DD91">
         <v>0.8777190612772264</v>
@@ -36292,7 +36292,7 @@
         <v>0.02665676208373355</v>
       </c>
       <c r="EF91">
-        <v>-0.0001674367065305163</v>
+        <v>-0.0001674367065305162</v>
       </c>
       <c r="EG91">
         <v>-0.006230611288620557</v>
@@ -36342,7 +36342,7 @@
         <v>0.006373324576852912</v>
       </c>
       <c r="O92">
-        <v>594.2000000000001</v>
+        <v>594.2</v>
       </c>
       <c r="P92">
         <v>145</v>
@@ -36402,7 +36402,7 @@
         <v>446.5999999999999</v>
       </c>
       <c r="AJ92">
-        <v>616.2000000000001</v>
+        <v>616.2</v>
       </c>
       <c r="AK92">
         <v>461.2</v>
@@ -36483,7 +36483,7 @@
         <v>424.1</v>
       </c>
       <c r="BK92">
-        <v>574.2000000000001</v>
+        <v>574.2</v>
       </c>
       <c r="BL92">
         <v>23.2</v>
@@ -36926,7 +36926,7 @@
         <v>0.02755507587281186</v>
       </c>
       <c r="CB93">
-        <v>0.03278025126594329</v>
+        <v>0.03278025126594328</v>
       </c>
       <c r="CC93">
         <v>-0.1924509796068355</v>
@@ -37129,7 +37129,7 @@
         <v>6729.5</v>
       </c>
       <c r="J94">
-        <v>0.01213058982560678</v>
+        <v>0.01213058982560677</v>
       </c>
       <c r="K94">
         <v>0.006183903925434553</v>
@@ -37327,7 +37327,7 @@
         <v>-0.1249202659004703</v>
       </c>
       <c r="CA94">
-        <v>0.2514168607423341</v>
+        <v>0.251416860742334</v>
       </c>
       <c r="CB94">
         <v>-0.09545182690797448</v>
@@ -37417,7 +37417,7 @@
         <v>1.968346585791099</v>
       </c>
       <c r="DE94">
-        <v>0.1191781121419036</v>
+        <v>0.1191781121419035</v>
       </c>
       <c r="DF94">
         <v>0.8922512106251246</v>
@@ -37447,7 +37447,7 @@
         <v>-0.1345526672827181</v>
       </c>
       <c r="DO94">
-        <v>-0.1510611538021816</v>
+        <v>-0.1510611538021815</v>
       </c>
       <c r="DP94">
         <v>0.0165084865194635</v>
@@ -37483,7 +37483,7 @@
         <v>0.08759613594681197</v>
       </c>
       <c r="EA94">
-        <v>0.322686432424655</v>
+        <v>0.3226864324246549</v>
       </c>
       <c r="EB94">
         <v>0.2666509961782666</v>
@@ -37548,7 +37548,7 @@
         <v>0.006720449786965954</v>
       </c>
       <c r="O95">
-        <v>576.7000000000001</v>
+        <v>576.7</v>
       </c>
       <c r="P95">
         <v>151.4</v>
@@ -37572,7 +37572,7 @@
         <v>782.3</v>
       </c>
       <c r="W95">
-        <v>0.005893323386795935</v>
+        <v>0.005893323386795934</v>
       </c>
       <c r="X95">
         <v>0.005914707655213958</v>
@@ -37584,7 +37584,7 @@
         <v>0.004400493634710179</v>
       </c>
       <c r="AA95">
-        <v>0.005893323386795935</v>
+        <v>0.005893323386795934</v>
       </c>
       <c r="AB95">
         <v>0.005914707655213958</v>
@@ -37605,10 +37605,10 @@
         <v>35.5</v>
       </c>
       <c r="AH95">
-        <v>771.7000000000001</v>
+        <v>771.7</v>
       </c>
       <c r="AI95">
-        <v>466.7000000000001</v>
+        <v>466.7</v>
       </c>
       <c r="AJ95">
         <v>643.5</v>
@@ -37692,7 +37692,7 @@
         <v>432.8</v>
       </c>
       <c r="BK95">
-        <v>585.2000000000001</v>
+        <v>585.2</v>
       </c>
       <c r="BL95">
         <v>26.8</v>
@@ -37812,7 +37812,7 @@
         <v>-0.968350181507228</v>
       </c>
       <c r="DB95">
-        <v>2.267467080511759</v>
+        <v>2.267467080511758</v>
       </c>
       <c r="DC95">
         <v>1.312432340571657</v>
@@ -37854,7 +37854,7 @@
         <v>-0.3782722690185594</v>
       </c>
       <c r="DP95">
-        <v>-0.02755667003708572</v>
+        <v>-0.02755667003708571</v>
       </c>
       <c r="DQ95">
         <v>0.7342078934304936</v>
@@ -37884,7 +37884,7 @@
         <v>1.970950058752096</v>
       </c>
       <c r="DZ95">
-        <v>0.02739007872930334</v>
+        <v>0.02739007872930333</v>
       </c>
       <c r="EA95">
         <v>0.1171528380267239</v>
@@ -37896,7 +37896,7 @@
         <v>-0.02552981276026831</v>
       </c>
       <c r="ED95">
-        <v>0.04364115571323241</v>
+        <v>0.0436411557132324</v>
       </c>
       <c r="EE95">
         <v>-0.02412238288465091</v>
@@ -37952,13 +37952,13 @@
         <v>0.004348584891940011</v>
       </c>
       <c r="O96">
-        <v>578.7000000000001</v>
+        <v>578.7</v>
       </c>
       <c r="P96">
         <v>157.2</v>
       </c>
       <c r="Q96">
-        <v>85.25100000000001</v>
+        <v>85.251</v>
       </c>
       <c r="R96">
         <v>80.604</v>
@@ -37973,7 +37973,7 @@
         <v>0.007242745129738992</v>
       </c>
       <c r="V96">
-        <v>788.7000000000001</v>
+        <v>788.7</v>
       </c>
       <c r="W96">
         <v>0.002855235835063752</v>
@@ -38015,7 +38015,7 @@
         <v>468.1000000000001</v>
       </c>
       <c r="AJ96">
-        <v>659.2000000000001</v>
+        <v>659.2</v>
       </c>
       <c r="AK96">
         <v>481</v>
@@ -38165,7 +38165,7 @@
         <v>10.11933586115879</v>
       </c>
       <c r="CK96">
-        <v>-9.588449500800977</v>
+        <v>-9.588449500800976</v>
       </c>
       <c r="CL96">
         <v>0</v>
@@ -38258,7 +38258,7 @@
         <v>-0.1063304860860815</v>
       </c>
       <c r="DP96">
-        <v>0.05097576633879714</v>
+        <v>0.05097576633879713</v>
       </c>
       <c r="DQ96">
         <v>-1.736467570136915</v>
@@ -38317,7 +38317,7 @@
         <v>34334</v>
       </c>
       <c r="B97">
-        <v>-0.3202063431937453</v>
+        <v>-0.3202063431937452</v>
       </c>
       <c r="C97">
         <v>-0.5301205678201798</v>
@@ -38332,7 +38332,7 @@
         <v>-0.09417984649751904</v>
       </c>
       <c r="G97">
-        <v>0.008712000673633836</v>
+        <v>0.008712000673633835</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -38533,19 +38533,19 @@
         <v>0</v>
       </c>
       <c r="BY97">
-        <v>-0.155867875726137</v>
+        <v>-0.1558678757261369</v>
       </c>
       <c r="BZ97">
         <v>-0.07015862097008926</v>
       </c>
       <c r="CA97">
-        <v>0.2279946632629079</v>
+        <v>0.2279946632629078</v>
       </c>
       <c r="CB97">
         <v>-0.02297471835200256</v>
       </c>
       <c r="CC97">
-        <v>-0.155867875726137</v>
+        <v>-0.1558678757261369</v>
       </c>
       <c r="CD97">
         <v>0.2050199449109053</v>
@@ -38563,7 +38563,7 @@
         <v>1.463815484266831</v>
       </c>
       <c r="CI97">
-        <v>-3.289699228209202</v>
+        <v>-3.289699228209201</v>
       </c>
       <c r="CJ97">
         <v>15.70400726270668</v>
@@ -38629,7 +38629,7 @@
         <v>1.197548420889744</v>
       </c>
       <c r="DE97">
-        <v>-1.76232313799283</v>
+        <v>-1.762323137992829</v>
       </c>
       <c r="DF97">
         <v>-0.7092382549317586</v>
@@ -38674,7 +38674,7 @@
         <v>-0.6481700928239139</v>
       </c>
       <c r="DT97">
-        <v>0.1498921495900386</v>
+        <v>0.1498921495900385</v>
       </c>
       <c r="DU97">
         <v>0.1520976235357472</v>
@@ -38713,7 +38713,7 @@
         <v>-0.000128186102829572</v>
       </c>
       <c r="EG97">
-        <v>0.00884018677646342</v>
+        <v>0.008840186776463419</v>
       </c>
     </row>
     <row r="98">
@@ -38745,7 +38745,7 @@
         <v>7115.7</v>
       </c>
       <c r="J98">
-        <v>0.01153186886619873</v>
+        <v>0.01153186886619872</v>
       </c>
       <c r="K98">
         <v>0.006409198170465258</v>
@@ -38823,7 +38823,7 @@
         <v>483.8999999999999</v>
       </c>
       <c r="AJ98">
-        <v>673.7000000000001</v>
+        <v>673.7</v>
       </c>
       <c r="AK98">
         <v>500.4</v>
@@ -38859,7 +38859,7 @@
         <v>401.2839999999999</v>
       </c>
       <c r="AV98">
-        <v>526.7000000000001</v>
+        <v>526.7</v>
       </c>
       <c r="AW98">
         <v>485.8</v>
@@ -38946,7 +38946,7 @@
         <v>0.04839424676759268</v>
       </c>
       <c r="CB98">
-        <v>-0.08392304416692172</v>
+        <v>-0.08392304416692171</v>
       </c>
       <c r="CC98">
         <v>-1.388014068585913</v>
@@ -39099,10 +39099,10 @@
         <v>-0.02766789841000103</v>
       </c>
       <c r="EA98">
-        <v>-0.2129620328454376</v>
+        <v>-0.2129620328454375</v>
       </c>
       <c r="EB98">
-        <v>0.1671402599695414</v>
+        <v>0.1671402599695413</v>
       </c>
       <c r="EC98">
         <v>-0.1790059890859007</v>
@@ -39140,7 +39140,7 @@
         <v>-0.3222159895393029</v>
       </c>
       <c r="G99">
-        <v>-0.002096415537660326</v>
+        <v>-0.002096415537660325</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -39224,7 +39224,7 @@
         <v>810.1</v>
       </c>
       <c r="AI99">
-        <v>486.4000000000002</v>
+        <v>486.4000000000001</v>
       </c>
       <c r="AJ99">
         <v>697.8</v>
@@ -39290,7 +39290,7 @@
         <v>225.996</v>
       </c>
       <c r="BE99">
-        <v>2.303999999999999</v>
+        <v>2.303999999999998</v>
       </c>
       <c r="BF99">
         <v>0</v>
@@ -39368,7 +39368,7 @@
         <v>-1.702787379354</v>
       </c>
       <c r="CH99">
-        <v>2.281604290464316</v>
+        <v>2.281604290464315</v>
       </c>
       <c r="CI99">
         <v>-3.300857525874733</v>
@@ -39491,7 +39491,7 @@
         <v>-0.00713237369076627</v>
       </c>
       <c r="DW99">
-        <v>-5.731980791912045</v>
+        <v>-5.731980791912044</v>
       </c>
       <c r="DX99">
         <v>0.0503162624519965</v>
@@ -39538,7 +39538,7 @@
         <v>0.1967686552276781</v>
       </c>
       <c r="E100">
-        <v>0.606365590284554</v>
+        <v>0.6063655902845539</v>
       </c>
       <c r="F100">
         <v>-0.3415416490916841</v>
@@ -39553,7 +39553,7 @@
         <v>7331.1</v>
       </c>
       <c r="J100">
-        <v>0.01181009167090164</v>
+        <v>0.01181009167090163</v>
       </c>
       <c r="K100">
         <v>0.006481241790586845</v>
@@ -39667,7 +39667,7 @@
         <v>400.372</v>
       </c>
       <c r="AV100">
-        <v>544.2000000000001</v>
+        <v>544.2</v>
       </c>
       <c r="AW100">
         <v>499</v>
@@ -39712,7 +39712,7 @@
         <v>470</v>
       </c>
       <c r="BK100">
-        <v>635.7000000000001</v>
+        <v>635.7</v>
       </c>
       <c r="BL100">
         <v>31.4</v>
@@ -39799,7 +39799,7 @@
         <v>-4.896346578293617</v>
       </c>
       <c r="CQ100">
-        <v>-19.19874331435563</v>
+        <v>-19.19874331435562</v>
       </c>
       <c r="CR100">
         <v>11.33409533432712</v>
@@ -39916,7 +39916,7 @@
         <v>-0.1890784875921451</v>
       </c>
       <c r="ED100">
-        <v>-0.1551618837250793</v>
+        <v>-0.1551618837250792</v>
       </c>
       <c r="EE100">
         <v>-0.07721244877962827</v>
@@ -40116,7 +40116,7 @@
         <v>473.3</v>
       </c>
       <c r="BK101">
-        <v>639.7000000000001</v>
+        <v>639.7</v>
       </c>
       <c r="BL101">
         <v>32.7</v>
@@ -40227,7 +40227,7 @@
         <v>-3.128669731182981</v>
       </c>
       <c r="CY101">
-        <v>0.9478838610049643</v>
+        <v>0.9478838610049642</v>
       </c>
       <c r="CZ101">
         <v>0</v>
@@ -40245,7 +40245,7 @@
         <v>1.754269731875478</v>
       </c>
       <c r="DE101">
-        <v>-2.156510501486932</v>
+        <v>-2.156510501486931</v>
       </c>
       <c r="DF101">
         <v>-2.291856165322734</v>
@@ -40254,7 +40254,7 @@
         <v>0.1353456638357855</v>
       </c>
       <c r="DH101">
-        <v>-2.151590624670881</v>
+        <v>-2.15159062467088</v>
       </c>
       <c r="DI101">
         <v>-1.442720052244057</v>
@@ -40272,7 +40272,7 @@
         <v>0</v>
       </c>
       <c r="DN101">
-        <v>-1.669659442008467</v>
+        <v>-1.669659442008466</v>
       </c>
       <c r="DO101">
         <v>-1.493115756401134</v>
@@ -40305,7 +40305,7 @@
         <v>1.382166998754977</v>
       </c>
       <c r="DY101">
-        <v>-2.773567936741066</v>
+        <v>-2.773567936741065</v>
       </c>
       <c r="DZ101">
         <v>0.07541389416349401</v>
@@ -40314,7 +40314,7 @@
         <v>-0.1513316111765528</v>
       </c>
       <c r="EB101">
-        <v>0.2199748481599674</v>
+        <v>0.2199748481599673</v>
       </c>
       <c r="EC101">
         <v>-0.1176636794743998</v>
@@ -40394,7 +40394,7 @@
         <v>27.744</v>
       </c>
       <c r="U102">
-        <v>0.008424834678106175</v>
+        <v>0.008424834678106174</v>
       </c>
       <c r="V102">
         <v>858.5</v>
@@ -40409,7 +40409,7 @@
         <v>0.009981617331248804</v>
       </c>
       <c r="Z102">
-        <v>0.008424834678106175</v>
+        <v>0.008424834678106174</v>
       </c>
       <c r="AA102">
         <v>0.005582805671987989</v>
@@ -40442,7 +40442,7 @@
         <v>724.6</v>
       </c>
       <c r="AK102">
-        <v>528.2000000000001</v>
+        <v>528.2</v>
       </c>
       <c r="AL102">
         <v>555.3</v>
@@ -40475,10 +40475,10 @@
         <v>421.612</v>
       </c>
       <c r="AV102">
-        <v>567.7000000000001</v>
+        <v>567.7</v>
       </c>
       <c r="AW102">
-        <v>514.2000000000001</v>
+        <v>514.2</v>
       </c>
       <c r="AX102">
         <v>76.59999999999999</v>
@@ -40520,7 +40520,7 @@
         <v>478.8</v>
       </c>
       <c r="BK102">
-        <v>649.7000000000001</v>
+        <v>649.7</v>
       </c>
       <c r="BL102">
         <v>32.5</v>
@@ -40601,7 +40601,7 @@
         <v>1.335920616219923</v>
       </c>
       <c r="CO102">
-        <v>6.149223424915022</v>
+        <v>6.149223424915021</v>
       </c>
       <c r="CP102">
         <v>11.60533853928621</v>
@@ -40643,7 +40643,7 @@
         <v>4.510666353940162</v>
       </c>
       <c r="DC102">
-        <v>4.157669797155609</v>
+        <v>4.157669797155608</v>
       </c>
       <c r="DD102">
         <v>0.3529965567845377</v>
@@ -40727,10 +40727,10 @@
         <v>-0.2422922382557447</v>
       </c>
       <c r="EE102">
-        <v>-0.07452546866207351</v>
+        <v>-0.0745254686620735</v>
       </c>
       <c r="EF102">
-        <v>-0.0003125985079634348</v>
+        <v>-0.0003125985079634347</v>
       </c>
       <c r="EG102">
         <v>0.001233327616277339</v>
@@ -40786,7 +40786,7 @@
         <v>174.8</v>
       </c>
       <c r="Q103">
-        <v>94.484</v>
+        <v>94.48399999999999</v>
       </c>
       <c r="R103">
         <v>90.54000000000001</v>
@@ -40846,7 +40846,7 @@
         <v>746.8</v>
       </c>
       <c r="AK103">
-        <v>532.7000000000001</v>
+        <v>532.7</v>
       </c>
       <c r="AL103">
         <v>553.6</v>
@@ -40978,7 +40978,7 @@
         <v>0.06636883239003569</v>
       </c>
       <c r="CF103">
-        <v>-0.2399476260081034</v>
+        <v>-0.2399476260081033</v>
       </c>
       <c r="CG103">
         <v>0.2801222954219966</v>
@@ -41023,7 +41023,7 @@
         <v>0.4625009887604961</v>
       </c>
       <c r="CU103">
-        <v>-0.003715731898920383</v>
+        <v>-0.003715731898920382</v>
       </c>
       <c r="CV103">
         <v>-0.7836206672249659</v>
@@ -41047,7 +41047,7 @@
         <v>3.96017798166644</v>
       </c>
       <c r="DC103">
-        <v>3.105094972365655</v>
+        <v>3.105094972365654</v>
       </c>
       <c r="DD103">
         <v>0.8550830093007765</v>
@@ -41241,13 +41241,13 @@
         <v>22</v>
       </c>
       <c r="AH104">
-        <v>870.7000000000001</v>
+        <v>870.7</v>
       </c>
       <c r="AI104">
         <v>512.8</v>
       </c>
       <c r="AJ104">
-        <v>752.2000000000001</v>
+        <v>752.2</v>
       </c>
       <c r="AK104">
         <v>538.1</v>
@@ -41328,7 +41328,7 @@
         <v>483.5</v>
       </c>
       <c r="BK104">
-        <v>657.7000000000001</v>
+        <v>657.7</v>
       </c>
       <c r="BL104">
         <v>31.9</v>
@@ -41376,7 +41376,7 @@
         <v>-0.4501301498340026</v>
       </c>
       <c r="CD104">
-        <v>-0.02814180776289262</v>
+        <v>-0.02814180776289261</v>
       </c>
       <c r="CE104">
         <v>-0.2603210714897546</v>
@@ -41391,7 +41391,7 @@
         <v>0.2601731889247958</v>
       </c>
       <c r="CI104">
-        <v>-4.556300345044861</v>
+        <v>-4.55630034504486</v>
       </c>
       <c r="CJ104">
         <v>-3.438863376639574</v>
@@ -41457,7 +41457,7 @@
         <v>1.659505542545219</v>
       </c>
       <c r="DE104">
-        <v>0.1129794843416097</v>
+        <v>0.1129794843416096</v>
       </c>
       <c r="DF104">
         <v>1.143770741804772</v>
@@ -41469,7 +41469,7 @@
         <v>-0.2553488228536505</v>
       </c>
       <c r="DI104">
-        <v>-0.2726276804601902</v>
+        <v>-0.2726276804601901</v>
       </c>
       <c r="DJ104">
         <v>0.01727885760653838</v>
@@ -41606,7 +41606,7 @@
         <v>26.816</v>
       </c>
       <c r="U105">
-        <v>0.01381131617289944</v>
+        <v>0.01381131617289943</v>
       </c>
       <c r="V105">
         <v>884.3</v>
@@ -41621,7 +41621,7 @@
         <v>0.00576131687242798</v>
       </c>
       <c r="Z105">
-        <v>0.01381131617289944</v>
+        <v>0.01381131617289943</v>
       </c>
       <c r="AA105">
         <v>0.003821879382889248</v>
@@ -41786,7 +41786,7 @@
         <v>-0.06355324728398626</v>
       </c>
       <c r="CF105">
-        <v>-1.306929727540394</v>
+        <v>-1.306929727540393</v>
       </c>
       <c r="CG105">
         <v>0.01023600774355771</v>
@@ -41933,7 +41933,7 @@
         <v>-0.08410855321664772</v>
       </c>
       <c r="EC105">
-        <v>-0.01760514619124986</v>
+        <v>-0.01760514619124985</v>
       </c>
       <c r="ED105">
         <v>-0.1129442321511593</v>
@@ -41953,7 +41953,7 @@
         <v>35155</v>
       </c>
       <c r="B106">
-        <v>-0.3553285068952956</v>
+        <v>-0.3553285068952955</v>
       </c>
       <c r="C106">
         <v>-0.7395740391587873</v>
@@ -42016,7 +42016,7 @@
         <v>891.5</v>
       </c>
       <c r="W106">
-        <v>0.009989870411121427</v>
+        <v>0.009989870411121426</v>
       </c>
       <c r="X106">
         <v>0.01103148828014677</v>
@@ -42028,7 +42028,7 @@
         <v>0.002350369771549898</v>
       </c>
       <c r="AA106">
-        <v>0.009989870411121427</v>
+        <v>0.009989870411121426</v>
       </c>
       <c r="AB106">
         <v>0.01103148828014677</v>
@@ -42049,13 +42049,13 @@
         <v>23</v>
       </c>
       <c r="AH106">
-        <v>893.2000000000001</v>
+        <v>893.2</v>
       </c>
       <c r="AI106">
         <v>529.3000000000001</v>
       </c>
       <c r="AJ106">
-        <v>801.7000000000001</v>
+        <v>801.7</v>
       </c>
       <c r="AK106">
         <v>545.9</v>
@@ -42238,7 +42238,7 @@
         <v>-0.003698038043273622</v>
       </c>
       <c r="CV106">
-        <v>8.741052808949299</v>
+        <v>8.741052808949298</v>
       </c>
       <c r="CW106">
         <v>-1.782761063417539</v>
@@ -42393,7 +42393,7 @@
         <v>5220.5</v>
       </c>
       <c r="N107">
-        <v>0.006698762035763251</v>
+        <v>0.00669876203576325</v>
       </c>
       <c r="O107">
         <v>582.1</v>
@@ -42405,7 +42405,7 @@
         <v>102.461</v>
       </c>
       <c r="R107">
-        <v>96.37600000000001</v>
+        <v>96.376</v>
       </c>
       <c r="S107">
         <v>89.124</v>
@@ -42447,7 +42447,7 @@
         <v>165.8</v>
       </c>
       <c r="AF107">
-        <v>358.7000000000001</v>
+        <v>358.7</v>
       </c>
       <c r="AG107">
         <v>22.7</v>
@@ -42465,7 +42465,7 @@
         <v>554.4</v>
       </c>
       <c r="AL107">
-        <v>577.7000000000001</v>
+        <v>577.7</v>
       </c>
       <c r="AM107">
         <v>1971.6</v>
@@ -42480,7 +42480,7 @@
         <v>0</v>
       </c>
       <c r="AQ107">
-        <v>96.37600000000001</v>
+        <v>96.376</v>
       </c>
       <c r="AR107">
         <v>289.276</v>
@@ -42498,7 +42498,7 @@
         <v>673.6</v>
       </c>
       <c r="AW107">
-        <v>541.7000000000001</v>
+        <v>541.7</v>
       </c>
       <c r="AX107">
         <v>71.2</v>
@@ -42651,7 +42651,7 @@
         <v>-0.4012122999906751</v>
       </c>
       <c r="CY107">
-        <v>1.156428527777401</v>
+        <v>1.1564285277774</v>
       </c>
       <c r="CZ107">
         <v>0</v>
@@ -42672,7 +42672,7 @@
         <v>-1.278874461201478</v>
       </c>
       <c r="DF107">
-        <v>-0.1713937937555047</v>
+        <v>-0.1713937937555046</v>
       </c>
       <c r="DG107">
         <v>-1.107480667445969</v>
@@ -42714,7 +42714,7 @@
         <v>-0.1597197771331775</v>
       </c>
       <c r="DT107">
-        <v>-0.2506308592244133</v>
+        <v>-0.2506308592244132</v>
       </c>
       <c r="DU107">
         <v>-0.2455033522462885</v>
@@ -42899,7 +42899,7 @@
         <v>445.192</v>
       </c>
       <c r="AV108">
-        <v>674.2000000000001</v>
+        <v>674.2</v>
       </c>
       <c r="AW108">
         <v>549.5</v>
@@ -42944,7 +42944,7 @@
         <v>510.1</v>
       </c>
       <c r="BK108">
-        <v>691.7000000000001</v>
+        <v>691.7</v>
       </c>
       <c r="BL108">
         <v>33.3</v>
@@ -42983,7 +42983,7 @@
         <v>0.03800932182687677</v>
       </c>
       <c r="CA108">
-        <v>-0.118351513502344</v>
+        <v>-0.1183515135023439</v>
       </c>
       <c r="CB108">
         <v>-0.05689554006949091</v>
@@ -43061,7 +43061,7 @@
         <v>0</v>
       </c>
       <c r="DA108">
-        <v>-0.06382968411792978</v>
+        <v>-0.06382968411792977</v>
       </c>
       <c r="DB108">
         <v>0.5825130268719619</v>
@@ -43145,7 +43145,7 @@
         <v>0.02900672377611602</v>
       </c>
       <c r="EC108">
-        <v>-0.1059886176679823</v>
+        <v>-0.1059886176679822</v>
       </c>
       <c r="ED108">
         <v>-0.2104638193487511</v>
@@ -43210,7 +43210,7 @@
         <v>180.3</v>
       </c>
       <c r="Q109">
-        <v>97.609</v>
+        <v>97.60899999999999</v>
       </c>
       <c r="R109">
         <v>93.892</v>
@@ -43261,7 +43261,7 @@
         <v>21.7</v>
       </c>
       <c r="AH109">
-        <v>910.7000000000001</v>
+        <v>910.7</v>
       </c>
       <c r="AI109">
         <v>531.5999999999999</v>
@@ -43273,7 +43273,7 @@
         <v>569.4</v>
       </c>
       <c r="AL109">
-        <v>593.2000000000001</v>
+        <v>593.2</v>
       </c>
       <c r="AM109">
         <v>2026.1</v>
@@ -43558,7 +43558,7 @@
         <v>-0.01673919136160351</v>
       </c>
       <c r="EF109">
-        <v>-7.532469064889138e-006</v>
+        <v>-7.532469064889138e-06</v>
       </c>
       <c r="EG109">
         <v>-0.01153723592328694</v>
@@ -43605,10 +43605,10 @@
         <v>5433.1</v>
       </c>
       <c r="N110">
-        <v>0.004418978634846305</v>
+        <v>0.004418978634846304</v>
       </c>
       <c r="O110">
-        <v>570.7000000000001</v>
+        <v>570.7</v>
       </c>
       <c r="P110">
         <v>184.6</v>
@@ -43635,7 +43635,7 @@
         <v>0.006627706881570328</v>
       </c>
       <c r="X110">
-        <v>0.006854492355265363</v>
+        <v>0.006854492355265362</v>
       </c>
       <c r="Y110">
         <v>0.005645068382679641</v>
@@ -43647,7 +43647,7 @@
         <v>0.006627706881570328</v>
       </c>
       <c r="AB110">
-        <v>0.006854492355265363</v>
+        <v>0.006854492355265362</v>
       </c>
       <c r="AC110">
         <v>0.005645068382679641</v>
@@ -43668,7 +43668,7 @@
         <v>930.5</v>
       </c>
       <c r="AI110">
-        <v>543.7000000000001</v>
+        <v>543.7</v>
       </c>
       <c r="AJ110">
         <v>902.1</v>
@@ -43677,7 +43677,7 @@
         <v>577.3</v>
       </c>
       <c r="AL110">
-        <v>595.7000000000001</v>
+        <v>595.7</v>
       </c>
       <c r="AM110">
         <v>2075.2</v>
@@ -43839,7 +43839,7 @@
         <v>7.313918167755276</v>
       </c>
       <c r="CQ110">
-        <v>22.17358007256235</v>
+        <v>22.17358007256234</v>
       </c>
       <c r="CR110">
         <v>-0.6961304908374473</v>
@@ -43920,7 +43920,7 @@
         <v>-6.382460429184007</v>
       </c>
       <c r="DR110">
-        <v>-6.553075925529234</v>
+        <v>-6.553075925529233</v>
       </c>
       <c r="DS110">
         <v>0.1706154963452331</v>
@@ -43956,13 +43956,13 @@
         <v>-0.1817953334520593</v>
       </c>
       <c r="ED110">
-        <v>-0.3090854707951286</v>
+        <v>-0.3090854707951285</v>
       </c>
       <c r="EE110">
         <v>-0.05293409659575501</v>
       </c>
       <c r="EF110">
-        <v>-4.303316576966108e-005</v>
+        <v>-4.303316576966108e-05</v>
       </c>
       <c r="EG110">
         <v>-0.008359180407799635</v>
@@ -43982,7 +43982,7 @@
         <v>-0.06298810212320678</v>
       </c>
       <c r="E111">
-        <v>0.3537225178809818</v>
+        <v>0.3537225178809817</v>
       </c>
       <c r="F111">
         <v>-0.7051114519524206</v>
@@ -44012,7 +44012,7 @@
         <v>0.002502489034792665</v>
       </c>
       <c r="O111">
-        <v>587.2000000000001</v>
+        <v>587.2</v>
       </c>
       <c r="P111">
         <v>184.2</v>
@@ -44039,7 +44039,7 @@
         <v>0.003232795098337959</v>
       </c>
       <c r="X111">
-        <v>0.002388711631319485</v>
+        <v>0.002388711631319484</v>
       </c>
       <c r="Y111">
         <v>0.00682443047918313</v>
@@ -44051,7 +44051,7 @@
         <v>0.003232795098337959</v>
       </c>
       <c r="AB111">
-        <v>0.002388711631319485</v>
+        <v>0.002388711631319484</v>
       </c>
       <c r="AC111">
         <v>0.00682443047918313</v>
@@ -44075,7 +44075,7 @@
         <v>544.3</v>
       </c>
       <c r="AJ111">
-        <v>916.2000000000001</v>
+        <v>916.2</v>
       </c>
       <c r="AK111">
         <v>584.9</v>
@@ -44153,7 +44153,7 @@
         <v>10.9</v>
       </c>
       <c r="BJ111">
-        <v>530.7000000000001</v>
+        <v>530.7</v>
       </c>
       <c r="BK111">
         <v>718.5</v>
@@ -44219,10 +44219,10 @@
         <v>-3.525230412638678</v>
       </c>
       <c r="CI111">
-        <v>-5.680092332836694</v>
+        <v>-5.680092332836693</v>
       </c>
       <c r="CJ111">
-        <v>12.3300761281912</v>
+        <v>12.33007612819119</v>
       </c>
       <c r="CK111">
         <v>1.674361982902894</v>
@@ -44276,7 +44276,7 @@
         <v>-0.09199305479919928</v>
       </c>
       <c r="DB111">
-        <v>-2.418707190304986</v>
+        <v>-2.418707190304985</v>
       </c>
       <c r="DC111">
         <v>-0.546052506536465</v>
@@ -44354,7 +44354,7 @@
         <v>-0.5077473951300542</v>
       </c>
       <c r="EB111">
-        <v>-0.1156902526841803</v>
+        <v>-0.1156902526841802</v>
       </c>
       <c r="EC111">
         <v>-0.1946516994172307</v>
@@ -44437,7 +44437,7 @@
         <v>0.002312734772040859</v>
       </c>
       <c r="V112">
-        <v>969.2000000000001</v>
+        <v>969.2</v>
       </c>
       <c r="W112">
         <v>0.004352740708248204</v>
@@ -44473,7 +44473,7 @@
         <v>19.6</v>
       </c>
       <c r="AH112">
-        <v>937.2000000000001</v>
+        <v>937.2</v>
       </c>
       <c r="AI112">
         <v>545.6000000000001</v>
@@ -44533,10 +44533,10 @@
         <v>33</v>
       </c>
       <c r="BB112">
-        <v>66.59199999999999</v>
+        <v>66.59199999999998</v>
       </c>
       <c r="BC112">
-        <v>66.59199999999999</v>
+        <v>66.59199999999998</v>
       </c>
       <c r="BD112">
         <v>247.064</v>
@@ -44608,7 +44608,7 @@
         <v>-0.3806827485328962</v>
       </c>
       <c r="CD112">
-        <v>-0.02040255950258626</v>
+        <v>-0.02040255950258625</v>
       </c>
       <c r="CE112">
         <v>0.02875224596350647</v>
@@ -44617,7 +44617,7 @@
         <v>-0.3519305025693897</v>
       </c>
       <c r="CG112">
-        <v>-0.6063724748517601</v>
+        <v>-0.60637247485176</v>
       </c>
       <c r="CH112">
         <v>1.067395475203341</v>
@@ -44659,7 +44659,7 @@
         <v>-0.9673727387579163</v>
       </c>
       <c r="CU112">
-        <v>-0.004837767557758999</v>
+        <v>-0.004837767557758998</v>
       </c>
       <c r="CV112">
         <v>1.336200247364815</v>
@@ -44749,7 +44749,7 @@
         <v>-2.297140679578185</v>
       </c>
       <c r="DY112">
-        <v>-10.68587841590638</v>
+        <v>-10.68587841590637</v>
       </c>
       <c r="DZ112">
         <v>-0.1078621721171144</v>
@@ -44770,7 +44770,7 @@
         <v>-0.03666692098774088</v>
       </c>
       <c r="EF112">
-        <v>9.429036233156077e-005</v>
+        <v>9.429036233156077e-05</v>
       </c>
       <c r="EG112">
         <v>-0.007313196859673287</v>
@@ -44820,7 +44820,7 @@
         <v>0.003132152752680417</v>
       </c>
       <c r="O113">
-        <v>589.2000000000001</v>
+        <v>589.2</v>
       </c>
       <c r="P113">
         <v>196.3</v>
@@ -44877,7 +44877,7 @@
         <v>19.4</v>
       </c>
       <c r="AH113">
-        <v>942.7000000000001</v>
+        <v>942.7</v>
       </c>
       <c r="AI113">
         <v>547.3000000000002</v>
@@ -44964,7 +44964,7 @@
         <v>544</v>
       </c>
       <c r="BK113">
-        <v>743.7000000000001</v>
+        <v>743.7</v>
       </c>
       <c r="BL113">
         <v>34.4</v>
@@ -45024,7 +45024,7 @@
         <v>-0.02952398249689736</v>
       </c>
       <c r="CH113">
-        <v>-0.8839198050553137</v>
+        <v>-0.8839198050553136</v>
       </c>
       <c r="CI113">
         <v>-5.316415714081018</v>
@@ -45105,7 +45105,7 @@
         <v>-0.7083955905366202</v>
       </c>
       <c r="DI113">
-        <v>-0.0277436386343338</v>
+        <v>-0.02774363863433379</v>
       </c>
       <c r="DJ113">
         <v>-0.680651951902286</v>
@@ -45120,7 +45120,7 @@
         <v>0</v>
       </c>
       <c r="DN113">
-        <v>-0.08564922166463306</v>
+        <v>-0.08564922166463305</v>
       </c>
       <c r="DO113">
         <v>-0.1914252616101739</v>
@@ -45165,7 +45165,7 @@
         <v>0.004968406875599558</v>
       </c>
       <c r="EC113">
-        <v>-0.1484725394625305</v>
+        <v>-0.1484725394625304</v>
       </c>
       <c r="ED113">
         <v>-0.4016055501549161</v>
@@ -45221,10 +45221,10 @@
         <v>5721.3</v>
       </c>
       <c r="N114">
-        <v>8.006084624323506e-005</v>
+        <v>8.006084624323506e-05</v>
       </c>
       <c r="O114">
-        <v>572.2000000000001</v>
+        <v>572.2</v>
       </c>
       <c r="P114">
         <v>197.3</v>
@@ -45368,7 +45368,7 @@
         <v>549.6</v>
       </c>
       <c r="BK114">
-        <v>755.7000000000001</v>
+        <v>755.7</v>
       </c>
       <c r="BL114">
         <v>34.7</v>
@@ -45452,7 +45452,7 @@
         <v>-6.543143281364905</v>
       </c>
       <c r="CP114">
-        <v>6.338562758018441</v>
+        <v>6.33856275801844</v>
       </c>
       <c r="CQ114">
         <v>15.22059239355622</v>
@@ -45512,7 +45512,7 @@
         <v>-0.01198800994560717</v>
       </c>
       <c r="DJ114">
-        <v>-0.416150388645526</v>
+        <v>-0.4161503886455259</v>
       </c>
       <c r="DK114">
         <v>0</v>
@@ -45524,7 +45524,7 @@
         <v>0</v>
       </c>
       <c r="DN114">
-        <v>0.136708731385384</v>
+        <v>0.1367087313853839</v>
       </c>
       <c r="DO114">
         <v>0.04853482219094001</v>
@@ -45560,7 +45560,7 @@
         <v>-11.91179530674873</v>
       </c>
       <c r="DZ114">
-        <v>-0.09800217715906436</v>
+        <v>-0.09800217715906435</v>
       </c>
       <c r="EA114">
         <v>-0.5435515032911045</v>
@@ -45700,7 +45700,7 @@
         <v>635.5</v>
       </c>
       <c r="AM115">
-        <v>2280.6</v>
+        <v>2280.599999999999</v>
       </c>
       <c r="AN115">
         <v>209.9</v>
@@ -45850,7 +45850,7 @@
         <v>-0.3322639093292175</v>
       </c>
       <c r="CN115">
-        <v>0.8001229602270144</v>
+        <v>0.8001229602270143</v>
       </c>
       <c r="CO115">
         <v>-2.59767644767453</v>
@@ -45958,7 +45958,7 @@
         <v>-12.56196540918012</v>
       </c>
       <c r="DX115">
-        <v>-1.754535865480335</v>
+        <v>-1.754535865480334</v>
       </c>
       <c r="DY115">
         <v>-10.80742954369981</v>
@@ -46029,7 +46029,7 @@
         <v>5926.8</v>
       </c>
       <c r="N116">
-        <v>0.003103191092642677</v>
+        <v>0.003103191092642676</v>
       </c>
       <c r="O116">
         <v>588.6</v>
@@ -46134,7 +46134,7 @@
         <v>841.6</v>
       </c>
       <c r="AW116">
-        <v>622.2000000000001</v>
+        <v>622.2</v>
       </c>
       <c r="AX116">
         <v>81.5</v>
@@ -46245,7 +46245,7 @@
         <v>7.697388757963381</v>
       </c>
       <c r="CK116">
-        <v>3.092625581117432</v>
+        <v>3.092625581117431</v>
       </c>
       <c r="CL116">
         <v>0</v>
@@ -46287,7 +46287,7 @@
         <v>-4.062498292561145</v>
       </c>
       <c r="CY116">
-        <v>0.7385687591641315</v>
+        <v>0.7385687591641314</v>
       </c>
       <c r="CZ116">
         <v>0</v>
@@ -46305,7 +46305,7 @@
         <v>-0.9006035715129965</v>
       </c>
       <c r="DE116">
-        <v>-1.883143259058487</v>
+        <v>-1.883143259058486</v>
       </c>
       <c r="DF116">
         <v>-1.462523726329849</v>
@@ -46386,7 +46386,7 @@
         <v>0.009027702706122742</v>
       </c>
       <c r="EF116">
-        <v>1.325262308062674e-005</v>
+        <v>1.325262308062674e-05</v>
       </c>
       <c r="EG116">
         <v>-0.004724079814467325</v>
@@ -46436,7 +46436,7 @@
         <v>0.002628888564334853</v>
       </c>
       <c r="O117">
-        <v>594.2000000000001</v>
+        <v>594.2</v>
       </c>
       <c r="P117">
         <v>207</v>
@@ -46496,7 +46496,7 @@
         <v>966.4</v>
       </c>
       <c r="AI117">
-        <v>565.7000000000001</v>
+        <v>565.7</v>
       </c>
       <c r="AJ117">
         <v>1068</v>
@@ -46535,10 +46535,10 @@
         <v>480.576</v>
       </c>
       <c r="AV117">
-        <v>861.7000000000001</v>
+        <v>861.7</v>
       </c>
       <c r="AW117">
-        <v>632.2000000000001</v>
+        <v>632.2</v>
       </c>
       <c r="AX117">
         <v>81.7</v>
@@ -46562,7 +46562,7 @@
         <v>261.012</v>
       </c>
       <c r="BE117">
-        <v>0.4879999999999996</v>
+        <v>0.4879999999999995</v>
       </c>
       <c r="BF117">
         <v>0</v>
@@ -46637,7 +46637,7 @@
         <v>-0.3176443304924219</v>
       </c>
       <c r="CG117">
-        <v>2.623320295119783</v>
+        <v>2.623320295119782</v>
       </c>
       <c r="CH117">
         <v>2.953972809514767</v>
@@ -46790,7 +46790,7 @@
         <v>0.01089806350485416</v>
       </c>
       <c r="EF117">
-        <v>2.056982248742861e-005</v>
+        <v>2.056982248742861e-05</v>
       </c>
       <c r="EG117">
         <v>0.000731457252660975</v>
@@ -46801,7 +46801,7 @@
         <v>36250</v>
       </c>
       <c r="B118">
-        <v>-0.6938063158395647</v>
+        <v>-0.6938063158395646</v>
       </c>
       <c r="C118">
         <v>-0.6153874109821128</v>
@@ -46981,7 +46981,7 @@
         <v>9.9</v>
       </c>
       <c r="BJ118">
-        <v>576.2000000000001</v>
+        <v>576.2</v>
       </c>
       <c r="BK118">
         <v>794.3000000000001</v>
@@ -47146,7 +47146,7 @@
         <v>0.1081184137849808</v>
       </c>
       <c r="DP118">
-        <v>0.0256683332567891</v>
+        <v>0.02566833325678909</v>
       </c>
       <c r="DQ118">
         <v>-6.314675544490083</v>
@@ -47182,7 +47182,7 @@
         <v>-0.4319173335638102</v>
       </c>
       <c r="EB118">
-        <v>-0.05059471510814789</v>
+        <v>-0.05059471510814788</v>
       </c>
       <c r="EC118">
         <v>-0.1251834952017744</v>
@@ -47194,7 +47194,7 @@
         <v>0.005757983518044705</v>
       </c>
       <c r="EF118">
-        <v>2.781668301362613e-005</v>
+        <v>2.781668301362613e-05</v>
       </c>
       <c r="EG118">
         <v>0.004932496728794773</v>
@@ -47547,7 +47547,7 @@
         <v>0.6119880188036376</v>
       </c>
       <c r="DO119">
-        <v>0.5017944345074124</v>
+        <v>0.5017944345074123</v>
       </c>
       <c r="DP119">
         <v>0.1101935842962265</v>
@@ -47580,7 +47580,7 @@
         <v>-8.34264182578708</v>
       </c>
       <c r="DZ119">
-        <v>-0.02181158471665026</v>
+        <v>-0.02181158471665025</v>
       </c>
       <c r="EA119">
         <v>-0.3543538732242609</v>
@@ -47592,13 +47592,13 @@
         <v>-0.1444506981105445</v>
       </c>
       <c r="ED119">
-        <v>-0.1773277010261573</v>
+        <v>-0.1773277010261572</v>
       </c>
       <c r="EE119">
         <v>0.02599420295853961</v>
       </c>
       <c r="EF119">
-        <v>3.321791568132284e-005</v>
+        <v>3.321791568132284e-05</v>
       </c>
       <c r="EG119">
         <v>0.008840662673946254</v>
@@ -47624,7 +47624,7 @@
         <v>-0.3163953433650449</v>
       </c>
       <c r="G120">
-        <v>0.01004922219557617</v>
+        <v>0.01004922219557616</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -47708,7 +47708,7 @@
         <v>996.1</v>
       </c>
       <c r="AI120">
-        <v>579.7000000000001</v>
+        <v>579.7</v>
       </c>
       <c r="AJ120">
         <v>1120.6</v>
@@ -47747,10 +47747,10 @@
         <v>491.9960000000001</v>
       </c>
       <c r="AV120">
-        <v>904.2000000000001</v>
+        <v>904.2</v>
       </c>
       <c r="AW120">
-        <v>656.7000000000001</v>
+        <v>656.7</v>
       </c>
       <c r="AX120">
         <v>83.8</v>
@@ -47789,7 +47789,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="BJ120">
-        <v>595.2000000000001</v>
+        <v>595.2</v>
       </c>
       <c r="BK120">
         <v>821.3000000000001</v>
@@ -47828,7 +47828,7 @@
         <v>0.1395254677960736</v>
       </c>
       <c r="BZ120">
-        <v>-0.01904064030438757</v>
+        <v>-0.01904064030438756</v>
       </c>
       <c r="CA120">
         <v>0.1063517760938276</v>
@@ -47843,7 +47843,7 @@
         <v>0.1734065989388867</v>
       </c>
       <c r="CE120">
-        <v>-0.01904064030438757</v>
+        <v>-0.01904064030438756</v>
       </c>
       <c r="CF120">
         <v>0.120484827491686</v>
@@ -48002,7 +48002,7 @@
         <v>0.02306787533093593</v>
       </c>
       <c r="EF120">
-        <v>3.810822169075334e-005</v>
+        <v>3.810822169075334e-05</v>
       </c>
       <c r="EG120">
         <v>0.01001111397388541</v>
@@ -48052,7 +48052,7 @@
         <v>0.005906180582778031</v>
       </c>
       <c r="O121">
-        <v>635.2000000000001</v>
+        <v>635.2</v>
       </c>
       <c r="P121">
         <v>227</v>
@@ -48121,7 +48121,7 @@
         <v>679.6</v>
       </c>
       <c r="AL121">
-        <v>690.7000000000001</v>
+        <v>690.7</v>
       </c>
       <c r="AM121">
         <v>2524.3</v>
@@ -48193,7 +48193,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="BJ121">
-        <v>603.7000000000001</v>
+        <v>603.7</v>
       </c>
       <c r="BK121">
         <v>837.5</v>
@@ -48253,7 +48253,7 @@
         <v>0.3702613776297398</v>
       </c>
       <c r="CG121">
-        <v>-0.2671526906675013</v>
+        <v>-0.2671526906675012</v>
       </c>
       <c r="CH121">
         <v>-0.348904758047297</v>
@@ -48277,7 +48277,7 @@
         <v>-0.2605393054031282</v>
       </c>
       <c r="CO121">
-        <v>-2.545464845319089</v>
+        <v>-2.545464845319088</v>
       </c>
       <c r="CP121">
         <v>-6.098397741328597</v>
@@ -48325,7 +48325,7 @@
         <v>0.1721253680567053</v>
       </c>
       <c r="DE121">
-        <v>-4.703149384259795</v>
+        <v>-4.703149384259794</v>
       </c>
       <c r="DF121">
         <v>-4.135260437197657</v>
@@ -48352,10 +48352,10 @@
         <v>0</v>
       </c>
       <c r="DN121">
-        <v>0.5058928814069466</v>
+        <v>0.5058928814069465</v>
       </c>
       <c r="DO121">
-        <v>0.4040776468398321</v>
+        <v>0.404077646839832</v>
       </c>
       <c r="DP121">
         <v>0.1018152345671157</v>
@@ -48388,7 +48388,7 @@
         <v>-8.982474370856362</v>
       </c>
       <c r="DZ121">
-        <v>-0.04788886202158958</v>
+        <v>-0.04788886202158957</v>
       </c>
       <c r="EA121">
         <v>-0.371103786275684</v>
@@ -48423,7 +48423,7 @@
         <v>-0.7456669684567119</v>
       </c>
       <c r="D122">
-        <v>0.03883989562439164</v>
+        <v>0.03883989562439163</v>
       </c>
       <c r="E122">
         <v>-1.31159166141865</v>
@@ -48453,7 +48453,7 @@
         <v>6613.6</v>
       </c>
       <c r="N122">
-        <v>0.008352601906939317</v>
+        <v>0.008352601906939316</v>
       </c>
       <c r="O122">
         <v>620.4</v>
@@ -48516,7 +48516,7 @@
         <v>1016.9</v>
       </c>
       <c r="AI122">
-        <v>593.2000000000001</v>
+        <v>593.2</v>
       </c>
       <c r="AJ122">
         <v>1208.8</v>
@@ -48552,7 +48552,7 @@
         <v>0</v>
       </c>
       <c r="AU122">
-        <v>503.656</v>
+        <v>503.6559999999999</v>
       </c>
       <c r="AV122">
         <v>976.6</v>
@@ -48573,10 +48573,10 @@
         <v>44.6</v>
       </c>
       <c r="BB122">
-        <v>75.34799999999999</v>
+        <v>75.34799999999998</v>
       </c>
       <c r="BC122">
-        <v>75.34799999999999</v>
+        <v>75.34799999999998</v>
       </c>
       <c r="BD122">
         <v>280.172</v>
@@ -48696,7 +48696,7 @@
         <v>0</v>
       </c>
       <c r="CT122">
-        <v>0.1158422886008133</v>
+        <v>0.1158422886008132</v>
       </c>
       <c r="CU122">
         <v>0.09239873955475514</v>
@@ -48765,7 +48765,7 @@
         <v>0.05663957425368054</v>
       </c>
       <c r="DQ122">
-        <v>-8.190015894612071</v>
+        <v>-8.19001589461207</v>
       </c>
       <c r="DR122">
         <v>-7.700794141889546</v>
@@ -48810,7 +48810,7 @@
         <v>0.008991644572124582</v>
       </c>
       <c r="EF122">
-        <v>8.368981428278842e-005</v>
+        <v>8.368981428278842e-05</v>
       </c>
       <c r="EG122">
         <v>0.004982399218425694</v>
@@ -48845,7 +48845,7 @@
         <v>10247.7</v>
       </c>
       <c r="J123">
-        <v>0.01621390428742831</v>
+        <v>0.0162139042874283</v>
       </c>
       <c r="K123">
         <v>0.01037328094302548</v>
@@ -49214,7 +49214,7 @@
         <v>0.01827052699433564</v>
       </c>
       <c r="EF123">
-        <v>5.169377168691961e-005</v>
+        <v>5.169377168691961e-05</v>
       </c>
       <c r="EG123">
         <v>0.006487590813496402</v>
@@ -49231,7 +49231,7 @@
         <v>-0.8382344239894907</v>
       </c>
       <c r="D124">
-        <v>-0.2606953291135497</v>
+        <v>-0.2606953291135496</v>
       </c>
       <c r="E124">
         <v>-0.7542304097927617</v>
@@ -49330,7 +49330,7 @@
         <v>1247.7</v>
       </c>
       <c r="AK124">
-        <v>715.2000000000001</v>
+        <v>715.2</v>
       </c>
       <c r="AL124">
         <v>711.3</v>
@@ -49366,7 +49366,7 @@
         <v>1011.1</v>
       </c>
       <c r="AW124">
-        <v>704.2000000000001</v>
+        <v>704.2</v>
       </c>
       <c r="AX124">
         <v>87.5</v>
@@ -49405,7 +49405,7 @@
         <v>11</v>
       </c>
       <c r="BJ124">
-        <v>623.7000000000001</v>
+        <v>623.7</v>
       </c>
       <c r="BK124">
         <v>871.3000000000001</v>
@@ -49483,7 +49483,7 @@
         <v>0</v>
       </c>
       <c r="CM124">
-        <v>0.2770985797658661</v>
+        <v>0.277098579765866</v>
       </c>
       <c r="CN124">
         <v>-0.4265281955268065</v>
@@ -49513,7 +49513,7 @@
         <v>-4.050026972333498</v>
       </c>
       <c r="CW124">
-        <v>0.3724249778685334</v>
+        <v>0.3724249778685333</v>
       </c>
       <c r="CX124">
         <v>-15.3881889648153</v>
@@ -49698,7 +49698,7 @@
         <v>0.01398927840019271</v>
       </c>
       <c r="Y125">
-        <v>0.005886714789425041</v>
+        <v>0.00588671478942504</v>
       </c>
       <c r="Z125">
         <v>0.004498591626329596</v>
@@ -49710,7 +49710,7 @@
         <v>0.01398927840019271</v>
       </c>
       <c r="AC125">
-        <v>0.005886714789425041</v>
+        <v>0.00588671478942504</v>
       </c>
       <c r="AD125">
         <v>226.7</v>
@@ -49728,7 +49728,7 @@
         <v>1065.6</v>
       </c>
       <c r="AI125">
-        <v>612.2000000000001</v>
+        <v>612.2</v>
       </c>
       <c r="AJ125">
         <v>1258.7</v>
@@ -49770,7 +49770,7 @@
         <v>1023.9</v>
       </c>
       <c r="AW125">
-        <v>709.2000000000001</v>
+        <v>709.2</v>
       </c>
       <c r="AX125">
         <v>87</v>
@@ -49812,7 +49812,7 @@
         <v>630.1</v>
       </c>
       <c r="BK125">
-        <v>876.7000000000001</v>
+        <v>876.7</v>
       </c>
       <c r="BL125">
         <v>33.7</v>
@@ -49893,7 +49893,7 @@
         <v>0.4201881127838973</v>
       </c>
       <c r="CO125">
-        <v>-2.837762818331044</v>
+        <v>-2.837762818331043</v>
       </c>
       <c r="CP125">
         <v>-7.208796863709381</v>
@@ -49941,7 +49941,7 @@
         <v>0.2874930096362451</v>
       </c>
       <c r="DE125">
-        <v>-1.695236916504674</v>
+        <v>-1.695236916504673</v>
       </c>
       <c r="DF125">
         <v>-1.978661010809684</v>
@@ -49956,7 +49956,7 @@
         <v>0.02868739169965043</v>
       </c>
       <c r="DJ125">
-        <v>0.2385962071449558</v>
+        <v>0.2385962071449557</v>
       </c>
       <c r="DK125">
         <v>0</v>
@@ -49977,7 +49977,7 @@
         <v>0.2299546939936988</v>
       </c>
       <c r="DQ125">
-        <v>0.4049576834804251</v>
+        <v>0.404957683480425</v>
       </c>
       <c r="DR125">
         <v>-1.780194685326605</v>
@@ -50022,7 +50022,7 @@
         <v>0.04319873315182488</v>
       </c>
       <c r="EF125">
-        <v>6.533523058086576e-005</v>
+        <v>6.533523058086576e-05</v>
       </c>
       <c r="EG125">
         <v>0.007562399378188313</v>
@@ -50096,7 +50096,7 @@
         <v>1252.3</v>
       </c>
       <c r="W126">
-        <v>0.01173142772070857</v>
+        <v>0.01173142772070856</v>
       </c>
       <c r="X126">
         <v>0.013083445950963</v>
@@ -50108,7 +50108,7 @@
         <v>0.001715149122687665</v>
       </c>
       <c r="AA126">
-        <v>0.01173142772070857</v>
+        <v>0.01173142772070856</v>
       </c>
       <c r="AB126">
         <v>0.013083445950963</v>
@@ -50141,7 +50141,7 @@
         <v>736.1</v>
       </c>
       <c r="AL126">
-        <v>724.2000000000001</v>
+        <v>724.2</v>
       </c>
       <c r="AM126">
         <v>2762.2</v>
@@ -50168,7 +50168,7 @@
         <v>0</v>
       </c>
       <c r="AU126">
-        <v>533.7480000000001</v>
+        <v>533.748</v>
       </c>
       <c r="AV126">
         <v>1051</v>
@@ -50189,10 +50189,10 @@
         <v>47.2</v>
       </c>
       <c r="BB126">
-        <v>85.612</v>
+        <v>85.61199999999999</v>
       </c>
       <c r="BC126">
-        <v>85.612</v>
+        <v>85.61199999999999</v>
       </c>
       <c r="BD126">
         <v>315.276</v>
@@ -50216,7 +50216,7 @@
         <v>637.1</v>
       </c>
       <c r="BK126">
-        <v>900.7000000000001</v>
+        <v>900.7</v>
       </c>
       <c r="BL126">
         <v>30.1</v>
@@ -50264,7 +50264,7 @@
         <v>0.2998036311171772</v>
       </c>
       <c r="CD126">
-        <v>0.1178663458190866</v>
+        <v>0.1178663458190865</v>
       </c>
       <c r="CE126">
         <v>0.1525001370393898</v>
@@ -50339,7 +50339,7 @@
         <v>4.432557555670537</v>
       </c>
       <c r="DC126">
-        <v>3.237446277395657</v>
+        <v>3.237446277395656</v>
       </c>
       <c r="DD126">
         <v>1.195111278274871</v>
@@ -50348,7 +50348,7 @@
         <v>1.88357945585648</v>
       </c>
       <c r="DF126">
-        <v>0.8497521179228214</v>
+        <v>0.8497521179228213</v>
       </c>
       <c r="DG126">
         <v>1.033827337933675</v>
@@ -50408,7 +50408,7 @@
         <v>3.278364827360327</v>
       </c>
       <c r="DZ126">
-        <v>0.1131123529508594</v>
+        <v>0.1131123529508593</v>
       </c>
       <c r="EA126">
         <v>0.1256198803471722</v>
@@ -50452,7 +50452,7 @@
         <v>0.3785454545362815</v>
       </c>
       <c r="G127">
-        <v>0.03029749213724082</v>
+        <v>0.03029749213724081</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -50907,10 +50907,10 @@
         <v>0.002653103104570453</v>
       </c>
       <c r="X128">
-        <v>0.002539960586818602</v>
+        <v>0.002539960586818601</v>
       </c>
       <c r="Y128">
-        <v>0.003131897631688752</v>
+        <v>0.003131897631688751</v>
       </c>
       <c r="Z128">
         <v>0.006394052044609744</v>
@@ -50919,10 +50919,10 @@
         <v>0.002653103104570453</v>
       </c>
       <c r="AB128">
-        <v>0.002539960586818602</v>
+        <v>0.002539960586818601</v>
       </c>
       <c r="AC128">
-        <v>0.003131897631688752</v>
+        <v>0.003131897631688751</v>
       </c>
       <c r="AD128">
         <v>245.8</v>
@@ -50979,7 +50979,7 @@
         <v>538.352</v>
       </c>
       <c r="AV128">
-        <v>881.7000000000001</v>
+        <v>881.7</v>
       </c>
       <c r="AW128">
         <v>722</v>
@@ -51021,10 +51021,10 @@
         <v>14.1</v>
       </c>
       <c r="BJ128">
-        <v>641.7000000000001</v>
+        <v>641.7</v>
       </c>
       <c r="BK128">
-        <v>887.7000000000001</v>
+        <v>887.7</v>
       </c>
       <c r="BL128">
         <v>28.3</v>
@@ -51159,7 +51159,7 @@
         <v>1.272967153122217</v>
       </c>
       <c r="DG128">
-        <v>2.98597315664211</v>
+        <v>2.985973156642109</v>
       </c>
       <c r="DH128">
         <v>2.568038287214704</v>
@@ -51219,7 +51219,7 @@
         <v>0.2918957578265717</v>
       </c>
       <c r="EA128">
-        <v>1.178492420464298</v>
+        <v>1.178492420464297</v>
       </c>
       <c r="EB128">
         <v>0.1226693877332472</v>
@@ -51231,7 +51231,7 @@
         <v>1.024671920561871</v>
       </c>
       <c r="EE128">
-        <v>0.1200478283838102</v>
+        <v>0.1200478283838101</v>
       </c>
       <c r="EF128">
         <v>0.003472129257190384</v>
@@ -51350,7 +51350,7 @@
         <v>1231.8</v>
       </c>
       <c r="AK129">
-        <v>738.7000000000001</v>
+        <v>738.7</v>
       </c>
       <c r="AL129">
         <v>737.1</v>
@@ -51386,7 +51386,7 @@
         <v>1002.4</v>
       </c>
       <c r="AW129">
-        <v>724.2000000000001</v>
+        <v>724.2</v>
       </c>
       <c r="AX129">
         <v>84.09999999999999</v>
@@ -51485,7 +51485,7 @@
         <v>0.656664767350556</v>
       </c>
       <c r="CG129">
-        <v>-25.18854480063772</v>
+        <v>-25.18854480063771</v>
       </c>
       <c r="CH129">
         <v>29.765767205972</v>
@@ -51503,7 +51503,7 @@
         <v>0</v>
       </c>
       <c r="CM129">
-        <v>7.226007976074421</v>
+        <v>7.22600797607442</v>
       </c>
       <c r="CN129">
         <v>-23.74881181831618</v>
@@ -51557,7 +51557,7 @@
         <v>3.554808367553279</v>
       </c>
       <c r="DE129">
-        <v>7.089170969057888</v>
+        <v>7.089170969057887</v>
       </c>
       <c r="DF129">
         <v>2.736534875172202</v>
@@ -51584,7 +51584,7 @@
         <v>0</v>
       </c>
       <c r="DN129">
-        <v>3.537769921162989</v>
+        <v>3.537769921162988</v>
       </c>
       <c r="DO129">
         <v>3.066304637061172</v>
@@ -51676,7 +51676,7 @@
         <v>0.009996491582346501</v>
       </c>
       <c r="K130">
-        <v>0.007268675330042163</v>
+        <v>0.007268675330042162</v>
       </c>
       <c r="L130">
         <v>0.002727816252304338</v>
@@ -51748,7 +51748,7 @@
         <v>1221</v>
       </c>
       <c r="AI130">
-        <v>679.2000000000001</v>
+        <v>679.2</v>
       </c>
       <c r="AJ130">
         <v>1075.2</v>
@@ -52042,10 +52042,10 @@
         <v>0.1430465866683625</v>
       </c>
       <c r="EF130">
-        <v>-0.0009068367471206337</v>
+        <v>-0.0009068367471206336</v>
       </c>
       <c r="EG130">
-        <v>-0.01662725062622363</v>
+        <v>-0.01662725062622362</v>
       </c>
     </row>
     <row r="131">
@@ -52092,7 +52092,7 @@
         <v>0.007621094189228073</v>
       </c>
       <c r="O131">
-        <v>734.7000000000001</v>
+        <v>734.7</v>
       </c>
       <c r="P131">
         <v>285.7</v>
@@ -52191,7 +52191,7 @@
         <v>576.816</v>
       </c>
       <c r="AV131">
-        <v>836.7000000000001</v>
+        <v>836.7</v>
       </c>
       <c r="AW131">
         <v>739.9</v>
@@ -52236,7 +52236,7 @@
         <v>664</v>
       </c>
       <c r="BK131">
-        <v>893.7000000000001</v>
+        <v>893.7</v>
       </c>
       <c r="BL131">
         <v>30.2</v>
@@ -52275,7 +52275,7 @@
         <v>-0.2769633288035255</v>
       </c>
       <c r="CA131">
-        <v>0.1988805601678128</v>
+        <v>0.1988805601678127</v>
       </c>
       <c r="CB131">
         <v>-0.2162446830750226</v>
@@ -52284,7 +52284,7 @@
         <v>0.3359317875966421</v>
       </c>
       <c r="CD131">
-        <v>-0.01736412290720985</v>
+        <v>-0.01736412290720984</v>
       </c>
       <c r="CE131">
         <v>-0.2769633288035255</v>
@@ -52469,7 +52469,7 @@
         <v>-0.08532620047935681</v>
       </c>
       <c r="F132">
-        <v>1.552930265269575</v>
+        <v>1.552930265269574</v>
       </c>
       <c r="G132">
         <v>-0.01978610930385603</v>
@@ -52496,7 +52496,7 @@
         <v>0.004885246308167446</v>
       </c>
       <c r="O132">
-        <v>748.2000000000001</v>
+        <v>748.2</v>
       </c>
       <c r="P132">
         <v>294.3</v>
@@ -52547,7 +52547,7 @@
         <v>251.1</v>
       </c>
       <c r="AF132">
-        <v>512.7000000000001</v>
+        <v>512.7</v>
       </c>
       <c r="AG132">
         <v>56.9</v>
@@ -52694,7 +52694,7 @@
         <v>-0.189982982791151</v>
       </c>
       <c r="CF132">
-        <v>-0.1091910490467325</v>
+        <v>-0.1091910490467324</v>
       </c>
       <c r="CG132">
         <v>1.134832685978388</v>
@@ -52730,7 +52730,7 @@
         <v>-28.04703250755188</v>
       </c>
       <c r="CR132">
-        <v>5.198654247457498</v>
+        <v>5.198654247457497</v>
       </c>
       <c r="CS132">
         <v>0</v>
@@ -52778,13 +52778,13 @@
         <v>3.123816995049186</v>
       </c>
       <c r="DH132">
-        <v>5.152441911057641</v>
+        <v>5.15244191105764</v>
       </c>
       <c r="DI132">
         <v>4.179112204873726</v>
       </c>
       <c r="DJ132">
-        <v>0.9733297061839134</v>
+        <v>0.9733297061839133</v>
       </c>
       <c r="DK132">
         <v>0</v>
@@ -52802,7 +52802,7 @@
         <v>2.951194917645429</v>
       </c>
       <c r="DP132">
-        <v>0.3151968558699042</v>
+        <v>0.3151968558699041</v>
       </c>
       <c r="DQ132">
         <v>25.38754492374278</v>
@@ -52867,7 +52867,7 @@
         <v>1.712158073606745</v>
       </c>
       <c r="D133">
-        <v>-0.2574736546801013</v>
+        <v>-0.2574736546801012</v>
       </c>
       <c r="E133">
         <v>0.3456853209154376</v>
@@ -52924,10 +52924,10 @@
         <v>1366.9</v>
       </c>
       <c r="W133">
-        <v>0.008334403676271363</v>
+        <v>0.008334403676271362</v>
       </c>
       <c r="X133">
-        <v>0.009907314095922049</v>
+        <v>0.009907314095922048</v>
       </c>
       <c r="Y133">
         <v>0.001722627737226201</v>
@@ -52936,10 +52936,10 @@
         <v>0.01853347225840074</v>
       </c>
       <c r="AA133">
-        <v>0.008334403676271363</v>
+        <v>0.008334403676271362</v>
       </c>
       <c r="AB133">
-        <v>0.009907314095922049</v>
+        <v>0.009907314095922048</v>
       </c>
       <c r="AC133">
         <v>0.001722627737226201</v>
@@ -52987,7 +52987,7 @@
         <v>155.307</v>
       </c>
       <c r="AR133">
-        <v>420.507</v>
+        <v>420.5069999999999</v>
       </c>
       <c r="AS133">
         <v>41.942</v>
@@ -53149,7 +53149,7 @@
         <v>5.6781936484022</v>
       </c>
       <c r="CW133">
-        <v>3.143744846408652</v>
+        <v>3.143744846408651</v>
       </c>
       <c r="CX133">
         <v>-0.8542842883450703</v>
@@ -53277,7 +53277,7 @@
         <v>0.0406776650144408</v>
       </c>
       <c r="F134">
-        <v>1.134597015196911</v>
+        <v>1.13459701519691</v>
       </c>
       <c r="G134">
         <v>-0.005236364866788424</v>
@@ -53487,7 +53487,7 @@
         <v>-0.5455033053326465</v>
       </c>
       <c r="CA134">
-        <v>-7.731975667032106e-005</v>
+        <v>-7.731975667032106e-05</v>
       </c>
       <c r="CB134">
         <v>-0.08347764321227148</v>
@@ -53556,7 +53556,7 @@
         <v>0.3519414502041798</v>
       </c>
       <c r="CX134">
-        <v>-3.128350445042202</v>
+        <v>-3.128350445042201</v>
       </c>
       <c r="CY134">
         <v>0.5425994811234602</v>
@@ -53565,7 +53565,7 @@
         <v>0</v>
       </c>
       <c r="DA134">
-        <v>-1.473540755252254</v>
+        <v>-1.473540755252253</v>
       </c>
       <c r="DB134">
         <v>1.006092938012368</v>
@@ -53583,10 +53583,10 @@
         <v>1.613151511736944</v>
       </c>
       <c r="DG134">
-        <v>-2.355921220866891</v>
+        <v>-2.35592122086689</v>
       </c>
       <c r="DH134">
-        <v>-0.4836309930344666</v>
+        <v>-0.4836309930344665</v>
       </c>
       <c r="DI134">
         <v>-0.2594922811096458</v>
@@ -54008,13 +54008,13 @@
         <v>0</v>
       </c>
       <c r="DN135">
-        <v>2.388131525597173</v>
+        <v>2.388131525597172</v>
       </c>
       <c r="DO135">
         <v>2.075338747172249</v>
       </c>
       <c r="DP135">
-        <v>0.3127927784249237</v>
+        <v>0.3127927784249236</v>
       </c>
       <c r="DQ135">
         <v>25.25506622178861</v>
@@ -54109,10 +54109,10 @@
         <v>7802.6</v>
       </c>
       <c r="N136">
-        <v>0.006181796012924457</v>
+        <v>0.006181796012924456</v>
       </c>
       <c r="O136">
-        <v>832.7000000000001</v>
+        <v>832.7</v>
       </c>
       <c r="P136">
         <v>329.6</v>
@@ -54163,7 +54163,7 @@
         <v>271.7</v>
       </c>
       <c r="AF136">
-        <v>550.7000000000001</v>
+        <v>550.7</v>
       </c>
       <c r="AG136">
         <v>54.2</v>
@@ -54175,10 +54175,10 @@
         <v>730.5999999999998</v>
       </c>
       <c r="AJ136">
-        <v>950.7000000000001</v>
+        <v>950.7</v>
       </c>
       <c r="AK136">
-        <v>787.7000000000001</v>
+        <v>787.7</v>
       </c>
       <c r="AL136">
         <v>813</v>
@@ -54214,7 +54214,7 @@
         <v>716.5</v>
       </c>
       <c r="AW136">
-        <v>767.2000000000001</v>
+        <v>767.2</v>
       </c>
       <c r="AX136">
         <v>89.59999999999999</v>
@@ -54337,7 +54337,7 @@
         <v>-10.62694386819754</v>
       </c>
       <c r="CO136">
-        <v>16.28755416165888</v>
+        <v>16.28755416165887</v>
       </c>
       <c r="CP136">
         <v>-1.437988184991013</v>
@@ -54376,7 +54376,7 @@
         <v>0.09571467060912298</v>
       </c>
       <c r="DB136">
-        <v>3.273732912697307</v>
+        <v>3.273732912697306</v>
       </c>
       <c r="DC136">
         <v>4.469866574318426</v>
@@ -54460,7 +54460,7 @@
         <v>0.08457939276347916</v>
       </c>
       <c r="ED136">
-        <v>0.6979372236495292</v>
+        <v>0.6979372236495291</v>
       </c>
       <c r="EE136">
         <v>0.03591514221521172</v>
@@ -54618,7 +54618,7 @@
         <v>781.6</v>
       </c>
       <c r="AW137">
-        <v>778.2000000000001</v>
+        <v>778.2</v>
       </c>
       <c r="AX137">
         <v>91.09999999999999</v>
@@ -54708,13 +54708,13 @@
         <v>0.3492835625674946</v>
       </c>
       <c r="CD137">
-        <v>0.1599816072468139</v>
+        <v>0.1599816072468138</v>
       </c>
       <c r="CE137">
         <v>-0.3870075239261221</v>
       </c>
       <c r="CF137">
-        <v>-0.03772396135862755</v>
+        <v>-0.03772396135862754</v>
       </c>
       <c r="CG137">
         <v>-0.4173525856760563</v>
@@ -54738,7 +54738,7 @@
         <v>-3.310904360427941</v>
       </c>
       <c r="CN137">
-        <v>-2.32862388383893</v>
+        <v>-2.328623883838929</v>
       </c>
       <c r="CO137">
         <v>-2.331479195062684</v>
@@ -54762,10 +54762,10 @@
         <v>1.911271298162877</v>
       </c>
       <c r="CV137">
-        <v>-3.375624703233783</v>
+        <v>-3.375624703233782</v>
       </c>
       <c r="CW137">
-        <v>-2.628842542224462</v>
+        <v>-2.628842542224461</v>
       </c>
       <c r="CX137">
         <v>2.375543266889963</v>
@@ -54873,7 +54873,7 @@
         <v>0.0003977373109788172</v>
       </c>
       <c r="EG137">
-        <v>-0.01088944658840205</v>
+        <v>-0.01088944658840204</v>
       </c>
     </row>
     <row r="138">
@@ -54890,7 +54890,7 @@
         <v>0.2335694975294421</v>
       </c>
       <c r="E138">
-        <v>-0.4041200882597879</v>
+        <v>-0.4041200882597878</v>
       </c>
       <c r="F138">
         <v>0.24761480180424</v>
@@ -55019,7 +55019,7 @@
         <v>638.0240000000001</v>
       </c>
       <c r="AV138">
-        <v>773.2000000000001</v>
+        <v>773.2</v>
       </c>
       <c r="AW138">
         <v>790</v>
@@ -55046,7 +55046,7 @@
         <v>412.288</v>
       </c>
       <c r="BE138">
-        <v>6.012000000000001</v>
+        <v>6.012</v>
       </c>
       <c r="BF138">
         <v>0</v>
@@ -55061,7 +55061,7 @@
         <v>23.4</v>
       </c>
       <c r="BJ138">
-        <v>753.2000000000001</v>
+        <v>753.2</v>
       </c>
       <c r="BK138">
         <v>1015.6</v>
@@ -55133,7 +55133,7 @@
         <v>-9.329285135963801</v>
       </c>
       <c r="CK138">
-        <v>6.833693285206977</v>
+        <v>6.833693285206976</v>
       </c>
       <c r="CL138">
         <v>0</v>
@@ -55312,7 +55312,7 @@
         <v>0.01511085038568605</v>
       </c>
       <c r="K139">
-        <v>0.006867387892843802</v>
+        <v>0.006867387892843801</v>
       </c>
       <c r="L139">
         <v>0.008243462492842246</v>
@@ -55324,7 +55324,7 @@
         <v>0.006854968955245289</v>
       </c>
       <c r="O139">
-        <v>884.2000000000001</v>
+        <v>884.2</v>
       </c>
       <c r="P139">
         <v>332.8</v>
@@ -55588,7 +55588,7 @@
         <v>-5.053498809370716</v>
       </c>
       <c r="DB139">
-        <v>6.89560056058887</v>
+        <v>6.895600560588869</v>
       </c>
       <c r="DC139">
         <v>6.234418768099643</v>
@@ -55728,7 +55728,7 @@
         <v>0.005037903091656526</v>
       </c>
       <c r="O140">
-        <v>902.2000000000001</v>
+        <v>902.2</v>
       </c>
       <c r="P140">
         <v>328.4</v>
@@ -55794,7 +55794,7 @@
         <v>1064.4</v>
       </c>
       <c r="AK140">
-        <v>843.7000000000001</v>
+        <v>843.7</v>
       </c>
       <c r="AL140">
         <v>871.3</v>
@@ -55827,7 +55827,7 @@
         <v>647.8399999999998</v>
       </c>
       <c r="AV140">
-        <v>816.7000000000001</v>
+        <v>816.7</v>
       </c>
       <c r="AW140">
         <v>818.4</v>
@@ -55854,7 +55854,7 @@
         <v>419.53</v>
       </c>
       <c r="BE140">
-        <v>0.8700000000000046</v>
+        <v>0.8700000000000045</v>
       </c>
       <c r="BF140">
         <v>0</v>
@@ -55974,7 +55974,7 @@
         <v>-0.004806827615978893</v>
       </c>
       <c r="CV140">
-        <v>3.336421148341501</v>
+        <v>3.3364211483415</v>
       </c>
       <c r="CW140">
         <v>0.9048005625479618</v>
@@ -55989,7 +55989,7 @@
         <v>0</v>
       </c>
       <c r="DA140">
-        <v>-0.1835097688705774</v>
+        <v>-0.1835097688705773</v>
       </c>
       <c r="DB140">
         <v>3.74491842889571</v>
@@ -56028,7 +56028,7 @@
         <v>0</v>
       </c>
       <c r="DN140">
-        <v>-3.405169173632491</v>
+        <v>-3.40516917363249</v>
       </c>
       <c r="DO140">
         <v>-3.039637869507815</v>
@@ -56061,7 +56061,7 @@
         <v>-1.755004323503271</v>
       </c>
       <c r="DY140">
-        <v>-0.4829413726680411</v>
+        <v>-0.482941372668041</v>
       </c>
       <c r="DZ140">
         <v>-0.05797355102826893</v>
@@ -56082,7 +56082,7 @@
         <v>-0.1124839102694687</v>
       </c>
       <c r="EF140">
-        <v>-0.005092504879093508</v>
+        <v>-0.005092504879093507</v>
       </c>
       <c r="EG140">
         <v>-0.03101442302164207</v>
@@ -56156,25 +56156,25 @@
         <v>1480.3</v>
       </c>
       <c r="W141">
-        <v>0.01721707744391599</v>
+        <v>0.01721707744391598</v>
       </c>
       <c r="X141">
-        <v>0.01561765474014099</v>
+        <v>0.01561765474014098</v>
       </c>
       <c r="Y141">
-        <v>0.02401737776138369</v>
+        <v>0.02401737776138368</v>
       </c>
       <c r="Z141">
         <v>0.00972182115699316</v>
       </c>
       <c r="AA141">
-        <v>0.01721707744391599</v>
+        <v>0.01721707744391598</v>
       </c>
       <c r="AB141">
-        <v>0.01561765474014099</v>
+        <v>0.01561765474014098</v>
       </c>
       <c r="AC141">
-        <v>0.02401737776138369</v>
+        <v>0.02401737776138368</v>
       </c>
       <c r="AD141">
         <v>315.4</v>
@@ -56228,7 +56228,7 @@
         <v>0</v>
       </c>
       <c r="AU141">
-        <v>657.2480000000001</v>
+        <v>657.248</v>
       </c>
       <c r="AV141">
         <v>829.8</v>
@@ -56312,7 +56312,7 @@
         <v>-0.2608357489615764</v>
       </c>
       <c r="BZ141">
-        <v>-0.3249401302801948</v>
+        <v>-0.3249401302801947</v>
       </c>
       <c r="CA141">
         <v>0.1344166103687681</v>
@@ -56327,7 +56327,7 @@
         <v>-0.09419569258009547</v>
       </c>
       <c r="CE141">
-        <v>-0.3249401302801948</v>
+        <v>-0.3249401302801947</v>
       </c>
       <c r="CF141">
         <v>-0.5857758792417711</v>
@@ -56402,7 +56402,7 @@
         <v>2.25558740528594</v>
       </c>
       <c r="DD141">
-        <v>3.604937295894116</v>
+        <v>3.604937295894115</v>
       </c>
       <c r="DE141">
         <v>-2.209731149630553</v>
@@ -56465,7 +56465,7 @@
         <v>-3.100516435012819</v>
       </c>
       <c r="DY141">
-        <v>0.6104477917654984</v>
+        <v>0.6104477917654983</v>
       </c>
       <c r="DZ141">
         <v>-0.1008027581222215</v>
@@ -56602,7 +56602,7 @@
         <v>1172.3</v>
       </c>
       <c r="AK142">
-        <v>862.7000000000001</v>
+        <v>862.7</v>
       </c>
       <c r="AL142">
         <v>915.1</v>
@@ -56623,7 +56623,7 @@
         <v>183.908</v>
       </c>
       <c r="AR142">
-        <v>507.108</v>
+        <v>507.1079999999999</v>
       </c>
       <c r="AS142">
         <v>31.363</v>
@@ -56713,7 +56713,7 @@
         <v>0</v>
       </c>
       <c r="BY142">
-        <v>0.1272203464391482</v>
+        <v>0.1272203464391481</v>
       </c>
       <c r="BZ142">
         <v>-0.2637106043985949</v>
@@ -56725,7 +56725,7 @@
         <v>0.1376190411250302</v>
       </c>
       <c r="CC142">
-        <v>0.1272203464391482</v>
+        <v>0.1272203464391481</v>
       </c>
       <c r="CD142">
         <v>-0.1055364615082684</v>
@@ -56734,7 +56734,7 @@
         <v>-0.2637106043985949</v>
       </c>
       <c r="CF142">
-        <v>-0.1364902579594468</v>
+        <v>-0.1364902579594467</v>
       </c>
       <c r="CG142">
         <v>3.843526496850814</v>
@@ -56842,13 +56842,13 @@
         <v>-5.753038469270365</v>
       </c>
       <c r="DP142">
-        <v>-0.7200929761863179</v>
+        <v>-0.7200929761863178</v>
       </c>
       <c r="DQ142">
         <v>-11.82546596192543</v>
       </c>
       <c r="DR142">
-        <v>-5.108789069073001</v>
+        <v>-5.108789069073</v>
       </c>
       <c r="DS142">
         <v>-6.716676892852456</v>
@@ -56887,7 +56887,7 @@
         <v>-0.3777380042779477</v>
       </c>
       <c r="EE142">
-        <v>-0.2067696749970192</v>
+        <v>-0.2067696749970191</v>
       </c>
       <c r="EF142">
         <v>-0.001575711809701407</v>
@@ -57123,7 +57123,7 @@
         <v>-0.3256627666485406</v>
       </c>
       <c r="CA143">
-        <v>-0.04792298436131681</v>
+        <v>-0.0479229843613168</v>
       </c>
       <c r="CB143">
         <v>-0.001257893878671278</v>
@@ -57222,7 +57222,7 @@
         <v>-1.91990068902517</v>
       </c>
       <c r="DH143">
-        <v>-2.008066747851971</v>
+        <v>-2.00806674785197</v>
       </c>
       <c r="DI143">
         <v>-0.5621522428258642</v>
@@ -57246,7 +57246,7 @@
         <v>-5.223509956933718</v>
       </c>
       <c r="DP143">
-        <v>-0.5706460311424813</v>
+        <v>-0.5706460311424812</v>
       </c>
       <c r="DQ143">
         <v>-12.93675843975583</v>
@@ -57395,7 +57395,7 @@
         <v>300.1</v>
       </c>
       <c r="AF144">
-        <v>635.2000000000001</v>
+        <v>635.2</v>
       </c>
       <c r="AG144">
         <v>31.6</v>
@@ -57410,7 +57410,7 @@
         <v>1225.5</v>
       </c>
       <c r="AK144">
-        <v>884.2000000000001</v>
+        <v>884.2</v>
       </c>
       <c r="AL144">
         <v>952.1</v>
@@ -57548,7 +57548,7 @@
         <v>0.2625996348821005</v>
       </c>
       <c r="CH144">
-        <v>-15.73799396499931</v>
+        <v>-15.7379939649993</v>
       </c>
       <c r="CI144">
         <v>5.069439248639014</v>
@@ -57557,7 +57557,7 @@
         <v>5.951245518998803</v>
       </c>
       <c r="CK144">
-        <v>-0.037240051298852</v>
+        <v>-0.03724005129885199</v>
       </c>
       <c r="CL144">
         <v>0</v>
@@ -57644,7 +57644,7 @@
         <v>0</v>
       </c>
       <c r="DN144">
-        <v>-5.588058383212673</v>
+        <v>-5.588058383212672</v>
       </c>
       <c r="DO144">
         <v>-5.069173567816055</v>
@@ -57683,13 +57683,13 @@
         <v>-0.1470633064079669</v>
       </c>
       <c r="EA144">
-        <v>-0.3841782113393713</v>
+        <v>-0.3841782113393712</v>
       </c>
       <c r="EB144">
         <v>0.01765344350605072</v>
       </c>
       <c r="EC144">
-        <v>0.03245179825558475</v>
+        <v>0.03245179825558474</v>
       </c>
       <c r="ED144">
         <v>-0.4243322885362845</v>
@@ -58099,7 +58099,7 @@
         <v>-0.3103165069264917</v>
       </c>
       <c r="EE145">
-        <v>-0.1871943022092829</v>
+        <v>-0.1871943022092828</v>
       </c>
       <c r="EF145">
         <v>0.0007376765304650328</v>
@@ -58293,7 +58293,7 @@
         <v>22.8</v>
       </c>
       <c r="BJ146">
-        <v>882.7000000000001</v>
+        <v>882.7</v>
       </c>
       <c r="BK146">
         <v>1200.4</v>
@@ -58395,7 +58395,7 @@
         <v>-2.580533645396198</v>
       </c>
       <c r="CU146">
-        <v>-0.004409505571371764</v>
+        <v>-0.004409505571371763</v>
       </c>
       <c r="CV146">
         <v>-8.461926035619712</v>
@@ -58458,7 +58458,7 @@
         <v>-5.252744154072427</v>
       </c>
       <c r="DP146">
-        <v>-0.6097711016027198</v>
+        <v>-0.6097711016027197</v>
       </c>
       <c r="DQ146">
         <v>-18.8658818974472</v>
@@ -58616,16 +58616,16 @@
         <v>1583.2</v>
       </c>
       <c r="AI147">
-        <v>863.2000000000001</v>
+        <v>863.2</v>
       </c>
       <c r="AJ147">
         <v>1351.3</v>
       </c>
       <c r="AK147">
-        <v>922.7000000000001</v>
+        <v>922.7</v>
       </c>
       <c r="AL147">
-        <v>991.7000000000001</v>
+        <v>991.7</v>
       </c>
       <c r="AM147">
         <v>3265.7</v>
@@ -58697,7 +58697,7 @@
         <v>21.9</v>
       </c>
       <c r="BJ147">
-        <v>892.2000000000001</v>
+        <v>892.2</v>
       </c>
       <c r="BK147">
         <v>1224.2</v>
@@ -58787,10 +58787,10 @@
         <v>-2.98109215479235</v>
       </c>
       <c r="CQ147">
-        <v>-6.017149506099941</v>
+        <v>-6.01714950609994</v>
       </c>
       <c r="CR147">
-        <v>5.180315985750895</v>
+        <v>5.180315985750894</v>
       </c>
       <c r="CS147">
         <v>0</v>
@@ -58823,7 +58823,7 @@
         <v>3.189021628978458</v>
       </c>
       <c r="DC147">
-        <v>6.19747347071633</v>
+        <v>6.197473470716329</v>
       </c>
       <c r="DD147">
         <v>-3.008451841737875</v>
@@ -58910,7 +58910,7 @@
         <v>-0.1819918826128411</v>
       </c>
       <c r="EF147">
-        <v>3.745116627705477e-005</v>
+        <v>3.745116627705477e-05</v>
       </c>
       <c r="EG147">
         <v>-0.01743314383822662</v>
@@ -59026,7 +59026,7 @@
         <v>1358.6</v>
       </c>
       <c r="AK148">
-        <v>927.2000000000001</v>
+        <v>927.2</v>
       </c>
       <c r="AL148">
         <v>1004.1</v>
@@ -59062,7 +59062,7 @@
         <v>1060.9</v>
       </c>
       <c r="AW148">
-        <v>906.2000000000001</v>
+        <v>906.2</v>
       </c>
       <c r="AX148">
         <v>100.2</v>
@@ -59182,7 +59182,7 @@
         <v>0.727770820262208</v>
       </c>
       <c r="CN148">
-        <v>-2.346038440765256</v>
+        <v>-2.346038440765255</v>
       </c>
       <c r="CO148">
         <v>9.483898962597209</v>
@@ -59227,19 +59227,19 @@
         <v>9.337215832560494</v>
       </c>
       <c r="DC148">
-        <v>10.3646700335036</v>
+        <v>10.36467003350359</v>
       </c>
       <c r="DD148">
         <v>-1.0274542009431</v>
       </c>
       <c r="DE148">
-        <v>-2.776653950511324</v>
+        <v>-2.776653950511323</v>
       </c>
       <c r="DF148">
         <v>-0.2791504559876582</v>
       </c>
       <c r="DG148">
-        <v>-2.497503494523679</v>
+        <v>-2.497503494523678</v>
       </c>
       <c r="DH148">
         <v>-0.4077003570364072</v>
@@ -59296,7 +59296,7 @@
         <v>-3.022543234878267</v>
       </c>
       <c r="DZ148">
-        <v>-0.1911522539167807</v>
+        <v>-0.1911522539167806</v>
       </c>
       <c r="EA148">
         <v>-0.08792980944823249</v>
@@ -59394,7 +59394,7 @@
         <v>0.007421810162900222</v>
       </c>
       <c r="Y149">
-        <v>0.02346453287197226</v>
+        <v>0.02346453287197225</v>
       </c>
       <c r="Z149">
         <v>0.005206292336113805</v>
@@ -59406,7 +59406,7 @@
         <v>0.007421810162900222</v>
       </c>
       <c r="AC149">
-        <v>0.02346453287197226</v>
+        <v>0.02346453287197225</v>
       </c>
       <c r="AD149">
         <v>409.1</v>
@@ -59703,7 +59703,7 @@
         <v>-0.100422905007846</v>
       </c>
       <c r="EA149">
-        <v>-0.1884927679752906</v>
+        <v>-0.1884927679752905</v>
       </c>
       <c r="EB149">
         <v>0.2368501677888447</v>
@@ -59732,7 +59732,7 @@
         <v>-0.5940432398129916</v>
       </c>
       <c r="C150">
-        <v>-0.640861119991529</v>
+        <v>-0.6408611199915289</v>
       </c>
       <c r="D150">
         <v>0.1914173671366676</v>
@@ -59966,7 +59966,7 @@
         <v>0.0567401812416141</v>
       </c>
       <c r="CF150">
-        <v>-0.2567964707168468</v>
+        <v>-0.2567964707168467</v>
       </c>
       <c r="CG150">
         <v>0.103625685412247</v>
@@ -60047,7 +60047,7 @@
         <v>1.243509387574485</v>
       </c>
       <c r="DG150">
-        <v>0.2051339096827518</v>
+        <v>0.2051339096827517</v>
       </c>
       <c r="DH150">
         <v>0.2244499115194524</v>
@@ -60421,7 +60421,7 @@
         <v>-9.89648370814021</v>
       </c>
       <c r="CW151">
-        <v>-0.7599962263618068</v>
+        <v>-0.7599962263618067</v>
       </c>
       <c r="CX151">
         <v>2.035652772012327</v>
@@ -60678,7 +60678,7 @@
         <v>1179.3</v>
       </c>
       <c r="AW152">
-        <v>946.7000000000001</v>
+        <v>946.7</v>
       </c>
       <c r="AX152">
         <v>95.40000000000001</v>
@@ -60882,7 +60882,7 @@
         <v>-0.7216317551056061</v>
       </c>
       <c r="DP152">
-        <v>-0.1401113137588269</v>
+        <v>-0.1401113137588268</v>
       </c>
       <c r="DQ152">
         <v>-6.078224983516056</v>
@@ -60894,7 +60894,7 @@
         <v>0.5842112659575834</v>
       </c>
       <c r="DT152">
-        <v>0.06897175322349979</v>
+        <v>0.06897175322349978</v>
       </c>
       <c r="DU152">
         <v>-0.2655322259104369</v>
@@ -61486,7 +61486,7 @@
         <v>1201.7</v>
       </c>
       <c r="AW154">
-        <v>970.2000000000001</v>
+        <v>970.2</v>
       </c>
       <c r="AX154">
         <v>93.2</v>
@@ -61576,7 +61576,7 @@
         <v>0.3146004694587382</v>
       </c>
       <c r="CD154">
-        <v>0.002954276815502453</v>
+        <v>0.002954276815502452</v>
       </c>
       <c r="CE154">
         <v>-0.498219079816043</v>
@@ -61648,7 +61648,7 @@
         <v>0.01692968308350695</v>
       </c>
       <c r="DB154">
-        <v>-1.549075370076327</v>
+        <v>-1.549075370076326</v>
       </c>
       <c r="DC154">
         <v>0.1508169548321462</v>
@@ -61663,7 +61663,7 @@
         <v>1.301815214247556</v>
       </c>
       <c r="DG154">
-        <v>0.8876190244852003</v>
+        <v>0.8876190244852002</v>
       </c>
       <c r="DH154">
         <v>0.8420476712875435</v>
@@ -62019,10 +62019,10 @@
         <v>310.8752863082847</v>
       </c>
       <c r="CQ155">
-        <v>-39.49162460203525</v>
+        <v>-39.49162460203524</v>
       </c>
       <c r="CR155">
-        <v>-18.15241961339982</v>
+        <v>-18.15241961339981</v>
       </c>
       <c r="CS155">
         <v>0</v>
@@ -62043,7 +62043,7 @@
         <v>15.52692848291235</v>
       </c>
       <c r="CY155">
-        <v>0.6621784667245692</v>
+        <v>0.6621784667245691</v>
       </c>
       <c r="CZ155">
         <v>0</v>
@@ -62094,7 +62094,7 @@
         <v>4.284134569646245</v>
       </c>
       <c r="DP155">
-        <v>0.3317721213471802</v>
+        <v>0.3317721213471801</v>
       </c>
       <c r="DQ155">
         <v>2.214845578764289</v>
@@ -62279,7 +62279,7 @@
         <v>205.059</v>
       </c>
       <c r="AR156">
-        <v>670.959</v>
+        <v>670.9589999999999</v>
       </c>
       <c r="AS156">
         <v>42.716</v>
@@ -62492,10 +62492,10 @@
         <v>0</v>
       </c>
       <c r="DN156">
-        <v>5.2292697855941</v>
+        <v>5.229269785594099</v>
       </c>
       <c r="DO156">
-        <v>4.932769705218306</v>
+        <v>4.932769705218305</v>
       </c>
       <c r="DP156">
         <v>0.2965000803757938</v>
@@ -62525,10 +62525,10 @@
         <v>9.34507638797821</v>
       </c>
       <c r="DY156">
-        <v>31.62531661449645</v>
+        <v>31.62531661449644</v>
       </c>
       <c r="DZ156">
-        <v>0.2524741013664617</v>
+        <v>0.2524741013664616</v>
       </c>
       <c r="EA156">
         <v>0.8544149947181187</v>
@@ -62537,7 +62537,7 @@
         <v>0.06764442259357516</v>
       </c>
       <c r="EC156">
-        <v>0.5893834265730527</v>
+        <v>0.5893834265730526</v>
       </c>
       <c r="ED156">
         <v>0.3261988878449988</v>
@@ -62572,7 +62572,7 @@
         <v>1.415045324648525</v>
       </c>
       <c r="G157">
-        <v>-0.01408521189204847</v>
+        <v>-0.01408521189204846</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -62614,7 +62614,7 @@
         <v>58.177</v>
       </c>
       <c r="U157">
-        <v>-0.004669260700389089</v>
+        <v>-0.004669260700389088</v>
       </c>
       <c r="V157">
         <v>1842.2</v>
@@ -62629,7 +62629,7 @@
         <v>0.01832393092459417</v>
       </c>
       <c r="Z157">
-        <v>-0.004669260700389089</v>
+        <v>-0.004669260700389088</v>
       </c>
       <c r="AA157">
         <v>-0.01165667726041431</v>
@@ -62797,7 +62797,7 @@
         <v>0.2176917902004085</v>
       </c>
       <c r="CG157">
-        <v>3.182145273995126</v>
+        <v>3.182145273995125</v>
       </c>
       <c r="CH157">
         <v>18.63108831792067</v>
@@ -62869,7 +62869,7 @@
         <v>-1.055542657505256</v>
       </c>
       <c r="DE157">
-        <v>21.19419302774976</v>
+        <v>21.19419302774975</v>
       </c>
       <c r="DF157">
         <v>14.17321060364493</v>
@@ -62896,7 +62896,7 @@
         <v>0</v>
       </c>
       <c r="DN157">
-        <v>9.60703349050605</v>
+        <v>9.607033490506049</v>
       </c>
       <c r="DO157">
         <v>8.601754524581306</v>
@@ -62953,7 +62953,7 @@
         <v>0.001639372501743009</v>
       </c>
       <c r="EG157">
-        <v>-0.01572458439379148</v>
+        <v>-0.01572458439379147</v>
       </c>
     </row>
     <row r="158">
@@ -63066,7 +63066,7 @@
         <v>1202.4</v>
       </c>
       <c r="AK158">
-        <v>964.7000000000001</v>
+        <v>964.7</v>
       </c>
       <c r="AL158">
         <v>1015.9</v>
@@ -63099,7 +63099,7 @@
         <v>895.39</v>
       </c>
       <c r="AV158">
-        <v>921.2000000000001</v>
+        <v>921.2</v>
       </c>
       <c r="AW158">
         <v>946</v>
@@ -63141,7 +63141,7 @@
         <v>18.8</v>
       </c>
       <c r="BJ158">
-        <v>929.2000000000001</v>
+        <v>929.2</v>
       </c>
       <c r="BK158">
         <v>1229.1</v>
@@ -63255,7 +63255,7 @@
         <v>-37.8679527571926</v>
       </c>
       <c r="CY158">
-        <v>8.689312595042154</v>
+        <v>8.689312595042153</v>
       </c>
       <c r="CZ158">
         <v>0</v>
@@ -63270,7 +63270,7 @@
         <v>18.19811623514055</v>
       </c>
       <c r="DD158">
-        <v>-7.173675817500445</v>
+        <v>-7.173675817500444</v>
       </c>
       <c r="DE158">
         <v>36.01389213507377</v>
@@ -63470,7 +63470,7 @@
         <v>1131.1</v>
       </c>
       <c r="AK159">
-        <v>971.2000000000001</v>
+        <v>971.2</v>
       </c>
       <c r="AL159">
         <v>1017.3</v>
@@ -63650,7 +63650,7 @@
         <v>-0.8153266063489542</v>
       </c>
       <c r="CV159">
-        <v>-7.997488086869709</v>
+        <v>-7.997488086869708</v>
       </c>
       <c r="CW159">
         <v>14.58344063730644</v>
@@ -63769,7 +63769,7 @@
         <v>40086</v>
       </c>
       <c r="B160">
-        <v>2.739523506820381</v>
+        <v>2.73952350682038</v>
       </c>
       <c r="C160">
         <v>2.692089184251138</v>
@@ -63796,7 +63796,7 @@
         <v>0.003546559791935744</v>
       </c>
       <c r="K160">
-        <v>0.002956191233278283</v>
+        <v>0.002956191233278282</v>
       </c>
       <c r="L160">
         <v>0.0005903685586574614</v>
@@ -63823,7 +63823,7 @@
         <v>201.476</v>
       </c>
       <c r="T160">
-        <v>67.12600000000001</v>
+        <v>67.126</v>
       </c>
       <c r="U160">
         <v>0.003120506949251922</v>
@@ -63940,7 +63940,7 @@
         <v>0</v>
       </c>
       <c r="BG160">
-        <v>171.2480000000001</v>
+        <v>171.248</v>
       </c>
       <c r="BH160">
         <v>293.3</v>
@@ -64021,7 +64021,7 @@
         <v>-17.56561764867593</v>
       </c>
       <c r="CK160">
-        <v>10.34106518999406</v>
+        <v>10.34106518999405</v>
       </c>
       <c r="CL160">
         <v>0</v>
@@ -64039,7 +64039,7 @@
         <v>-34.07427362421163</v>
       </c>
       <c r="CQ160">
-        <v>-37.46094208252112</v>
+        <v>-37.46094208252111</v>
       </c>
       <c r="CR160">
         <v>19.13020665724233</v>
@@ -64054,7 +64054,7 @@
         <v>-0.01183406775600582</v>
       </c>
       <c r="CV160">
-        <v>19.11067065912089</v>
+        <v>19.11067065912088</v>
       </c>
       <c r="CW160">
         <v>-10.07065266454609</v>
@@ -64069,7 +64069,7 @@
         <v>0</v>
       </c>
       <c r="DA160">
-        <v>11.38584601170143</v>
+        <v>11.38584601170142</v>
       </c>
       <c r="DB160">
         <v>14.48704418017161</v>
@@ -64135,7 +64135,7 @@
         <v>-0.01421933127578216</v>
       </c>
       <c r="DW160">
-        <v>99.18380812131557</v>
+        <v>99.18380812131556</v>
       </c>
       <c r="DX160">
         <v>15.63030298622211</v>
@@ -64185,7 +64185,7 @@
         <v>0.6290059163210516</v>
       </c>
       <c r="F161">
-        <v>2.34107911966571</v>
+        <v>2.341079119665709</v>
       </c>
       <c r="G161">
         <v>-0.00187272114385266</v>
@@ -64278,7 +64278,7 @@
         <v>1140.7</v>
       </c>
       <c r="AK161">
-        <v>972.2000000000001</v>
+        <v>972.2</v>
       </c>
       <c r="AL161">
         <v>1045.3</v>
@@ -64335,10 +64335,10 @@
         <v>110.856</v>
       </c>
       <c r="BD161">
-        <v>580.31</v>
+        <v>580.3099999999999</v>
       </c>
       <c r="BE161">
-        <v>66.49</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="BF161">
         <v>0</v>
@@ -64452,7 +64452,7 @@
         <v>0</v>
       </c>
       <c r="CT161">
-        <v>-14.62855536201757</v>
+        <v>-14.62855536201756</v>
       </c>
       <c r="CU161">
         <v>-0.01271850773495742</v>
@@ -64739,7 +64739,7 @@
         <v>110.256</v>
       </c>
       <c r="BD162">
-        <v>575.632</v>
+        <v>575.6319999999999</v>
       </c>
       <c r="BE162">
         <v>92.36800000000001</v>
@@ -64892,7 +64892,7 @@
         <v>35.96852383611257</v>
       </c>
       <c r="DF162">
-        <v>35.56310464634282</v>
+        <v>35.56310464634281</v>
       </c>
       <c r="DG162">
         <v>0.4054191897697184</v>
@@ -65035,7 +65035,7 @@
         <v>220.144</v>
       </c>
       <c r="T163">
-        <v>73.737</v>
+        <v>73.73699999999999</v>
       </c>
       <c r="U163">
         <v>0.007645259938837912</v>
@@ -65071,7 +65071,7 @@
         <v>385.7</v>
       </c>
       <c r="AF163">
-        <v>896.2000000000001</v>
+        <v>896.2</v>
       </c>
       <c r="AG163">
         <v>141.2</v>
@@ -65119,10 +65119,10 @@
         <v>1115.266</v>
       </c>
       <c r="AV163">
-        <v>935.2000000000001</v>
+        <v>935.2</v>
       </c>
       <c r="AW163">
-        <v>971.7000000000001</v>
+        <v>971.7</v>
       </c>
       <c r="AX163">
         <v>96.40000000000001</v>
@@ -65161,7 +65161,7 @@
         <v>17.7</v>
       </c>
       <c r="BJ163">
-        <v>965.7000000000001</v>
+        <v>965.7</v>
       </c>
       <c r="BK163">
         <v>1261.4</v>
@@ -65272,7 +65272,7 @@
         <v>14.45711965414638</v>
       </c>
       <c r="CX163">
-        <v>-1.734271826775967</v>
+        <v>-1.734271826775966</v>
       </c>
       <c r="CY163">
         <v>-1.884066501897934</v>
@@ -65397,7 +65397,7 @@
         <v>0.08455124436341505</v>
       </c>
       <c r="F164">
-        <v>1.033534823186511</v>
+        <v>1.03353482318651</v>
       </c>
       <c r="G164">
         <v>-0.004945723022111815</v>
@@ -65469,7 +65469,7 @@
         <v>0.003145924115208754</v>
       </c>
       <c r="AD164">
-        <v>515.7000000000001</v>
+        <v>515.7</v>
       </c>
       <c r="AE164">
         <v>405.6</v>
@@ -65541,10 +65541,10 @@
         <v>54.4</v>
       </c>
       <c r="BB164">
-        <v>121.9090000000001</v>
+        <v>121.909</v>
       </c>
       <c r="BC164">
-        <v>121.9090000000001</v>
+        <v>121.909</v>
       </c>
       <c r="BD164">
         <v>603.2370000000001</v>
@@ -65664,13 +65664,13 @@
         <v>0</v>
       </c>
       <c r="CT164">
-        <v>4.755109572043367</v>
+        <v>4.755109572043366</v>
       </c>
       <c r="CU164">
         <v>-0.5101785506289187</v>
       </c>
       <c r="CV164">
-        <v>8.116114386942329</v>
+        <v>8.116114386942328</v>
       </c>
       <c r="CW164">
         <v>20.07759145539247</v>
@@ -65927,7 +65927,7 @@
         <v>1107.114</v>
       </c>
       <c r="AV165">
-        <v>977.2000000000001</v>
+        <v>977.2</v>
       </c>
       <c r="AW165">
         <v>976.6</v>
@@ -65969,7 +65969,7 @@
         <v>17.7</v>
       </c>
       <c r="BJ165">
-        <v>977.7000000000001</v>
+        <v>977.7</v>
       </c>
       <c r="BK165">
         <v>1307.3</v>
@@ -66008,7 +66008,7 @@
         <v>-0.1603688281601256</v>
       </c>
       <c r="BZ165">
-        <v>-0.6342909010638707</v>
+        <v>-0.6342909010638706</v>
       </c>
       <c r="CA165">
         <v>-0.5360584858232849</v>
@@ -66023,7 +66023,7 @@
         <v>-0.5459946512642689</v>
       </c>
       <c r="CE165">
-        <v>-0.6342909010638707</v>
+        <v>-0.6342909010638706</v>
       </c>
       <c r="CF165">
         <v>-0.7946597292239962</v>
@@ -66196,7 +66196,7 @@
         <v>-1.43555459036326</v>
       </c>
       <c r="C166">
-        <v>0.04523267965381062</v>
+        <v>0.04523267965381061</v>
       </c>
       <c r="D166">
         <v>-0.5207276274948131</v>
@@ -66298,7 +66298,7 @@
         <v>1426.6</v>
       </c>
       <c r="AK166">
-        <v>916.2000000000001</v>
+        <v>916.2</v>
       </c>
       <c r="AL166">
         <v>1091.5</v>
@@ -66358,7 +66358,7 @@
         <v>605.5319999999999</v>
       </c>
       <c r="BE166">
-        <v>55.56800000000001</v>
+        <v>55.568</v>
       </c>
       <c r="BF166">
         <v>0</v>
@@ -66864,7 +66864,7 @@
         <v>-10.23088421129683</v>
       </c>
       <c r="CP167">
-        <v>-3.930632020454596</v>
+        <v>-3.930632020454595</v>
       </c>
       <c r="CQ167">
         <v>-6.043147573734586</v>
@@ -67283,7 +67283,7 @@
         <v>-2.63553633047048</v>
       </c>
       <c r="CU168">
-        <v>-0.00337021507888069</v>
+        <v>-0.003370215078880689</v>
       </c>
       <c r="CV168">
         <v>25.04058255296999</v>
@@ -67370,10 +67370,10 @@
         <v>-27.20000556540989</v>
       </c>
       <c r="DX168">
-        <v>0.437453471486067</v>
+        <v>0.4374534714860669</v>
       </c>
       <c r="DY168">
-        <v>-27.63745903689602</v>
+        <v>-27.63745903689601</v>
       </c>
       <c r="DZ168">
         <v>0.01129189017916823</v>
@@ -67474,7 +67474,7 @@
         <v>-0.003491995817725857</v>
       </c>
       <c r="Y169">
-        <v>0.009401042735744492</v>
+        <v>0.009401042735744491</v>
       </c>
       <c r="Z169">
         <v>-0.001356811192184781</v>
@@ -67486,7 +67486,7 @@
         <v>-0.003491995817725857</v>
       </c>
       <c r="AC169">
-        <v>0.009401042735744492</v>
+        <v>0.009401042735744491</v>
       </c>
       <c r="AD169">
         <v>542.9</v>
@@ -67495,7 +67495,7 @@
         <v>399.3</v>
       </c>
       <c r="AF169">
-        <v>942.2000000000001</v>
+        <v>942.2</v>
       </c>
       <c r="AG169">
         <v>99.8</v>
@@ -67546,7 +67546,7 @@
         <v>1141</v>
       </c>
       <c r="AW169">
-        <v>904.2000000000001</v>
+        <v>904.2</v>
       </c>
       <c r="AX169">
         <v>111.4</v>
@@ -67666,7 +67666,7 @@
         <v>-3.829079028918059</v>
       </c>
       <c r="CN169">
-        <v>0.4770066275373353</v>
+        <v>0.4770066275373352</v>
       </c>
       <c r="CO169">
         <v>0.4521012990444433</v>
@@ -67798,7 +67798,7 @@
         <v>-0.0873015612401358</v>
       </c>
       <c r="EF169">
-        <v>-0.002283685475376295</v>
+        <v>-0.002283685475376294</v>
       </c>
       <c r="EG169">
         <v>0.003537522723190854</v>
@@ -67935,7 +67935,7 @@
         <v>246.248</v>
       </c>
       <c r="AR170">
-        <v>793.2480000000001</v>
+        <v>793.248</v>
       </c>
       <c r="AS170">
         <v>49.963</v>
@@ -68103,7 +68103,7 @@
         <v>-0.221072180471765</v>
       </c>
       <c r="CY170">
-        <v>-0.3196863932778769</v>
+        <v>-0.3196863932778768</v>
       </c>
       <c r="CZ170">
         <v>0</v>
@@ -68112,7 +68112,7 @@
         <v>-1.445615915246492</v>
       </c>
       <c r="DB170">
-        <v>-8.090958155472857</v>
+        <v>-8.090958155472856</v>
       </c>
       <c r="DC170">
         <v>-10.84596443701362</v>
@@ -68190,7 +68190,7 @@
         <v>-0.7496848795676544</v>
       </c>
       <c r="EB170">
-        <v>-0.2048797684416892</v>
+        <v>-0.2048797684416891</v>
       </c>
       <c r="EC170">
         <v>-0.3932422749704385</v>
@@ -68276,7 +68276,7 @@
         <v>1842.9</v>
       </c>
       <c r="W171">
-        <v>-3.018017564859754e-005</v>
+        <v>-3.018017564859754e-05</v>
       </c>
       <c r="X171">
         <v>-0.001789448286955042</v>
@@ -68288,7 +68288,7 @@
         <v>0.002236597963993781</v>
       </c>
       <c r="AA171">
-        <v>-3.018017564859754e-005</v>
+        <v>-3.018017564859754e-05</v>
       </c>
       <c r="AB171">
         <v>-0.001789448286955042</v>
@@ -68354,7 +68354,7 @@
         <v>1150.6</v>
       </c>
       <c r="AW171">
-        <v>932.2000000000001</v>
+        <v>932.2</v>
       </c>
       <c r="AX171">
         <v>114.4</v>
@@ -68435,7 +68435,7 @@
         <v>-0.328827417324645</v>
       </c>
       <c r="CA171">
-        <v>-0.2566680952439026</v>
+        <v>-0.2566680952439025</v>
       </c>
       <c r="CB171">
         <v>-0.005758328004495237</v>
@@ -68492,7 +68492,7 @@
         <v>0</v>
       </c>
       <c r="CT171">
-        <v>-4.584997777706271</v>
+        <v>-4.58499777770627</v>
       </c>
       <c r="CU171">
         <v>-0.003122288270382745</v>
@@ -68525,7 +68525,7 @@
         <v>4.943368286830283</v>
       </c>
       <c r="DE171">
-        <v>-15.18377292708627</v>
+        <v>-15.18377292708626</v>
       </c>
       <c r="DF171">
         <v>-10.96804994276967</v>
@@ -68588,13 +68588,13 @@
         <v>-22.73292696563442</v>
       </c>
       <c r="DZ171">
-        <v>-0.00532684485604073</v>
+        <v>-0.005326844856040729</v>
       </c>
       <c r="EA171">
         <v>-0.5676207434708153</v>
       </c>
       <c r="EB171">
-        <v>-0.001575156226634243</v>
+        <v>-0.001575156226634242</v>
       </c>
       <c r="EC171">
         <v>-0.3791251557968581</v>
@@ -68653,7 +68653,7 @@
         <v>11014.2</v>
       </c>
       <c r="N172">
-        <v>0.002866420782552837</v>
+        <v>0.002866420782552836</v>
       </c>
       <c r="O172">
         <v>1293.3</v>
@@ -68758,7 +68758,7 @@
         <v>1163.8</v>
       </c>
       <c r="AW172">
-        <v>935.2000000000001</v>
+        <v>935.2</v>
       </c>
       <c r="AX172">
         <v>114.7</v>
@@ -68869,7 +68869,7 @@
         <v>-1.56322506155675</v>
       </c>
       <c r="CK172">
-        <v>5.691719693913115</v>
+        <v>5.691719693913114</v>
       </c>
       <c r="CL172">
         <v>0</v>
@@ -68917,7 +68917,7 @@
         <v>0</v>
       </c>
       <c r="DA172">
-        <v>-5.181933117631346</v>
+        <v>-5.181933117631345</v>
       </c>
       <c r="DB172">
         <v>2.711803585647252</v>
@@ -68956,7 +68956,7 @@
         <v>0</v>
       </c>
       <c r="DN172">
-        <v>-3.513927101298529</v>
+        <v>-3.513927101298528</v>
       </c>
       <c r="DO172">
         <v>-3.31025936790065</v>
@@ -69051,7 +69051,7 @@
         <v>0.003990223654712022</v>
       </c>
       <c r="L173">
-        <v>0.004277211138695281</v>
+        <v>0.00427721113869528</v>
       </c>
       <c r="M173">
         <v>11125.7</v>
@@ -69261,16 +69261,16 @@
         <v>-1.069828028551116</v>
       </c>
       <c r="CG173">
-        <v>2.559140458408614</v>
+        <v>2.559140458408613</v>
       </c>
       <c r="CH173">
         <v>6.822859706086092</v>
       </c>
       <c r="CI173">
-        <v>-4.611129010955438</v>
+        <v>-4.611129010955437</v>
       </c>
       <c r="CJ173">
-        <v>66.47721405572293</v>
+        <v>66.47721405572292</v>
       </c>
       <c r="CK173">
         <v>-3.298084216621248</v>
@@ -69300,7 +69300,7 @@
         <v>0</v>
       </c>
       <c r="CT173">
-        <v>-0.4531694313993882</v>
+        <v>-0.4531694313993881</v>
       </c>
       <c r="CU173">
         <v>-0.004803370706850663</v>
@@ -69360,7 +69360,7 @@
         <v>0</v>
       </c>
       <c r="DN173">
-        <v>-2.358229974700207</v>
+        <v>-2.358229974700206</v>
       </c>
       <c r="DO173">
         <v>-2.233321660850409</v>
@@ -69372,7 +69372,7 @@
         <v>-8.476037489672025</v>
       </c>
       <c r="DR173">
-        <v>-7.810299912963783</v>
+        <v>-7.810299912963782</v>
       </c>
       <c r="DS173">
         <v>-0.6657375767082842</v>
@@ -69482,7 +69482,7 @@
         <v>67.56399999999999</v>
       </c>
       <c r="U174">
-        <v>-3.990223951322314e-005</v>
+        <v>-3.990223951322314e-05</v>
       </c>
       <c r="V174">
         <v>1885</v>
@@ -69497,7 +69497,7 @@
         <v>0.004055061372558733</v>
       </c>
       <c r="Z174">
-        <v>-3.990223951322314e-005</v>
+        <v>-3.990223951322314e-05</v>
       </c>
       <c r="AA174">
         <v>0.01094753482857436</v>
@@ -69713,7 +69713,7 @@
         <v>-4.275517616771452</v>
       </c>
       <c r="CW174">
-        <v>-0.8988799073633516</v>
+        <v>-0.8988799073633515</v>
       </c>
       <c r="CX174">
         <v>28.30147965277047</v>
@@ -69818,7 +69818,7 @@
         <v>-0.0587543110904914</v>
       </c>
       <c r="EF174">
-        <v>-0.0010013865400505</v>
+        <v>-0.001001386540050499</v>
       </c>
       <c r="EG174">
         <v>-0.0002027379773998222</v>
@@ -69940,7 +69940,7 @@
         <v>1180.8</v>
       </c>
       <c r="AM175">
-        <v>3971.500000000001</v>
+        <v>3971.5</v>
       </c>
       <c r="AN175">
         <v>347.3</v>
@@ -69976,7 +69976,7 @@
         <v>124.4</v>
       </c>
       <c r="AY175">
-        <v>2511.500000000001</v>
+        <v>2511.5</v>
       </c>
       <c r="AZ175">
         <v>293.2</v>
@@ -70087,7 +70087,7 @@
         <v>0</v>
       </c>
       <c r="CM175">
-        <v>-4.535363206719453</v>
+        <v>-4.535363206719452</v>
       </c>
       <c r="CN175">
         <v>0.4137261902061553</v>
@@ -70114,7 +70114,7 @@
         <v>-0.002430168164633706</v>
       </c>
       <c r="CV175">
-        <v>0.3544830516263176</v>
+        <v>0.3544830516263175</v>
       </c>
       <c r="CW175">
         <v>3.036102529500653</v>
@@ -70317,7 +70317,7 @@
         <v>0.005387145699147</v>
       </c>
       <c r="AD176">
-        <v>573.7000000000001</v>
+        <v>573.7</v>
       </c>
       <c r="AE176">
         <v>448.2</v>
@@ -70395,7 +70395,7 @@
         <v>178.921</v>
       </c>
       <c r="BD176">
-        <v>611.305</v>
+        <v>611.3049999999999</v>
       </c>
       <c r="BE176">
         <v>20.595</v>
@@ -70617,7 +70617,7 @@
         <v>0.08550815646430683</v>
       </c>
       <c r="EC176">
-        <v>-0.09687284614227106</v>
+        <v>-0.09687284614227105</v>
       </c>
       <c r="ED176">
         <v>-0.3830172974418534</v>
@@ -70661,7 +70661,7 @@
         <v>17083.1</v>
       </c>
       <c r="J177">
-        <v>0.009738979092051237</v>
+        <v>0.009738979092051236</v>
       </c>
       <c r="K177">
         <v>0.004189143331890355</v>
@@ -70721,7 +70721,7 @@
         <v>0.007552529754616177</v>
       </c>
       <c r="AD177">
-        <v>580.2000000000001</v>
+        <v>580.2</v>
       </c>
       <c r="AE177">
         <v>448.6</v>
@@ -71068,7 +71068,7 @@
         <v>0.008224016984099247</v>
       </c>
       <c r="K178">
-        <v>0.004235757483948222</v>
+        <v>0.004235757483948221</v>
       </c>
       <c r="L178">
         <v>0.003988259500151026</v>
@@ -71365,7 +71365,7 @@
         <v>-8.097374004190446</v>
       </c>
       <c r="DI178">
-        <v>-7.167695596081829</v>
+        <v>-7.167695596081828</v>
       </c>
       <c r="DJ178">
         <v>-0.9296784081086175</v>
@@ -71407,7 +71407,7 @@
         <v>-0.01545761430726182</v>
       </c>
       <c r="DW178">
-        <v>-28.8480770084757</v>
+        <v>-28.84807700847569</v>
       </c>
       <c r="DX178">
         <v>-4.660580425075739</v>
@@ -71514,7 +71514,7 @@
         <v>0.003195948637217283</v>
       </c>
       <c r="Y179">
-        <v>0.004563252284043085</v>
+        <v>0.004563252284043084</v>
       </c>
       <c r="Z179">
         <v>0.004391123657178531</v>
@@ -71526,7 +71526,7 @@
         <v>0.003195948637217283</v>
       </c>
       <c r="AC179">
-        <v>0.004563252284043085</v>
+        <v>0.004563252284043084</v>
       </c>
       <c r="AD179">
         <v>595.6</v>
@@ -71688,7 +71688,7 @@
         <v>-0.7310885003744687</v>
       </c>
       <c r="CH179">
-        <v>20.62726303420664</v>
+        <v>20.62726303420663</v>
       </c>
       <c r="CI179">
         <v>12.31120225375685</v>
@@ -71838,7 +71838,7 @@
         <v>-0.08330855951450686</v>
       </c>
       <c r="EF179">
-        <v>3.879340683266174e-005</v>
+        <v>3.879340683266174e-05</v>
       </c>
       <c r="EG179">
         <v>-0.006363093419461582</v>
@@ -71900,7 +71900,7 @@
         <v>332.4</v>
       </c>
       <c r="S180">
-        <v>178.7000000000001</v>
+        <v>178.7</v>
       </c>
       <c r="T180">
         <v>68.84</v>
@@ -72020,7 +72020,7 @@
         <v>0</v>
       </c>
       <c r="BG180">
-        <v>159.3020000000001</v>
+        <v>159.302</v>
       </c>
       <c r="BH180">
         <v>385.3</v>
@@ -72242,7 +72242,7 @@
         <v>-0.08198419810607911</v>
       </c>
       <c r="EF180">
-        <v>3.821697249007509e-005</v>
+        <v>3.821697249007509e-05</v>
       </c>
       <c r="EG180">
         <v>-0.006437472020268416</v>
@@ -72265,7 +72265,7 @@
         <v>-0.8456653475137066</v>
       </c>
       <c r="F181">
-        <v>-0.1935898474220353</v>
+        <v>-0.1935898474220352</v>
       </c>
       <c r="G181">
         <v>-0.008063524187726026</v>
@@ -72280,7 +72280,7 @@
         <v>0.005002459704826157</v>
       </c>
       <c r="K181">
-        <v>0.004348676414758002</v>
+        <v>0.004348676414758001</v>
       </c>
       <c r="L181">
         <v>0.0006537832900681551</v>
@@ -72472,7 +72472,7 @@
         <v>-0.5296004044627369</v>
       </c>
       <c r="BZ181">
-        <v>0.1816910966485383</v>
+        <v>0.1816910966485382</v>
       </c>
       <c r="CA181">
         <v>-0.1387077001427383</v>
@@ -72487,7 +72487,7 @@
         <v>-0.3160649430509696</v>
       </c>
       <c r="CE181">
-        <v>0.1816910966485383</v>
+        <v>0.1816910966485382</v>
       </c>
       <c r="CF181">
         <v>-0.3479093078141987</v>
@@ -72541,10 +72541,10 @@
         <v>4.350904638884998</v>
       </c>
       <c r="CW181">
-        <v>-0.4743871122214785</v>
+        <v>-0.4743871122214784</v>
       </c>
       <c r="CX181">
-        <v>12.33445463783824</v>
+        <v>12.33445463783823</v>
       </c>
       <c r="CY181">
         <v>0.5245341213755594</v>
@@ -72616,16 +72616,16 @@
         <v>-0.3589974511062263</v>
       </c>
       <c r="DV181">
-        <v>0.001749059612165875</v>
+        <v>0.001749059612165874</v>
       </c>
       <c r="DW181">
-        <v>-8.576852997647706</v>
+        <v>-8.576852997647705</v>
       </c>
       <c r="DX181">
         <v>-4.476609587822298</v>
       </c>
       <c r="DY181">
-        <v>-4.100243409825533</v>
+        <v>-4.100243409825532</v>
       </c>
       <c r="DZ181">
         <v>-0.1010424414773368</v>
@@ -72646,7 +72646,7 @@
         <v>-0.05383826056324141</v>
       </c>
       <c r="EF181">
-        <v>3.94783708598131e-005</v>
+        <v>3.94783708598131e-05</v>
       </c>
       <c r="EG181">
         <v>-0.00810300255858583</v>
@@ -72882,7 +72882,7 @@
         <v>0.009547535095600385</v>
       </c>
       <c r="CB182">
-        <v>0.04220378676337133</v>
+        <v>0.04220378676337132</v>
       </c>
       <c r="CC182">
         <v>-0.002924665351349911</v>
@@ -72918,7 +72918,7 @@
         <v>-0.1019031373951265</v>
       </c>
       <c r="CN182">
-        <v>-1.003258401903779</v>
+        <v>-1.003258401903778</v>
       </c>
       <c r="CO182">
         <v>26.12230435030153</v>
@@ -72939,7 +72939,7 @@
         <v>-0.05785751976848275</v>
       </c>
       <c r="CU182">
-        <v>-2.883541507769927e-005</v>
+        <v>-2.883541507769927e-05</v>
       </c>
       <c r="CV182">
         <v>-8.287362813799717</v>
@@ -72978,7 +72978,7 @@
         <v>-1.902799616584843</v>
       </c>
       <c r="DH182">
-        <v>-1.833851475941986</v>
+        <v>-1.833851475941985</v>
       </c>
       <c r="DI182">
         <v>-0.9688545769795436</v>
@@ -73050,7 +73050,7 @@
         <v>-0.04823878380160258</v>
       </c>
       <c r="EF182">
-        <v>-3.220492925618037e-005</v>
+        <v>-3.220492925618036e-05</v>
       </c>
       <c r="EG182">
         <v>-0.006264524117418851</v>
@@ -73130,7 +73130,7 @@
         <v>0.00701307587045763</v>
       </c>
       <c r="Y183">
-        <v>0.00438974005852999</v>
+        <v>0.004389740058529989</v>
       </c>
       <c r="Z183">
         <v>0.00194321913682205</v>
@@ -73142,7 +73142,7 @@
         <v>0.00701307587045763</v>
       </c>
       <c r="AC183">
-        <v>0.00438974005852999</v>
+        <v>0.004389740058529989</v>
       </c>
       <c r="AD183">
         <v>631.5</v>
@@ -73301,7 +73301,7 @@
         <v>0.2982722171252689</v>
       </c>
       <c r="CG183">
-        <v>-0.1181466912588221</v>
+        <v>-0.118146691258822</v>
       </c>
       <c r="CH183">
         <v>12.79649806816792</v>
@@ -73403,7 +73403,7 @@
         <v>-1.782868933060776</v>
       </c>
       <c r="DO183">
-        <v>-1.665229959510648</v>
+        <v>-1.665229959510647</v>
       </c>
       <c r="DP183">
         <v>-0.1176389735501296</v>
@@ -73454,7 +73454,7 @@
         <v>-0.03961182738951034</v>
       </c>
       <c r="EF183">
-        <v>-3.407267442513237e-005</v>
+        <v>-3.407267442513237e-05</v>
       </c>
       <c r="EG183">
         <v>-0.005569563714458468</v>
@@ -73531,7 +73531,7 @@
         <v>0.001068052930056629</v>
       </c>
       <c r="X184">
-        <v>0.0006794375766727701</v>
+        <v>0.00067943757667277</v>
       </c>
       <c r="Y184">
         <v>0.00283752773254875</v>
@@ -73543,7 +73543,7 @@
         <v>0.001068052930056629</v>
       </c>
       <c r="AB184">
-        <v>0.0006794375766727701</v>
+        <v>0.00067943757667277</v>
       </c>
       <c r="AC184">
         <v>0.00283752773254875</v>
@@ -73690,7 +73690,7 @@
         <v>0.02554061415308516</v>
       </c>
       <c r="CB184">
-        <v>0.07475002878833773</v>
+        <v>0.07475002878833772</v>
       </c>
       <c r="CC184">
         <v>-0.1415226490458185</v>
@@ -73729,7 +73729,7 @@
         <v>0.9172549728354795</v>
       </c>
       <c r="CO184">
-        <v>0.7231421727104817</v>
+        <v>0.7231421727104816</v>
       </c>
       <c r="CP184">
         <v>-5.983264500090627</v>
@@ -73858,7 +73858,7 @@
         <v>-0.01177766954724828</v>
       </c>
       <c r="EF184">
-        <v>-3.372539371006316e-005</v>
+        <v>-3.372539371006316e-05</v>
       </c>
       <c r="EG184">
         <v>-0.002683928834675913</v>
@@ -73911,7 +73911,7 @@
         <v>1228.5</v>
       </c>
       <c r="P185">
-        <v>548.2000000000001</v>
+        <v>548.2</v>
       </c>
       <c r="Q185">
         <v>384.032</v>
@@ -73983,7 +73983,7 @@
         <v>4478.4</v>
       </c>
       <c r="AN185">
-        <v>349.7000000000001</v>
+        <v>349.7</v>
       </c>
       <c r="AO185">
         <v>58.6</v>
@@ -74121,7 +74121,7 @@
         <v>24.09640005065467</v>
       </c>
       <c r="CK185">
-        <v>-31.20868360909464</v>
+        <v>-31.20868360909463</v>
       </c>
       <c r="CL185">
         <v>0</v>
@@ -74220,7 +74220,7 @@
         <v>-15.79221747138263</v>
       </c>
       <c r="DR185">
-        <v>-12.81149718176807</v>
+        <v>-12.81149718176806</v>
       </c>
       <c r="DS185">
         <v>-2.98072028961455</v>
@@ -74262,7 +74262,7 @@
         <v>0.008584855972603465</v>
       </c>
       <c r="EF185">
-        <v>-3.081328574657465e-005</v>
+        <v>-3.081328574657465e-05</v>
       </c>
       <c r="EG185">
         <v>-0.003752980356379071</v>
@@ -74489,7 +74489,7 @@
         <v>0</v>
       </c>
       <c r="BY186">
-        <v>-0.02053045867774724</v>
+        <v>-0.02053045867774723</v>
       </c>
       <c r="BZ186">
         <v>0.3728799165947964</v>
@@ -74501,10 +74501,10 @@
         <v>0.05416460700306663</v>
       </c>
       <c r="CC186">
-        <v>-0.02053045867774724</v>
+        <v>-0.02053045867774723</v>
       </c>
       <c r="CD186">
-        <v>0.01101000428295444</v>
+        <v>0.01101000428295443</v>
       </c>
       <c r="CE186">
         <v>0.3728799165947964</v>
@@ -74531,7 +74531,7 @@
         <v>0</v>
       </c>
       <c r="CM186">
-        <v>0.03836585216621558</v>
+        <v>0.03836585216621557</v>
       </c>
       <c r="CN186">
         <v>1.710156049717803</v>
@@ -74564,7 +74564,7 @@
         <v>-0.9763040182477027</v>
       </c>
       <c r="CX186">
-        <v>-12.08215906103033</v>
+        <v>-12.08215906103032</v>
       </c>
       <c r="CY186">
         <v>-0.6698891172163002</v>
@@ -74651,7 +74651,7 @@
         <v>0.02346774498999367</v>
       </c>
       <c r="EA186">
-        <v>-0.05791131092671605</v>
+        <v>-0.05791131092671604</v>
       </c>
       <c r="EB186">
         <v>0.1385558501590156</v>
@@ -74666,7 +74666,7 @@
         <v>0.01714107317595896</v>
       </c>
       <c r="EF186">
-        <v>-2.978823975370005e-005</v>
+        <v>-2.978823975370005e-05</v>
       </c>
       <c r="EG186">
         <v>-0.001608695197798324</v>
@@ -74761,7 +74761,7 @@
         <v>0.00851590779196032</v>
       </c>
       <c r="AD187">
-        <v>658.7000000000001</v>
+        <v>658.7</v>
       </c>
       <c r="AE187">
         <v>558.8</v>
@@ -74776,7 +74776,7 @@
         <v>2706.6</v>
       </c>
       <c r="AI187">
-        <v>1456.500000000001</v>
+        <v>1456.5</v>
       </c>
       <c r="AJ187">
         <v>1945.2</v>
@@ -74893,7 +74893,7 @@
         <v>0</v>
       </c>
       <c r="BY187">
-        <v>-0.3110783523006545</v>
+        <v>-0.3110783523006544</v>
       </c>
       <c r="BZ187">
         <v>-0.08980873391415439</v>
@@ -74905,7 +74905,7 @@
         <v>-0.01507077671754272</v>
       </c>
       <c r="CC187">
-        <v>-0.3110783523006545</v>
+        <v>-0.3110783523006544</v>
       </c>
       <c r="CD187">
         <v>0.1082053259199329</v>
@@ -74926,7 +74926,7 @@
         <v>-8.694813110736959</v>
       </c>
       <c r="CJ187">
-        <v>-12.39056184087986</v>
+        <v>-12.39056184087985</v>
       </c>
       <c r="CK187">
         <v>6.227258971720119</v>
@@ -74959,7 +74959,7 @@
         <v>-0.2542046108922484</v>
       </c>
       <c r="CU187">
-        <v>-0.005030612543339808</v>
+        <v>-0.005030612543339807</v>
       </c>
       <c r="CV187">
         <v>1.274875559557643</v>
@@ -74992,7 +74992,7 @@
         <v>-2.892592214915143</v>
       </c>
       <c r="DF187">
-        <v>-2.016697820036205</v>
+        <v>-2.016697820036204</v>
       </c>
       <c r="DG187">
         <v>-0.8758943948789025</v>
@@ -75070,7 +75070,7 @@
         <v>0.008803486495685979</v>
       </c>
       <c r="EF187">
-        <v>-3.219611186785562e-005</v>
+        <v>-3.219611186785562e-05</v>
       </c>
       <c r="EG187">
         <v>-0.001016948526855909</v>
@@ -75123,7 +75123,7 @@
         <v>1237.8</v>
       </c>
       <c r="P188">
-        <v>562.7000000000001</v>
+        <v>562.7</v>
       </c>
       <c r="Q188">
         <v>396.396</v>
@@ -75165,7 +75165,7 @@
         <v>0.0006989440278066805</v>
       </c>
       <c r="AD188">
-        <v>665.2000000000001</v>
+        <v>665.2</v>
       </c>
       <c r="AE188">
         <v>566.4</v>
@@ -75300,10 +75300,10 @@
         <v>0.01037756205204764</v>
       </c>
       <c r="BZ188">
-        <v>0.03559874693610225</v>
+        <v>0.03559874693610224</v>
       </c>
       <c r="CA188">
-        <v>-0.08223510979139719</v>
+        <v>-0.08223510979139718</v>
       </c>
       <c r="CB188">
         <v>0.01242478156786124</v>
@@ -75312,10 +75312,10 @@
         <v>0.01037756205204764</v>
       </c>
       <c r="CD188">
-        <v>-0.06981032822353595</v>
+        <v>-0.06981032822353594</v>
       </c>
       <c r="CE188">
-        <v>0.03559874693610225</v>
+        <v>0.03559874693610224</v>
       </c>
       <c r="CF188">
         <v>0.04597630898814988</v>
@@ -75330,7 +75330,7 @@
         <v>-6.077079964481754</v>
       </c>
       <c r="CJ188">
-        <v>19.24131000567923</v>
+        <v>19.24131000567922</v>
       </c>
       <c r="CK188">
         <v>10.04946345414402</v>
@@ -75471,13 +75471,13 @@
         <v>-0.1746041409559315</v>
       </c>
       <c r="EE188">
-        <v>0.00450368760104211</v>
+        <v>0.004503687601042109</v>
       </c>
       <c r="EF188">
-        <v>-3.193700620239368e-005</v>
+        <v>-3.193700620239368e-05</v>
       </c>
       <c r="EG188">
-        <v>-0.000653755552336444</v>
+        <v>-0.0006537555523364439</v>
       </c>
     </row>
     <row r="189">
@@ -75494,7 +75494,7 @@
         <v>0.05240041216595906</v>
       </c>
       <c r="E189">
-        <v>-0.1469082386613493</v>
+        <v>-0.1469082386613492</v>
       </c>
       <c r="F189">
         <v>-0.1048419933235782</v>
@@ -75746,7 +75746,7 @@
         <v>-1.178523022185303</v>
       </c>
       <c r="CN189">
-        <v>-2.637274348351284</v>
+        <v>-2.637274348351283</v>
       </c>
       <c r="CO189">
         <v>7.863418324590384</v>
@@ -75770,7 +75770,7 @@
         <v>-0.004298194786810261</v>
       </c>
       <c r="CV189">
-        <v>-2.650731723461576</v>
+        <v>-2.650731723461575</v>
       </c>
       <c r="CW189">
         <v>-1.933732361648737</v>
@@ -75878,7 +75878,7 @@
         <v>0.01701636082146932</v>
       </c>
       <c r="EF189">
-        <v>-3.211686793276697e-005</v>
+        <v>-3.211686793276697e-05</v>
       </c>
       <c r="EG189">
         <v>-0.002769755200235938</v>
@@ -76054,7 +76054,7 @@
         <v>734.086</v>
       </c>
       <c r="BE190">
-        <v>0.5139999999999994</v>
+        <v>0.5139999999999993</v>
       </c>
       <c r="BF190">
         <v>0</v>
@@ -76111,7 +76111,7 @@
         <v>-0.06223855039219226</v>
       </c>
       <c r="CA190">
-        <v>-0.06799635283913851</v>
+        <v>-0.0679963528391385</v>
       </c>
       <c r="CB190">
         <v>-0.00526778053758454</v>
@@ -76129,7 +76129,7 @@
         <v>-0.2732556478607917</v>
       </c>
       <c r="CG190">
-        <v>-2.074611975323244</v>
+        <v>-2.074611975323243</v>
       </c>
       <c r="CH190">
         <v>-7.269638391103626</v>
@@ -76177,7 +76177,7 @@
         <v>7.341921782531244</v>
       </c>
       <c r="CW190">
-        <v>-1.232013501836804</v>
+        <v>-1.232013501836803</v>
       </c>
       <c r="CX190">
         <v>8.529837310319181</v>
@@ -76282,7 +76282,7 @@
         <v>0.08488145639012702</v>
       </c>
       <c r="EF190">
-        <v>-3.234751606251386e-005</v>
+        <v>-3.234751606251386e-05</v>
       </c>
       <c r="EG190">
         <v>-0.003743853115077065</v>
@@ -76305,7 +76305,7 @@
         <v>0.1101517719974749</v>
       </c>
       <c r="F191">
-        <v>0.08822827891038453</v>
+        <v>0.08822827891038452</v>
       </c>
       <c r="G191">
         <v>-0.004479324822083884</v>
@@ -76515,10 +76515,10 @@
         <v>-0.04821738112609739</v>
       </c>
       <c r="CA191">
-        <v>0.05470511555094793</v>
+        <v>0.05470511555094792</v>
       </c>
       <c r="CB191">
-        <v>0.01999131726392755</v>
+        <v>0.01999131726392754</v>
       </c>
       <c r="CC191">
         <v>0.03545533918259946</v>
@@ -76560,7 +76560,7 @@
         <v>-20.97860883196199</v>
       </c>
       <c r="CP191">
-        <v>-0.9866790631710956</v>
+        <v>-0.9866790631710955</v>
       </c>
       <c r="CQ191">
         <v>18.5705958451249</v>
@@ -76671,7 +76671,7 @@
         <v>0.06383323381811783</v>
       </c>
       <c r="EA191">
-        <v>0.02439504509226822</v>
+        <v>0.02439504509226821</v>
       </c>
       <c r="EB191">
         <v>-0.009875513160177946</v>
@@ -76686,7 +76686,7 @@
         <v>0.09370237531770885</v>
       </c>
       <c r="EF191">
-        <v>7.238987131090778e-005</v>
+        <v>7.238987131090778e-05</v>
       </c>
       <c r="EG191">
         <v>-0.004551714693394789</v>
@@ -76913,7 +76913,7 @@
         <v>0</v>
       </c>
       <c r="BY192">
-        <v>-0.1408898944200016</v>
+        <v>-0.1408898944200015</v>
       </c>
       <c r="BZ192">
         <v>-0.1147417337463614</v>
@@ -76925,7 +76925,7 @@
         <v>-0.1195609059991667</v>
       </c>
       <c r="CC192">
-        <v>-0.1408898944200016</v>
+        <v>-0.1408898944200015</v>
       </c>
       <c r="CD192">
         <v>-0.2233610752406938</v>
@@ -76979,13 +76979,13 @@
         <v>-0.09914933308801466</v>
       </c>
       <c r="CU192">
-        <v>-0.00493796264588442</v>
+        <v>-0.004937962645884419</v>
       </c>
       <c r="CV192">
         <v>-14.05144927250294</v>
       </c>
       <c r="CW192">
-        <v>3.26060169647505</v>
+        <v>3.260601696475049</v>
       </c>
       <c r="CX192">
         <v>21.22060272381782</v>
@@ -77054,7 +77054,7 @@
         <v>-1.942976658466131</v>
       </c>
       <c r="DT192">
-        <v>-0.01328526701075361</v>
+        <v>-0.0132852670107536</v>
       </c>
       <c r="DU192">
         <v>-0.01602392783984518</v>
@@ -77090,7 +77090,7 @@
         <v>0.07356386845437167</v>
       </c>
       <c r="EF192">
-        <v>5.652784075899573e-005</v>
+        <v>5.652784075899573e-05</v>
       </c>
       <c r="EG192">
         <v>-0.0003307448778039378</v>
@@ -77101,7 +77101,7 @@
         <v>43100</v>
       </c>
       <c r="B193">
-        <v>0.03946169552298146</v>
+        <v>0.03946169552298145</v>
       </c>
       <c r="C193">
         <v>-0.0811218478370582</v>
@@ -77128,7 +77128,7 @@
         <v>0.01045949415299985</v>
       </c>
       <c r="K193">
-        <v>0.004263213773628261</v>
+        <v>0.00426321377362826</v>
       </c>
       <c r="L193">
         <v>0.006196280379371588</v>
@@ -77422,7 +77422,7 @@
         <v>-0.7372330863761295</v>
       </c>
       <c r="DH193">
-        <v>-0.5421443293392994</v>
+        <v>-0.5421443293392993</v>
       </c>
       <c r="DI193">
         <v>-0.03948808744511924</v>
@@ -77494,7 +77494,7 @@
         <v>0.09614289268154415</v>
       </c>
       <c r="EF193">
-        <v>4.710223376628519e-005</v>
+        <v>4.710223376628519e-05</v>
       </c>
       <c r="EG193">
         <v>-0.002146959171683449</v>
@@ -77532,10 +77532,10 @@
         <v>0.01039970650629507</v>
       </c>
       <c r="K194">
-        <v>0.00437045312116835</v>
+        <v>0.004370453121168349</v>
       </c>
       <c r="L194">
-        <v>0.006029253385126721</v>
+        <v>0.00602925338512672</v>
       </c>
       <c r="M194">
         <v>13755.5</v>
@@ -77616,7 +77616,7 @@
         <v>1418.3</v>
       </c>
       <c r="AM194">
-        <v>4852.1</v>
+        <v>4852.099999999999</v>
       </c>
       <c r="AN194">
         <v>244.1</v>
@@ -77790,7 +77790,7 @@
         <v>-0.006611969835707332</v>
       </c>
       <c r="CV194">
-        <v>-2.333800586503458</v>
+        <v>-2.333800586503457</v>
       </c>
       <c r="CW194">
         <v>-1.130968343850043</v>
@@ -77823,7 +77823,7 @@
         <v>2.888644102408947</v>
       </c>
       <c r="DG194">
-        <v>-0.7124498524056439</v>
+        <v>-0.7124498524056438</v>
       </c>
       <c r="DH194">
         <v>-0.7399295996996977</v>
@@ -77832,7 +77832,7 @@
         <v>-0.03744001402165473</v>
       </c>
       <c r="DJ194">
-        <v>-0.7024895856780427</v>
+        <v>-0.7024895856780426</v>
       </c>
       <c r="DK194">
         <v>0</v>
@@ -77844,7 +77844,7 @@
         <v>0</v>
       </c>
       <c r="DN194">
-        <v>6.433526051138697</v>
+        <v>6.433526051138696</v>
       </c>
       <c r="DO194">
         <v>6.18389065131353</v>
@@ -77886,7 +77886,7 @@
         <v>0.2905979262741981</v>
       </c>
       <c r="EB194">
-        <v>-2.733132805273205e-005</v>
+        <v>-2.733132805273205e-05</v>
       </c>
       <c r="EC194">
         <v>0.04365922860875435</v>
@@ -77898,7 +77898,7 @@
         <v>0.129070640006795</v>
       </c>
       <c r="EF194">
-        <v>3.684881281272725e-005</v>
+        <v>3.684881281272725e-05</v>
       </c>
       <c r="EG194">
         <v>-0.003578070384961909</v>
@@ -77966,7 +77966,7 @@
         <v>64.961</v>
       </c>
       <c r="U195">
-        <v>0.007419277153072335</v>
+        <v>0.007419277153072334</v>
       </c>
       <c r="V195">
         <v>2250.7</v>
@@ -77981,7 +77981,7 @@
         <v>0.01379610409622822</v>
       </c>
       <c r="Z195">
-        <v>0.007419277153072335</v>
+        <v>0.007419277153072334</v>
       </c>
       <c r="AA195">
         <v>0.01056749707707527</v>
@@ -78158,7 +78158,7 @@
         <v>-11.4881016281513</v>
       </c>
       <c r="CJ195">
-        <v>-45.37645345309466</v>
+        <v>-45.37645345309465</v>
       </c>
       <c r="CK195">
         <v>18.95117942995807</v>
@@ -78233,7 +78233,7 @@
         <v>-0.9625251394871995</v>
       </c>
       <c r="DI195">
-        <v>-0.0227062818999336</v>
+        <v>-0.02270628189993359</v>
       </c>
       <c r="DJ195">
         <v>-0.9398188575872652</v>
@@ -78260,7 +78260,7 @@
         <v>3.613240393407541</v>
       </c>
       <c r="DR195">
-        <v>3.768869260152215</v>
+        <v>3.768869260152214</v>
       </c>
       <c r="DS195">
         <v>-0.155628866744714</v>
@@ -78302,7 +78302,7 @@
         <v>0.1154822895675327</v>
       </c>
       <c r="EF195">
-        <v>3.079788144345467e-005</v>
+        <v>3.079788144345467e-05</v>
       </c>
       <c r="EG195">
         <v>-0.004081814734795316</v>
@@ -78316,7 +78316,7 @@
         <v>0.1652983376755857</v>
       </c>
       <c r="C196">
-        <v>0.1626283289283672</v>
+        <v>0.1626283289283671</v>
       </c>
       <c r="D196">
         <v>-0.0655278868595966</v>
@@ -78574,7 +78574,7 @@
         <v>-0.7363643901781458</v>
       </c>
       <c r="CN196">
-        <v>-0.3845893590749157</v>
+        <v>-0.3845893590749156</v>
       </c>
       <c r="CO196">
         <v>8.618343629184665</v>
@@ -78658,7 +78658,7 @@
         <v>4.531339580639343</v>
       </c>
       <c r="DP196">
-        <v>-0.02889087110460954</v>
+        <v>-0.02889087110460953</v>
       </c>
       <c r="DQ196">
         <v>-1.306339824889546</v>
@@ -78688,7 +78688,7 @@
         <v>6.358721101385578</v>
       </c>
       <c r="DZ196">
-        <v>-0.07614471456663254</v>
+        <v>-0.07614471456663253</v>
       </c>
       <c r="EA196">
         <v>0.123754467323234</v>
@@ -78706,7 +78706,7 @@
         <v>0.08762739123394452</v>
       </c>
       <c r="EF196">
-        <v>2.944106574240091e-005</v>
+        <v>2.944106574240091e-05</v>
       </c>
       <c r="EG196">
         <v>-0.00479511078443517</v>
@@ -78783,7 +78783,7 @@
         <v>0.006613873260551406</v>
       </c>
       <c r="X197">
-        <v>0.005786048313943804</v>
+        <v>0.005786048313943803</v>
       </c>
       <c r="Y197">
         <v>0.01030872959545781</v>
@@ -78795,7 +78795,7 @@
         <v>0.006613873260551406</v>
       </c>
       <c r="AB197">
-        <v>0.005786048313943804</v>
+        <v>0.005786048313943803</v>
       </c>
       <c r="AC197">
         <v>0.01030872959545781</v>
@@ -79044,7 +79044,7 @@
         <v>-0.02763272708389333</v>
       </c>
       <c r="DJ197">
-        <v>-0.671756262780345</v>
+        <v>-0.6717562627803449</v>
       </c>
       <c r="DK197">
         <v>0</v>
@@ -79098,7 +79098,7 @@
         <v>0.08555794729769695</v>
       </c>
       <c r="EB197">
-        <v>0.05313819258229213</v>
+        <v>0.05313819258229212</v>
       </c>
       <c r="EC197">
         <v>-0.02490206300924831</v>
@@ -79110,7 +79110,7 @@
         <v>0.05414017371550382</v>
       </c>
       <c r="EF197">
-        <v>2.72828157161299e-005</v>
+        <v>2.72828157161299e-05</v>
       </c>
       <c r="EG197">
         <v>0.0153866362202458</v>
@@ -79136,7 +79136,7 @@
         <v>0.1026169572066326</v>
       </c>
       <c r="G198">
-        <v>0.003496749379815234</v>
+        <v>0.003496749379815233</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -79163,7 +79163,7 @@
         <v>1388.8</v>
       </c>
       <c r="P198">
-        <v>594.2000000000001</v>
+        <v>594.2</v>
       </c>
       <c r="Q198">
         <v>428.612</v>
@@ -79172,7 +79172,7 @@
         <v>404.529</v>
       </c>
       <c r="S198">
-        <v>189.6710000000001</v>
+        <v>189.671</v>
       </c>
       <c r="T198">
         <v>67.605</v>
@@ -79340,7 +79340,7 @@
         <v>-0.03001499710193038</v>
       </c>
       <c r="BZ198">
-        <v>0.1388052709380258</v>
+        <v>0.1388052709380257</v>
       </c>
       <c r="CA198">
         <v>-0.1420801169882185</v>
@@ -79355,7 +79355,7 @@
         <v>-0.09612654716973321</v>
       </c>
       <c r="CE198">
-        <v>0.1388052709380258</v>
+        <v>0.1388052709380257</v>
       </c>
       <c r="CF198">
         <v>0.1087902738360954</v>
@@ -79421,7 +79421,7 @@
         <v>0</v>
       </c>
       <c r="DA198">
-        <v>0.08787540817764356</v>
+        <v>0.08787540817764355</v>
       </c>
       <c r="DB198">
         <v>5.779458520421048</v>
@@ -79490,7 +79490,7 @@
         <v>5.36427578373742</v>
       </c>
       <c r="DX198">
-        <v>-3.153173503953533</v>
+        <v>-3.153173503953532</v>
       </c>
       <c r="DY198">
         <v>8.517449287690921</v>
@@ -79514,7 +79514,7 @@
         <v>0.06732136185665305</v>
       </c>
       <c r="EF198">
-        <v>2.685512461869539e-005</v>
+        <v>2.685512461869539e-05</v>
       </c>
       <c r="EG198">
         <v>0.003469894255196543</v>
@@ -79609,7 +79609,7 @@
         <v>0.01227390745613666</v>
       </c>
       <c r="AD199">
-        <v>779.7000000000001</v>
+        <v>779.7</v>
       </c>
       <c r="AE199">
         <v>615</v>
@@ -79876,7 +79876,7 @@
         <v>-11.67570043321295</v>
       </c>
       <c r="DR199">
-        <v>-4.15094283539811</v>
+        <v>-4.150942835398109</v>
       </c>
       <c r="DS199">
         <v>-7.524757597814842</v>
@@ -79918,7 +79918,7 @@
         <v>0.06584497949189358</v>
       </c>
       <c r="EF199">
-        <v>2.070307307179463e-005</v>
+        <v>2.070307307179463e-05</v>
       </c>
       <c r="EG199">
         <v>-0.007212435533300541</v>
@@ -80094,7 +80094,7 @@
         <v>790.597</v>
       </c>
       <c r="BE200">
-        <v>0.4030000000000023</v>
+        <v>0.4030000000000022</v>
       </c>
       <c r="BF200">
         <v>0</v>
@@ -80322,7 +80322,7 @@
         <v>0.08638043215074152</v>
       </c>
       <c r="EF200">
-        <v>2.017144295704208e-005</v>
+        <v>2.017144295704208e-05</v>
       </c>
       <c r="EG200">
         <v>0.01242451027716353</v>
@@ -80336,7 +80336,7 @@
         <v>0.4816080942708365</v>
       </c>
       <c r="C201">
-        <v>0.4267748648149271</v>
+        <v>0.426774864814927</v>
       </c>
       <c r="D201">
         <v>-0.2466962259924505</v>
@@ -80390,7 +80390,7 @@
         <v>69.791</v>
       </c>
       <c r="U201">
-        <v>0.003245553141425051</v>
+        <v>0.00324555314142505</v>
       </c>
       <c r="V201">
         <v>2357.4</v>
@@ -80405,7 +80405,7 @@
         <v>0.001116924848141077</v>
       </c>
       <c r="Z201">
-        <v>0.003245553141425051</v>
+        <v>0.00324555314142505</v>
       </c>
       <c r="AA201">
         <v>0.004763061546737113</v>
@@ -80555,7 +80555,7 @@
         <v>-0.04104300382430453</v>
       </c>
       <c r="CA201">
-        <v>0.1962855944439128</v>
+        <v>0.1962855944439127</v>
       </c>
       <c r="CB201">
         <v>0.009367627724233198</v>
@@ -80576,7 +80576,7 @@
         <v>-1.587965665761942</v>
       </c>
       <c r="CH201">
-        <v>-6.748111136451144</v>
+        <v>-6.748111136451143</v>
       </c>
       <c r="CI201">
         <v>-5.385160693122771</v>
@@ -80633,7 +80633,7 @@
         <v>0</v>
       </c>
       <c r="DA201">
-        <v>0.001618900447531269</v>
+        <v>0.001618900447531268</v>
       </c>
       <c r="DB201">
         <v>6.333725451405286</v>
@@ -80675,7 +80675,7 @@
         <v>3.103829047240152</v>
       </c>
       <c r="DO201">
-        <v>3.456353397365823</v>
+        <v>3.456353397365822</v>
       </c>
       <c r="DP201">
         <v>-0.3525243501256663</v>
@@ -80708,7 +80708,7 @@
         <v>15.32385484403192</v>
       </c>
       <c r="DZ201">
-        <v>0.1000318419408058</v>
+        <v>0.1000318419408057</v>
       </c>
       <c r="EA201">
         <v>0.2845615863109041</v>
@@ -80720,13 +80720,13 @@
         <v>0.1228696443533319</v>
       </c>
       <c r="ED201">
-        <v>0.07646308365899227</v>
+        <v>0.07646308365899226</v>
       </c>
       <c r="EE201">
         <v>0.05763761966620989</v>
       </c>
       <c r="EF201">
-        <v>1.954646621006734e-005</v>
+        <v>1.954646621006734e-05</v>
       </c>
       <c r="EG201">
         <v>0.0099872436856559</v>
@@ -80761,7 +80761,7 @@
         <v>21561.1</v>
       </c>
       <c r="J202">
-        <v>0.007995554003311201</v>
+        <v>0.0079955540033112</v>
       </c>
       <c r="K202">
         <v>0.004535040147980229</v>
@@ -80791,10 +80791,10 @@
         <v>204.371</v>
       </c>
       <c r="T202">
-        <v>72.24</v>
+        <v>72.23999999999999</v>
       </c>
       <c r="U202">
-        <v>-0.0006829557606420345</v>
+        <v>-0.0006829557606420344</v>
       </c>
       <c r="V202">
         <v>2381.6</v>
@@ -80809,7 +80809,7 @@
         <v>0.003776143356133188</v>
       </c>
       <c r="Z202">
-        <v>-0.0006829557606420345</v>
+        <v>-0.0006829557606420344</v>
       </c>
       <c r="AA202">
         <v>0.007572683078463927</v>
@@ -80821,7 +80821,7 @@
         <v>0.003776143356133188</v>
       </c>
       <c r="AD202">
-        <v>804.7000000000001</v>
+        <v>804.7</v>
       </c>
       <c r="AE202">
         <v>624.1</v>
@@ -80893,10 +80893,10 @@
         <v>74.5</v>
       </c>
       <c r="BB202">
-        <v>200.6710000000001</v>
+        <v>200.671</v>
       </c>
       <c r="BC202">
-        <v>200.6710000000001</v>
+        <v>200.671</v>
       </c>
       <c r="BD202">
         <v>810.121</v>
@@ -81106,7 +81106,7 @@
         <v>9.84518088132976</v>
       </c>
       <c r="DX202">
-        <v>4.724269799562372</v>
+        <v>4.724269799562371</v>
       </c>
       <c r="DY202">
         <v>5.120911081767497</v>
@@ -81130,7 +81130,7 @@
         <v>0.05426729485636494</v>
       </c>
       <c r="EF202">
-        <v>1.958532327905381e-005</v>
+        <v>1.95853232790538e-05</v>
       </c>
       <c r="EG202">
         <v>0.005414199138256912</v>
@@ -81141,7 +81141,7 @@
         <v>44012</v>
       </c>
       <c r="B203">
-        <v>14.31048153771793</v>
+        <v>14.31048153771792</v>
       </c>
       <c r="C203">
         <v>3.819319351392349</v>
@@ -81165,7 +81165,7 @@
         <v>19520.1</v>
       </c>
       <c r="J203">
-        <v>1.191956627200064e-005</v>
+        <v>1.191956627200064e-05</v>
       </c>
       <c r="K203">
         <v>0.004598266364649106</v>
@@ -81240,7 +81240,7 @@
         <v>5627.4</v>
       </c>
       <c r="AI203">
-        <v>1971.900000000002</v>
+        <v>1971.900000000001</v>
       </c>
       <c r="AJ203">
         <v>2095.7</v>
@@ -81456,13 +81456,13 @@
         <v>660.3861491558603</v>
       </c>
       <c r="DF203">
-        <v>598.6855744267587</v>
+        <v>598.6855744267586</v>
       </c>
       <c r="DG203">
         <v>61.70057472910155</v>
       </c>
       <c r="DH203">
-        <v>332.7815048295169</v>
+        <v>332.7815048295168</v>
       </c>
       <c r="DI203">
         <v>6.882758282303414</v>
@@ -81471,13 +81471,13 @@
         <v>325.8987465472135</v>
       </c>
       <c r="DK203">
-        <v>264.1345</v>
+        <v>264.1344999999999</v>
       </c>
       <c r="DL203">
         <v>0</v>
       </c>
       <c r="DM203">
-        <v>264.1345</v>
+        <v>264.1344999999999</v>
       </c>
       <c r="DN203">
         <v>3.695544033225811</v>
@@ -81522,7 +81522,7 @@
         <v>13.06984882032414</v>
       </c>
       <c r="EB203">
-        <v>0.2644008217736567</v>
+        <v>0.2644008217736566</v>
       </c>
       <c r="EC203">
         <v>12.25143706315281</v>
@@ -81534,7 +81534,7 @@
         <v>0.06855947114434444</v>
       </c>
       <c r="EF203">
-        <v>-3.970115115242583e-005</v>
+        <v>-3.970115115242583e-05</v>
       </c>
       <c r="EG203">
         <v>0.9357975504616978</v>
@@ -81611,7 +81611,7 @@
         <v>0.009942312169631595</v>
       </c>
       <c r="X204">
-        <v>0.009904067834661579</v>
+        <v>0.009904067834661578</v>
       </c>
       <c r="Y204">
         <v>0.01011529724400995</v>
@@ -81623,13 +81623,13 @@
         <v>0.009942312169631595</v>
       </c>
       <c r="AB204">
-        <v>0.009904067834661579</v>
+        <v>0.009904067834661578</v>
       </c>
       <c r="AC204">
         <v>0.01011529724400995</v>
       </c>
       <c r="AD204">
-        <v>842.7000000000001</v>
+        <v>842.7</v>
       </c>
       <c r="AE204">
         <v>699</v>
@@ -81656,7 +81656,7 @@
         <v>1459.8</v>
       </c>
       <c r="AM204">
-        <v>5091.1</v>
+        <v>5091.099999999999</v>
       </c>
       <c r="AN204">
         <v>256.5333333333334</v>
@@ -81920,7 +81920,7 @@
         <v>73.51738953193274</v>
       </c>
       <c r="DZ204">
-        <v>3.433184196672019</v>
+        <v>3.433184196672018</v>
       </c>
       <c r="EA204">
         <v>1.506496166145312</v>
@@ -81929,7 +81929,7 @@
         <v>0.4020430970303051</v>
       </c>
       <c r="EC204">
-        <v>3.038062804489282</v>
+        <v>3.038062804489281</v>
       </c>
       <c r="ED204">
         <v>0.4400356519259836</v>
@@ -81938,7 +81938,7 @@
         <v>0.05479330347269004</v>
       </c>
       <c r="EF204">
-        <v>-4.71055480326196e-005</v>
+        <v>-4.71055480326196e-05</v>
       </c>
       <c r="EG204">
         <v>1.004792611447102</v>
@@ -81961,7 +81961,7 @@
         <v>0.20079346384812</v>
       </c>
       <c r="F205">
-        <v>-2.898235907498652</v>
+        <v>-2.898235907498651</v>
       </c>
       <c r="G205">
         <v>0.0895391264940647</v>
@@ -82156,7 +82156,7 @@
         <v>318.1429201633082</v>
       </c>
       <c r="BT205">
-        <v>-832.7362011439082</v>
+        <v>-832.7362011439081</v>
       </c>
       <c r="BU205">
         <v>69.94750097241933</v>
@@ -82186,7 +82186,7 @@
         <v>0.01964288238724084</v>
       </c>
       <c r="CD205">
-        <v>0.1811505814608792</v>
+        <v>0.1811505814608791</v>
       </c>
       <c r="CE205">
         <v>-0.1871298937285376</v>
@@ -82213,7 +82213,7 @@
         <v>-15.6770848323365</v>
       </c>
       <c r="CM205">
-        <v>-437.5122402658726</v>
+        <v>-437.5122402658725</v>
       </c>
       <c r="CN205">
         <v>-834.7554077650896</v>
@@ -82249,7 +82249,7 @@
         <v>28.20509960620393</v>
       </c>
       <c r="CY205">
-        <v>-3.00814417026151</v>
+        <v>-3.008144170261509</v>
       </c>
       <c r="CZ205">
         <v>0</v>
@@ -82258,13 +82258,13 @@
         <v>39.43755287900006</v>
       </c>
       <c r="DB205">
-        <v>25.3365907564084</v>
+        <v>25.33659075640839</v>
       </c>
       <c r="DC205">
         <v>30.8198185039759</v>
       </c>
       <c r="DD205">
-        <v>-5.483227747567542</v>
+        <v>-5.483227747567541</v>
       </c>
       <c r="DE205">
         <v>-178.5965390926666</v>
@@ -82276,7 +82276,7 @@
         <v>-2.263740055712688</v>
       </c>
       <c r="DH205">
-        <v>-145.6407722076228</v>
+        <v>-145.6407722076227</v>
       </c>
       <c r="DI205">
         <v>20.00462496569973</v>
@@ -82285,16 +82285,16 @@
         <v>-165.6453971733224</v>
       </c>
       <c r="DK205">
-        <v>-56.44687415657941</v>
+        <v>-56.4468741565794</v>
       </c>
       <c r="DL205">
         <v>0</v>
       </c>
       <c r="DM205">
-        <v>-56.44687415657941</v>
+        <v>-56.4468741565794</v>
       </c>
       <c r="DN205">
-        <v>1.386308640183992</v>
+        <v>1.386308640183991</v>
       </c>
       <c r="DO205">
         <v>1.336498739775974</v>
@@ -82303,7 +82303,7 @@
         <v>0.0498099004080198</v>
       </c>
       <c r="DQ205">
-        <v>-6.161732951936521</v>
+        <v>-6.16173295193652</v>
       </c>
       <c r="DR205">
         <v>-2.317928577363182</v>
@@ -82348,7 +82348,7 @@
         <v>0.02620918516625688</v>
       </c>
       <c r="EF205">
-        <v>-3.867639769800897e-005</v>
+        <v>-3.867639769800897e-05</v>
       </c>
       <c r="EG205">
         <v>0.08957780289176272</v>
@@ -82395,7 +82395,7 @@
         <v>0.002172328543681434</v>
       </c>
       <c r="O206">
-        <v>1503.946787774316</v>
+        <v>1503.946787774315</v>
       </c>
       <c r="P206">
         <v>735.9890273818207</v>
@@ -82416,7 +82416,7 @@
         <v>0.003938982612060604</v>
       </c>
       <c r="V206">
-        <v>2349.604111875</v>
+        <v>2349.604111874999</v>
       </c>
       <c r="W206">
         <v>0.0031885362715387</v>
@@ -82467,7 +82467,7 @@
         <v>1512.845444457876</v>
       </c>
       <c r="AM206">
-        <v>5217.688501927863</v>
+        <v>5217.688501927862</v>
       </c>
       <c r="AN206">
         <v>273.9668122872465</v>
@@ -82482,7 +82482,7 @@
         <v>523.17084771922</v>
       </c>
       <c r="AR206">
-        <v>1399.571142498375</v>
+        <v>1399.571142498374</v>
       </c>
       <c r="AS206">
         <v>184</v>
@@ -82500,7 +82500,7 @@
         <v>1458.568823212232</v>
       </c>
       <c r="AX206">
-        <v>148.9000330528643</v>
+        <v>148.9000330528642</v>
       </c>
       <c r="AY206">
         <v>3308.541408497793</v>
@@ -82515,7 +82515,7 @@
         <v>229.1794677808186</v>
       </c>
       <c r="BC206">
-        <v>190.2289272843808</v>
+        <v>190.2289272843807</v>
       </c>
       <c r="BD206">
         <v>1582.62052710625</v>
@@ -82560,7 +82560,7 @@
         <v>-4.030966060291853</v>
       </c>
       <c r="BR206">
-        <v>59.27989203830362</v>
+        <v>59.27989203830361</v>
       </c>
       <c r="BS206">
         <v>446.59185155977</v>
@@ -82674,7 +82674,7 @@
         <v>31.44923999391576</v>
       </c>
       <c r="DD206">
-        <v>-3.287299515378841</v>
+        <v>-3.28729951537884</v>
       </c>
       <c r="DE206">
         <v>-98.57601163676706</v>
@@ -82686,7 +82686,7 @@
         <v>-21.21850254840223</v>
       </c>
       <c r="DH206">
-        <v>-102.9593620631597</v>
+        <v>-102.9593620631596</v>
       </c>
       <c r="DI206">
         <v>9.554791195965104</v>
@@ -82758,7 +82758,7 @@
         <v>-0.003324812295018211</v>
       </c>
       <c r="EF206">
-        <v>-3.417769303108681e-005</v>
+        <v>-3.417769303108681e-05</v>
       </c>
       <c r="EG206">
         <v>-0.1137096384802753</v>
@@ -82796,7 +82796,7 @@
         <v>0.003614091347318826</v>
       </c>
       <c r="L207">
-        <v>0.003524229074890029</v>
+        <v>0.003524229074890028</v>
       </c>
       <c r="M207">
         <v>14925.92465583064</v>
@@ -82874,7 +82874,7 @@
         <v>1499.486642180018</v>
       </c>
       <c r="AL207">
-        <v>1536.634159546233</v>
+        <v>1536.634159546232</v>
       </c>
       <c r="AM207">
         <v>5277.117397548303</v>
@@ -82913,7 +82913,7 @@
         <v>151.0000495792963</v>
       </c>
       <c r="AY207">
-        <v>3337.61211274669</v>
+        <v>3337.612112746689</v>
       </c>
       <c r="AZ207">
         <v>222.607178964163</v>
@@ -83018,7 +83018,7 @@
         <v>-0.708735387021008</v>
       </c>
       <c r="CH207">
-        <v>4.717456880676537</v>
+        <v>4.717456880676536</v>
       </c>
       <c r="CI207">
         <v>-49.37131915474788</v>
@@ -83036,7 +83036,7 @@
         <v>-93.71994795338804</v>
       </c>
       <c r="CN207">
-        <v>-0.7066607062116646</v>
+        <v>-0.7066607062116645</v>
       </c>
       <c r="CO207">
         <v>6.058374315749916</v>
@@ -83054,7 +83054,7 @@
         <v>0</v>
       </c>
       <c r="CT207">
-        <v>-77.29700993206311</v>
+        <v>-77.2970099320631</v>
       </c>
       <c r="CU207">
         <v>-0.002074680809346585</v>
@@ -83078,7 +83078,7 @@
         <v>-16.42293802132492</v>
       </c>
       <c r="DB207">
-        <v>14.9831325837142</v>
+        <v>14.98313258371419</v>
       </c>
       <c r="DC207">
         <v>8.531565005218727</v>
@@ -83168,7 +83168,7 @@
         <v>0.003014953622429922</v>
       </c>
       <c r="EF207">
-        <v>-3.099730278258595e-005</v>
+        <v>-3.099730278258595e-05</v>
       </c>
       <c r="EG207">
         <v>-0.08824184360112441</v>
@@ -83278,7 +83278,7 @@
         <v>1711.162586439111</v>
       </c>
       <c r="AJ208">
-        <v>2257.160617551479</v>
+        <v>2257.160617551478</v>
       </c>
       <c r="AK208">
         <v>1519.477126765459</v>
@@ -83338,7 +83338,7 @@
         <v>190.2289272843814</v>
       </c>
       <c r="BD208">
-        <v>1594.509963816136</v>
+        <v>1594.509963816135</v>
       </c>
       <c r="BE208">
         <v>44</v>
@@ -83434,7 +83434,7 @@
         <v>-55.05172022569491</v>
       </c>
       <c r="CJ208">
-        <v>20.82861677448364</v>
+        <v>20.82861677448363</v>
       </c>
       <c r="CK208">
         <v>8.410885792024942</v>
@@ -83446,7 +83446,7 @@
         <v>-109.1720230939701</v>
       </c>
       <c r="CN208">
-        <v>-0.7729974222109775</v>
+        <v>-0.7729974222109774</v>
       </c>
       <c r="CO208">
         <v>-0.2104319477248282</v>
@@ -83563,7 +83563,7 @@
         <v>-3.524162571547084</v>
       </c>
       <c r="EA208">
-        <v>0.7278359871080145</v>
+        <v>0.7278359871080144</v>
       </c>
       <c r="EB208">
         <v>0.1405093717941997</v>
@@ -83572,13 +83572,13 @@
         <v>-2.912856524807962</v>
       </c>
       <c r="ED208">
-        <v>0.02038090712725822</v>
+        <v>0.02038090712725821</v>
       </c>
       <c r="EE208">
         <v>0.003051402019965108</v>
       </c>
       <c r="EF208">
-        <v>-2.864862043077364e-005</v>
+        <v>-2.864862043077364e-05</v>
       </c>
       <c r="EG208">
         <v>-0.04738309195210001</v>
@@ -83643,7 +83643,7 @@
         <v>76.02995588093096</v>
       </c>
       <c r="U209">
-        <v>0.004663517061526346</v>
+        <v>0.004663517061526345</v>
       </c>
       <c r="V209">
         <v>2385.009929111201</v>
@@ -83658,7 +83658,7 @@
         <v>0.005492326385298174</v>
       </c>
       <c r="Z209">
-        <v>0.004663517061526346</v>
+        <v>0.004663517061526345</v>
       </c>
       <c r="AA209">
         <v>0.005492326385298174</v>
@@ -83739,7 +83739,7 @@
         <v>272.741134878664</v>
       </c>
       <c r="BA209">
-        <v>100.2502499999976</v>
+        <v>100.2502499999975</v>
       </c>
       <c r="BB209">
         <v>242.9879977350915</v>
@@ -83778,7 +83778,7 @@
         <v>0.6110859106172505</v>
       </c>
       <c r="BN209">
-        <v>-52.75907045070989</v>
+        <v>-52.75907045070988</v>
       </c>
       <c r="BO209">
         <v>-747.5266480563156</v>
@@ -83970,7 +83970,7 @@
         <v>-95.29643943612484</v>
       </c>
       <c r="DZ209">
-        <v>-0.3733876840127977</v>
+        <v>-0.3733876840127976</v>
       </c>
       <c r="EA209">
         <v>-1.681801771883026</v>
@@ -83988,7 +83988,7 @@
         <v>-0.008397989742954954</v>
       </c>
       <c r="EF209">
-        <v>-2.642200442619036e-005</v>
+        <v>-2.642200442619036e-05</v>
       </c>
       <c r="EG209">
         <v>-0.01521596544224431</v>
@@ -84026,7 +84026,7 @@
         <v>0.004316209481392441</v>
       </c>
       <c r="L210">
-        <v>0.004359197907584989</v>
+        <v>0.004359197907584988</v>
       </c>
       <c r="M210">
         <v>15390.22939611291</v>
@@ -84143,13 +84143,13 @@
         <v>160.6172625267686</v>
       </c>
       <c r="AY210">
-        <v>3463.270497865854</v>
+        <v>3463.270497865853</v>
       </c>
       <c r="AZ210">
         <v>313.3060311384438</v>
       </c>
       <c r="BA210">
-        <v>74.8302499999968</v>
+        <v>74.83024999999679</v>
       </c>
       <c r="BB210">
         <v>240.5450599085459</v>
@@ -84176,7 +84176,7 @@
         <v>22.09623949328765</v>
       </c>
       <c r="BJ210">
-        <v>1438.552700872406</v>
+        <v>1438.552700872405</v>
       </c>
       <c r="BK210">
         <v>2013.492476994781</v>
@@ -84398,10 +84398,10 @@
         <v>-0.04343271547423566</v>
       </c>
       <c r="EF210">
-        <v>-2.543489059936939e-005</v>
+        <v>-2.543489059936939e-05</v>
       </c>
       <c r="EG210">
-        <v>-0.02102487899942773</v>
+        <v>-0.02102487899942772</v>
       </c>
     </row>
     <row r="211">
@@ -84688,7 +84688,7 @@
         <v>17.9691530842515</v>
       </c>
       <c r="CR211">
-        <v>37.82156233732889</v>
+        <v>37.82156233732888</v>
       </c>
       <c r="CS211">
         <v>0</v>
@@ -84736,7 +84736,7 @@
         <v>-5.754597210316076</v>
       </c>
       <c r="DH211">
-        <v>-18.61426999605281</v>
+        <v>-18.6142699960528</v>
       </c>
       <c r="DI211">
         <v>-1.955447034381553</v>
@@ -84787,7 +84787,7 @@
         <v>-5.548459564568078</v>
       </c>
       <c r="DY211">
-        <v>-103.3382145315672</v>
+        <v>-103.3382145315671</v>
       </c>
       <c r="DZ211">
         <v>-0.09589567390923913</v>
@@ -84808,7 +84808,7 @@
         <v>-0.06049629785049797</v>
       </c>
       <c r="EF211">
-        <v>-2.313319685630749e-005</v>
+        <v>-2.313319685630749e-05</v>
       </c>
       <c r="EG211">
         <v>-0.05087938252246215</v>
@@ -84837,7 +84837,7 @@
         <v>-0.0657022165617335</v>
       </c>
       <c r="I212">
-        <v>23606.65773015177</v>
+        <v>23606.65773015176</v>
       </c>
       <c r="J212">
         <v>0.009591089499053851</v>
@@ -85098,7 +85098,7 @@
         <v>16.87418310615385</v>
       </c>
       <c r="CR212">
-        <v>37.39864264560868</v>
+        <v>37.39864264560867</v>
       </c>
       <c r="CS212">
         <v>0</v>
@@ -85206,7 +85206,7 @@
         <v>-0.5051272539218407</v>
       </c>
       <c r="EB212">
-        <v>0.4994724000213655</v>
+        <v>0.4994724000213654</v>
       </c>
       <c r="EC212">
         <v>-0.5781677406548178</v>
@@ -85218,7 +85218,7 @@
         <v>-0.09490793975597804</v>
       </c>
       <c r="EF212">
-        <v>-2.162412983054853e-005</v>
+        <v>-2.162412983054853e-05</v>
       </c>
       <c r="EG212">
         <v>-0.06568059243190293</v>

--- a/results/11-2020/fim.xlsx
+++ b/results/11-2020/fim.xlsx
@@ -1134,7 +1134,7 @@
         <v>63</v>
       </c>
       <c r="AI2">
-        <v>48.1</v>
+        <v>51</v>
       </c>
       <c r="AJ2">
         <v>104.6</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="AU2">
-        <v>36.1</v>
+        <v>38.7</v>
       </c>
       <c r="AV2">
         <v>90.59999999999999</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="BG2">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="BH2">
         <v>14</v>
@@ -1355,7 +1355,7 @@
         <v>73.09999999999999</v>
       </c>
       <c r="AI3">
-        <v>56.7</v>
+        <v>60.6</v>
       </c>
       <c r="AJ3">
         <v>105.5</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>43.212</v>
+        <v>46.756</v>
       </c>
       <c r="AV3">
         <v>91.40000000000001</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="BG3">
-        <v>13.488</v>
+        <v>13.844</v>
       </c>
       <c r="BH3">
         <v>14.1</v>
@@ -1669,7 +1669,7 @@
         <v>73.5</v>
       </c>
       <c r="AI4">
-        <v>56</v>
+        <v>60.6</v>
       </c>
       <c r="AJ4">
         <v>100.7</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>41.272</v>
+        <v>45.436</v>
       </c>
       <c r="AV4">
         <v>86.3</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="BG4">
-        <v>14.728</v>
+        <v>15.164</v>
       </c>
       <c r="BH4">
         <v>14.3</v>
@@ -1983,7 +1983,7 @@
         <v>77.40000000000001</v>
       </c>
       <c r="AI5">
-        <v>58.5</v>
+        <v>63.9</v>
       </c>
       <c r="AJ5">
         <v>101.5</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>42.428</v>
+        <v>47.364</v>
       </c>
       <c r="AV5">
         <v>87.2</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="BG5">
-        <v>16.072</v>
+        <v>16.536</v>
       </c>
       <c r="BH5">
         <v>14.4</v>
@@ -2300,7 +2300,7 @@
         <v>79.3</v>
       </c>
       <c r="AI6">
-        <v>59.59999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="AJ6">
         <v>98.3</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>42.752</v>
+        <v>47.976</v>
       </c>
       <c r="AV6">
         <v>83.59999999999999</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="BG6">
-        <v>16.848</v>
+        <v>17.324</v>
       </c>
       <c r="BH6">
         <v>14.7</v>
@@ -2629,7 +2629,7 @@
         <v>86.90000000000001</v>
       </c>
       <c r="AI7">
-        <v>66.10000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="AJ7">
         <v>100.7</v>
@@ -2665,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="AU7">
-        <v>48.5</v>
+        <v>54.2</v>
       </c>
       <c r="AV7">
         <v>85.09999999999999</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="BG7">
-        <v>17.6</v>
+        <v>18.2</v>
       </c>
       <c r="BH7">
         <v>15.6</v>
@@ -2958,7 +2958,7 @@
         <v>86.90000000000001</v>
       </c>
       <c r="AI8">
-        <v>65.50000000000001</v>
+        <v>71.80000000000001</v>
       </c>
       <c r="AJ8">
         <v>102.3</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="AU8">
-        <v>47.73200000000001</v>
+        <v>53.41600000000001</v>
       </c>
       <c r="AV8">
         <v>86.3</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="BG8">
-        <v>17.768</v>
+        <v>18.384</v>
       </c>
       <c r="BH8">
         <v>16</v>
@@ -3296,7 +3296,7 @@
         <v>88.5</v>
       </c>
       <c r="AI9">
-        <v>66.59999999999999</v>
+        <v>72.89999999999999</v>
       </c>
       <c r="AJ9">
         <v>105.5</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="AU9">
-        <v>48.45999999999999</v>
+        <v>54.17999999999999</v>
       </c>
       <c r="AV9">
         <v>88.2</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="BG9">
-        <v>18.14</v>
+        <v>18.72</v>
       </c>
       <c r="BH9">
         <v>17.3</v>
@@ -3634,7 +3634,7 @@
         <v>91.40000000000001</v>
       </c>
       <c r="AI10">
-        <v>68.59999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="AJ10">
         <v>119.8</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="AU10">
-        <v>49.836</v>
+        <v>55.768</v>
       </c>
       <c r="AV10">
         <v>100.3</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="BG10">
-        <v>18.764</v>
+        <v>19.33199999999999</v>
       </c>
       <c r="BH10">
         <v>19.5</v>
@@ -4005,7 +4005,7 @@
         <v>91.90000000000001</v>
       </c>
       <c r="AI11">
-        <v>68.2</v>
+        <v>75.10000000000001</v>
       </c>
       <c r="AJ11">
         <v>123.4</v>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="AU11">
-        <v>49.11600000000001</v>
+        <v>55.30800000000001</v>
       </c>
       <c r="AV11">
         <v>102.4</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="BG11">
-        <v>19.084</v>
+        <v>19.792</v>
       </c>
       <c r="BH11">
         <v>21</v>
@@ -4376,7 +4376,7 @@
         <v>92.90000000000001</v>
       </c>
       <c r="AI12">
-        <v>69.5</v>
+        <v>75.3</v>
       </c>
       <c r="AJ12">
         <v>124.3</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>51.032</v>
+        <v>56.21599999999999</v>
       </c>
       <c r="AV12">
         <v>103.1</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="BG12">
-        <v>18.468</v>
+        <v>19.084</v>
       </c>
       <c r="BH12">
         <v>21.2</v>
@@ -4747,7 +4747,7 @@
         <v>103.1</v>
       </c>
       <c r="AI13">
-        <v>80.39999999999999</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="AJ13">
         <v>127.1</v>
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>62.38399999999999</v>
+        <v>66.892</v>
       </c>
       <c r="AV13">
         <v>105.3</v>
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="BG13">
-        <v>18.016</v>
+        <v>18.508</v>
       </c>
       <c r="BH13">
         <v>21.8</v>
@@ -5121,7 +5121,7 @@
         <v>105.4</v>
       </c>
       <c r="AI14">
-        <v>82.30000000000001</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="AJ14">
         <v>126.4</v>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>64.324</v>
+        <v>68.512</v>
       </c>
       <c r="AV14">
         <v>104.5</v>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="BG14">
-        <v>17.976</v>
+        <v>18.388</v>
       </c>
       <c r="BH14">
         <v>21.9</v>
@@ -5522,7 +5522,7 @@
         <v>107.6</v>
       </c>
       <c r="AI15">
-        <v>83.5</v>
+        <v>88</v>
       </c>
       <c r="AJ15">
         <v>129.2</v>
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>65.40000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="AV15">
         <v>106.9</v>
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="BG15">
-        <v>18.1</v>
+        <v>18.5</v>
       </c>
       <c r="BH15">
         <v>22.3</v>
@@ -5923,7 +5923,7 @@
         <v>109.2</v>
       </c>
       <c r="AI16">
-        <v>84.59999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="AJ16">
         <v>134.1</v>
@@ -5959,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="AU16">
-        <v>66.376</v>
+        <v>70.488</v>
       </c>
       <c r="AV16">
         <v>111</v>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="BG16">
-        <v>18.224</v>
+        <v>18.61199999999999</v>
       </c>
       <c r="BH16">
         <v>23.1</v>
@@ -6324,7 +6324,7 @@
         <v>112.3</v>
       </c>
       <c r="AI17">
-        <v>86.49999999999999</v>
+        <v>91.19999999999999</v>
       </c>
       <c r="AJ17">
         <v>140</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="AU17">
-        <v>67.59599999999999</v>
+        <v>71.94799999999999</v>
       </c>
       <c r="AV17">
         <v>116</v>
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="BG17">
-        <v>18.904</v>
+        <v>19.252</v>
       </c>
       <c r="BH17">
         <v>24</v>
@@ -6725,7 +6725,7 @@
         <v>117.5</v>
       </c>
       <c r="AI18">
-        <v>89.79999999999998</v>
+        <v>95.59999999999998</v>
       </c>
       <c r="AJ18">
         <v>142.8</v>
@@ -6761,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="AU18">
-        <v>71.52799999999999</v>
+        <v>76.964</v>
       </c>
       <c r="AV18">
         <v>119.5</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="BG18">
-        <v>18.272</v>
+        <v>18.636</v>
       </c>
       <c r="BH18">
         <v>23.3</v>
@@ -7126,7 +7126,7 @@
         <v>125.4</v>
       </c>
       <c r="AI19">
-        <v>95.19999999999999</v>
+        <v>101.9</v>
       </c>
       <c r="AJ19">
         <v>148.9</v>
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="AU19">
-        <v>75.70799999999998</v>
+        <v>82.00399999999999</v>
       </c>
       <c r="AV19">
         <v>124.8</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="BG19">
-        <v>19.492</v>
+        <v>19.896</v>
       </c>
       <c r="BH19">
         <v>24.1</v>
@@ -7527,7 +7527,7 @@
         <v>132.2</v>
       </c>
       <c r="AI20">
-        <v>100.9</v>
+        <v>107.8</v>
       </c>
       <c r="AJ20">
         <v>154.9</v>
@@ -7563,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="AU20">
-        <v>80.44400000000002</v>
+        <v>86.87200000000001</v>
       </c>
       <c r="AV20">
         <v>129.7</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="BG20">
-        <v>20.45599999999999</v>
+        <v>20.92799999999999</v>
       </c>
       <c r="BH20">
         <v>25.2</v>
@@ -7928,7 +7928,7 @@
         <v>139.1</v>
       </c>
       <c r="AI21">
-        <v>104.7</v>
+        <v>113.3</v>
       </c>
       <c r="AJ21">
         <v>157.6</v>
@@ -7964,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="AU21">
-        <v>81.95999999999999</v>
+        <v>90.08</v>
       </c>
       <c r="AV21">
         <v>132</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="BG21">
-        <v>22.74</v>
+        <v>23.22</v>
       </c>
       <c r="BH21">
         <v>25.6</v>
@@ -8329,7 +8329,7 @@
         <v>149.8</v>
       </c>
       <c r="AI22">
-        <v>107.7</v>
+        <v>121.9</v>
       </c>
       <c r="AJ22">
         <v>158</v>
@@ -8365,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="AU22">
-        <v>79.47999999999999</v>
+        <v>92.73999999999999</v>
       </c>
       <c r="AV22">
         <v>132.3</v>
@@ -8401,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="BG22">
-        <v>28.22000000000001</v>
+        <v>29.16</v>
       </c>
       <c r="BH22">
         <v>25.7</v>
@@ -8730,7 +8730,7 @@
         <v>164.6</v>
       </c>
       <c r="AI23">
-        <v>116.3</v>
+        <v>135.7</v>
       </c>
       <c r="AJ23">
         <v>121.1</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="AU23">
-        <v>82.90399999999998</v>
+        <v>100.952</v>
       </c>
       <c r="AV23">
         <v>94.59999999999999</v>
@@ -8802,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="BG23">
-        <v>33.396</v>
+        <v>34.748</v>
       </c>
       <c r="BH23">
         <v>26.5</v>
@@ -9131,7 +9131,7 @@
         <v>167.7</v>
       </c>
       <c r="AI24">
-        <v>117.8</v>
+        <v>138</v>
       </c>
       <c r="AJ24">
         <v>152.8</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="AU24">
-        <v>84.83199999999999</v>
+        <v>102.816</v>
       </c>
       <c r="AV24">
         <v>125.7</v>
@@ -9203,7 +9203,7 @@
         <v>0</v>
       </c>
       <c r="BG24">
-        <v>32.968</v>
+        <v>35.184</v>
       </c>
       <c r="BH24">
         <v>27.2</v>
@@ -9532,7 +9532,7 @@
         <v>170.4</v>
       </c>
       <c r="AI25">
-        <v>120.2</v>
+        <v>139</v>
       </c>
       <c r="AJ25">
         <v>158.5</v>
@@ -9568,7 +9568,7 @@
         <v>0</v>
       </c>
       <c r="AU25">
-        <v>87.20000000000002</v>
+        <v>104.1</v>
       </c>
       <c r="AV25">
         <v>130.4</v>
@@ -9604,7 +9604,7 @@
         <v>0</v>
       </c>
       <c r="BG25">
-        <v>33</v>
+        <v>34.90000000000001</v>
       </c>
       <c r="BH25">
         <v>28.2</v>
@@ -9933,7 +9933,7 @@
         <v>174.7</v>
       </c>
       <c r="AI26">
-        <v>124.2</v>
+        <v>141.9</v>
       </c>
       <c r="AJ26">
         <v>162.5</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="AU26">
-        <v>92.468</v>
+        <v>108.084</v>
       </c>
       <c r="AV26">
         <v>133</v>
@@ -10005,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="BG26">
-        <v>31.732</v>
+        <v>33.816</v>
       </c>
       <c r="BH26">
         <v>29.5</v>
@@ -10334,7 +10334,7 @@
         <v>173.1</v>
       </c>
       <c r="AI27">
-        <v>123.4</v>
+        <v>139.7</v>
       </c>
       <c r="AJ27">
         <v>169.3</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="AU27">
-        <v>92.408</v>
+        <v>106.804</v>
       </c>
       <c r="AV27">
         <v>138.7</v>
@@ -10406,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="BG27">
-        <v>30.992</v>
+        <v>32.896</v>
       </c>
       <c r="BH27">
         <v>30.6</v>
@@ -10735,7 +10735,7 @@
         <v>180.1</v>
       </c>
       <c r="AI28">
-        <v>128.9</v>
+        <v>145</v>
       </c>
       <c r="AJ28">
         <v>176.1</v>
@@ -10771,7 +10771,7 @@
         <v>0</v>
       </c>
       <c r="AU28">
-        <v>99.04000000000001</v>
+        <v>112.62</v>
       </c>
       <c r="AV28">
         <v>144.5</v>
@@ -10807,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="BG28">
-        <v>29.86</v>
+        <v>32.38</v>
       </c>
       <c r="BH28">
         <v>31.6</v>
@@ -11136,7 +11136,7 @@
         <v>182.7</v>
       </c>
       <c r="AI29">
-        <v>131.3</v>
+        <v>146.8</v>
       </c>
       <c r="AJ29">
         <v>182.7</v>
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="AU29">
-        <v>100.644</v>
+        <v>114.172</v>
       </c>
       <c r="AV29">
         <v>150.1</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BG29">
-        <v>30.656</v>
+        <v>32.628</v>
       </c>
       <c r="BH29">
         <v>32.6</v>
@@ -11537,7 +11537,7 @@
         <v>185.5</v>
       </c>
       <c r="AI30">
-        <v>132.9</v>
+        <v>148.4</v>
       </c>
       <c r="AJ30">
         <v>188.8</v>
@@ -11573,7 +11573,7 @@
         <v>0</v>
       </c>
       <c r="AU30">
-        <v>102.108</v>
+        <v>115.504</v>
       </c>
       <c r="AV30">
         <v>155.3</v>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="BG30">
-        <v>30.79200000000001</v>
+        <v>32.89600000000001</v>
       </c>
       <c r="BH30">
         <v>33.5</v>
@@ -11938,7 +11938,7 @@
         <v>186.4</v>
       </c>
       <c r="AI31">
-        <v>133.9</v>
+        <v>147.2</v>
       </c>
       <c r="AJ31">
         <v>195.7</v>
@@ -11974,7 +11974,7 @@
         <v>0</v>
       </c>
       <c r="AU31">
-        <v>103.648</v>
+        <v>115.424</v>
       </c>
       <c r="AV31">
         <v>161</v>
@@ -12010,7 +12010,7 @@
         <v>0</v>
       </c>
       <c r="BG31">
-        <v>30.252</v>
+        <v>31.776</v>
       </c>
       <c r="BH31">
         <v>34.7</v>
@@ -12339,7 +12339,7 @@
         <v>191.7</v>
       </c>
       <c r="AI32">
-        <v>140.6</v>
+        <v>152.5</v>
       </c>
       <c r="AJ32">
         <v>198.6</v>
@@ -12375,7 +12375,7 @@
         <v>0</v>
       </c>
       <c r="AU32">
-        <v>111.028</v>
+        <v>121.464</v>
       </c>
       <c r="AV32">
         <v>162.6</v>
@@ -12411,7 +12411,7 @@
         <v>0</v>
       </c>
       <c r="BG32">
-        <v>29.572</v>
+        <v>31.036</v>
       </c>
       <c r="BH32">
         <v>35.9</v>
@@ -12740,7 +12740,7 @@
         <v>194.3</v>
       </c>
       <c r="AI33">
-        <v>142.7</v>
+        <v>154.5</v>
       </c>
       <c r="AJ33">
         <v>208.5</v>
@@ -12776,7 +12776,7 @@
         <v>0</v>
       </c>
       <c r="AU33">
-        <v>112.252</v>
+        <v>122.776</v>
       </c>
       <c r="AV33">
         <v>171.2</v>
@@ -12812,7 +12812,7 @@
         <v>0</v>
       </c>
       <c r="BG33">
-        <v>30.448</v>
+        <v>31.724</v>
       </c>
       <c r="BH33">
         <v>37.3</v>
@@ -13141,7 +13141,7 @@
         <v>197.7</v>
       </c>
       <c r="AI34">
-        <v>145.2</v>
+        <v>156</v>
       </c>
       <c r="AJ34">
         <v>212</v>
@@ -13177,7 +13177,7 @@
         <v>0</v>
       </c>
       <c r="AU34">
-        <v>115.14</v>
+        <v>124.72</v>
       </c>
       <c r="AV34">
         <v>173.4</v>
@@ -13213,7 +13213,7 @@
         <v>0</v>
       </c>
       <c r="BG34">
-        <v>30.06</v>
+        <v>31.28</v>
       </c>
       <c r="BH34">
         <v>38.6</v>
@@ -13542,7 +13542,7 @@
         <v>199</v>
       </c>
       <c r="AI35">
-        <v>146</v>
+        <v>155.4</v>
       </c>
       <c r="AJ35">
         <v>223.1</v>
@@ -13578,7 +13578,7 @@
         <v>0</v>
       </c>
       <c r="AU35">
-        <v>115.832</v>
+        <v>124.416</v>
       </c>
       <c r="AV35">
         <v>182.9</v>
@@ -13614,7 +13614,7 @@
         <v>0</v>
       </c>
       <c r="BG35">
-        <v>30.168</v>
+        <v>30.984</v>
       </c>
       <c r="BH35">
         <v>40.1</v>
@@ -13943,7 +13943,7 @@
         <v>207.1</v>
       </c>
       <c r="AI36">
-        <v>153.3</v>
+        <v>162.3</v>
       </c>
       <c r="AJ36">
         <v>236.3</v>
@@ -13979,7 +13979,7 @@
         <v>0</v>
       </c>
       <c r="AU36">
-        <v>123.148</v>
+        <v>131.524</v>
       </c>
       <c r="AV36">
         <v>195.4</v>
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="BG36">
-        <v>30.15199999999999</v>
+        <v>30.776</v>
       </c>
       <c r="BH36">
         <v>40.9</v>
@@ -14344,7 +14344,7 @@
         <v>209.9</v>
       </c>
       <c r="AI37">
-        <v>155</v>
+        <v>163.5</v>
       </c>
       <c r="AJ37">
         <v>247.2</v>
@@ -14380,7 +14380,7 @@
         <v>0</v>
       </c>
       <c r="AU37">
-        <v>125.484</v>
+        <v>133.392</v>
       </c>
       <c r="AV37">
         <v>205.1</v>
@@ -14416,7 +14416,7 @@
         <v>0</v>
       </c>
       <c r="BG37">
-        <v>29.51600000000001</v>
+        <v>30.108</v>
       </c>
       <c r="BH37">
         <v>42.1</v>
@@ -14745,7 +14745,7 @@
         <v>214.9</v>
       </c>
       <c r="AI38">
-        <v>157.5</v>
+        <v>166.9</v>
       </c>
       <c r="AJ38">
         <v>253.6</v>
@@ -14781,7 +14781,7 @@
         <v>0</v>
       </c>
       <c r="AU38">
-        <v>126.924</v>
+        <v>135.712</v>
       </c>
       <c r="AV38">
         <v>211.6</v>
@@ -14817,7 +14817,7 @@
         <v>0</v>
       </c>
       <c r="BG38">
-        <v>30.576</v>
+        <v>31.188</v>
       </c>
       <c r="BH38">
         <v>42</v>
@@ -15146,7 +15146,7 @@
         <v>219.2</v>
       </c>
       <c r="AI39">
-        <v>160</v>
+        <v>169.2</v>
       </c>
       <c r="AJ39">
         <v>262</v>
@@ -15182,7 +15182,7 @@
         <v>0</v>
       </c>
       <c r="AU39">
-        <v>129.244</v>
+        <v>137.872</v>
       </c>
       <c r="AV39">
         <v>219.9</v>
@@ -15218,7 +15218,7 @@
         <v>0</v>
       </c>
       <c r="BG39">
-        <v>30.756</v>
+        <v>31.328</v>
       </c>
       <c r="BH39">
         <v>42.1</v>
@@ -15547,7 +15547,7 @@
         <v>234.6</v>
       </c>
       <c r="AI40">
-        <v>173.4</v>
+        <v>183</v>
       </c>
       <c r="AJ40">
         <v>274.8</v>
@@ -15583,7 +15583,7 @@
         <v>0</v>
       </c>
       <c r="AU40">
-        <v>141.496</v>
+        <v>150.548</v>
       </c>
       <c r="AV40">
         <v>229.4</v>
@@ -15619,7 +15619,7 @@
         <v>0</v>
       </c>
       <c r="BG40">
-        <v>31.904</v>
+        <v>32.452</v>
       </c>
       <c r="BH40">
         <v>45.4</v>
@@ -15948,7 +15948,7 @@
         <v>240.7</v>
       </c>
       <c r="AI41">
-        <v>175.7000000000001</v>
+        <v>186.3000000000001</v>
       </c>
       <c r="AJ41">
         <v>285.2</v>
@@ -15984,7 +15984,7 @@
         <v>0</v>
       </c>
       <c r="AU41">
-        <v>141.9360000000001</v>
+        <v>151.8680000000001</v>
       </c>
       <c r="AV41">
         <v>238.6</v>
@@ -16020,7 +16020,7 @@
         <v>0</v>
       </c>
       <c r="BG41">
-        <v>33.764</v>
+        <v>34.432</v>
       </c>
       <c r="BH41">
         <v>46.6</v>
@@ -16349,7 +16349,7 @@
         <v>251.2</v>
       </c>
       <c r="AI42">
-        <v>182.2</v>
+        <v>194.2</v>
       </c>
       <c r="AJ42">
         <v>284.8</v>
@@ -16385,7 +16385,7 @@
         <v>0</v>
       </c>
       <c r="AU42">
-        <v>145.892</v>
+        <v>157.196</v>
       </c>
       <c r="AV42">
         <v>238.3</v>
@@ -16421,7 +16421,7 @@
         <v>0</v>
       </c>
       <c r="BG42">
-        <v>36.30800000000001</v>
+        <v>37.004</v>
       </c>
       <c r="BH42">
         <v>46.6</v>
@@ -16750,7 +16750,7 @@
         <v>256.2</v>
       </c>
       <c r="AI43">
-        <v>183.1</v>
+        <v>198.8</v>
       </c>
       <c r="AJ43">
         <v>292.2</v>
@@ -16786,7 +16786,7 @@
         <v>0</v>
       </c>
       <c r="AU43">
-        <v>141.92</v>
+        <v>156.96</v>
       </c>
       <c r="AV43">
         <v>244.2</v>
@@ -16822,7 +16822,7 @@
         <v>0</v>
       </c>
       <c r="BG43">
-        <v>41.17999999999999</v>
+        <v>41.83999999999999</v>
       </c>
       <c r="BH43">
         <v>48</v>
@@ -17151,7 +17151,7 @@
         <v>287.9</v>
       </c>
       <c r="AI44">
-        <v>207.6</v>
+        <v>226.6</v>
       </c>
       <c r="AJ44">
         <v>302.2</v>
@@ -17187,7 +17187,7 @@
         <v>0</v>
       </c>
       <c r="AU44">
-        <v>162.272</v>
+        <v>180.336</v>
       </c>
       <c r="AV44">
         <v>252.8</v>
@@ -17223,7 +17223,7 @@
         <v>0</v>
       </c>
       <c r="BG44">
-        <v>45.328</v>
+        <v>46.264</v>
       </c>
       <c r="BH44">
         <v>49.4</v>
@@ -17552,7 +17552,7 @@
         <v>290.7</v>
       </c>
       <c r="AI45">
-        <v>208.5</v>
+        <v>226.3</v>
       </c>
       <c r="AJ45">
         <v>318.9</v>
@@ -17588,7 +17588,7 @@
         <v>0</v>
       </c>
       <c r="AU45">
-        <v>163.768</v>
+        <v>180.684</v>
       </c>
       <c r="AV45">
         <v>267.2</v>
@@ -17624,7 +17624,7 @@
         <v>0</v>
       </c>
       <c r="BG45">
-        <v>44.73199999999999</v>
+        <v>45.61599999999999</v>
       </c>
       <c r="BH45">
         <v>51.6</v>
@@ -17953,7 +17953,7 @@
         <v>296.1</v>
       </c>
       <c r="AI46">
-        <v>212.5</v>
+        <v>228.9</v>
       </c>
       <c r="AJ46">
         <v>330.9</v>
@@ -17989,7 +17989,7 @@
         <v>0</v>
       </c>
       <c r="AU46">
-        <v>168.68</v>
+        <v>184.24</v>
       </c>
       <c r="AV46">
         <v>278.4</v>
@@ -18025,7 +18025,7 @@
         <v>0</v>
       </c>
       <c r="BG46">
-        <v>43.82</v>
+        <v>44.66</v>
       </c>
       <c r="BH46">
         <v>52.5</v>
@@ -18354,7 +18354,7 @@
         <v>299</v>
       </c>
       <c r="AI47">
-        <v>212.8</v>
+        <v>228.3</v>
       </c>
       <c r="AJ47">
         <v>342.7</v>
@@ -18390,7 +18390,7 @@
         <v>0</v>
       </c>
       <c r="AU47">
-        <v>169.704</v>
+        <v>184.352</v>
       </c>
       <c r="AV47">
         <v>289</v>
@@ -18426,7 +18426,7 @@
         <v>0</v>
       </c>
       <c r="BG47">
-        <v>43.096</v>
+        <v>43.94800000000001</v>
       </c>
       <c r="BH47">
         <v>53.7</v>
@@ -18755,7 +18755,7 @@
         <v>317</v>
       </c>
       <c r="AI48">
-        <v>229.3</v>
+        <v>244.3</v>
       </c>
       <c r="AJ48">
         <v>356.9</v>
@@ -18791,7 +18791,7 @@
         <v>0</v>
       </c>
       <c r="AU48">
-        <v>186.476</v>
+        <v>200.688</v>
       </c>
       <c r="AV48">
         <v>301.4</v>
@@ -18827,7 +18827,7 @@
         <v>0</v>
       </c>
       <c r="BG48">
-        <v>42.82400000000001</v>
+        <v>43.61200000000001</v>
       </c>
       <c r="BH48">
         <v>55.5</v>
@@ -19156,7 +19156,7 @@
         <v>319.2</v>
       </c>
       <c r="AI49">
-        <v>228.3</v>
+        <v>244.9</v>
       </c>
       <c r="AJ49">
         <v>352.7</v>
@@ -19192,7 +19192,7 @@
         <v>0</v>
       </c>
       <c r="AU49">
-        <v>183.344</v>
+        <v>199.272</v>
       </c>
       <c r="AV49">
         <v>295.9</v>
@@ -19228,7 +19228,7 @@
         <v>0</v>
       </c>
       <c r="BG49">
-        <v>44.956</v>
+        <v>45.628</v>
       </c>
       <c r="BH49">
         <v>56.8</v>
@@ -19557,7 +19557,7 @@
         <v>324.3</v>
       </c>
       <c r="AI50">
-        <v>228.1</v>
+        <v>247.2</v>
       </c>
       <c r="AJ50">
         <v>352.5</v>
@@ -19593,7 +19593,7 @@
         <v>0</v>
       </c>
       <c r="AU50">
-        <v>180.056</v>
+        <v>198.528</v>
       </c>
       <c r="AV50">
         <v>295.2</v>
@@ -19629,7 +19629,7 @@
         <v>0</v>
       </c>
       <c r="BG50">
-        <v>48.04400000000001</v>
+        <v>48.67200000000001</v>
       </c>
       <c r="BH50">
         <v>57.3</v>
@@ -19958,7 +19958,7 @@
         <v>333.2</v>
       </c>
       <c r="AI51">
-        <v>229</v>
+        <v>252.9</v>
       </c>
       <c r="AJ51">
         <v>359.7</v>
@@ -19994,7 +19994,7 @@
         <v>0</v>
       </c>
       <c r="AU51">
-        <v>175.724</v>
+        <v>198.912</v>
       </c>
       <c r="AV51">
         <v>301.7</v>
@@ -20030,7 +20030,7 @@
         <v>0</v>
       </c>
       <c r="BG51">
-        <v>53.276</v>
+        <v>53.988</v>
       </c>
       <c r="BH51">
         <v>58.1</v>
@@ -20359,7 +20359,7 @@
         <v>349.7</v>
       </c>
       <c r="AI52">
-        <v>240.9</v>
+        <v>267</v>
       </c>
       <c r="AJ52">
         <v>350.1</v>
@@ -20395,7 +20395,7 @@
         <v>0</v>
       </c>
       <c r="AU52">
-        <v>185.46</v>
+        <v>210.58</v>
       </c>
       <c r="AV52">
         <v>289.7</v>
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="BG52">
-        <v>55.44</v>
+        <v>56.42</v>
       </c>
       <c r="BH52">
         <v>60.4</v>
@@ -20760,7 +20760,7 @@
         <v>365.2</v>
       </c>
       <c r="AI53">
-        <v>249</v>
+        <v>280.8</v>
       </c>
       <c r="AJ53">
         <v>356.6</v>
@@ -20796,7 +20796,7 @@
         <v>0</v>
       </c>
       <c r="AU53">
-        <v>195.552</v>
+        <v>222.276</v>
       </c>
       <c r="AV53">
         <v>295.8</v>
@@ -20832,7 +20832,7 @@
         <v>0</v>
       </c>
       <c r="BG53">
-        <v>53.44799999999999</v>
+        <v>58.52399999999999</v>
       </c>
       <c r="BH53">
         <v>60.8</v>
@@ -21161,7 +21161,7 @@
         <v>368</v>
       </c>
       <c r="AI54">
-        <v>249.3</v>
+        <v>279.6</v>
       </c>
       <c r="AJ54">
         <v>350.9</v>
@@ -21197,7 +21197,7 @@
         <v>0</v>
       </c>
       <c r="AU54">
-        <v>198.448</v>
+        <v>222.724</v>
       </c>
       <c r="AV54">
         <v>289.5</v>
@@ -21233,7 +21233,7 @@
         <v>0</v>
       </c>
       <c r="BG54">
-        <v>50.85199999999999</v>
+        <v>56.87599999999999</v>
       </c>
       <c r="BH54">
         <v>61.3</v>
@@ -21562,7 +21562,7 @@
         <v>373.7</v>
       </c>
       <c r="AI55">
-        <v>251.3</v>
+        <v>283.4</v>
       </c>
       <c r="AJ55">
         <v>359.6</v>
@@ -21598,7 +21598,7 @@
         <v>0</v>
       </c>
       <c r="AU55">
-        <v>203.444</v>
+        <v>226.972</v>
       </c>
       <c r="AV55">
         <v>295.3</v>
@@ -21634,7 +21634,7 @@
         <v>0</v>
       </c>
       <c r="BG55">
-        <v>47.85600000000001</v>
+        <v>56.42800000000001</v>
       </c>
       <c r="BH55">
         <v>64.3</v>
@@ -21963,7 +21963,7 @@
         <v>368.5</v>
       </c>
       <c r="AI56">
-        <v>252.5</v>
+        <v>275.8</v>
       </c>
       <c r="AJ56">
         <v>345.4</v>
@@ -21999,7 +21999,7 @@
         <v>0</v>
       </c>
       <c r="AU56">
-        <v>207.112</v>
+        <v>224.856</v>
       </c>
       <c r="AV56">
         <v>277.3</v>
@@ -22035,7 +22035,7 @@
         <v>0</v>
       </c>
       <c r="BG56">
-        <v>45.38800000000001</v>
+        <v>50.944</v>
       </c>
       <c r="BH56">
         <v>68.09999999999999</v>
@@ -22364,7 +22364,7 @@
         <v>371.8</v>
       </c>
       <c r="AI57">
-        <v>256.5</v>
+        <v>276.5</v>
       </c>
       <c r="AJ57">
         <v>355.7</v>
@@ -22400,7 +22400,7 @@
         <v>0</v>
       </c>
       <c r="AU57">
-        <v>213.116</v>
+        <v>228.108</v>
       </c>
       <c r="AV57">
         <v>284.9</v>
@@ -22436,7 +22436,7 @@
         <v>0</v>
       </c>
       <c r="BG57">
-        <v>43.38400000000001</v>
+        <v>48.39200000000001</v>
       </c>
       <c r="BH57">
         <v>70.7</v>
@@ -22765,7 +22765,7 @@
         <v>376.3</v>
       </c>
       <c r="AI58">
-        <v>260.8</v>
+        <v>278.1</v>
       </c>
       <c r="AJ58">
         <v>361.2</v>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="AU58">
-        <v>217.092</v>
+        <v>230.496</v>
       </c>
       <c r="AV58">
         <v>287.9</v>
@@ -22837,7 +22837,7 @@
         <v>0</v>
       </c>
       <c r="BG58">
-        <v>43.70799999999999</v>
+        <v>47.60399999999999</v>
       </c>
       <c r="BH58">
         <v>73.3</v>
@@ -23166,7 +23166,7 @@
         <v>379</v>
       </c>
       <c r="AI59">
-        <v>263.0000000000001</v>
+        <v>278.7</v>
       </c>
       <c r="AJ59">
         <v>370.4</v>
@@ -23202,7 +23202,7 @@
         <v>0</v>
       </c>
       <c r="AU59">
-        <v>218.428</v>
+        <v>231.364</v>
       </c>
       <c r="AV59">
         <v>294.6</v>
@@ -23238,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="BG59">
-        <v>44.572</v>
+        <v>47.336</v>
       </c>
       <c r="BH59">
         <v>75.8</v>
@@ -23567,7 +23567,7 @@
         <v>380.4</v>
       </c>
       <c r="AI60">
-        <v>262.9</v>
+        <v>278.0000000000001</v>
       </c>
       <c r="AJ60">
         <v>384.1</v>
@@ -23603,7 +23603,7 @@
         <v>0</v>
       </c>
       <c r="AU60">
-        <v>217.9320000000001</v>
+        <v>230.7160000000001</v>
       </c>
       <c r="AV60">
         <v>307.3</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="BG60">
-        <v>44.968</v>
+        <v>47.28400000000001</v>
       </c>
       <c r="BH60">
         <v>76.8</v>
@@ -23968,7 +23968,7 @@
         <v>387.9</v>
       </c>
       <c r="AI61">
-        <v>267.5000000000001</v>
+        <v>283.4</v>
       </c>
       <c r="AJ61">
         <v>395.9</v>
@@ -24004,7 +24004,7 @@
         <v>0</v>
       </c>
       <c r="AU61">
-        <v>221.128</v>
+        <v>234.664</v>
       </c>
       <c r="AV61">
         <v>317.7</v>
@@ -24040,7 +24040,7 @@
         <v>0</v>
       </c>
       <c r="BG61">
-        <v>46.372</v>
+        <v>48.736</v>
       </c>
       <c r="BH61">
         <v>78.2</v>
@@ -24369,7 +24369,7 @@
         <v>398.1</v>
       </c>
       <c r="AI62">
-        <v>274.9</v>
+        <v>291.8</v>
       </c>
       <c r="AJ62">
         <v>432.3</v>
@@ -24405,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="AU62">
-        <v>226.492</v>
+        <v>240.896</v>
       </c>
       <c r="AV62">
         <v>353</v>
@@ -24441,7 +24441,7 @@
         <v>0</v>
       </c>
       <c r="BG62">
-        <v>48.408</v>
+        <v>50.904</v>
       </c>
       <c r="BH62">
         <v>79.3</v>
@@ -24770,7 +24770,7 @@
         <v>400.5</v>
       </c>
       <c r="AI63">
-        <v>276.2</v>
+        <v>292.2</v>
       </c>
       <c r="AJ63">
         <v>388.5</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="AU63">
-        <v>226.22</v>
+        <v>240.66</v>
       </c>
       <c r="AV63">
         <v>307.6</v>
@@ -24842,7 +24842,7 @@
         <v>0</v>
       </c>
       <c r="BG63">
-        <v>49.97999999999999</v>
+        <v>51.53999999999999</v>
       </c>
       <c r="BH63">
         <v>80.90000000000001</v>
@@ -25171,7 +25171,7 @@
         <v>405.6</v>
       </c>
       <c r="AI64">
-        <v>280.2</v>
+        <v>295.2</v>
       </c>
       <c r="AJ64">
         <v>421.5</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="AU64">
-        <v>228.168</v>
+        <v>242.684</v>
       </c>
       <c r="AV64">
         <v>340</v>
@@ -25243,7 +25243,7 @@
         <v>0</v>
       </c>
       <c r="BG64">
-        <v>52.03199999999999</v>
+        <v>52.51599999999999</v>
       </c>
       <c r="BH64">
         <v>81.5</v>
@@ -25572,7 +25572,7 @@
         <v>408.3</v>
       </c>
       <c r="AI65">
-        <v>279.9999999999999</v>
+        <v>295.5999999999999</v>
       </c>
       <c r="AJ65">
         <v>428.9</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="AU65">
-        <v>226.724</v>
+        <v>241.812</v>
       </c>
       <c r="AV65">
         <v>345.2</v>
@@ -25644,7 +25644,7 @@
         <v>0</v>
       </c>
       <c r="BG65">
-        <v>53.27599999999998</v>
+        <v>53.78799999999998</v>
       </c>
       <c r="BH65">
         <v>83.7</v>
@@ -25973,7 +25973,7 @@
         <v>419.9</v>
       </c>
       <c r="AI66">
-        <v>289.2</v>
+        <v>304.8</v>
       </c>
       <c r="AJ66">
         <v>426.3</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="AU66">
-        <v>235.06</v>
+        <v>250.18</v>
       </c>
       <c r="AV66">
         <v>341.8</v>
@@ -26045,7 +26045,7 @@
         <v>0</v>
       </c>
       <c r="BG66">
-        <v>54.14</v>
+        <v>54.62</v>
       </c>
       <c r="BH66">
         <v>84.5</v>
@@ -26374,7 +26374,7 @@
         <v>425.6</v>
       </c>
       <c r="AI67">
-        <v>291.6</v>
+        <v>307.9999999999999</v>
       </c>
       <c r="AJ67">
         <v>429.4</v>
@@ -26410,7 +26410,7 @@
         <v>0</v>
       </c>
       <c r="AU67">
-        <v>235.8039999999999</v>
+        <v>251.652</v>
       </c>
       <c r="AV67">
         <v>344.4</v>
@@ -26446,7 +26446,7 @@
         <v>0</v>
       </c>
       <c r="BG67">
-        <v>55.79599999999999</v>
+        <v>56.34799999999998</v>
       </c>
       <c r="BH67">
         <v>85</v>
@@ -26775,7 +26775,7 @@
         <v>433.1</v>
       </c>
       <c r="AI68">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="AJ68">
         <v>439.5</v>
@@ -26811,7 +26811,7 @@
         <v>0</v>
       </c>
       <c r="AU68">
-        <v>238.904</v>
+        <v>255.352</v>
       </c>
       <c r="AV68">
         <v>352</v>
@@ -26847,7 +26847,7 @@
         <v>0</v>
       </c>
       <c r="BG68">
-        <v>57.096</v>
+        <v>57.648</v>
       </c>
       <c r="BH68">
         <v>87.5</v>
@@ -27176,7 +27176,7 @@
         <v>435.8</v>
       </c>
       <c r="AI69">
-        <v>296.1</v>
+        <v>312.9999999999999</v>
       </c>
       <c r="AJ69">
         <v>456</v>
@@ -27212,7 +27212,7 @@
         <v>0</v>
       </c>
       <c r="AU69">
-        <v>238.4839999999999</v>
+        <v>254.8919999999999</v>
       </c>
       <c r="AV69">
         <v>364.2</v>
@@ -27248,7 +27248,7 @@
         <v>0</v>
       </c>
       <c r="BG69">
-        <v>57.61600000000001</v>
+        <v>58.108</v>
       </c>
       <c r="BH69">
         <v>91.8</v>
@@ -27577,7 +27577,7 @@
         <v>441.9</v>
       </c>
       <c r="AI70">
-        <v>300.6000000000001</v>
+        <v>316.1000000000001</v>
       </c>
       <c r="AJ70">
         <v>450.7</v>
@@ -27613,7 +27613,7 @@
         <v>0</v>
       </c>
       <c r="AU70">
-        <v>244.0080000000001</v>
+        <v>259.0040000000001</v>
       </c>
       <c r="AV70">
         <v>358.3</v>
@@ -27649,7 +27649,7 @@
         <v>0</v>
       </c>
       <c r="BG70">
-        <v>56.59199999999999</v>
+        <v>57.09599999999999</v>
       </c>
       <c r="BH70">
         <v>92.40000000000001</v>
@@ -27978,7 +27978,7 @@
         <v>447.5</v>
       </c>
       <c r="AI71">
-        <v>304.0000000000001</v>
+        <v>319.1000000000001</v>
       </c>
       <c r="AJ71">
         <v>511.7</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="AU71">
-        <v>247.3400000000001</v>
+        <v>261.9200000000001</v>
       </c>
       <c r="AV71">
         <v>410.2</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="BG71">
-        <v>56.66000000000001</v>
+        <v>57.18000000000001</v>
       </c>
       <c r="BH71">
         <v>101.5</v>
@@ -28379,7 +28379,7 @@
         <v>449.4</v>
       </c>
       <c r="AI72">
-        <v>304.4</v>
+        <v>318.8</v>
       </c>
       <c r="AJ72">
         <v>489</v>
@@ -28415,7 +28415,7 @@
         <v>0</v>
       </c>
       <c r="AU72">
-        <v>247.616</v>
+        <v>261.6079999999999</v>
       </c>
       <c r="AV72">
         <v>394.9</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="BG72">
-        <v>56.784</v>
+        <v>57.192</v>
       </c>
       <c r="BH72">
         <v>94.09999999999999</v>
@@ -28780,7 +28780,7 @@
         <v>452.8</v>
       </c>
       <c r="AI73">
-        <v>306.6</v>
+        <v>320.1</v>
       </c>
       <c r="AJ73">
         <v>507</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="AU73">
-        <v>250.184</v>
+        <v>263.292</v>
       </c>
       <c r="AV73">
         <v>408.5</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="BG73">
-        <v>56.41600000000001</v>
+        <v>56.80800000000001</v>
       </c>
       <c r="BH73">
         <v>98.40000000000001</v>
@@ -29181,7 +29181,7 @@
         <v>470.3</v>
       </c>
       <c r="AI74">
-        <v>322.1</v>
+        <v>336</v>
       </c>
       <c r="AJ74">
         <v>502.1</v>
@@ -29217,7 +29217,7 @@
         <v>0</v>
       </c>
       <c r="AU74">
-        <v>264.608</v>
+        <v>278.104</v>
       </c>
       <c r="AV74">
         <v>402.6</v>
@@ -29253,7 +29253,7 @@
         <v>0</v>
       </c>
       <c r="BG74">
-        <v>57.492</v>
+        <v>57.896</v>
       </c>
       <c r="BH74">
         <v>99.40000000000001</v>
@@ -29582,7 +29582,7 @@
         <v>473.4</v>
       </c>
       <c r="AI75">
-        <v>323.0000000000001</v>
+        <v>336.2</v>
       </c>
       <c r="AJ75">
         <v>497.8</v>
@@ -29618,7 +29618,7 @@
         <v>0</v>
       </c>
       <c r="AU75">
-        <v>265.628</v>
+        <v>278.364</v>
       </c>
       <c r="AV75">
         <v>400.6</v>
@@ -29654,7 +29654,7 @@
         <v>0</v>
       </c>
       <c r="BG75">
-        <v>57.372</v>
+        <v>57.836</v>
       </c>
       <c r="BH75">
         <v>97.2</v>
@@ -29983,7 +29983,7 @@
         <v>478.8</v>
       </c>
       <c r="AI76">
-        <v>324.9</v>
+        <v>338.1</v>
       </c>
       <c r="AJ76">
         <v>506.7</v>
@@ -30019,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="AU76">
-        <v>266.748</v>
+        <v>279.524</v>
       </c>
       <c r="AV76">
         <v>402.5</v>
@@ -30055,7 +30055,7 @@
         <v>0</v>
       </c>
       <c r="BG76">
-        <v>58.15199999999999</v>
+        <v>58.57599999999999</v>
       </c>
       <c r="BH76">
         <v>104.1</v>
@@ -30384,7 +30384,7 @@
         <v>484.9</v>
       </c>
       <c r="AI77">
-        <v>326.8</v>
+        <v>339.8</v>
       </c>
       <c r="AJ77">
         <v>517.2</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="AU77">
-        <v>267.996</v>
+        <v>280.648</v>
       </c>
       <c r="AV77">
         <v>409.6</v>
@@ -30456,7 +30456,7 @@
         <v>0</v>
       </c>
       <c r="BG77">
-        <v>58.80400000000001</v>
+        <v>59.15200000000001</v>
       </c>
       <c r="BH77">
         <v>107.6</v>
@@ -30785,7 +30785,7 @@
         <v>508.2</v>
       </c>
       <c r="AI78">
-        <v>343.2999999999999</v>
+        <v>356.8999999999999</v>
       </c>
       <c r="AJ78">
         <v>552.9</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="AU78">
-        <v>283.7799999999999</v>
+        <v>296.9399999999999</v>
       </c>
       <c r="AV78">
         <v>439.5</v>
@@ -30857,7 +30857,7 @@
         <v>0</v>
       </c>
       <c r="BG78">
-        <v>59.52</v>
+        <v>59.95999999999999</v>
       </c>
       <c r="BH78">
         <v>113.4</v>
@@ -31186,7 +31186,7 @@
         <v>515.7</v>
       </c>
       <c r="AI79">
-        <v>345.4</v>
+        <v>359.1</v>
       </c>
       <c r="AJ79">
         <v>566.7</v>
@@ -31222,7 +31222,7 @@
         <v>0</v>
       </c>
       <c r="AU79">
-        <v>284.768</v>
+        <v>298.084</v>
       </c>
       <c r="AV79">
         <v>448.4</v>
@@ -31258,7 +31258,7 @@
         <v>0</v>
       </c>
       <c r="BG79">
-        <v>60.63200000000001</v>
+        <v>61.01600000000001</v>
       </c>
       <c r="BH79">
         <v>118.3</v>
@@ -31587,7 +31587,7 @@
         <v>524.7</v>
       </c>
       <c r="AI80">
-        <v>348.4999999999999</v>
+        <v>363.1</v>
       </c>
       <c r="AJ80">
         <v>571.6</v>
@@ -31623,7 +31623,7 @@
         <v>0</v>
       </c>
       <c r="AU80">
-        <v>285.5599999999999</v>
+        <v>299.78</v>
       </c>
       <c r="AV80">
         <v>457.1</v>
@@ -31659,7 +31659,7 @@
         <v>0</v>
       </c>
       <c r="BG80">
-        <v>62.94000000000001</v>
+        <v>63.32000000000001</v>
       </c>
       <c r="BH80">
         <v>114.5</v>
@@ -31988,7 +31988,7 @@
         <v>535.8</v>
       </c>
       <c r="AI81">
-        <v>353.2</v>
+        <v>369</v>
       </c>
       <c r="AJ81">
         <v>579.8</v>
@@ -32024,7 +32024,7 @@
         <v>0</v>
       </c>
       <c r="AU81">
-        <v>287.84</v>
+        <v>303.22</v>
       </c>
       <c r="AV81">
         <v>467.4</v>
@@ -32060,7 +32060,7 @@
         <v>0</v>
       </c>
       <c r="BG81">
-        <v>65.36</v>
+        <v>65.78</v>
       </c>
       <c r="BH81">
         <v>112.4</v>
@@ -32389,7 +32389,7 @@
         <v>556.2</v>
       </c>
       <c r="AI82">
-        <v>369</v>
+        <v>385.4</v>
       </c>
       <c r="AJ82">
         <v>582.5</v>
@@ -32425,7 +32425,7 @@
         <v>0</v>
       </c>
       <c r="AU82">
-        <v>301.104</v>
+        <v>317.152</v>
       </c>
       <c r="AV82">
         <v>463.2</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="BG82">
-        <v>67.89599999999999</v>
+        <v>68.24799999999999</v>
       </c>
       <c r="BH82">
         <v>119.4</v>
@@ -32790,7 +32790,7 @@
         <v>567.5</v>
       </c>
       <c r="AI83">
-        <v>373.7</v>
+        <v>390.8000000000001</v>
       </c>
       <c r="AJ83">
         <v>594.6</v>
@@ -32826,7 +32826,7 @@
         <v>0</v>
       </c>
       <c r="AU83">
-        <v>303.636</v>
+        <v>320.268</v>
       </c>
       <c r="AV83">
         <v>472</v>
@@ -32862,7 +32862,7 @@
         <v>0</v>
       </c>
       <c r="BG83">
-        <v>70.06400000000001</v>
+        <v>70.53200000000001</v>
       </c>
       <c r="BH83">
         <v>122.6</v>
@@ -33191,7 +33191,7 @@
         <v>578.1</v>
       </c>
       <c r="AI84">
-        <v>376.4</v>
+        <v>394.6</v>
       </c>
       <c r="AJ84">
         <v>600.7</v>
@@ -33227,7 +33227,7 @@
         <v>0</v>
       </c>
       <c r="AU84">
-        <v>303.744</v>
+        <v>321.472</v>
       </c>
       <c r="AV84">
         <v>477</v>
@@ -33263,7 +33263,7 @@
         <v>0</v>
       </c>
       <c r="BG84">
-        <v>72.65600000000002</v>
+        <v>73.12800000000001</v>
       </c>
       <c r="BH84">
         <v>123.7</v>
@@ -33592,7 +33592,7 @@
         <v>596.8</v>
       </c>
       <c r="AI85">
-        <v>384.1</v>
+        <v>405.1</v>
       </c>
       <c r="AJ85">
         <v>600.8</v>
@@ -33628,7 +33628,7 @@
         <v>0</v>
       </c>
       <c r="AU85">
-        <v>307.504</v>
+        <v>327.952</v>
       </c>
       <c r="AV85">
         <v>476.2</v>
@@ -33664,7 +33664,7 @@
         <v>0</v>
       </c>
       <c r="BG85">
-        <v>76.596</v>
+        <v>77.148</v>
       </c>
       <c r="BH85">
         <v>124.6</v>
@@ -33993,7 +33993,7 @@
         <v>622.5</v>
       </c>
       <c r="AI86">
-        <v>401.6</v>
+        <v>425.9</v>
       </c>
       <c r="AJ86">
         <v>580.8</v>
@@ -34029,7 +34029,7 @@
         <v>0</v>
       </c>
       <c r="AU86">
-        <v>320.452</v>
+        <v>344.276</v>
       </c>
       <c r="AV86">
         <v>459.6</v>
@@ -34065,7 +34065,7 @@
         <v>0</v>
       </c>
       <c r="BG86">
-        <v>81.14800000000002</v>
+        <v>81.62400000000002</v>
       </c>
       <c r="BH86">
         <v>121.2</v>
@@ -34394,7 +34394,7 @@
         <v>643.5</v>
       </c>
       <c r="AI87">
-        <v>407.2</v>
+        <v>434.7</v>
       </c>
       <c r="AJ87">
         <v>585.9</v>
@@ -34430,7 +34430,7 @@
         <v>0</v>
       </c>
       <c r="AU87">
-        <v>321.664</v>
+        <v>348.632</v>
       </c>
       <c r="AV87">
         <v>461.4</v>
@@ -34466,7 +34466,7 @@
         <v>0</v>
       </c>
       <c r="BG87">
-        <v>85.53599999999999</v>
+        <v>86.06799999999998</v>
       </c>
       <c r="BH87">
         <v>124.5</v>
@@ -34795,7 +34795,7 @@
         <v>653.8</v>
       </c>
       <c r="AI88">
-        <v>410.5</v>
+        <v>436.4</v>
       </c>
       <c r="AJ88">
         <v>590.2</v>
@@ -34831,7 +34831,7 @@
         <v>0</v>
       </c>
       <c r="AU88">
-        <v>325.472</v>
+        <v>350.836</v>
       </c>
       <c r="AV88">
         <v>464.1</v>
@@ -34867,7 +34867,7 @@
         <v>0</v>
       </c>
       <c r="BG88">
-        <v>85.02799999999999</v>
+        <v>85.56399999999999</v>
       </c>
       <c r="BH88">
         <v>126.1</v>
@@ -35196,7 +35196,7 @@
         <v>682.3</v>
       </c>
       <c r="AI89">
-        <v>417.9000000000001</v>
+        <v>447.3000000000001</v>
       </c>
       <c r="AJ89">
         <v>598.7</v>
@@ -35232,7 +35232,7 @@
         <v>0</v>
       </c>
       <c r="AU89">
-        <v>334.984</v>
+        <v>360.492</v>
       </c>
       <c r="AV89">
         <v>469.2</v>
@@ -35268,7 +35268,7 @@
         <v>0</v>
       </c>
       <c r="BG89">
-        <v>82.91600000000004</v>
+        <v>86.80800000000004</v>
       </c>
       <c r="BH89">
         <v>129.5</v>
@@ -35597,7 +35597,7 @@
         <v>710.5</v>
       </c>
       <c r="AI90">
-        <v>435.3</v>
+        <v>475</v>
       </c>
       <c r="AJ90">
         <v>588.9</v>
@@ -35633,7 +35633,7 @@
         <v>0</v>
       </c>
       <c r="AU90">
-        <v>362.592</v>
+        <v>387.696</v>
       </c>
       <c r="AV90">
         <v>461.3</v>
@@ -35669,7 +35669,7 @@
         <v>0</v>
       </c>
       <c r="BG90">
-        <v>72.708</v>
+        <v>87.304</v>
       </c>
       <c r="BH90">
         <v>127.6</v>
@@ -35998,7 +35998,7 @@
         <v>729.1</v>
       </c>
       <c r="AI91">
-        <v>441.4999999999999</v>
+        <v>482.6999999999999</v>
       </c>
       <c r="AJ91">
         <v>607.2</v>
@@ -36034,7 +36034,7 @@
         <v>0</v>
       </c>
       <c r="AU91">
-        <v>368.6679999999999</v>
+        <v>394.0839999999999</v>
       </c>
       <c r="AV91">
         <v>470.2</v>
@@ -36070,7 +36070,7 @@
         <v>0</v>
       </c>
       <c r="BG91">
-        <v>72.83199999999999</v>
+        <v>88.616</v>
       </c>
       <c r="BH91">
         <v>136.9</v>
@@ -36399,7 +36399,7 @@
         <v>741.3</v>
       </c>
       <c r="AI92">
-        <v>446.5999999999999</v>
+        <v>486.1999999999999</v>
       </c>
       <c r="AJ92">
         <v>616.2</v>
@@ -36435,7 +36435,7 @@
         <v>0</v>
       </c>
       <c r="AU92">
-        <v>370.2799999999999</v>
+        <v>395.6399999999999</v>
       </c>
       <c r="AV92">
         <v>479.4</v>
@@ -36471,7 +36471,7 @@
         <v>0</v>
       </c>
       <c r="BG92">
-        <v>76.32000000000002</v>
+        <v>90.56000000000003</v>
       </c>
       <c r="BH92">
         <v>136.8</v>
@@ -36800,7 +36800,7 @@
         <v>746</v>
       </c>
       <c r="AI93">
-        <v>449.6000000000001</v>
+        <v>487.6000000000001</v>
       </c>
       <c r="AJ93">
         <v>638.9</v>
@@ -36836,7 +36836,7 @@
         <v>0</v>
       </c>
       <c r="AU93">
-        <v>376.5600000000001</v>
+        <v>399.9800000000001</v>
       </c>
       <c r="AV93">
         <v>499</v>
@@ -36872,7 +36872,7 @@
         <v>0</v>
       </c>
       <c r="BG93">
-        <v>73.04000000000002</v>
+        <v>87.62000000000002</v>
       </c>
       <c r="BH93">
         <v>140</v>
@@ -37204,7 +37204,7 @@
         <v>766.5</v>
       </c>
       <c r="AI94">
-        <v>463.6</v>
+        <v>498.7</v>
       </c>
       <c r="AJ94">
         <v>617</v>
@@ -37240,7 +37240,7 @@
         <v>0</v>
       </c>
       <c r="AU94">
-        <v>392.944</v>
+        <v>413.572</v>
       </c>
       <c r="AV94">
         <v>480.3</v>
@@ -37276,7 +37276,7 @@
         <v>0</v>
       </c>
       <c r="BG94">
-        <v>70.65600000000001</v>
+        <v>85.12800000000001</v>
       </c>
       <c r="BH94">
         <v>136.7</v>
@@ -37608,7 +37608,7 @@
         <v>771.7</v>
       </c>
       <c r="AI95">
-        <v>466.7</v>
+        <v>502.2</v>
       </c>
       <c r="AJ95">
         <v>643.5</v>
@@ -37644,7 +37644,7 @@
         <v>0</v>
       </c>
       <c r="AU95">
-        <v>393.6840000000001</v>
+        <v>415.4920000000001</v>
       </c>
       <c r="AV95">
         <v>505.3</v>
@@ -37680,7 +37680,7 @@
         <v>0</v>
       </c>
       <c r="BG95">
-        <v>73.01599999999996</v>
+        <v>86.70799999999997</v>
       </c>
       <c r="BH95">
         <v>138.3</v>
@@ -38012,7 +38012,7 @@
         <v>786.3</v>
       </c>
       <c r="AI96">
-        <v>468.1000000000001</v>
+        <v>503.6000000000001</v>
       </c>
       <c r="AJ96">
         <v>659.2</v>
@@ -38048,7 +38048,7 @@
         <v>0</v>
       </c>
       <c r="AU96">
-        <v>394.6400000000001</v>
+        <v>416.4200000000001</v>
       </c>
       <c r="AV96">
         <v>515.6</v>
@@ -38084,7 +38084,7 @@
         <v>0</v>
       </c>
       <c r="BG96">
-        <v>73.45999999999999</v>
+        <v>87.17999999999999</v>
       </c>
       <c r="BH96">
         <v>143.6</v>
@@ -38416,7 +38416,7 @@
         <v>791.3</v>
       </c>
       <c r="AI97">
-        <v>470.5000000000001</v>
+        <v>503.7</v>
       </c>
       <c r="AJ97">
         <v>675.3</v>
@@ -38452,7 +38452,7 @@
         <v>0</v>
       </c>
       <c r="AU97">
-        <v>393.7200000000001</v>
+        <v>415.8600000000001</v>
       </c>
       <c r="AV97">
         <v>529.5</v>
@@ -38488,7 +38488,7 @@
         <v>0</v>
       </c>
       <c r="BG97">
-        <v>76.77999999999997</v>
+        <v>87.83999999999997</v>
       </c>
       <c r="BH97">
         <v>145.8</v>
@@ -38820,7 +38820,7 @@
         <v>805.3</v>
       </c>
       <c r="AI98">
-        <v>483.8999999999999</v>
+        <v>511.8999999999999</v>
       </c>
       <c r="AJ98">
         <v>673.7</v>
@@ -38856,7 +38856,7 @@
         <v>0</v>
       </c>
       <c r="AU98">
-        <v>401.2839999999999</v>
+        <v>423.0919999999999</v>
       </c>
       <c r="AV98">
         <v>526.7</v>
@@ -38892,7 +38892,7 @@
         <v>0</v>
       </c>
       <c r="BG98">
-        <v>82.61599999999999</v>
+        <v>88.80799999999999</v>
       </c>
       <c r="BH98">
         <v>146.9</v>
@@ -39224,7 +39224,7 @@
         <v>810.1</v>
       </c>
       <c r="AI99">
-        <v>486.4000000000001</v>
+        <v>510.8000000000001</v>
       </c>
       <c r="AJ99">
         <v>697.8</v>
@@ -39260,7 +39260,7 @@
         <v>0</v>
       </c>
       <c r="AU99">
-        <v>399.8080000000001</v>
+        <v>421.9040000000001</v>
       </c>
       <c r="AV99">
         <v>555.9</v>
@@ -39296,7 +39296,7 @@
         <v>0</v>
       </c>
       <c r="BG99">
-        <v>86.592</v>
+        <v>88.896</v>
       </c>
       <c r="BH99">
         <v>141.9</v>
@@ -39628,7 +39628,7 @@
         <v>813.6</v>
       </c>
       <c r="AI100">
-        <v>488.3</v>
+        <v>510.4</v>
       </c>
       <c r="AJ100">
         <v>695.4</v>
@@ -39664,7 +39664,7 @@
         <v>0</v>
       </c>
       <c r="AU100">
-        <v>400.372</v>
+        <v>421.636</v>
       </c>
       <c r="AV100">
         <v>544.2</v>
@@ -39700,7 +39700,7 @@
         <v>0</v>
       </c>
       <c r="BG100">
-        <v>87.92800000000001</v>
+        <v>88.76400000000001</v>
       </c>
       <c r="BH100">
         <v>151.2</v>
@@ -40032,7 +40032,7 @@
         <v>833.8</v>
       </c>
       <c r="AI101">
-        <v>493.1000000000001</v>
+        <v>514.4000000000001</v>
       </c>
       <c r="AJ101">
         <v>705.4</v>
@@ -40068,7 +40068,7 @@
         <v>0</v>
       </c>
       <c r="AU101">
-        <v>405.3800000000001</v>
+        <v>425.9400000000001</v>
       </c>
       <c r="AV101">
         <v>553.4</v>
@@ -40104,7 +40104,7 @@
         <v>0</v>
       </c>
       <c r="BG101">
-        <v>87.72</v>
+        <v>88.46000000000001</v>
       </c>
       <c r="BH101">
         <v>152</v>
@@ -40436,7 +40436,7 @@
         <v>857.9</v>
       </c>
       <c r="AI102">
-        <v>508.9000000000001</v>
+        <v>529.8000000000001</v>
       </c>
       <c r="AJ102">
         <v>724.6</v>
@@ -40472,7 +40472,7 @@
         <v>0</v>
       </c>
       <c r="AU102">
-        <v>421.612</v>
+        <v>441.756</v>
       </c>
       <c r="AV102">
         <v>567.7</v>
@@ -40508,7 +40508,7 @@
         <v>0</v>
       </c>
       <c r="BG102">
-        <v>87.28800000000001</v>
+        <v>88.04400000000001</v>
       </c>
       <c r="BH102">
         <v>156.9</v>
@@ -40840,7 +40840,7 @@
         <v>865.6</v>
       </c>
       <c r="AI103">
-        <v>511.9</v>
+        <v>533.5</v>
       </c>
       <c r="AJ103">
         <v>746.8</v>
@@ -40876,7 +40876,7 @@
         <v>0</v>
       </c>
       <c r="AU103">
-        <v>423.588</v>
+        <v>444.444</v>
       </c>
       <c r="AV103">
         <v>594.4</v>
@@ -40912,7 +40912,7 @@
         <v>0</v>
       </c>
       <c r="BG103">
-        <v>88.312</v>
+        <v>89.056</v>
       </c>
       <c r="BH103">
         <v>152.4</v>
@@ -41244,7 +41244,7 @@
         <v>870.7</v>
       </c>
       <c r="AI104">
-        <v>512.8</v>
+        <v>534.8</v>
       </c>
       <c r="AJ104">
         <v>752.2</v>
@@ -41280,7 +41280,7 @@
         <v>0</v>
       </c>
       <c r="AU104">
-        <v>424.232</v>
+        <v>445.516</v>
       </c>
       <c r="AV104">
         <v>591.5</v>
@@ -41316,7 +41316,7 @@
         <v>0</v>
       </c>
       <c r="BG104">
-        <v>88.56799999999998</v>
+        <v>89.28399999999999</v>
       </c>
       <c r="BH104">
         <v>160.7</v>
@@ -41648,7 +41648,7 @@
         <v>864.6</v>
       </c>
       <c r="AI105">
-        <v>514.9</v>
+        <v>537.4</v>
       </c>
       <c r="AJ105">
         <v>770</v>
@@ -41684,7 +41684,7 @@
         <v>0</v>
       </c>
       <c r="AU105">
-        <v>425.7639999999999</v>
+        <v>447.5319999999999</v>
       </c>
       <c r="AV105">
         <v>607.6</v>
@@ -41720,7 +41720,7 @@
         <v>0</v>
       </c>
       <c r="BG105">
-        <v>89.13600000000004</v>
+        <v>89.86800000000004</v>
       </c>
       <c r="BH105">
         <v>162.4</v>
@@ -42052,7 +42052,7 @@
         <v>893.2</v>
       </c>
       <c r="AI106">
-        <v>529.3000000000001</v>
+        <v>552.3000000000001</v>
       </c>
       <c r="AJ106">
         <v>801.7</v>
@@ -42088,7 +42088,7 @@
         <v>0</v>
       </c>
       <c r="AU106">
-        <v>440.8480000000001</v>
+        <v>463.1240000000001</v>
       </c>
       <c r="AV106">
         <v>636.4</v>
@@ -42124,7 +42124,7 @@
         <v>0</v>
       </c>
       <c r="BG106">
-        <v>88.45199999999997</v>
+        <v>89.17599999999997</v>
       </c>
       <c r="BH106">
         <v>165.3</v>
@@ -42456,7 +42456,7 @@
         <v>912.9</v>
       </c>
       <c r="AI107">
-        <v>531.5</v>
+        <v>554.2</v>
       </c>
       <c r="AJ107">
         <v>839.6</v>
@@ -42492,7 +42492,7 @@
         <v>0</v>
       </c>
       <c r="AU107">
-        <v>443.704</v>
+        <v>465.752</v>
       </c>
       <c r="AV107">
         <v>673.6</v>
@@ -42528,7 +42528,7 @@
         <v>0</v>
       </c>
       <c r="BG107">
-        <v>87.79599999999998</v>
+        <v>88.44799999999998</v>
       </c>
       <c r="BH107">
         <v>165.9</v>
@@ -42860,7 +42860,7 @@
         <v>908.5</v>
       </c>
       <c r="AI108">
-        <v>531.5999999999999</v>
+        <v>553.1999999999999</v>
       </c>
       <c r="AJ108">
         <v>843.5</v>
@@ -42896,7 +42896,7 @@
         <v>0</v>
       </c>
       <c r="AU108">
-        <v>445.192</v>
+        <v>466.196</v>
       </c>
       <c r="AV108">
         <v>674.2</v>
@@ -42932,7 +42932,7 @@
         <v>0</v>
       </c>
       <c r="BG108">
-        <v>86.40799999999997</v>
+        <v>87.00399999999998</v>
       </c>
       <c r="BH108">
         <v>169.3</v>
@@ -43264,7 +43264,7 @@
         <v>910.7</v>
       </c>
       <c r="AI109">
-        <v>531.5999999999999</v>
+        <v>553.3</v>
       </c>
       <c r="AJ109">
         <v>863.5</v>
@@ -43300,7 +43300,7 @@
         <v>0</v>
       </c>
       <c r="AU109">
-        <v>446.3239999999999</v>
+        <v>467.4119999999999</v>
       </c>
       <c r="AV109">
         <v>689.4</v>
@@ -43336,7 +43336,7 @@
         <v>0</v>
       </c>
       <c r="BG109">
-        <v>85.27599999999998</v>
+        <v>85.88799999999998</v>
       </c>
       <c r="BH109">
         <v>174.1</v>
@@ -43668,7 +43668,7 @@
         <v>930.5</v>
       </c>
       <c r="AI110">
-        <v>543.7</v>
+        <v>564.7</v>
       </c>
       <c r="AJ110">
         <v>902.1</v>
@@ -43704,7 +43704,7 @@
         <v>0</v>
       </c>
       <c r="AU110">
-        <v>459.484</v>
+        <v>479.792</v>
       </c>
       <c r="AV110">
         <v>724.3</v>
@@ -43740,7 +43740,7 @@
         <v>0</v>
       </c>
       <c r="BG110">
-        <v>84.21599999999998</v>
+        <v>84.90799999999999</v>
       </c>
       <c r="BH110">
         <v>177.8</v>
@@ -44072,7 +44072,7 @@
         <v>931.3</v>
       </c>
       <c r="AI111">
-        <v>544.3</v>
+        <v>564.6999999999999</v>
       </c>
       <c r="AJ111">
         <v>916.2</v>
@@ -44108,7 +44108,7 @@
         <v>0</v>
       </c>
       <c r="AU111">
-        <v>460.8159999999999</v>
+        <v>480.6079999999999</v>
       </c>
       <c r="AV111">
         <v>739.3</v>
@@ -44144,7 +44144,7 @@
         <v>0</v>
       </c>
       <c r="BG111">
-        <v>83.48399999999998</v>
+        <v>84.09199999999998</v>
       </c>
       <c r="BH111">
         <v>176.9</v>
@@ -44476,7 +44476,7 @@
         <v>937.2</v>
       </c>
       <c r="AI112">
-        <v>545.6000000000001</v>
+        <v>565.2000000000002</v>
       </c>
       <c r="AJ112">
         <v>941.1</v>
@@ -44512,7 +44512,7 @@
         <v>0</v>
       </c>
       <c r="AU112">
-        <v>462.7720000000001</v>
+        <v>481.8360000000001</v>
       </c>
       <c r="AV112">
         <v>757</v>
@@ -44548,7 +44548,7 @@
         <v>0</v>
       </c>
       <c r="BG112">
-        <v>82.828</v>
+        <v>83.364</v>
       </c>
       <c r="BH112">
         <v>184.1</v>
@@ -44880,7 +44880,7 @@
         <v>942.7</v>
       </c>
       <c r="AI113">
-        <v>547.3000000000002</v>
+        <v>566.7000000000002</v>
       </c>
       <c r="AJ113">
         <v>967.8</v>
@@ -44916,7 +44916,7 @@
         <v>0</v>
       </c>
       <c r="AU113">
-        <v>464.5960000000001</v>
+        <v>483.4480000000001</v>
       </c>
       <c r="AV113">
         <v>778.6</v>
@@ -44952,7 +44952,7 @@
         <v>0</v>
       </c>
       <c r="BG113">
-        <v>82.70400000000002</v>
+        <v>83.25200000000002</v>
       </c>
       <c r="BH113">
         <v>189.2</v>
@@ -45284,7 +45284,7 @@
         <v>951.8</v>
       </c>
       <c r="AI114">
-        <v>558.8000000000001</v>
+        <v>578.2</v>
       </c>
       <c r="AJ114">
         <v>996.1</v>
@@ -45320,7 +45320,7 @@
         <v>0</v>
       </c>
       <c r="AU114">
-        <v>475.5960000000001</v>
+        <v>494.448</v>
       </c>
       <c r="AV114">
         <v>800.6</v>
@@ -45356,7 +45356,7 @@
         <v>0</v>
       </c>
       <c r="BG114">
-        <v>83.20400000000002</v>
+        <v>83.75200000000002</v>
       </c>
       <c r="BH114">
         <v>195.6</v>
@@ -45688,7 +45688,7 @@
         <v>956</v>
       </c>
       <c r="AI115">
-        <v>561.4000000000001</v>
+        <v>580.7</v>
       </c>
       <c r="AJ115">
         <v>1022.4</v>
@@ -45724,7 +45724,7 @@
         <v>0</v>
       </c>
       <c r="AU115">
-        <v>477.8</v>
+        <v>496.6</v>
       </c>
       <c r="AV115">
         <v>820.9</v>
@@ -45760,7 +45760,7 @@
         <v>0</v>
       </c>
       <c r="BG115">
-        <v>83.60000000000002</v>
+        <v>84.10000000000002</v>
       </c>
       <c r="BH115">
         <v>201.4</v>
@@ -46092,7 +46092,7 @@
         <v>957.4</v>
       </c>
       <c r="AI116">
-        <v>564.0000000000001</v>
+        <v>584.3000000000001</v>
       </c>
       <c r="AJ116">
         <v>1043.2</v>
@@ -46128,7 +46128,7 @@
         <v>0</v>
       </c>
       <c r="AU116">
-        <v>478.9400000000001</v>
+        <v>498.72</v>
       </c>
       <c r="AV116">
         <v>841.6</v>
@@ -46164,7 +46164,7 @@
         <v>0</v>
       </c>
       <c r="BG116">
-        <v>85.06000000000003</v>
+        <v>85.58000000000003</v>
       </c>
       <c r="BH116">
         <v>201.6</v>
@@ -46496,7 +46496,7 @@
         <v>966.4</v>
       </c>
       <c r="AI117">
-        <v>565.7</v>
+        <v>585.5</v>
       </c>
       <c r="AJ117">
         <v>1068</v>
@@ -46532,7 +46532,7 @@
         <v>0</v>
       </c>
       <c r="AU117">
-        <v>480.576</v>
+        <v>499.888</v>
       </c>
       <c r="AV117">
         <v>861.7</v>
@@ -46568,7 +46568,7 @@
         <v>0</v>
       </c>
       <c r="BG117">
-        <v>85.124</v>
+        <v>85.61199999999999</v>
       </c>
       <c r="BH117">
         <v>206.3</v>
@@ -46900,7 +46900,7 @@
         <v>983.4</v>
       </c>
       <c r="AI118">
-        <v>574.8000000000001</v>
+        <v>595.6</v>
       </c>
       <c r="AJ118">
         <v>1077.9</v>
@@ -46936,7 +46936,7 @@
         <v>0</v>
       </c>
       <c r="AU118">
-        <v>488.2920000000001</v>
+        <v>508.5960000000001</v>
       </c>
       <c r="AV118">
         <v>869.8</v>
@@ -46972,7 +46972,7 @@
         <v>0</v>
       </c>
       <c r="BG118">
-        <v>86.50799999999998</v>
+        <v>87.00399999999999</v>
       </c>
       <c r="BH118">
         <v>208.2</v>
@@ -47304,7 +47304,7 @@
         <v>985</v>
       </c>
       <c r="AI119">
-        <v>577.1</v>
+        <v>598</v>
       </c>
       <c r="AJ119">
         <v>1095.2</v>
@@ -47340,7 +47340,7 @@
         <v>0</v>
       </c>
       <c r="AU119">
-        <v>489.892</v>
+        <v>510.296</v>
       </c>
       <c r="AV119">
         <v>885.8</v>
@@ -47376,7 +47376,7 @@
         <v>0</v>
       </c>
       <c r="BG119">
-        <v>87.20800000000004</v>
+        <v>87.70400000000004</v>
       </c>
       <c r="BH119">
         <v>209.4</v>
@@ -47708,7 +47708,7 @@
         <v>996.1</v>
       </c>
       <c r="AI120">
-        <v>579.7</v>
+        <v>600</v>
       </c>
       <c r="AJ120">
         <v>1120.6</v>
@@ -47744,7 +47744,7 @@
         <v>0</v>
       </c>
       <c r="AU120">
-        <v>491.9960000000001</v>
+        <v>511.8480000000001</v>
       </c>
       <c r="AV120">
         <v>904.2</v>
@@ -47780,7 +47780,7 @@
         <v>0</v>
       </c>
       <c r="BG120">
-        <v>87.70399999999998</v>
+        <v>88.15199999999999</v>
       </c>
       <c r="BH120">
         <v>216.4</v>
@@ -48112,7 +48112,7 @@
         <v>1004.3</v>
       </c>
       <c r="AI121">
-        <v>582.1000000000001</v>
+        <v>602.1000000000001</v>
       </c>
       <c r="AJ121">
         <v>1154</v>
@@ -48148,7 +48148,7 @@
         <v>0</v>
       </c>
       <c r="AU121">
-        <v>494.0320000000001</v>
+        <v>513.6160000000001</v>
       </c>
       <c r="AV121">
         <v>930</v>
@@ -48184,7 +48184,7 @@
         <v>0</v>
       </c>
       <c r="BG121">
-        <v>88.06799999999998</v>
+        <v>88.48399999999998</v>
       </c>
       <c r="BH121">
         <v>224</v>
@@ -48516,7 +48516,7 @@
         <v>1016.9</v>
       </c>
       <c r="AI122">
-        <v>593.2</v>
+        <v>613.7</v>
       </c>
       <c r="AJ122">
         <v>1208.8</v>
@@ -48552,7 +48552,7 @@
         <v>0</v>
       </c>
       <c r="AU122">
-        <v>503.6559999999999</v>
+        <v>523.728</v>
       </c>
       <c r="AV122">
         <v>976.6</v>
@@ -48588,7 +48588,7 @@
         <v>0</v>
       </c>
       <c r="BG122">
-        <v>89.54400000000004</v>
+        <v>89.97200000000004</v>
       </c>
       <c r="BH122">
         <v>232.2</v>
@@ -48920,7 +48920,7 @@
         <v>1042.3</v>
       </c>
       <c r="AI123">
-        <v>607.8999999999999</v>
+        <v>627.8999999999999</v>
       </c>
       <c r="AJ123">
         <v>1230.2</v>
@@ -48956,7 +48956,7 @@
         <v>0</v>
       </c>
       <c r="AU123">
-        <v>517.7439999999999</v>
+        <v>537.2719999999999</v>
       </c>
       <c r="AV123">
         <v>986.9</v>
@@ -48992,7 +48992,7 @@
         <v>0</v>
       </c>
       <c r="BG123">
-        <v>90.15599999999998</v>
+        <v>90.62799999999999</v>
       </c>
       <c r="BH123">
         <v>243.3</v>
@@ -49324,7 +49324,7 @@
         <v>1054.7</v>
       </c>
       <c r="AI124">
-        <v>608.5999999999999</v>
+        <v>629.1999999999999</v>
       </c>
       <c r="AJ124">
         <v>1247.7</v>
@@ -49360,7 +49360,7 @@
         <v>0</v>
       </c>
       <c r="AU124">
-        <v>516.616</v>
+        <v>536.708</v>
       </c>
       <c r="AV124">
         <v>1011.1</v>
@@ -49396,7 +49396,7 @@
         <v>0</v>
       </c>
       <c r="BG124">
-        <v>91.98399999999995</v>
+        <v>92.49199999999996</v>
       </c>
       <c r="BH124">
         <v>236.6</v>
@@ -49728,7 +49728,7 @@
         <v>1065.6</v>
       </c>
       <c r="AI125">
-        <v>612.2</v>
+        <v>634.1</v>
       </c>
       <c r="AJ125">
         <v>1258.7</v>
@@ -49764,7 +49764,7 @@
         <v>0</v>
       </c>
       <c r="AU125">
-        <v>517.16</v>
+        <v>538.48</v>
       </c>
       <c r="AV125">
         <v>1023.9</v>
@@ -49800,7 +49800,7 @@
         <v>0</v>
       </c>
       <c r="BG125">
-        <v>95.03999999999999</v>
+        <v>95.61999999999999</v>
       </c>
       <c r="BH125">
         <v>234.8</v>
@@ -50132,7 +50132,7 @@
         <v>1107.8</v>
       </c>
       <c r="AI126">
-        <v>633.4</v>
+        <v>658.9</v>
       </c>
       <c r="AJ126">
         <v>1301.9</v>
@@ -50168,7 +50168,7 @@
         <v>0</v>
       </c>
       <c r="AU126">
-        <v>533.748</v>
+        <v>558.624</v>
       </c>
       <c r="AV126">
         <v>1051</v>
@@ -50204,7 +50204,7 @@
         <v>0</v>
       </c>
       <c r="BG126">
-        <v>99.65199999999996</v>
+        <v>100.276</v>
       </c>
       <c r="BH126">
         <v>250.9</v>
@@ -50536,7 +50536,7 @@
         <v>1139.1</v>
       </c>
       <c r="AI127">
-        <v>640.1</v>
+        <v>668.5</v>
       </c>
       <c r="AJ127">
         <v>1308.9</v>
@@ -50572,7 +50572,7 @@
         <v>0</v>
       </c>
       <c r="AU127">
-        <v>534.8639999999999</v>
+        <v>562.732</v>
       </c>
       <c r="AV127">
         <v>1049</v>
@@ -50608,7 +50608,7 @@
         <v>0</v>
       </c>
       <c r="BG127">
-        <v>105.236</v>
+        <v>105.768</v>
       </c>
       <c r="BH127">
         <v>259.9</v>
@@ -50940,7 +50940,7 @@
         <v>1145.2</v>
       </c>
       <c r="AI128">
-        <v>648.9</v>
+        <v>682</v>
       </c>
       <c r="AJ128">
         <v>1113.6</v>
@@ -50976,7 +50976,7 @@
         <v>0</v>
       </c>
       <c r="AU128">
-        <v>538.352</v>
+        <v>570.976</v>
       </c>
       <c r="AV128">
         <v>881.7</v>
@@ -51012,7 +51012,7 @@
         <v>0</v>
       </c>
       <c r="BG128">
-        <v>110.548</v>
+        <v>111.024</v>
       </c>
       <c r="BH128">
         <v>231.9</v>
@@ -51344,7 +51344,7 @@
         <v>1191.2</v>
       </c>
       <c r="AI129">
-        <v>653.8000000000001</v>
+        <v>694.4000000000001</v>
       </c>
       <c r="AJ129">
         <v>1231.8</v>
@@ -51380,7 +51380,7 @@
         <v>0</v>
       </c>
       <c r="AU129">
-        <v>534.6840000000002</v>
+        <v>574.7920000000001</v>
       </c>
       <c r="AV129">
         <v>1002.4</v>
@@ -51416,7 +51416,7 @@
         <v>0</v>
       </c>
       <c r="BG129">
-        <v>119.116</v>
+        <v>119.608</v>
       </c>
       <c r="BH129">
         <v>229.3</v>
@@ -51748,7 +51748,7 @@
         <v>1221</v>
       </c>
       <c r="AI130">
-        <v>679.2</v>
+        <v>722</v>
       </c>
       <c r="AJ130">
         <v>1075.2</v>
@@ -51784,7 +51784,7 @@
         <v>0</v>
       </c>
       <c r="AU130">
-        <v>558.526</v>
+        <v>599.713</v>
       </c>
       <c r="AV130">
         <v>847.8</v>
@@ -51820,7 +51820,7 @@
         <v>0</v>
       </c>
       <c r="BG130">
-        <v>120.674</v>
+        <v>122.287</v>
       </c>
       <c r="BH130">
         <v>227.4</v>
@@ -52152,7 +52152,7 @@
         <v>1247.1</v>
       </c>
       <c r="AI131">
-        <v>684.8000000000001</v>
+        <v>745.3000000000001</v>
       </c>
       <c r="AJ131">
         <v>1051</v>
@@ -52188,7 +52188,7 @@
         <v>0</v>
       </c>
       <c r="AU131">
-        <v>576.816</v>
+        <v>619.9580000000001</v>
       </c>
       <c r="AV131">
         <v>836.7</v>
@@ -52224,7 +52224,7 @@
         <v>0</v>
       </c>
       <c r="BG131">
-        <v>107.984</v>
+        <v>125.342</v>
       </c>
       <c r="BH131">
         <v>214.3</v>
@@ -52556,7 +52556,7 @@
         <v>1259.9</v>
       </c>
       <c r="AI132">
-        <v>690.3000000000002</v>
+        <v>747.2000000000002</v>
       </c>
       <c r="AJ132">
         <v>1044.1</v>
@@ -52592,7 +52592,7 @@
         <v>0</v>
       </c>
       <c r="AU132">
-        <v>579.4140000000002</v>
+        <v>621.5070000000002</v>
       </c>
       <c r="AV132">
         <v>825.3</v>
@@ -52628,7 +52628,7 @@
         <v>0</v>
       </c>
       <c r="BG132">
-        <v>110.886</v>
+        <v>125.693</v>
       </c>
       <c r="BH132">
         <v>218.8</v>
@@ -52960,7 +52960,7 @@
         <v>1276.2</v>
       </c>
       <c r="AI133">
-        <v>696.9999999999999</v>
+        <v>750.6999999999999</v>
       </c>
       <c r="AJ133">
         <v>1038.4</v>
@@ -52996,7 +52996,7 @@
         <v>0</v>
       </c>
       <c r="AU133">
-        <v>581.716</v>
+        <v>623.658</v>
       </c>
       <c r="AV133">
         <v>819.6</v>
@@ -53032,7 +53032,7 @@
         <v>0</v>
       </c>
       <c r="BG133">
-        <v>115.2839999999999</v>
+        <v>127.0419999999999</v>
       </c>
       <c r="BH133">
         <v>218.9</v>
@@ -53364,7 +53364,7 @@
         <v>1294.6</v>
       </c>
       <c r="AI134">
-        <v>713.3</v>
+        <v>765.0999999999999</v>
       </c>
       <c r="AJ134">
         <v>1021.3</v>
@@ -53400,7 +53400,7 @@
         <v>0</v>
       </c>
       <c r="AU134">
-        <v>596.0899999999999</v>
+        <v>637.4449999999999</v>
       </c>
       <c r="AV134">
         <v>803.5</v>
@@ -53436,7 +53436,7 @@
         <v>0</v>
       </c>
       <c r="BG134">
-        <v>117.21</v>
+        <v>127.655</v>
       </c>
       <c r="BH134">
         <v>217.9</v>
@@ -53768,7 +53768,7 @@
         <v>1312.6</v>
       </c>
       <c r="AI135">
-        <v>723.9</v>
+        <v>779.1</v>
       </c>
       <c r="AJ135">
         <v>1020.8</v>
@@ -53804,7 +53804,7 @@
         <v>0</v>
       </c>
       <c r="AU135">
-        <v>604.4540000000001</v>
+        <v>647.677</v>
       </c>
       <c r="AV135">
         <v>812.9</v>
@@ -53840,7 +53840,7 @@
         <v>0</v>
       </c>
       <c r="BG135">
-        <v>119.446</v>
+        <v>131.423</v>
       </c>
       <c r="BH135">
         <v>207.9</v>
@@ -54172,7 +54172,7 @@
         <v>1335.5</v>
       </c>
       <c r="AI136">
-        <v>730.5999999999998</v>
+        <v>784.7999999999998</v>
       </c>
       <c r="AJ136">
         <v>950.7</v>
@@ -54208,7 +54208,7 @@
         <v>0</v>
       </c>
       <c r="AU136">
-        <v>610.7519999999998</v>
+        <v>652.7259999999999</v>
       </c>
       <c r="AV136">
         <v>716.5</v>
@@ -54244,7 +54244,7 @@
         <v>0</v>
       </c>
       <c r="BG136">
-        <v>119.848</v>
+        <v>132.074</v>
       </c>
       <c r="BH136">
         <v>234.2</v>
@@ -54576,7 +54576,7 @@
         <v>1341.2</v>
       </c>
       <c r="AI137">
-        <v>738.6000000000001</v>
+        <v>790.1000000000001</v>
       </c>
       <c r="AJ137">
         <v>1021.3</v>
@@ -54612,7 +54612,7 @@
         <v>0</v>
       </c>
       <c r="AU137">
-        <v>620.0300000000001</v>
+        <v>659.4150000000001</v>
       </c>
       <c r="AV137">
         <v>781.6</v>
@@ -54648,7 +54648,7 @@
         <v>0</v>
       </c>
       <c r="BG137">
-        <v>118.57</v>
+        <v>130.685</v>
       </c>
       <c r="BH137">
         <v>239.7</v>
@@ -54980,7 +54980,7 @@
         <v>1379.6</v>
       </c>
       <c r="AI138">
-        <v>760.9000000000002</v>
+        <v>803.2000000000002</v>
       </c>
       <c r="AJ138">
         <v>1012.3</v>
@@ -55016,7 +55016,7 @@
         <v>0</v>
       </c>
       <c r="AU138">
-        <v>638.0240000000001</v>
+        <v>674.3120000000001</v>
       </c>
       <c r="AV138">
         <v>773.2</v>
@@ -55052,7 +55052,7 @@
         <v>0</v>
       </c>
       <c r="BG138">
-        <v>122.876</v>
+        <v>128.888</v>
       </c>
       <c r="BH138">
         <v>239</v>
@@ -55384,7 +55384,7 @@
         <v>1400.6</v>
       </c>
       <c r="AI139">
-        <v>771.3000000000001</v>
+        <v>807.2</v>
       </c>
       <c r="AJ139">
         <v>1026.8</v>
@@ -55420,7 +55420,7 @@
         <v>0</v>
       </c>
       <c r="AU139">
-        <v>643.3820000000001</v>
+        <v>678.2410000000001</v>
       </c>
       <c r="AV139">
         <v>792.4</v>
@@ -55456,7 +55456,7 @@
         <v>0</v>
       </c>
       <c r="BG139">
-        <v>127.918</v>
+        <v>128.959</v>
       </c>
       <c r="BH139">
         <v>234.3</v>
@@ -55788,7 +55788,7 @@
         <v>1409.8</v>
       </c>
       <c r="AI140">
-        <v>778.1999999999997</v>
+        <v>812.8999999999997</v>
       </c>
       <c r="AJ140">
         <v>1064.4</v>
@@ -55824,7 +55824,7 @@
         <v>0</v>
       </c>
       <c r="AU140">
-        <v>647.8399999999998</v>
+        <v>681.6699999999998</v>
       </c>
       <c r="AV140">
         <v>816.7</v>
@@ -55860,7 +55860,7 @@
         <v>0</v>
       </c>
       <c r="BG140">
-        <v>130.3599999999999</v>
+        <v>131.2299999999999</v>
       </c>
       <c r="BH140">
         <v>247.7</v>
@@ -56192,7 +56192,7 @@
         <v>1427.9</v>
       </c>
       <c r="AI141">
-        <v>785.1</v>
+        <v>818</v>
       </c>
       <c r="AJ141">
         <v>1091.6</v>
@@ -56228,7 +56228,7 @@
         <v>0</v>
       </c>
       <c r="AU141">
-        <v>657.248</v>
+        <v>689.374</v>
       </c>
       <c r="AV141">
         <v>829.8</v>
@@ -56264,7 +56264,7 @@
         <v>0</v>
       </c>
       <c r="BG141">
-        <v>127.852</v>
+        <v>128.626</v>
       </c>
       <c r="BH141">
         <v>261.8</v>
@@ -56596,7 +56596,7 @@
         <v>1464.4</v>
       </c>
       <c r="AI142">
-        <v>807.7999999999998</v>
+        <v>839.8999999999999</v>
       </c>
       <c r="AJ142">
         <v>1172.3</v>
@@ -56632,7 +56632,7 @@
         <v>0</v>
       </c>
       <c r="AU142">
-        <v>679.3739999999998</v>
+        <v>710.7369999999999</v>
       </c>
       <c r="AV142">
         <v>902.9</v>
@@ -56668,7 +56668,7 @@
         <v>0</v>
       </c>
       <c r="BG142">
-        <v>128.426</v>
+        <v>129.163</v>
       </c>
       <c r="BH142">
         <v>269.4</v>
@@ -57000,7 +57000,7 @@
         <v>1486</v>
       </c>
       <c r="AI143">
-        <v>815.0999999999999</v>
+        <v>845.9999999999999</v>
       </c>
       <c r="AJ143">
         <v>1196.3</v>
@@ -57036,7 +57036,7 @@
         <v>0</v>
       </c>
       <c r="AU143">
-        <v>686.4239999999999</v>
+        <v>716.6119999999999</v>
       </c>
       <c r="AV143">
         <v>925.8</v>
@@ -57072,7 +57072,7 @@
         <v>0</v>
       </c>
       <c r="BG143">
-        <v>128.676</v>
+        <v>129.388</v>
       </c>
       <c r="BH143">
         <v>270.4</v>
@@ -57404,7 +57404,7 @@
         <v>1501</v>
       </c>
       <c r="AI144">
-        <v>834.0999999999998</v>
+        <v>865.6999999999998</v>
       </c>
       <c r="AJ144">
         <v>1225.5</v>
@@ -57440,7 +57440,7 @@
         <v>0</v>
       </c>
       <c r="AU144">
-        <v>695.1519999999998</v>
+        <v>725.9259999999998</v>
       </c>
       <c r="AV144">
         <v>949.5</v>
@@ -57476,7 +57476,7 @@
         <v>0</v>
       </c>
       <c r="BG144">
-        <v>138.948</v>
+        <v>139.774</v>
       </c>
       <c r="BH144">
         <v>276</v>
@@ -57808,7 +57808,7 @@
         <v>1512.3</v>
       </c>
       <c r="AI145">
-        <v>833.4000000000001</v>
+        <v>865.9000000000001</v>
       </c>
       <c r="AJ145">
         <v>1255.8</v>
@@ -57844,7 +57844,7 @@
         <v>0</v>
       </c>
       <c r="AU145">
-        <v>699.8040000000001</v>
+        <v>731.6020000000001</v>
       </c>
       <c r="AV145">
         <v>970.6</v>
@@ -57880,7 +57880,7 @@
         <v>0</v>
       </c>
       <c r="BG145">
-        <v>133.596</v>
+        <v>134.298</v>
       </c>
       <c r="BH145">
         <v>285.2</v>
@@ -58212,7 +58212,7 @@
         <v>1566.7</v>
       </c>
       <c r="AI146">
-        <v>855.4999999999999</v>
+        <v>885.7999999999998</v>
       </c>
       <c r="AJ146">
         <v>1320.5</v>
@@ -58248,7 +58248,7 @@
         <v>0</v>
       </c>
       <c r="AU146">
-        <v>723.9639999999999</v>
+        <v>753.5319999999999</v>
       </c>
       <c r="AV146">
         <v>1025.5</v>
@@ -58284,7 +58284,7 @@
         <v>0</v>
       </c>
       <c r="BG146">
-        <v>131.5359999999999</v>
+        <v>132.2679999999999</v>
       </c>
       <c r="BH146">
         <v>294.9</v>
@@ -58616,7 +58616,7 @@
         <v>1583.2</v>
       </c>
       <c r="AI147">
-        <v>863.2</v>
+        <v>892.7</v>
       </c>
       <c r="AJ147">
         <v>1351.3</v>
@@ -58652,7 +58652,7 @@
         <v>0</v>
       </c>
       <c r="AU147">
-        <v>730.9540000000001</v>
+        <v>759.677</v>
       </c>
       <c r="AV147">
         <v>1041.2</v>
@@ -58688,7 +58688,7 @@
         <v>0</v>
       </c>
       <c r="BG147">
-        <v>132.246</v>
+        <v>133.023</v>
       </c>
       <c r="BH147">
         <v>310.1</v>
@@ -59020,7 +59020,7 @@
         <v>1608.5</v>
       </c>
       <c r="AI148">
-        <v>867.0999999999997</v>
+        <v>897.6999999999997</v>
       </c>
       <c r="AJ148">
         <v>1358.6</v>
@@ -59056,7 +59056,7 @@
         <v>0</v>
       </c>
       <c r="AU148">
-        <v>732.3699999999997</v>
+        <v>762.1849999999997</v>
       </c>
       <c r="AV148">
         <v>1060.9</v>
@@ -59092,7 +59092,7 @@
         <v>0</v>
       </c>
       <c r="BG148">
-        <v>134.73</v>
+        <v>135.515</v>
       </c>
       <c r="BH148">
         <v>297.7</v>
@@ -59424,7 +59424,7 @@
         <v>1613.8</v>
       </c>
       <c r="AI149">
-        <v>872.0999999999997</v>
+        <v>903.1999999999997</v>
       </c>
       <c r="AJ149">
         <v>1397.5</v>
@@ -59460,7 +59460,7 @@
         <v>0</v>
       </c>
       <c r="AU149">
-        <v>735.7379999999997</v>
+        <v>766.1189999999997</v>
       </c>
       <c r="AV149">
         <v>1095.8</v>
@@ -59496,7 +59496,7 @@
         <v>0</v>
       </c>
       <c r="BG149">
-        <v>136.362</v>
+        <v>137.081</v>
       </c>
       <c r="BH149">
         <v>301.7</v>
@@ -59828,7 +59828,7 @@
         <v>1680.2</v>
       </c>
       <c r="AI150">
-        <v>899.0000000000002</v>
+        <v>931.3000000000002</v>
       </c>
       <c r="AJ150">
         <v>1466.5</v>
@@ -59864,7 +59864,7 @@
         <v>0</v>
       </c>
       <c r="AU150">
-        <v>760.5760000000001</v>
+        <v>792.1380000000001</v>
       </c>
       <c r="AV150">
         <v>1146</v>
@@ -59900,7 +59900,7 @@
         <v>0</v>
       </c>
       <c r="BG150">
-        <v>138.424</v>
+        <v>139.162</v>
       </c>
       <c r="BH150">
         <v>320.5</v>
@@ -60232,7 +60232,7 @@
         <v>1680.4</v>
       </c>
       <c r="AI151">
-        <v>909.8000000000003</v>
+        <v>941.6000000000003</v>
       </c>
       <c r="AJ151">
         <v>1495.9</v>
@@ -60268,7 +60268,7 @@
         <v>0</v>
       </c>
       <c r="AU151">
-        <v>770.3440000000002</v>
+        <v>801.4720000000002</v>
       </c>
       <c r="AV151">
         <v>1163.9</v>
@@ -60304,7 +60304,7 @@
         <v>0</v>
       </c>
       <c r="BG151">
-        <v>139.456</v>
+        <v>140.128</v>
       </c>
       <c r="BH151">
         <v>332</v>
@@ -60636,7 +60636,7 @@
         <v>1700.2</v>
       </c>
       <c r="AI152">
-        <v>915.6999999999999</v>
+        <v>948.4999999999999</v>
       </c>
       <c r="AJ152">
         <v>1498.9</v>
@@ -60672,7 +60672,7 @@
         <v>0</v>
       </c>
       <c r="AU152">
-        <v>773.9119999999999</v>
+        <v>806.0559999999999</v>
       </c>
       <c r="AV152">
         <v>1179.3</v>
@@ -60708,7 +60708,7 @@
         <v>0</v>
       </c>
       <c r="BG152">
-        <v>141.788</v>
+        <v>142.444</v>
       </c>
       <c r="BH152">
         <v>319.6</v>
@@ -61040,7 +61040,7 @@
         <v>1728.6</v>
       </c>
       <c r="AI153">
-        <v>924.3999999999999</v>
+        <v>958.3999999999999</v>
       </c>
       <c r="AJ153">
         <v>1508.6</v>
@@ -61076,7 +61076,7 @@
         <v>0</v>
       </c>
       <c r="AU153">
-        <v>779.3939999999999</v>
+        <v>812.6969999999999</v>
       </c>
       <c r="AV153">
         <v>1194.4</v>
@@ -61112,7 +61112,7 @@
         <v>0</v>
       </c>
       <c r="BG153">
-        <v>145.006</v>
+        <v>145.703</v>
       </c>
       <c r="BH153">
         <v>314.2</v>
@@ -61444,7 +61444,7 @@
         <v>1768.2</v>
       </c>
       <c r="AI154">
-        <v>951.5000000000002</v>
+        <v>987.8000000000002</v>
       </c>
       <c r="AJ154">
         <v>1535.1</v>
@@ -61480,7 +61480,7 @@
         <v>0</v>
       </c>
       <c r="AU154">
-        <v>801.9460000000001</v>
+        <v>837.5230000000001</v>
       </c>
       <c r="AV154">
         <v>1201.7</v>
@@ -61516,7 +61516,7 @@
         <v>0</v>
       </c>
       <c r="BG154">
-        <v>149.554</v>
+        <v>150.277</v>
       </c>
       <c r="BH154">
         <v>333.4</v>
@@ -61848,7 +61848,7 @@
         <v>2113</v>
       </c>
       <c r="AI155">
-        <v>1278.3</v>
+        <v>1316.5</v>
       </c>
       <c r="AJ155">
         <v>1552.5</v>
@@ -61884,7 +61884,7 @@
         <v>0</v>
       </c>
       <c r="AU155">
-        <v>1124.608</v>
+        <v>1162.154</v>
       </c>
       <c r="AV155">
         <v>1191.3</v>
@@ -61920,7 +61920,7 @@
         <v>0</v>
       </c>
       <c r="BG155">
-        <v>153.692</v>
+        <v>154.346</v>
       </c>
       <c r="BH155">
         <v>361.1</v>
@@ -62252,7 +62252,7 @@
         <v>1905.3</v>
       </c>
       <c r="AI156">
-        <v>1040.4</v>
+        <v>1098.6</v>
       </c>
       <c r="AJ156">
         <v>1497.5</v>
@@ -62288,7 +62288,7 @@
         <v>0</v>
       </c>
       <c r="AU156">
-        <v>893.9680000000001</v>
+        <v>936.6840000000001</v>
       </c>
       <c r="AV156">
         <v>1173.7</v>
@@ -62324,7 +62324,7 @@
         <v>0</v>
       </c>
       <c r="BG156">
-        <v>146.432</v>
+        <v>161.916</v>
       </c>
       <c r="BH156">
         <v>323.8</v>
@@ -62656,7 +62656,7 @@
         <v>1890.8</v>
       </c>
       <c r="AI157">
-        <v>1002.6</v>
+        <v>1074.5</v>
       </c>
       <c r="AJ157">
         <v>1444.9</v>
@@ -62692,7 +62692,7 @@
         <v>0</v>
       </c>
       <c r="AU157">
-        <v>845.7579999999999</v>
+        <v>899.9789999999999</v>
       </c>
       <c r="AV157">
         <v>1139.8</v>
@@ -62728,7 +62728,7 @@
         <v>0</v>
       </c>
       <c r="BG157">
-        <v>156.842</v>
+        <v>174.521</v>
       </c>
       <c r="BH157">
         <v>305.1</v>
@@ -63060,7 +63060,7 @@
         <v>2001.9</v>
       </c>
       <c r="AI158">
-        <v>1059.1</v>
+        <v>1160.7</v>
       </c>
       <c r="AJ158">
         <v>1202.4</v>
@@ -63096,7 +63096,7 @@
         <v>0</v>
       </c>
       <c r="AU158">
-        <v>895.39</v>
+        <v>967.145</v>
       </c>
       <c r="AV158">
         <v>921.2</v>
@@ -63132,7 +63132,7 @@
         <v>0</v>
       </c>
       <c r="BG158">
-        <v>163.71</v>
+        <v>193.5549999999999</v>
       </c>
       <c r="BH158">
         <v>281.1</v>
@@ -63464,7 +63464,7 @@
         <v>2140</v>
       </c>
       <c r="AI159">
-        <v>1150.4</v>
+        <v>1280.7</v>
       </c>
       <c r="AJ159">
         <v>1131.1</v>
@@ -63500,7 +63500,7 @@
         <v>0</v>
       </c>
       <c r="AU159">
-        <v>970.8520000000001</v>
+        <v>1064.226</v>
       </c>
       <c r="AV159">
         <v>855.5</v>
@@ -63536,7 +63536,7 @@
         <v>0</v>
       </c>
       <c r="BG159">
-        <v>179.548</v>
+        <v>216.474</v>
       </c>
       <c r="BH159">
         <v>275.6</v>
@@ -63868,7 +63868,7 @@
         <v>2136.9</v>
       </c>
       <c r="AI160">
-        <v>1117.6</v>
+        <v>1262</v>
       </c>
       <c r="AJ160">
         <v>1135.3</v>
@@ -63904,7 +63904,7 @@
         <v>0</v>
       </c>
       <c r="AU160">
-        <v>946.352</v>
+        <v>1042.076</v>
       </c>
       <c r="AV160">
         <v>842</v>
@@ -63940,7 +63940,7 @@
         <v>0</v>
       </c>
       <c r="BG160">
-        <v>171.248</v>
+        <v>219.924</v>
       </c>
       <c r="BH160">
         <v>293.3</v>
@@ -64272,7 +64272,7 @@
         <v>2152.1</v>
       </c>
       <c r="AI161">
-        <v>1128.9</v>
+        <v>1277.5</v>
       </c>
       <c r="AJ161">
         <v>1140.7</v>
@@ -64308,7 +64308,7 @@
         <v>0</v>
       </c>
       <c r="AU161">
-        <v>987.8800000000002</v>
+        <v>1069.99</v>
       </c>
       <c r="AV161">
         <v>847.5</v>
@@ -64344,7 +64344,7 @@
         <v>0</v>
       </c>
       <c r="BG161">
-        <v>141.0199999999999</v>
+        <v>207.5099999999999</v>
       </c>
       <c r="BH161">
         <v>293.3</v>
@@ -64676,7 +64676,7 @@
         <v>2262.2</v>
       </c>
       <c r="AI162">
-        <v>1214.8</v>
+        <v>1374.1</v>
       </c>
       <c r="AJ162">
         <v>1191.8</v>
@@ -64712,7 +64712,7 @@
         <v>0</v>
       </c>
       <c r="AU162">
-        <v>1113.636</v>
+        <v>1180.568</v>
       </c>
       <c r="AV162">
         <v>903.4</v>
@@ -64748,7 +64748,7 @@
         <v>0</v>
       </c>
       <c r="BG162">
-        <v>101.1639999999999</v>
+        <v>193.5319999999999</v>
       </c>
       <c r="BH162">
         <v>288.4</v>
@@ -65080,7 +65080,7 @@
         <v>2268.7</v>
       </c>
       <c r="AI163">
-        <v>1231.3</v>
+        <v>1372.5</v>
       </c>
       <c r="AJ163">
         <v>1213.2</v>
@@ -65116,7 +65116,7 @@
         <v>0</v>
       </c>
       <c r="AU163">
-        <v>1115.266</v>
+        <v>1180.233</v>
       </c>
       <c r="AV163">
         <v>935.2</v>
@@ -65152,7 +65152,7 @@
         <v>0</v>
       </c>
       <c r="BG163">
-        <v>116.034</v>
+        <v>192.267</v>
       </c>
       <c r="BH163">
         <v>278</v>
@@ -65484,7 +65484,7 @@
         <v>2292</v>
       </c>
       <c r="AI164">
-        <v>1239.7</v>
+        <v>1370.7</v>
       </c>
       <c r="AJ164">
         <v>1256.3</v>
@@ -65520,7 +65520,7 @@
         <v>0</v>
       </c>
       <c r="AU164">
-        <v>1103.026</v>
+        <v>1173.063</v>
       </c>
       <c r="AV164">
         <v>958.5</v>
@@ -65556,7 +65556,7 @@
         <v>0</v>
       </c>
       <c r="BG164">
-        <v>136.6740000000001</v>
+        <v>197.6370000000001</v>
       </c>
       <c r="BH164">
         <v>297.8</v>
@@ -65888,7 +65888,7 @@
         <v>2302.7</v>
       </c>
       <c r="AI165">
-        <v>1243.3</v>
+        <v>1367.2</v>
       </c>
       <c r="AJ165">
         <v>1289.1</v>
@@ -65924,7 +65924,7 @@
         <v>0</v>
       </c>
       <c r="AU165">
-        <v>1107.114</v>
+        <v>1173.807</v>
       </c>
       <c r="AV165">
         <v>977.2</v>
@@ -65960,7 +65960,7 @@
         <v>0</v>
       </c>
       <c r="BG165">
-        <v>136.1859999999999</v>
+        <v>193.3929999999999</v>
       </c>
       <c r="BH165">
         <v>311.9</v>
@@ -66292,7 +66292,7 @@
         <v>2313</v>
       </c>
       <c r="AI166">
-        <v>1249.9</v>
+        <v>1366.6</v>
       </c>
       <c r="AJ166">
         <v>1426.6</v>
@@ -66328,7 +66328,7 @@
         <v>0</v>
       </c>
       <c r="AU166">
-        <v>1118.736</v>
+        <v>1179.868</v>
       </c>
       <c r="AV166">
         <v>1111.4</v>
@@ -66364,7 +66364,7 @@
         <v>0</v>
       </c>
       <c r="BG166">
-        <v>131.1639999999999</v>
+        <v>186.7319999999999</v>
       </c>
       <c r="BH166">
         <v>315.2</v>
@@ -66696,7 +66696,7 @@
         <v>2312.1</v>
       </c>
       <c r="AI167">
-        <v>1259.7</v>
+        <v>1369</v>
       </c>
       <c r="AJ167">
         <v>1445.9</v>
@@ -66732,7 +66732,7 @@
         <v>0</v>
       </c>
       <c r="AU167">
-        <v>1129.696</v>
+        <v>1186.848</v>
       </c>
       <c r="AV167">
         <v>1126.5</v>
@@ -66768,7 +66768,7 @@
         <v>0</v>
       </c>
       <c r="BG167">
-        <v>130.0040000000001</v>
+        <v>182.1520000000001</v>
       </c>
       <c r="BH167">
         <v>319.4</v>
@@ -67100,7 +67100,7 @@
         <v>2303.2</v>
       </c>
       <c r="AI168">
-        <v>1265.3</v>
+        <v>1368.2</v>
       </c>
       <c r="AJ168">
         <v>1471.4</v>
@@ -67136,7 +67136,7 @@
         <v>0</v>
       </c>
       <c r="AU168">
-        <v>1133.904</v>
+        <v>1188.902</v>
       </c>
       <c r="AV168">
         <v>1144.2</v>
@@ -67172,7 +67172,7 @@
         <v>0</v>
       </c>
       <c r="BG168">
-        <v>131.3960000000001</v>
+        <v>179.2980000000001</v>
       </c>
       <c r="BH168">
         <v>327.2</v>
@@ -67504,7 +67504,7 @@
         <v>2312.2</v>
       </c>
       <c r="AI169">
-        <v>1270.2</v>
+        <v>1370</v>
       </c>
       <c r="AJ169">
         <v>1470.9</v>
@@ -67540,7 +67540,7 @@
         <v>0</v>
       </c>
       <c r="AU169">
-        <v>1137.998</v>
+        <v>1192.199</v>
       </c>
       <c r="AV169">
         <v>1141</v>
@@ -67576,7 +67576,7 @@
         <v>0</v>
       </c>
       <c r="BG169">
-        <v>132.202</v>
+        <v>177.801</v>
       </c>
       <c r="BH169">
         <v>329.9</v>
@@ -67908,7 +67908,7 @@
         <v>2296.8</v>
       </c>
       <c r="AI170">
-        <v>1254.6</v>
+        <v>1349.2</v>
       </c>
       <c r="AJ170">
         <v>1468.3</v>
@@ -67944,7 +67944,7 @@
         <v>0</v>
       </c>
       <c r="AU170">
-        <v>1125.974</v>
+        <v>1175.937</v>
       </c>
       <c r="AV170">
         <v>1138.3</v>
@@ -67980,7 +67980,7 @@
         <v>0</v>
       </c>
       <c r="BG170">
-        <v>128.6259999999999</v>
+        <v>173.2629999999999</v>
       </c>
       <c r="BH170">
         <v>330.1</v>
@@ -68312,7 +68312,7 @@
         <v>2321.8</v>
       </c>
       <c r="AI171">
-        <v>1262.3</v>
+        <v>1348.6</v>
       </c>
       <c r="AJ171">
         <v>1487.7</v>
@@ -68348,7 +68348,7 @@
         <v>0</v>
       </c>
       <c r="AU171">
-        <v>1134.52</v>
+        <v>1180.21</v>
       </c>
       <c r="AV171">
         <v>1150.6</v>
@@ -68384,7 +68384,7 @@
         <v>0</v>
       </c>
       <c r="BG171">
-        <v>127.7799999999999</v>
+        <v>168.3899999999999</v>
       </c>
       <c r="BH171">
         <v>337</v>
@@ -68716,7 +68716,7 @@
         <v>2325.6</v>
       </c>
       <c r="AI172">
-        <v>1271.1</v>
+        <v>1349.5</v>
       </c>
       <c r="AJ172">
         <v>1510</v>
@@ -68752,7 +68752,7 @@
         <v>0</v>
       </c>
       <c r="AU172">
-        <v>1141.108</v>
+        <v>1183.804</v>
       </c>
       <c r="AV172">
         <v>1163.8</v>
@@ -68788,7 +68788,7 @@
         <v>0</v>
       </c>
       <c r="BG172">
-        <v>129.992</v>
+        <v>165.696</v>
       </c>
       <c r="BH172">
         <v>346.2</v>
@@ -69120,7 +69120,7 @@
         <v>2346.1</v>
       </c>
       <c r="AI173">
-        <v>1278.7</v>
+        <v>1353.8</v>
       </c>
       <c r="AJ173">
         <v>1572</v>
@@ -69156,7 +69156,7 @@
         <v>0</v>
       </c>
       <c r="AU173">
-        <v>1144.694</v>
+        <v>1187.347</v>
       </c>
       <c r="AV173">
         <v>1212.9</v>
@@ -69192,7 +69192,7 @@
         <v>0</v>
       </c>
       <c r="BG173">
-        <v>134.0060000000001</v>
+        <v>166.4530000000001</v>
       </c>
       <c r="BH173">
         <v>359.2</v>
@@ -69524,7 +69524,7 @@
         <v>2365.7</v>
       </c>
       <c r="AI174">
-        <v>1301.6</v>
+        <v>1370.6</v>
       </c>
       <c r="AJ174">
         <v>1650</v>
@@ -69560,7 +69560,7 @@
         <v>0</v>
       </c>
       <c r="AU174">
-        <v>1167.474</v>
+        <v>1207.237</v>
       </c>
       <c r="AV174">
         <v>1273.5</v>
@@ -69596,7 +69596,7 @@
         <v>0</v>
       </c>
       <c r="BG174">
-        <v>134.126</v>
+        <v>163.363</v>
       </c>
       <c r="BH174">
         <v>376.5</v>
@@ -69928,7 +69928,7 @@
         <v>2378.3</v>
       </c>
       <c r="AI175">
-        <v>1308</v>
+        <v>1372.8</v>
       </c>
       <c r="AJ175">
         <v>1682.5</v>
@@ -69964,7 +69964,7 @@
         <v>0</v>
       </c>
       <c r="AU175">
-        <v>1170.186</v>
+        <v>1209.293</v>
       </c>
       <c r="AV175">
         <v>1296.4</v>
@@ -70000,7 +70000,7 @@
         <v>0</v>
       </c>
       <c r="BG175">
-        <v>137.814</v>
+        <v>163.5069999999999</v>
       </c>
       <c r="BH175">
         <v>386.1</v>
@@ -70332,7 +70332,7 @@
         <v>2396</v>
       </c>
       <c r="AI176">
-        <v>1315</v>
+        <v>1374.1</v>
       </c>
       <c r="AJ176">
         <v>1674.9</v>
@@ -70368,7 +70368,7 @@
         <v>0</v>
       </c>
       <c r="AU176">
-        <v>1172.49</v>
+        <v>1210.995</v>
       </c>
       <c r="AV176">
         <v>1308.3</v>
@@ -70404,7 +70404,7 @@
         <v>0</v>
       </c>
       <c r="BG176">
-        <v>142.51</v>
+        <v>163.105</v>
       </c>
       <c r="BH176">
         <v>366.6</v>
@@ -70736,7 +70736,7 @@
         <v>2403.7</v>
       </c>
       <c r="AI177">
-        <v>1317.8</v>
+        <v>1374.9</v>
       </c>
       <c r="AJ177">
         <v>1698.1</v>
@@ -70772,7 +70772,7 @@
         <v>0</v>
       </c>
       <c r="AU177">
-        <v>1174.796</v>
+        <v>1212.348</v>
       </c>
       <c r="AV177">
         <v>1333.2</v>
@@ -70808,7 +70808,7 @@
         <v>0</v>
       </c>
       <c r="BG177">
-        <v>143.004</v>
+        <v>162.552</v>
       </c>
       <c r="BH177">
         <v>364.9</v>
@@ -71140,7 +71140,7 @@
         <v>2433.2</v>
       </c>
       <c r="AI178">
-        <v>1347.2</v>
+        <v>1386.2</v>
       </c>
       <c r="AJ178">
         <v>1744.8</v>
@@ -71176,7 +71176,7 @@
         <v>0</v>
       </c>
       <c r="AU178">
-        <v>1186.126</v>
+        <v>1223.363</v>
       </c>
       <c r="AV178">
         <v>1369.1</v>
@@ -71212,7 +71212,7 @@
         <v>0</v>
       </c>
       <c r="BG178">
-        <v>161.074</v>
+        <v>162.837</v>
       </c>
       <c r="BH178">
         <v>375.7</v>
@@ -71544,7 +71544,7 @@
         <v>2484.5</v>
       </c>
       <c r="AI179">
-        <v>1371.7</v>
+        <v>1407.5</v>
       </c>
       <c r="AJ179">
         <v>1758.4</v>
@@ -71580,7 +71580,7 @@
         <v>0</v>
       </c>
       <c r="AU179">
-        <v>1211.314</v>
+        <v>1246.257</v>
       </c>
       <c r="AV179">
         <v>1389</v>
@@ -71616,7 +71616,7 @@
         <v>0</v>
       </c>
       <c r="BG179">
-        <v>160.3859999999999</v>
+        <v>161.2429999999999</v>
       </c>
       <c r="BH179">
         <v>369.4</v>
@@ -71948,7 +71948,7 @@
         <v>2524.6</v>
       </c>
       <c r="AI180">
-        <v>1379.4</v>
+        <v>1413.4</v>
       </c>
       <c r="AJ180">
         <v>1798.6</v>
@@ -71984,7 +71984,7 @@
         <v>0</v>
       </c>
       <c r="AU180">
-        <v>1220.098</v>
+        <v>1253.299</v>
       </c>
       <c r="AV180">
         <v>1413.3</v>
@@ -72020,7 +72020,7 @@
         <v>0</v>
       </c>
       <c r="BG180">
-        <v>159.302</v>
+        <v>160.1010000000001</v>
       </c>
       <c r="BH180">
         <v>385.3</v>
@@ -72352,7 +72352,7 @@
         <v>2552.1</v>
       </c>
       <c r="AI181">
-        <v>1391.1</v>
+        <v>1424.1</v>
       </c>
       <c r="AJ181">
         <v>1836.5</v>
@@ -72388,7 +72388,7 @@
         <v>0</v>
       </c>
       <c r="AU181">
-        <v>1231.782</v>
+        <v>1263.991</v>
       </c>
       <c r="AV181">
         <v>1443.5</v>
@@ -72424,7 +72424,7 @@
         <v>0</v>
       </c>
       <c r="BG181">
-        <v>159.3180000000002</v>
+        <v>160.1090000000002</v>
       </c>
       <c r="BH181">
         <v>393</v>
@@ -72756,7 +72756,7 @@
         <v>2597.7</v>
       </c>
       <c r="AI182">
-        <v>1418.8</v>
+        <v>1451.7</v>
       </c>
       <c r="AJ182">
         <v>1904.6</v>
@@ -72792,7 +72792,7 @@
         <v>0</v>
       </c>
       <c r="AU182">
-        <v>1258.794</v>
+        <v>1290.947</v>
       </c>
       <c r="AV182">
         <v>1509.1</v>
@@ -72828,7 +72828,7 @@
         <v>0</v>
       </c>
       <c r="BG182">
-        <v>160.006</v>
+        <v>160.753</v>
       </c>
       <c r="BH182">
         <v>395.4</v>
@@ -73160,7 +73160,7 @@
         <v>2633.9</v>
       </c>
       <c r="AI183">
-        <v>1432.1</v>
+        <v>1464.5</v>
       </c>
       <c r="AJ183">
         <v>1943</v>
@@ -73196,7 +73196,7 @@
         <v>0</v>
       </c>
       <c r="AU183">
-        <v>1271.698</v>
+        <v>1303.399</v>
       </c>
       <c r="AV183">
         <v>1527.7</v>
@@ -73232,7 +73232,7 @@
         <v>0</v>
       </c>
       <c r="BG183">
-        <v>160.402</v>
+        <v>161.101</v>
       </c>
       <c r="BH183">
         <v>415.3</v>
@@ -73564,7 +73564,7 @@
         <v>2647.8</v>
       </c>
       <c r="AI184">
-        <v>1435.4</v>
+        <v>1467.9</v>
       </c>
       <c r="AJ184">
         <v>1947.3</v>
@@ -73600,7 +73600,7 @@
         <v>0</v>
       </c>
       <c r="AU184">
-        <v>1274.422</v>
+        <v>1306.261</v>
       </c>
       <c r="AV184">
         <v>1540.9</v>
@@ -73636,7 +73636,7 @@
         <v>0</v>
       </c>
       <c r="BG184">
-        <v>160.978</v>
+        <v>161.639</v>
       </c>
       <c r="BH184">
         <v>406.5</v>
@@ -73968,7 +73968,7 @@
         <v>2661.2</v>
       </c>
       <c r="AI185">
-        <v>1440.6</v>
+        <v>1473</v>
       </c>
       <c r="AJ185">
         <v>1964.9</v>
@@ -74004,7 +74004,7 @@
         <v>0</v>
       </c>
       <c r="AU185">
-        <v>1279.776</v>
+        <v>1311.538</v>
       </c>
       <c r="AV185">
         <v>1552.6</v>
@@ -74040,7 +74040,7 @@
         <v>0</v>
       </c>
       <c r="BG185">
-        <v>160.824</v>
+        <v>161.462</v>
       </c>
       <c r="BH185">
         <v>412.3</v>
@@ -74372,7 +74372,7 @@
         <v>2686.1</v>
       </c>
       <c r="AI186">
-        <v>1450.6</v>
+        <v>1483.2</v>
       </c>
       <c r="AJ186">
         <v>1925</v>
@@ -74408,7 +74408,7 @@
         <v>0</v>
       </c>
       <c r="AU186">
-        <v>1289.95</v>
+        <v>1321.875</v>
       </c>
       <c r="AV186">
         <v>1526.7</v>
@@ -74444,7 +74444,7 @@
         <v>0</v>
       </c>
       <c r="BG186">
-        <v>160.6499999999999</v>
+        <v>161.3249999999999</v>
       </c>
       <c r="BH186">
         <v>398.3</v>
@@ -74776,7 +74776,7 @@
         <v>2706.6</v>
       </c>
       <c r="AI187">
-        <v>1456.5</v>
+        <v>1489.1</v>
       </c>
       <c r="AJ187">
         <v>1945.2</v>
@@ -74812,7 +74812,7 @@
         <v>0</v>
       </c>
       <c r="AU187">
-        <v>1295.816</v>
+        <v>1327.808</v>
       </c>
       <c r="AV187">
         <v>1536.7</v>
@@ -74848,7 +74848,7 @@
         <v>0</v>
       </c>
       <c r="BG187">
-        <v>160.6840000000001</v>
+        <v>161.2920000000001</v>
       </c>
       <c r="BH187">
         <v>408.4</v>
@@ -75180,7 +75180,7 @@
         <v>2726.2</v>
       </c>
       <c r="AI188">
-        <v>1462.2</v>
+        <v>1494.6</v>
       </c>
       <c r="AJ188">
         <v>1971</v>
@@ -75216,7 +75216,7 @@
         <v>0</v>
       </c>
       <c r="AU188">
-        <v>1300.768</v>
+        <v>1332.584</v>
       </c>
       <c r="AV188">
         <v>1553.8</v>
@@ -75252,7 +75252,7 @@
         <v>0</v>
       </c>
       <c r="BG188">
-        <v>161.4320000000001</v>
+        <v>162.0160000000001</v>
       </c>
       <c r="BH188">
         <v>417.2</v>
@@ -75584,7 +75584,7 @@
         <v>2749.6</v>
       </c>
       <c r="AI189">
-        <v>1470.7</v>
+        <v>1502.2</v>
       </c>
       <c r="AJ189">
         <v>1990.4</v>
@@ -75620,7 +75620,7 @@
         <v>0</v>
       </c>
       <c r="AU189">
-        <v>1309.814</v>
+        <v>1340.757</v>
       </c>
       <c r="AV189">
         <v>1574.6</v>
@@ -75656,7 +75656,7 @@
         <v>0</v>
       </c>
       <c r="BG189">
-        <v>160.8860000000001</v>
+        <v>161.443</v>
       </c>
       <c r="BH189">
         <v>415.8</v>
@@ -75988,7 +75988,7 @@
         <v>2778.8</v>
       </c>
       <c r="AI190">
-        <v>1496</v>
+        <v>1526.9</v>
       </c>
       <c r="AJ190">
         <v>2001.1</v>
@@ -76024,7 +76024,7 @@
         <v>0</v>
       </c>
       <c r="AU190">
-        <v>1334.828</v>
+        <v>1365.214</v>
       </c>
       <c r="AV190">
         <v>1581.1</v>
@@ -76060,7 +76060,7 @@
         <v>0</v>
       </c>
       <c r="BG190">
-        <v>161.172</v>
+        <v>161.686</v>
       </c>
       <c r="BH190">
         <v>420</v>
@@ -76392,7 +76392,7 @@
         <v>2789.3</v>
       </c>
       <c r="AI191">
-        <v>1503.7</v>
+        <v>1533.9</v>
       </c>
       <c r="AJ191">
         <v>2005.6</v>
@@ -76428,7 +76428,7 @@
         <v>0</v>
       </c>
       <c r="AU191">
-        <v>1342.168</v>
+        <v>1371.834</v>
       </c>
       <c r="AV191">
         <v>1601.7</v>
@@ -76464,7 +76464,7 @@
         <v>0</v>
       </c>
       <c r="BG191">
-        <v>161.532</v>
+        <v>162.066</v>
       </c>
       <c r="BH191">
         <v>403.9</v>
@@ -76796,7 +76796,7 @@
         <v>2822.2</v>
       </c>
       <c r="AI192">
-        <v>1516.8</v>
+        <v>1547.1</v>
       </c>
       <c r="AJ192">
         <v>2052.3</v>
@@ -76832,7 +76832,7 @@
         <v>0</v>
       </c>
       <c r="AU192">
-        <v>1350.678</v>
+        <v>1380.489</v>
       </c>
       <c r="AV192">
         <v>1625</v>
@@ -76868,7 +76868,7 @@
         <v>0</v>
       </c>
       <c r="BG192">
-        <v>166.1220000000001</v>
+        <v>166.6110000000001</v>
       </c>
       <c r="BH192">
         <v>427.3</v>
@@ -77200,7 +77200,7 @@
         <v>2834.7</v>
       </c>
       <c r="AI193">
-        <v>1523.2</v>
+        <v>1553</v>
       </c>
       <c r="AJ193">
         <v>2127.9</v>
@@ -77236,7 +77236,7 @@
         <v>0</v>
       </c>
       <c r="AU193">
-        <v>1359.772</v>
+        <v>1389.136</v>
       </c>
       <c r="AV193">
         <v>1650.8</v>
@@ -77272,7 +77272,7 @@
         <v>0</v>
       </c>
       <c r="BG193">
-        <v>163.428</v>
+        <v>163.864</v>
       </c>
       <c r="BH193">
         <v>477</v>
@@ -77604,7 +77604,7 @@
         <v>2890.9</v>
       </c>
       <c r="AI194">
-        <v>1563.8</v>
+        <v>1593</v>
       </c>
       <c r="AJ194">
         <v>2085.6</v>
@@ -77640,7 +77640,7 @@
         <v>0</v>
       </c>
       <c r="AU194">
-        <v>1399.702</v>
+        <v>1428.501</v>
       </c>
       <c r="AV194">
         <v>1598.6</v>
@@ -77676,7 +77676,7 @@
         <v>0</v>
       </c>
       <c r="BG194">
-        <v>164.098</v>
+        <v>164.499</v>
       </c>
       <c r="BH194">
         <v>487</v>
@@ -78008,7 +78008,7 @@
         <v>2916</v>
       </c>
       <c r="AI195">
-        <v>1568</v>
+        <v>1595.9</v>
       </c>
       <c r="AJ195">
         <v>2064.4</v>
@@ -78044,7 +78044,7 @@
         <v>0</v>
       </c>
       <c r="AU195">
-        <v>1404.216</v>
+        <v>1431.708</v>
       </c>
       <c r="AV195">
         <v>1608.9</v>
@@ -78080,7 +78080,7 @@
         <v>0</v>
       </c>
       <c r="BG195">
-        <v>163.784</v>
+        <v>164.192</v>
       </c>
       <c r="BH195">
         <v>455.5</v>
@@ -78412,7 +78412,7 @@
         <v>2935.4</v>
       </c>
       <c r="AI196">
-        <v>1573</v>
+        <v>1600.4</v>
       </c>
       <c r="AJ196">
         <v>2100.5</v>
@@ -78448,7 +78448,7 @@
         <v>0</v>
       </c>
       <c r="AU196">
-        <v>1408.222</v>
+        <v>1435.211</v>
       </c>
       <c r="AV196">
         <v>1628.3</v>
@@ -78484,7 +78484,7 @@
         <v>0</v>
       </c>
       <c r="BG196">
-        <v>164.7779999999999</v>
+        <v>165.1889999999999</v>
       </c>
       <c r="BH196">
         <v>472.2</v>
@@ -78816,7 +78816,7 @@
         <v>2949.4</v>
       </c>
       <c r="AI197">
-        <v>1579.2</v>
+        <v>1606.2</v>
       </c>
       <c r="AJ197">
         <v>2090.7</v>
@@ -78852,7 +78852,7 @@
         <v>0</v>
       </c>
       <c r="AU197">
-        <v>1413.906</v>
+        <v>1440.553</v>
       </c>
       <c r="AV197">
         <v>1634.2</v>
@@ -78888,7 +78888,7 @@
         <v>0</v>
       </c>
       <c r="BG197">
-        <v>165.294</v>
+        <v>165.647</v>
       </c>
       <c r="BH197">
         <v>456.5</v>
@@ -79220,7 +79220,7 @@
         <v>3037.5</v>
       </c>
       <c r="AI198">
-        <v>1642.7</v>
+        <v>1670.7</v>
       </c>
       <c r="AJ198">
         <v>2170.7</v>
@@ -79256,7 +79256,7 @@
         <v>0</v>
       </c>
       <c r="AU198">
-        <v>1476.286</v>
+        <v>1503.843</v>
       </c>
       <c r="AV198">
         <v>1695.5</v>
@@ -79292,7 +79292,7 @@
         <v>0</v>
       </c>
       <c r="BG198">
-        <v>166.4140000000001</v>
+        <v>166.8570000000001</v>
       </c>
       <c r="BH198">
         <v>475.2</v>
@@ -79624,7 +79624,7 @@
         <v>3071</v>
       </c>
       <c r="AI199">
-        <v>1648.8</v>
+        <v>1676.3</v>
       </c>
       <c r="AJ199">
         <v>2222.5</v>
@@ -79660,7 +79660,7 @@
         <v>0</v>
       </c>
       <c r="AU199">
-        <v>1481.91</v>
+        <v>1509.005</v>
       </c>
       <c r="AV199">
         <v>1703.1</v>
@@ -79696,7 +79696,7 @@
         <v>0</v>
       </c>
       <c r="BG199">
-        <v>166.8900000000001</v>
+        <v>167.2950000000001</v>
       </c>
       <c r="BH199">
         <v>519.4</v>
@@ -80028,7 +80028,7 @@
         <v>3094.8</v>
       </c>
       <c r="AI200">
-        <v>1655</v>
+        <v>1682.6</v>
       </c>
       <c r="AJ200">
         <v>2197.1</v>
@@ -80064,7 +80064,7 @@
         <v>0</v>
       </c>
       <c r="AU200">
-        <v>1487.106</v>
+        <v>1514.303</v>
       </c>
       <c r="AV200">
         <v>1713.2</v>
@@ -80100,7 +80100,7 @@
         <v>0</v>
       </c>
       <c r="BG200">
-        <v>167.8940000000001</v>
+        <v>168.2970000000001</v>
       </c>
       <c r="BH200">
         <v>483.9</v>
@@ -80432,7 +80432,7 @@
         <v>3108.7</v>
       </c>
       <c r="AI201">
-        <v>1663.5</v>
+        <v>1691.4</v>
       </c>
       <c r="AJ201">
         <v>2221.2</v>
@@ -80468,7 +80468,7 @@
         <v>0</v>
       </c>
       <c r="AU201">
-        <v>1494.816</v>
+        <v>1522.308</v>
       </c>
       <c r="AV201">
         <v>1740.2</v>
@@ -80504,7 +80504,7 @@
         <v>0</v>
       </c>
       <c r="BG201">
-        <v>168.684</v>
+        <v>169.092</v>
       </c>
       <c r="BH201">
         <v>480.9</v>
@@ -80836,7 +80836,7 @@
         <v>3189.6</v>
       </c>
       <c r="AI202">
-        <v>1717.4</v>
+        <v>1760.8</v>
       </c>
       <c r="AJ202">
         <v>2252.4</v>
@@ -80872,7 +80872,7 @@
         <v>0</v>
       </c>
       <c r="AU202">
-        <v>1531.758</v>
+        <v>1574.779</v>
       </c>
       <c r="AV202">
         <v>1756.6</v>
@@ -80908,7 +80908,7 @@
         <v>0</v>
       </c>
       <c r="BG202">
-        <v>185.642</v>
+        <v>186.021</v>
       </c>
       <c r="BH202">
         <v>495.8</v>
@@ -81240,7 +81240,7 @@
         <v>5627.4</v>
       </c>
       <c r="AI203">
-        <v>1971.900000000001</v>
+        <v>3056.500000000001</v>
       </c>
       <c r="AJ203">
         <v>2095.7</v>
@@ -81276,7 +81276,7 @@
         <v>1078.1</v>
       </c>
       <c r="AU203">
-        <v>1557.212000000001</v>
+        <v>3697.656000000001</v>
       </c>
       <c r="AV203">
         <v>1599.3</v>
@@ -81312,7 +81312,7 @@
         <v>0</v>
       </c>
       <c r="BG203">
-        <v>414.6880000000003</v>
+        <v>436.9440000000002</v>
       </c>
       <c r="BH203">
         <v>496.4</v>
@@ -81644,7 +81644,7 @@
         <v>4357.4</v>
       </c>
       <c r="AI204">
-        <v>2028.600000000001</v>
+        <v>2800.100000000001</v>
       </c>
       <c r="AJ204">
         <v>2191.8</v>
@@ -81680,7 +81680,7 @@
         <v>15.6</v>
       </c>
       <c r="AU204">
-        <v>1193.226000000001</v>
+        <v>1939.963000000001</v>
       </c>
       <c r="AV204">
         <v>1686.4</v>
@@ -81716,7 +81716,7 @@
         <v>0</v>
       </c>
       <c r="BG204">
-        <v>835.3740000000001</v>
+        <v>875.7370000000002</v>
       </c>
       <c r="BH204">
         <v>505.4</v>
@@ -82045,7 +82045,7 @@
         <v>4084.244006383561</v>
       </c>
       <c r="AI205">
-        <v>1816.444432676443</v>
+        <v>2154.244432676443</v>
       </c>
       <c r="AJ205">
         <v>2209.356316549763</v>
@@ -82081,7 +82081,7 @@
         <v>0</v>
       </c>
       <c r="AU205">
-        <v>1736.002882676444</v>
+        <v>1993.802882676443</v>
       </c>
       <c r="AV205">
         <v>1693.736276116348</v>
@@ -82117,7 +82117,7 @@
         <v>0</v>
       </c>
       <c r="BG205">
-        <v>80.44154999999967</v>
+        <v>160.4415499999997</v>
       </c>
       <c r="BH205">
         <v>515.6200404334143</v>
@@ -82455,7 +82455,7 @@
         <v>3867.862916187507</v>
       </c>
       <c r="AI206">
-        <v>1789.457296106919</v>
+        <v>2033.457296106919</v>
       </c>
       <c r="AJ206">
         <v>2225.244106429406</v>
@@ -82491,7 +82491,7 @@
         <v>0</v>
       </c>
       <c r="AU206">
-        <v>1730.713837900177</v>
+        <v>1914.713837900177</v>
       </c>
       <c r="AV206">
         <v>1701.072552232697</v>
@@ -82527,7 +82527,7 @@
         <v>0</v>
       </c>
       <c r="BG206">
-        <v>58.74345820674228</v>
+        <v>118.7434582067423</v>
       </c>
       <c r="BH206">
         <v>524.1715541967095</v>
@@ -82865,7 +82865,7 @@
         <v>3692.359326507944</v>
       </c>
       <c r="AI207">
-        <v>1752.699802419853</v>
+        <v>1904.699802419853</v>
       </c>
       <c r="AJ207">
         <v>2240.915466001915</v>
@@ -82901,7 +82901,7 @@
         <v>0</v>
       </c>
       <c r="AU207">
-        <v>1717.615721888547</v>
+        <v>1825.615721888547</v>
       </c>
       <c r="AV207">
         <v>1708.408828349045</v>
@@ -82937,7 +82937,7 @@
         <v>0</v>
       </c>
       <c r="BG207">
-        <v>35.08408053130563</v>
+        <v>79.08408053130563</v>
       </c>
       <c r="BH207">
         <v>532.5066376528702</v>
@@ -83275,7 +83275,7 @@
         <v>3571.960712378625</v>
       </c>
       <c r="AI208">
-        <v>1711.162586439111</v>
+        <v>1755.162586439111</v>
       </c>
       <c r="AJ208">
         <v>2257.160617551478</v>
@@ -83347,7 +83347,7 @@
         <v>0</v>
       </c>
       <c r="BG208">
-        <v>22.1150899396049</v>
+        <v>66.1150899396049</v>
       </c>
       <c r="BH208">
         <v>541.4155130860853</v>
@@ -83685,7 +83685,7 @@
         <v>3652.377934288124</v>
       </c>
       <c r="AI209">
-        <v>1703.043730707061</v>
+        <v>1747.043730707061</v>
       </c>
       <c r="AJ209">
         <v>2284.640284594805</v>
@@ -83757,7 +83757,7 @@
         <v>0</v>
       </c>
       <c r="BG209">
-        <v>17.26118534478235</v>
+        <v>61.26118534478235</v>
       </c>
       <c r="BH209">
         <v>547.3824463211569</v>
@@ -84095,7 +84095,7 @@
         <v>3714.140878107185</v>
       </c>
       <c r="AI210">
-        <v>1708.782112474551</v>
+        <v>1752.782112474551</v>
       </c>
       <c r="AJ210">
         <v>2311.614108710991</v>
@@ -84167,7 +84167,7 @@
         <v>0</v>
       </c>
       <c r="BG210">
-        <v>15.05857843048898</v>
+        <v>59.05857843048898</v>
       </c>
       <c r="BH210">
         <v>552.8435366290881</v>
@@ -84505,7 +84505,7 @@
         <v>3762.454941683361</v>
       </c>
       <c r="AI211">
-        <v>1700.477585665007</v>
+        <v>1744.477585665007</v>
       </c>
       <c r="AJ211">
         <v>2338.532566934654</v>
@@ -84577,7 +84577,7 @@
         <v>0</v>
       </c>
       <c r="BG211">
-        <v>18.91186728929824</v>
+        <v>62.91186728929824</v>
       </c>
       <c r="BH211">
         <v>558.2492610444967</v>
@@ -84915,7 +84915,7 @@
         <v>3789.036096691753</v>
       </c>
       <c r="AI212">
-        <v>1664.118629321112</v>
+        <v>1708.118629321112</v>
       </c>
       <c r="AJ212">
         <v>2365.697655043192</v>
@@ -84987,7 +84987,7 @@
         <v>0</v>
       </c>
       <c r="BG212">
-        <v>22.54112354146844</v>
+        <v>66.54112354146844</v>
       </c>
       <c r="BH212">
         <v>563.9016153447795</v>
